--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EFF91E-C2C3-4A0F-AA62-24A9BB6B8A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ny5vheYM2kAb7aL4w4rWOS0c2DdcICd3V7vg6htsjAq58Qch5vq+2LS7J052lfM4lD2pNkmD21mL2mmpo7Q4eA==" workbookSaltValue="a7NtCs7xjk/63b/c3eR0FQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AD41D1-24E6-42F6-AD70-DB6F5C04971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="727">
   <si>
     <t>Date Received</t>
   </si>
@@ -971,18 +970,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000nXqL/60wOB.ZYyAFW_S_R8hleRIp7jxvj5pSKHPafgMy.D34</t>
   </si>
   <si>
+    <t>Vino Volo</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000n3UK/pGrkwz.TW4TwVggStmZ08DA7.gkV29a2hXqMxuex7_w</t>
+  </si>
+  <si>
     <t>WestRock Comany</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000n28b/Jn1rUm_cAXF2P3ZrPaqixkhcq2ejA4cVozic81IBDBc</t>
   </si>
   <si>
-    <t>Vino Volo</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000n3UK/pGrkwz.TW4TwVggStmZ08DA7.gkV29a2hXqMxuex7_w</t>
-  </si>
-  <si>
     <t>Republic Airline Inc.</t>
   </si>
   <si>
@@ -1352,6 +1351,51 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWC/G1vvtarZYPJdOhvrIz1yR8EPnXsOq0_BH2dWoGiRDP4</t>
   </si>
   <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Communicare Clinic - Lebanon</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWW/6KnRleJzURSaBY_6FARK03ypKCpBzXNzxwnFAWGUcwk</t>
+  </si>
+  <si>
+    <t>Communicare Services - Lebanon</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWg/9p9FS.JQp0PTPMhD3HxrAxxsoxTEr_upxaagBfFMogM</t>
+  </si>
+  <si>
+    <t>Communicare Clinic - Radcliff</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWl/rS8vJCQrLNj0CL7FyoK6cd2Ubo0vr1icry6WlMYbX7U</t>
+  </si>
+  <si>
+    <t>Communicare Services - Radcliff</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWq/Vfpl8UYl0gbX_iFIJoUfIBUwxuS8TiJTC_7F4sKJFYw</t>
+  </si>
+  <si>
+    <t>Communicare Services - Leitchfield</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX5/hqgTkrEKeD2diZgwtvYubxlNzxik77T983Z_rFk92oU</t>
+  </si>
+  <si>
+    <t>Hendrickson Trailer Commercial Vehicle Systems</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX0/V6hwrqZ0Qlr_eFlMYEYrZXlE5AKDheKuIEjfBsUaPdQ</t>
+  </si>
+  <si>
+    <t>Communicare  Services - Brandenburg</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owXA/mAUPSS8QJjeTFI7E27u8VQgWHFFi6LRZfcfzfkHq1Jo</t>
+  </si>
+  <si>
     <t>Breckinridge</t>
   </si>
   <si>
@@ -1361,51 +1405,6 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWR/145nfIPWN0_U_cemfoWJlEEcFSVIRIo8wdyDtysKwiE</t>
   </si>
   <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>Communicare Clinic - Lebanon</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWW/6KnRleJzURSaBY_6FARK03ypKCpBzXNzxwnFAWGUcwk</t>
-  </si>
-  <si>
-    <t>Communicare Services - Lebanon</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWg/9p9FS.JQp0PTPMhD3HxrAxxsoxTEr_upxaagBfFMogM</t>
-  </si>
-  <si>
-    <t>Communicare Clinic - Radcliff</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWl/rS8vJCQrLNj0CL7FyoK6cd2Ubo0vr1icry6WlMYbX7U</t>
-  </si>
-  <si>
-    <t>Communicare Services - Radcliff</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWq/Vfpl8UYl0gbX_iFIJoUfIBUwxuS8TiJTC_7F4sKJFYw</t>
-  </si>
-  <si>
-    <t>Communicare Services - Leitchfield</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX5/hqgTkrEKeD2diZgwtvYubxlNzxik77T983Z_rFk92oU</t>
-  </si>
-  <si>
-    <t>Hendrickson Trailer Commercial Vehicle Systems</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX0/V6hwrqZ0Qlr_eFlMYEYrZXlE5AKDheKuIEjfBsUaPdQ</t>
-  </si>
-  <si>
-    <t>Communicare  Services - Brandenburg</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owXA/mAUPSS8QJjeTFI7E27u8VQgWHFFi6LRZfcfzfkHq1Jo</t>
-  </si>
-  <si>
     <t>Jackson Warewashing Systems</t>
   </si>
   <si>
@@ -1433,7 +1432,7 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUQ/kIkf6vaRVWxJL33J4laXNMoRoo4Ps.CEaVYB4.M3PIU</t>
   </si>
   <si>
-    <t>Crowne Plaza Hotel</t>
+    <t>AJS Hotels</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owU1/cmWTeASpvF33aHX13OmKNTSglY1CKyn1mH.iVuE4fs0</t>
@@ -1445,30 +1444,39 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQQ/GkNpTgbS1O.ynAUO2lRhhohP0a9SFLAzTXhbo.1Jdyw</t>
   </si>
   <si>
+    <t>Embassy Suites Jefferson Co - Louisville</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owTw/ZCaGJxEMniVjvqFnhoI_lXZxfMOTDOnfnNr.YyZ_aFs</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUB/Q4XhuwPlCqUiegEdy255dEODFtbl._noeWqruyQLy9c</t>
+  </si>
+  <si>
+    <t>ALJSCO</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUL/QiUorU3I0MCyonZFb9WQqn78BNq1UIJjwP_tw34J1Sw</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVE/C0OZ4Bz9aNkrc9YrcMiSzi1G1WqI2.arpnDnUUJqUr8</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>Murray Euipment &amp; Machine</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVO/fRo8DiZxbz2baMUvWanGYLiXkNdGw2BDb3YAGYVqjWI</t>
+  </si>
+  <si>
     <t>Paper Source</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQu/m2vDq7l1wLeK_e1Ptqh35ndxEEbdElyIHgPfZOFdJUc</t>
   </si>
   <si>
-    <t>Embassy Suites Jefferson Co - Louisville</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owTw/ZCaGJxEMniVjvqFnhoI_lXZxfMOTDOnfnNr.YyZ_aFs</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUB/Q4XhuwPlCqUiegEdy255dEODFtbl._noeWqruyQLy9c</t>
-  </si>
-  <si>
-    <t>ALJSCO</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUL/QiUorU3I0MCyonZFb9WQqn78BNq1UIJjwP_tw34J1Sw</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVE/C0OZ4Bz9aNkrc9YrcMiSzi1G1WqI2.arpnDnUUJqUr8</t>
-  </si>
-  <si>
     <t>Muhlenberg</t>
   </si>
   <si>
@@ -1478,15 +1486,6 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVJ/Dg9.VOc4xZE0CzOT2WBULH9AF2F_W3myXxa4ijm196A</t>
   </si>
   <si>
-    <t>Bourbon</t>
-  </si>
-  <si>
-    <t>Murray Euipment &amp; Machine</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVO/fRo8DiZxbz2baMUvWanGYLiXkNdGw2BDb3YAGYVqjWI</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owPN/jDHwTapPX.yBsZhb3qC7qy.geYOtPuuz3LjGauQ08h8</t>
   </si>
   <si>
@@ -1508,18 +1507,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owP8/TWlSpofpJ.4imf9JMRN3NvxzGC9QrUrj8jwGi4dQAOw</t>
   </si>
   <si>
+    <t>Beacon Orthopaedics and Sports Medicine</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQL/TkMdBFYOwIpwKzYmMUeJtbmWzIaOKmJSkueU1tPkBbI</t>
+  </si>
+  <si>
     <t>America's Auto Auction Bowling Green</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owOP/m4hSFftIYaF5iodQ8VE1x2EhPnBsL0DngWDICpc52B4</t>
   </si>
   <si>
-    <t>Beacon Orthopaedics and Sports Medicine</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQL/TkMdBFYOwIpwKzYmMUeJtbmWzIaOKmJSkueU1tPkBbI</t>
-  </si>
-  <si>
     <t>Take 5 Oil</t>
   </si>
   <si>
@@ -1892,42 +1891,42 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eah2/jsv67iEszko9Aq5MgfXoYEzM2rszzMC3cH4q8FNH_co</t>
   </si>
   <si>
+    <t>Wellmore Energy Company LLC - Laboratory Department</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ecDe/wx.0b6ITSM4MJlPY3am8ieIv8uXrfX0ZxP8ujHVoUA4</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Surface Minerals #1</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebqR/whovRt6sM3BDTLScMpUNZ5N71Xde.HKGiOdGM21OPcI</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Elk Creek</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eajE/ELvhoAqi8OchFp8ReuqCXzK__fXKCP6E1f.bpg4ldzU</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Black Watch #8 Prep Plant</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ec3G/N24hINWGsrSTsf4F806D4fl9YWDRc7aBw.LjMFMvLrI</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Paw Paw 2 South</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebej/uWpbwRLFb61nOGbUifGP682TgvKfbYAL4m0K81GSbmQ</t>
+  </si>
+  <si>
     <t>United Coal - Wellmore Energy Company LLC</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eW5e/b5VBGqG3EmAJlI1zloAeFyIpx2jH.1lnJyY9NXnaA5U</t>
   </si>
   <si>
-    <t>Wellmore Energy Company LLC - Laboratory Department</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ecDe/wx.0b6ITSM4MJlPY3am8ieIv8uXrfX0ZxP8ujHVoUA4</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Surface Minerals #1</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebqR/whovRt6sM3BDTLScMpUNZ5N71Xde.HKGiOdGM21OPcI</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Elk Creek</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eajE/ELvhoAqi8OchFp8ReuqCXzK__fXKCP6E1f.bpg4ldzU</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Black Watch #8 Prep Plant</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ec3G/N24hINWGsrSTsf4F806D4fl9YWDRc7aBw.LjMFMvLrI</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Paw Paw 2 South</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebej/uWpbwRLFb61nOGbUifGP682TgvKfbYAL4m0K81GSbmQ</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004da4X/G33GzuFN4ACJ1KELoiWmtP3zh0wyOZeC7OlMHbl05tY</t>
   </si>
   <si>
@@ -2075,6 +2074,21 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
   </si>
   <si>
+    <t>Daramic, LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005p0p0/TD.ECjsNJpi0GllfCxQc39W6VpAlurkb3o5mabNyQXc</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>ARC Automotive Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005lCZU/vPHC0EindD131ocKojxLdL7oiDUCXL8O6C937QqvwnQ</t>
+  </si>
+  <si>
     <t>Furhaven Pet Products, Inc.</t>
   </si>
   <si>
@@ -2105,7 +2119,7 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsUg/AvWgMMIAzl6MlzzXNb1m1_12xFjXzlI0asNMteUAmmw</t>
   </si>
   <si>
-    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh</t>
+    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh - Prestonsburg</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsHQ/Uyn.OnTL1gwv.05ToMtFrgjKy5M8kVxfW3w36.z98JU</t>
@@ -2825,7 +2839,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2883,28 +2897,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45448</v>
+        <v>45481</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>45459</v>
+        <v>335991</v>
       </c>
       <c r="F2" s="55">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>12</v>
@@ -2919,43 +2933,43 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>225</v>
+        <v>676</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E3" s="55">
-        <v>332999</v>
+        <v>336390</v>
       </c>
       <c r="F3" s="55">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45657</v>
+        <v>45464</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K29" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K31" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>29</v>
@@ -2964,25 +2978,25 @@
         <v>225</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E4" s="55">
-        <v>314999</v>
+        <v>45459</v>
       </c>
       <c r="F4" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -2991,7 +3005,7 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>29</v>
@@ -3000,25 +3014,25 @@
         <v>225</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E5" s="55">
-        <v>722330</v>
+        <v>332999</v>
       </c>
       <c r="F5" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45500</v>
+        <v>45657</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3030,31 +3044,31 @@
         <v>45441</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E6" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F6" s="55">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3066,19 +3080,19 @@
         <v>45441</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E7" s="55">
         <v>722330</v>
       </c>
       <c r="F7" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
@@ -3090,7 +3104,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3102,19 +3116,19 @@
         <v>45441</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E8" s="55">
         <v>722330</v>
       </c>
       <c r="F8" s="55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
@@ -3126,7 +3140,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3138,19 +3152,19 @@
         <v>45441</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E9" s="55">
         <v>722330</v>
       </c>
       <c r="F9" s="55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
@@ -3162,7 +3176,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3171,34 +3185,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E10" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F10" s="55">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3207,34 +3221,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E11" s="55">
-        <v>326199</v>
+        <v>722330</v>
       </c>
       <c r="F11" s="55">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45450</v>
+        <v>45500</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3243,34 +3257,34 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45378</v>
+        <v>45399</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>561720</v>
+        <v>336411</v>
       </c>
       <c r="F12" s="55">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45382</v>
+        <v>45459</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3279,34 +3293,34 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45363</v>
+        <v>45391</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>541620</v>
+        <v>326199</v>
       </c>
       <c r="F13" s="55">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45366</v>
+        <v>45450</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3315,7 +3329,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>108</v>
@@ -3324,25 +3338,25 @@
         <v>128</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>404</v>
+        <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F14" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H14" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3351,34 +3365,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E15" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F15" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3387,7 +3401,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>108</v>
@@ -3396,25 +3410,25 @@
         <v>128</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>701</v>
+        <v>404</v>
       </c>
       <c r="E16" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F16" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3423,34 +3437,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>234</v>
+        <v>475</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E17" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F17" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3459,34 +3473,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E18" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F18" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3495,34 +3509,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F19" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3531,34 +3545,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E20" s="55">
-        <v>336350</v>
+        <v>611511</v>
       </c>
       <c r="F20" s="55">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45401</v>
+        <v>45315</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3567,34 +3581,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E21" s="55">
-        <v>561720</v>
+        <v>336110</v>
       </c>
       <c r="F21" s="55">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45299</v>
+        <v>45365</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3603,34 +3617,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E22" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F22" s="55">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3648,13 +3662,13 @@
         <v>238</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E23" s="55">
         <v>561720</v>
       </c>
       <c r="F23" s="55">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>16</v>
@@ -3666,7 +3680,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3684,13 +3698,13 @@
         <v>238</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E24" s="55">
         <v>561720</v>
       </c>
       <c r="F24" s="55">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>16</v>
@@ -3702,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3711,34 +3725,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E25" s="55">
         <v>561720</v>
       </c>
       <c r="F25" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3747,34 +3761,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E26" s="55">
         <v>561720</v>
       </c>
       <c r="F26" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3786,31 +3800,31 @@
         <v>45295</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E27" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F27" s="55">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H27" s="54">
-        <v>45295</v>
+        <v>45356</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3822,13 +3836,13 @@
         <v>45295</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E28" s="55">
         <v>561720</v>
@@ -3846,7 +3860,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3855,36 +3869,108 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E29" s="55">
-        <v>541714</v>
+        <v>331400</v>
       </c>
       <c r="F29" s="55">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
+        <v>45295</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>716</v>
+      </c>
+      <c r="E30" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F30" s="55">
+        <v>40</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>724</v>
+      </c>
+      <c r="K30" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>725</v>
+      </c>
+      <c r="E31" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F31" s="55">
+        <v>136</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="54">
         <v>45351</v>
       </c>
-      <c r="I29" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>721</v>
-      </c>
-      <c r="K29" s="57" t="str">
+      <c r="I31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -4439,13 +4525,13 @@
         <v>2121</v>
       </c>
       <c r="F15" s="55">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45179</v>
+        <v>45132</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -4475,13 +4561,13 @@
         <v>2121</v>
       </c>
       <c r="F16" s="55">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45132</v>
+        <v>45179</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -4511,7 +4597,7 @@
         <v>2121</v>
       </c>
       <c r="F17" s="55">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>16</v>
@@ -4547,13 +4633,13 @@
         <v>2121</v>
       </c>
       <c r="F18" s="55">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>45179</v>
+        <v>45132</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -4583,13 +4669,13 @@
         <v>2121</v>
       </c>
       <c r="F19" s="55">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>45132</v>
+        <v>45179</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -4619,7 +4705,7 @@
         <v>2121</v>
       </c>
       <c r="F20" s="55">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>16</v>
@@ -7610,25 +7696,25 @@
         <v>44050</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>306</v>
       </c>
       <c r="E18" s="55">
-        <v>3221</v>
+        <v>72251</v>
       </c>
       <c r="F18" s="55">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>44104</v>
+        <v>43926</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -7646,25 +7732,25 @@
         <v>44050</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>308</v>
       </c>
       <c r="E19" s="55">
-        <v>72251</v>
+        <v>3221</v>
       </c>
       <c r="F19" s="55">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>43926</v>
+        <v>44104</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -9926,7 +10012,7 @@
         <v>623110</v>
       </c>
       <c r="F82" s="55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G82" s="55" t="s">
         <v>16</v>
@@ -9953,10 +10039,10 @@
         <v>70</v>
       </c>
       <c r="C83" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="D83" s="55" t="s">
         <v>436</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>437</v>
       </c>
       <c r="E83" s="55">
         <v>623110</v>
@@ -9974,7 +10060,7 @@
         <v>13</v>
       </c>
       <c r="J83" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K83" s="57" t="str">
         <f t="shared" si="1"/>
@@ -9989,16 +10075,16 @@
         <v>70</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E84" s="55">
         <v>623110</v>
       </c>
       <c r="F84" s="55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G84" s="55" t="s">
         <v>16</v>
@@ -10010,7 +10096,7 @@
         <v>13</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K84" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10028,7 +10114,7 @@
         <v>273</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E85" s="55">
         <v>623110</v>
@@ -10046,7 +10132,7 @@
         <v>13</v>
       </c>
       <c r="J85" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K85" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10061,16 +10147,16 @@
         <v>70</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E86" s="55">
         <v>623110</v>
       </c>
       <c r="F86" s="55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" s="55" t="s">
         <v>16</v>
@@ -10082,7 +10168,7 @@
         <v>13</v>
       </c>
       <c r="J86" s="53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K86" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10097,28 +10183,28 @@
         <v>70</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>257</v>
+        <v>433</v>
       </c>
       <c r="D87" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="E87" s="55">
+        <v>423110</v>
+      </c>
+      <c r="F87" s="55">
+        <v>117</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="54">
+        <v>43934</v>
+      </c>
+      <c r="I87" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="53" t="s">
         <v>445</v>
-      </c>
-      <c r="E87" s="55">
-        <v>623110</v>
-      </c>
-      <c r="F87" s="55">
-        <v>16</v>
-      </c>
-      <c r="G87" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="54">
-        <v>43910</v>
-      </c>
-      <c r="I87" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="53" t="s">
-        <v>446</v>
       </c>
       <c r="K87" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10133,28 +10219,28 @@
         <v>70</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="D88" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="E88" s="55">
+        <v>623110</v>
+      </c>
+      <c r="F88" s="55">
+        <v>14</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="54">
+        <v>43910</v>
+      </c>
+      <c r="I88" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="53" t="s">
         <v>447</v>
-      </c>
-      <c r="E88" s="55">
-        <v>423110</v>
-      </c>
-      <c r="F88" s="55">
-        <v>117</v>
-      </c>
-      <c r="G88" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="54">
-        <v>43934</v>
-      </c>
-      <c r="I88" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="53" t="s">
-        <v>448</v>
       </c>
       <c r="K88" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10169,7 +10255,7 @@
         <v>70</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>273</v>
+        <v>448</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>449</v>
@@ -10463,16 +10549,16 @@
         <v>464</v>
       </c>
       <c r="E97" s="55">
-        <v>424110</v>
+        <v>721110</v>
       </c>
       <c r="F97" s="55">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G97" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="54">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="I97" s="55" t="s">
         <v>13</v>
@@ -10496,13 +10582,13 @@
         <v>128</v>
       </c>
       <c r="D98" s="55" t="s">
-        <v>466</v>
+        <v>298</v>
       </c>
       <c r="E98" s="55">
         <v>721110</v>
       </c>
       <c r="F98" s="55">
-        <v>62</v>
+        <v>399</v>
       </c>
       <c r="G98" s="55" t="s">
         <v>16</v>
@@ -10514,7 +10600,7 @@
         <v>13</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K98" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10532,13 +10618,13 @@
         <v>128</v>
       </c>
       <c r="D99" s="55" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="E99" s="55">
-        <v>721110</v>
+        <v>541611</v>
       </c>
       <c r="F99" s="55">
-        <v>399</v>
+        <v>4</v>
       </c>
       <c r="G99" s="55" t="s">
         <v>16</v>
@@ -10562,31 +10648,31 @@
         <v>43922</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="D100" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="55">
+        <v>21211</v>
+      </c>
+      <c r="F100" s="55">
+        <v>42</v>
+      </c>
+      <c r="G100" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="54">
+        <v>43984</v>
+      </c>
+      <c r="I100" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="53" t="s">
         <v>469</v>
-      </c>
-      <c r="E100" s="55">
-        <v>541611</v>
-      </c>
-      <c r="F100" s="55">
-        <v>4</v>
-      </c>
-      <c r="G100" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="54">
-        <v>43920</v>
-      </c>
-      <c r="I100" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="53" t="s">
-        <v>470</v>
       </c>
       <c r="K100" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10598,22 +10684,22 @@
         <v>43922</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>201</v>
+        <v>471</v>
       </c>
       <c r="E101" s="55">
-        <v>21211</v>
+        <v>423520</v>
       </c>
       <c r="F101" s="55">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H101" s="54">
         <v>43984</v>
@@ -10622,7 +10708,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="53" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K101" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10634,25 +10720,25 @@
         <v>43922</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D102" s="55" t="s">
         <v>473</v>
       </c>
       <c r="E102" s="55">
-        <v>21211</v>
+        <v>424110</v>
       </c>
       <c r="F102" s="55">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="G102" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H102" s="54">
-        <v>43984</v>
+        <v>43919</v>
       </c>
       <c r="I102" s="55" t="s">
         <v>13</v>
@@ -10670,7 +10756,7 @@
         <v>43922</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C103" s="55" t="s">
         <v>475</v>
@@ -10679,10 +10765,10 @@
         <v>476</v>
       </c>
       <c r="E103" s="55">
-        <v>423520</v>
+        <v>21211</v>
       </c>
       <c r="F103" s="55">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="G103" s="55" t="s">
         <v>11</v>
@@ -10850,25 +10936,25 @@
         <v>43920</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D108" s="55" t="s">
         <v>485</v>
       </c>
       <c r="E108" s="55">
-        <v>425120</v>
+        <v>621112</v>
       </c>
       <c r="F108" s="55">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G108" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H108" s="54">
-        <v>43907</v>
+        <v>43918</v>
       </c>
       <c r="I108" s="55" t="s">
         <v>13</v>
@@ -10886,25 +10972,25 @@
         <v>43920</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D109" s="55" t="s">
         <v>487</v>
       </c>
       <c r="E109" s="55">
-        <v>621112</v>
+        <v>425120</v>
       </c>
       <c r="F109" s="55">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G109" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="54">
-        <v>43918</v>
+        <v>43907</v>
       </c>
       <c r="I109" s="55" t="s">
         <v>13</v>
@@ -15536,14 +15622,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15557,5 +15643,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1635B36-473F-4944-A971-CB35B787B008}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9BAFF4-BB32-4E21-A745-E945447AE43D}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AD41D1-24E6-42F6-AD70-DB6F5C04971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F99E24-0635-4F89-809F-F6A3ECC77EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="600" windowWidth="13980" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="729">
   <si>
     <t>Date Received</t>
   </si>
@@ -970,18 +970,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000nXqL/60wOB.ZYyAFW_S_R8hleRIp7jxvj5pSKHPafgMy.D34</t>
   </si>
   <si>
+    <t>WestRock Comany</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000n28b/Jn1rUm_cAXF2P3ZrPaqixkhcq2ejA4cVozic81IBDBc</t>
+  </si>
+  <si>
     <t>Vino Volo</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000n3UK/pGrkwz.TW4TwVggStmZ08DA7.gkV29a2hXqMxuex7_w</t>
   </si>
   <si>
-    <t>WestRock Comany</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000n28b/Jn1rUm_cAXF2P3ZrPaqixkhcq2ejA4cVozic81IBDBc</t>
-  </si>
-  <si>
     <t>Republic Airline Inc.</t>
   </si>
   <si>
@@ -1276,18 +1276,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owc5/NegKIAQd.3f3pmcw73INUcvkRVIbZTkujR6EIS0ot58</t>
   </si>
   <si>
+    <t>Newport Aquarium LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owce/l.sHHNbu0GPlyDLBohqkTc6rmr3iMKC.C7bGdM4pAc0</t>
+  </si>
+  <si>
     <t>Bedding Acquisition LLC-Hollander Sleep Products</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owc0/YfonXN9YuzXLk_UAXU4_FKNeT7YOIM6p5kka_JgwN0Y</t>
   </si>
   <si>
-    <t>Newport Aquarium LLC</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owce/l.sHHNbu0GPlyDLBohqkTc6rmr3iMKC.C7bGdM4pAc0</t>
-  </si>
-  <si>
     <t>Vitro Automotive/Pittsburgh Glass Works</t>
   </si>
   <si>
@@ -1351,6 +1351,15 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWC/G1vvtarZYPJdOhvrIz1yR8EPnXsOq0_BH2dWoGiRDP4</t>
   </si>
   <si>
+    <t>Breckinridge</t>
+  </si>
+  <si>
+    <t>Communicare Clinic LLC - Hardinsburg</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWR/145nfIPWN0_U_cemfoWJlEEcFSVIRIo8wdyDtysKwiE</t>
+  </si>
+  <si>
     <t>Marion</t>
   </si>
   <si>
@@ -1384,27 +1393,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX5/hqgTkrEKeD2diZgwtvYubxlNzxik77T983Z_rFk92oU</t>
   </si>
   <si>
+    <t>Communicare  Services - Brandenburg</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owXA/mAUPSS8QJjeTFI7E27u8VQgWHFFi6LRZfcfzfkHq1Jo</t>
+  </si>
+  <si>
     <t>Hendrickson Trailer Commercial Vehicle Systems</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX0/V6hwrqZ0Qlr_eFlMYEYrZXlE5AKDheKuIEjfBsUaPdQ</t>
   </si>
   <si>
-    <t>Communicare  Services - Brandenburg</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owXA/mAUPSS8QJjeTFI7E27u8VQgWHFFi6LRZfcfzfkHq1Jo</t>
-  </si>
-  <si>
-    <t>Breckinridge</t>
-  </si>
-  <si>
-    <t>Communicare Clinic LLC - Hardinsburg</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owWR/145nfIPWN0_U_cemfoWJlEEcFSVIRIo8wdyDtysKwiE</t>
-  </si>
-  <si>
     <t>Jackson Warewashing Systems</t>
   </si>
   <si>
@@ -1417,18 +1417,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUa/gQ7KCmO7r.5JxftEeBG61Dp0YG0btnF0QmbfOv3Jqwg</t>
   </si>
   <si>
+    <t>IHG Army Hotels &amp; Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVi/IMPz0uy5.8DXS8aWGuSQX3cPDNWc6wEkkwZwPlw6wyc</t>
+  </si>
+  <si>
     <t>SCHULTE COMPANIES</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVT/U2oN7sbm_kSzNb7xiYNnrUVaoC_094PGtzzEyvZMQHo</t>
   </si>
   <si>
-    <t>IHG Army Hotels &amp; Holiday Inn Express</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVi/IMPz0uy5.8DXS8aWGuSQX3cPDNWc6wEkkwZwPlw6wyc</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUQ/kIkf6vaRVWxJL33J4laXNMoRoo4Ps.CEaVYB4.M3PIU</t>
   </si>
   <si>
@@ -1444,6 +1444,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQQ/GkNpTgbS1O.ynAUO2lRhhohP0a9SFLAzTXhbo.1Jdyw</t>
   </si>
   <si>
+    <t>Paper Source</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQu/m2vDq7l1wLeK_e1Ptqh35ndxEEbdElyIHgPfZOFdJUc</t>
+  </si>
+  <si>
     <t>Embassy Suites Jefferson Co - Louisville</t>
   </si>
   <si>
@@ -1462,6 +1468,15 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVE/C0OZ4Bz9aNkrc9YrcMiSzi1G1WqI2.arpnDnUUJqUr8</t>
   </si>
   <si>
+    <t>Muhlenberg</t>
+  </si>
+  <si>
+    <t>THE MUHLENBERG COUNTY COAL COMPANY</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVJ/Dg9.VOc4xZE0CzOT2WBULH9AF2F_W3myXxa4ijm196A</t>
+  </si>
+  <si>
     <t>Bourbon</t>
   </si>
   <si>
@@ -1471,21 +1486,6 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVO/fRo8DiZxbz2baMUvWanGYLiXkNdGw2BDb3YAGYVqjWI</t>
   </si>
   <si>
-    <t>Paper Source</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQu/m2vDq7l1wLeK_e1Ptqh35ndxEEbdElyIHgPfZOFdJUc</t>
-  </si>
-  <si>
-    <t>Muhlenberg</t>
-  </si>
-  <si>
-    <t>THE MUHLENBERG COUNTY COAL COMPANY</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVJ/Dg9.VOc4xZE0CzOT2WBULH9AF2F_W3myXxa4ijm196A</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owPN/jDHwTapPX.yBsZhb3qC7qy.geYOtPuuz3LjGauQ08h8</t>
   </si>
   <si>
@@ -1507,18 +1507,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owP8/TWlSpofpJ.4imf9JMRN3NvxzGC9QrUrj8jwGi4dQAOw</t>
   </si>
   <si>
+    <t>America's Auto Auction Bowling Green</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owOP/m4hSFftIYaF5iodQ8VE1x2EhPnBsL0DngWDICpc52B4</t>
+  </si>
+  <si>
     <t>Beacon Orthopaedics and Sports Medicine</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owQL/TkMdBFYOwIpwKzYmMUeJtbmWzIaOKmJSkueU1tPkBbI</t>
   </si>
   <si>
-    <t>America's Auto Auction Bowling Green</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owOP/m4hSFftIYaF5iodQ8VE1x2EhPnBsL0DngWDICpc52B4</t>
-  </si>
-  <si>
     <t>Take 5 Oil</t>
   </si>
   <si>
@@ -1891,6 +1891,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eah2/jsv67iEszko9Aq5MgfXoYEzM2rszzMC3cH4q8FNH_co</t>
   </si>
   <si>
+    <t>United Coal - Wellmore Energy Company LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eW5e/b5VBGqG3EmAJlI1zloAeFyIpx2jH.1lnJyY9NXnaA5U</t>
+  </si>
+  <si>
     <t>Wellmore Energy Company LLC - Laboratory Department</t>
   </si>
   <si>
@@ -1921,12 +1927,6 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebej/uWpbwRLFb61nOGbUifGP682TgvKfbYAL4m0K81GSbmQ</t>
   </si>
   <si>
-    <t>United Coal - Wellmore Energy Company LLC</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eW5e/b5VBGqG3EmAJlI1zloAeFyIpx2jH.1lnJyY9NXnaA5U</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004da4X/G33GzuFN4ACJ1KELoiWmtP3zh0wyOZeC7OlMHbl05tY</t>
   </si>
   <si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>TechStyle Fashion Group - Fabletics Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005pL31/OiXEzLp0HfvmdxPvtA7eFmlDLRbSVXuoDJPR0Fme1do</t>
   </si>
   <si>
     <t>Daramic, LLC</t>
@@ -2839,7 +2845,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2897,28 +2903,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="E2" s="55">
-        <v>335991</v>
+      <c r="E2" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>12</v>
@@ -2933,67 +2939,67 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>677</v>
-      </c>
       <c r="E3" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F3" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K31" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K32" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>225</v>
+        <v>678</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>679</v>
       </c>
       <c r="E4" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F4" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>680</v>
@@ -3005,7 +3011,7 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>29</v>
@@ -3017,19 +3023,19 @@
         <v>681</v>
       </c>
       <c r="E5" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F5" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>682</v>
@@ -3041,7 +3047,7 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>29</v>
@@ -3053,7 +3059,7 @@
         <v>683</v>
       </c>
       <c r="E6" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F6" s="55">
         <v>94</v>
@@ -3062,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3089,16 +3095,16 @@
         <v>685</v>
       </c>
       <c r="E7" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F7" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3116,10 +3122,10 @@
         <v>45441</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>687</v>
@@ -3128,7 +3134,7 @@
         <v>722330</v>
       </c>
       <c r="F8" s="55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
@@ -3152,10 +3158,10 @@
         <v>45441</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>689</v>
@@ -3164,7 +3170,7 @@
         <v>722330</v>
       </c>
       <c r="F9" s="55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
@@ -3188,10 +3194,10 @@
         <v>45441</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>691</v>
@@ -3200,7 +3206,7 @@
         <v>722330</v>
       </c>
       <c r="F10" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
@@ -3224,10 +3230,10 @@
         <v>45441</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>693</v>
@@ -3236,7 +3242,7 @@
         <v>722330</v>
       </c>
       <c r="F11" s="55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
@@ -3257,28 +3263,28 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F12" s="55">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3293,28 +3299,28 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F13" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3329,28 +3335,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F14" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3365,31 +3371,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
       </c>
       <c r="E15" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F15" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>702</v>
@@ -3401,34 +3407,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>404</v>
+        <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F16" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3437,28 +3443,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>475</v>
+        <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>704</v>
+        <v>404</v>
       </c>
       <c r="E17" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F17" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
@@ -3473,31 +3479,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>706</v>
       </c>
       <c r="E18" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F18" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>707</v>
@@ -3509,31 +3515,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F19" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>709</v>
@@ -3545,28 +3551,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>710</v>
       </c>
       <c r="E20" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F20" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3581,7 +3587,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>29</v>
@@ -3593,16 +3599,16 @@
         <v>712</v>
       </c>
       <c r="E21" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F21" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -3617,28 +3623,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>714</v>
       </c>
       <c r="E22" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F22" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
@@ -3653,28 +3659,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>716</v>
       </c>
       <c r="E23" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F23" s="55">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3698,13 +3704,13 @@
         <v>238</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E24" s="55">
         <v>561720</v>
       </c>
       <c r="F24" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>16</v>
@@ -3716,7 +3722,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3734,13 +3740,13 @@
         <v>238</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E25" s="55">
         <v>561720</v>
       </c>
       <c r="F25" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>16</v>
@@ -3752,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3770,13 +3776,13 @@
         <v>238</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E26" s="55">
         <v>561720</v>
       </c>
       <c r="F26" s="55">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>16</v>
@@ -3788,7 +3794,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3797,34 +3803,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E27" s="55">
         <v>561720</v>
       </c>
       <c r="F27" s="55">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3842,13 +3848,13 @@
         <v>226</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E28" s="55">
         <v>561720</v>
       </c>
       <c r="F28" s="55">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>16</v>
@@ -3860,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3872,31 +3878,31 @@
         <v>45295</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E29" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F29" s="55">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H29" s="54">
-        <v>45295</v>
+        <v>45356</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>10</v>
+        <v>724</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3908,31 +3914,31 @@
         <v>45295</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="E30" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F30" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I30" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>724</v>
+        <v>10</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3941,28 +3947,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E31" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F31" s="55">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -3971,6 +3977,42 @@
         <v>726</v>
       </c>
       <c r="K31" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>727</v>
+      </c>
+      <c r="E32" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F32" s="55">
+        <v>136</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -4525,13 +4567,13 @@
         <v>2121</v>
       </c>
       <c r="F15" s="55">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45132</v>
+        <v>45179</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -4561,13 +4603,13 @@
         <v>2121</v>
       </c>
       <c r="F16" s="55">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45179</v>
+        <v>45132</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -4597,7 +4639,7 @@
         <v>2121</v>
       </c>
       <c r="F17" s="55">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>16</v>
@@ -4633,13 +4675,13 @@
         <v>2121</v>
       </c>
       <c r="F18" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>45132</v>
+        <v>45179</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -4669,13 +4711,13 @@
         <v>2121</v>
       </c>
       <c r="F19" s="55">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>45179</v>
+        <v>45132</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -4705,7 +4747,7 @@
         <v>2121</v>
       </c>
       <c r="F20" s="55">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>16</v>
@@ -7696,25 +7738,25 @@
         <v>44050</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>306</v>
       </c>
       <c r="E18" s="55">
-        <v>72251</v>
+        <v>3221</v>
       </c>
       <c r="F18" s="55">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>43926</v>
+        <v>44104</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -7732,25 +7774,25 @@
         <v>44050</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>308</v>
       </c>
       <c r="E19" s="55">
-        <v>3221</v>
+        <v>72251</v>
       </c>
       <c r="F19" s="55">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>44104</v>
+        <v>43926</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -9568,25 +9610,25 @@
         <v>43935</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>408</v>
       </c>
       <c r="E70" s="55">
-        <v>337910</v>
+        <v>712130</v>
       </c>
       <c r="F70" s="55">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="G70" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H70" s="54">
-        <v>43924</v>
+        <v>43941</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>13</v>
@@ -9604,25 +9646,25 @@
         <v>43935</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="D71" s="55" t="s">
         <v>410</v>
       </c>
       <c r="E71" s="55">
-        <v>712130</v>
+        <v>337910</v>
       </c>
       <c r="F71" s="55">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H71" s="54">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="I71" s="55" t="s">
         <v>13</v>
@@ -10012,7 +10054,7 @@
         <v>623110</v>
       </c>
       <c r="F82" s="55">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G82" s="55" t="s">
         <v>16</v>
@@ -10039,10 +10081,10 @@
         <v>70</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E83" s="55">
         <v>623110</v>
@@ -10060,7 +10102,7 @@
         <v>13</v>
       </c>
       <c r="J83" s="53" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K83" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10075,16 +10117,16 @@
         <v>70</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>273</v>
+        <v>436</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E84" s="55">
         <v>623110</v>
       </c>
       <c r="F84" s="55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G84" s="55" t="s">
         <v>16</v>
@@ -10096,7 +10138,7 @@
         <v>13</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K84" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10114,7 +10156,7 @@
         <v>273</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E85" s="55">
         <v>623110</v>
@@ -10132,7 +10174,7 @@
         <v>13</v>
       </c>
       <c r="J85" s="53" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K85" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10147,16 +10189,16 @@
         <v>70</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E86" s="55">
         <v>623110</v>
       </c>
       <c r="F86" s="55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G86" s="55" t="s">
         <v>16</v>
@@ -10168,7 +10210,7 @@
         <v>13</v>
       </c>
       <c r="J86" s="53" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K86" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10183,28 +10225,28 @@
         <v>70</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>433</v>
+        <v>257</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E87" s="55">
-        <v>423110</v>
+        <v>623110</v>
       </c>
       <c r="F87" s="55">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="G87" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="54">
-        <v>43934</v>
+        <v>43910</v>
       </c>
       <c r="I87" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J87" s="53" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K87" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10222,7 +10264,7 @@
         <v>273</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E88" s="55">
         <v>623110</v>
@@ -10240,7 +10282,7 @@
         <v>13</v>
       </c>
       <c r="J88" s="53" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K88" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10255,22 +10297,22 @@
         <v>70</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>449</v>
       </c>
       <c r="E89" s="55">
-        <v>623110</v>
+        <v>423110</v>
       </c>
       <c r="F89" s="55">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G89" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="54">
-        <v>43910</v>
+        <v>43934</v>
       </c>
       <c r="I89" s="55" t="s">
         <v>13</v>
@@ -10360,10 +10402,10 @@
         <v>43923</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>455</v>
@@ -10372,13 +10414,13 @@
         <v>721110</v>
       </c>
       <c r="F92" s="55">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="G92" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="54">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="I92" s="55" t="s">
         <v>13</v>
@@ -10396,10 +10438,10 @@
         <v>43923</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>457</v>
@@ -10408,13 +10450,13 @@
         <v>721110</v>
       </c>
       <c r="F93" s="55">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G93" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="54">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I93" s="55" t="s">
         <v>13</v>
@@ -10549,16 +10591,16 @@
         <v>464</v>
       </c>
       <c r="E97" s="55">
-        <v>721110</v>
+        <v>424110</v>
       </c>
       <c r="F97" s="55">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G97" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="54">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="I97" s="55" t="s">
         <v>13</v>
@@ -10582,13 +10624,13 @@
         <v>128</v>
       </c>
       <c r="D98" s="55" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="E98" s="55">
         <v>721110</v>
       </c>
       <c r="F98" s="55">
-        <v>399</v>
+        <v>62</v>
       </c>
       <c r="G98" s="55" t="s">
         <v>16</v>
@@ -10600,7 +10642,7 @@
         <v>13</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K98" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10618,13 +10660,13 @@
         <v>128</v>
       </c>
       <c r="D99" s="55" t="s">
-        <v>467</v>
+        <v>298</v>
       </c>
       <c r="E99" s="55">
-        <v>541611</v>
+        <v>721110</v>
       </c>
       <c r="F99" s="55">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="G99" s="55" t="s">
         <v>16</v>
@@ -10648,31 +10690,31 @@
         <v>43922</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="E100" s="55">
-        <v>21211</v>
+        <v>541611</v>
       </c>
       <c r="F100" s="55">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G100" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H100" s="54">
-        <v>43984</v>
+        <v>43920</v>
       </c>
       <c r="I100" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J100" s="53" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K100" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10684,22 +10726,22 @@
         <v>43922</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>470</v>
+        <v>227</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>471</v>
+        <v>201</v>
       </c>
       <c r="E101" s="55">
-        <v>423520</v>
+        <v>21211</v>
       </c>
       <c r="F101" s="55">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H101" s="54">
         <v>43984</v>
@@ -10708,7 +10750,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K101" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10720,25 +10762,25 @@
         <v>43922</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D102" s="55" t="s">
         <v>473</v>
       </c>
       <c r="E102" s="55">
-        <v>424110</v>
+        <v>21211</v>
       </c>
       <c r="F102" s="55">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="G102" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H102" s="54">
-        <v>43919</v>
+        <v>43984</v>
       </c>
       <c r="I102" s="55" t="s">
         <v>13</v>
@@ -10756,7 +10798,7 @@
         <v>43922</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C103" s="55" t="s">
         <v>475</v>
@@ -10765,10 +10807,10 @@
         <v>476</v>
       </c>
       <c r="E103" s="55">
-        <v>21211</v>
+        <v>423520</v>
       </c>
       <c r="F103" s="55">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="G103" s="55" t="s">
         <v>11</v>
@@ -10936,25 +10978,25 @@
         <v>43920</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D108" s="55" t="s">
         <v>485</v>
       </c>
       <c r="E108" s="55">
-        <v>621112</v>
+        <v>425120</v>
       </c>
       <c r="F108" s="55">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G108" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H108" s="54">
-        <v>43918</v>
+        <v>43907</v>
       </c>
       <c r="I108" s="55" t="s">
         <v>13</v>
@@ -10972,25 +11014,25 @@
         <v>43920</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D109" s="55" t="s">
         <v>487</v>
       </c>
       <c r="E109" s="55">
-        <v>425120</v>
+        <v>621112</v>
       </c>
       <c r="F109" s="55">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G109" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="54">
-        <v>43907</v>
+        <v>43918</v>
       </c>
       <c r="I109" s="55" t="s">
         <v>13</v>
@@ -15643,5 +15685,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9BAFF4-BB32-4E21-A745-E945447AE43D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE51673D-77B8-4CD3-A493-CC96EAF4BBC3}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F99E24-0635-4F89-809F-F6A3ECC77EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1D2F700-C211-4B67-A80D-D1A018284E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="600" windowWidth="13980" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="731">
   <si>
     <t>Date Received</t>
   </si>
@@ -1087,18 +1087,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000m0hj/ncG1LQqkdvtnvX2of3ZE2UcNY2sAzm5C4kUOomgoTLg</t>
   </si>
   <si>
+    <t>RYDER TRUCK-Burlington KY</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lzgt/.fnaoiWvrbSTrYPyqxB2Zx0lRhBdDvaC7xBQN7Eds7w</t>
+  </si>
+  <si>
     <t>Jacobsen|Daniel’s Enterprise Inc.-SDF</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lzgA/7J0V94vN.WBDIApE.ddY6W3JupaPtqsO0Sm4yOKqVIs</t>
   </si>
   <si>
-    <t>RYDER TRUCK-Burlington KY</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lzgt/.fnaoiWvrbSTrYPyqxB2Zx0lRhBdDvaC7xBQN7Eds7w</t>
-  </si>
-  <si>
     <t>Jacobsen|Daniels Enterprise d.b.a Fly Away Valet - CVG</t>
   </si>
   <si>
@@ -1276,18 +1276,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owc5/NegKIAQd.3f3pmcw73INUcvkRVIbZTkujR6EIS0ot58</t>
   </si>
   <si>
+    <t>Bedding Acquisition LLC-Hollander Sleep Products</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owc0/YfonXN9YuzXLk_UAXU4_FKNeT7YOIM6p5kka_JgwN0Y</t>
+  </si>
+  <si>
     <t>Newport Aquarium LLC</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owce/l.sHHNbu0GPlyDLBohqkTc6rmr3iMKC.C7bGdM4pAc0</t>
   </si>
   <si>
-    <t>Bedding Acquisition LLC-Hollander Sleep Products</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owc0/YfonXN9YuzXLk_UAXU4_FKNeT7YOIM6p5kka_JgwN0Y</t>
-  </si>
-  <si>
     <t>Vitro Automotive/Pittsburgh Glass Works</t>
   </si>
   <si>
@@ -1393,42 +1393,42 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX5/hqgTkrEKeD2diZgwtvYubxlNzxik77T983Z_rFk92oU</t>
   </si>
   <si>
+    <t>Hendrickson Trailer Commercial Vehicle Systems</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX0/V6hwrqZ0Qlr_eFlMYEYrZXlE5AKDheKuIEjfBsUaPdQ</t>
+  </si>
+  <si>
     <t>Communicare  Services - Brandenburg</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owXA/mAUPSS8QJjeTFI7E27u8VQgWHFFi6LRZfcfzfkHq1Jo</t>
   </si>
   <si>
-    <t>Hendrickson Trailer Commercial Vehicle Systems</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owX0/V6hwrqZ0Qlr_eFlMYEYrZXlE5AKDheKuIEjfBsUaPdQ</t>
-  </si>
-  <si>
     <t>Jackson Warewashing Systems</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVY/2COXMu6Bd1MCYgNNs.Sc62L0asFJOG..KVsIGQuqD5g</t>
   </si>
   <si>
+    <t>SCHULTE COMPANIES</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVT/U2oN7sbm_kSzNb7xiYNnrUVaoC_094PGtzzEyvZMQHo</t>
+  </si>
+  <si>
+    <t>IHG Army Hotels &amp; Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVi/IMPz0uy5.8DXS8aWGuSQX3cPDNWc6wEkkwZwPlw6wyc</t>
+  </si>
+  <si>
     <t>Huhtamaki, Inc.</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUa/gQ7KCmO7r.5JxftEeBG61Dp0YG0btnF0QmbfOv3Jqwg</t>
   </si>
   <si>
-    <t>IHG Army Hotels &amp; Holiday Inn Express</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVi/IMPz0uy5.8DXS8aWGuSQX3cPDNWc6wEkkwZwPlw6wyc</t>
-  </si>
-  <si>
-    <t>SCHULTE COMPANIES</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVT/U2oN7sbm_kSzNb7xiYNnrUVaoC_094PGtzzEyvZMQHo</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUQ/kIkf6vaRVWxJL33J4laXNMoRoo4Ps.CEaVYB4.M3PIU</t>
   </si>
   <si>
@@ -1459,33 +1459,33 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUB/Q4XhuwPlCqUiegEdy255dEODFtbl._noeWqruyQLy9c</t>
   </si>
   <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVE/C0OZ4Bz9aNkrc9YrcMiSzi1G1WqI2.arpnDnUUJqUr8</t>
+  </si>
+  <si>
+    <t>Muhlenberg</t>
+  </si>
+  <si>
+    <t>THE MUHLENBERG COUNTY COAL COMPANY</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVJ/Dg9.VOc4xZE0CzOT2WBULH9AF2F_W3myXxa4ijm196A</t>
+  </si>
+  <si>
+    <t>Bourbon</t>
+  </si>
+  <si>
+    <t>Murray Euipment &amp; Machine</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVO/fRo8DiZxbz2baMUvWanGYLiXkNdGw2BDb3YAGYVqjWI</t>
+  </si>
+  <si>
     <t>ALJSCO</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUL/QiUorU3I0MCyonZFb9WQqn78BNq1UIJjwP_tw34J1Sw</t>
   </si>
   <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVE/C0OZ4Bz9aNkrc9YrcMiSzi1G1WqI2.arpnDnUUJqUr8</t>
-  </si>
-  <si>
-    <t>Muhlenberg</t>
-  </si>
-  <si>
-    <t>THE MUHLENBERG COUNTY COAL COMPANY</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVJ/Dg9.VOc4xZE0CzOT2WBULH9AF2F_W3myXxa4ijm196A</t>
-  </si>
-  <si>
-    <t>Bourbon</t>
-  </si>
-  <si>
-    <t>Murray Euipment &amp; Machine</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVO/fRo8DiZxbz2baMUvWanGYLiXkNdGw2BDb3YAGYVqjWI</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owPN/jDHwTapPX.yBsZhb3qC7qy.geYOtPuuz3LjGauQ08h8</t>
   </si>
   <si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Newgistics (Pitney Bowes)</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005qNB4/AAR5cQxlAFQwiaT.tGdbTMKdcKFzGkw9XMxc0Uiob6o</t>
   </si>
   <si>
     <t>TechStyle Fashion Group - Fabletics Inc</t>
@@ -2845,10 +2851,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2903,31 +2909,31 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>10</v>
+      <c r="E2" s="55">
+        <v>541614</v>
       </c>
       <c r="F2" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>675</v>
@@ -2939,28 +2945,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F3" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>12</v>
@@ -2969,40 +2975,40 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K32" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K33" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>679</v>
-      </c>
       <c r="E4" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F4" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3011,28 +3017,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>225</v>
+        <v>680</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>681</v>
       </c>
       <c r="E5" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F5" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>12</v>
@@ -3047,7 +3053,7 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>29</v>
@@ -3059,19 +3065,19 @@
         <v>683</v>
       </c>
       <c r="E6" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F6" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>684</v>
@@ -3083,7 +3089,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>29</v>
@@ -3095,7 +3101,7 @@
         <v>685</v>
       </c>
       <c r="E7" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F7" s="55">
         <v>94</v>
@@ -3104,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3131,16 +3137,16 @@
         <v>687</v>
       </c>
       <c r="E8" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F8" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3158,10 +3164,10 @@
         <v>45441</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>689</v>
@@ -3170,7 +3176,7 @@
         <v>722330</v>
       </c>
       <c r="F9" s="55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
@@ -3194,10 +3200,10 @@
         <v>45441</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>691</v>
@@ -3206,7 +3212,7 @@
         <v>722330</v>
       </c>
       <c r="F10" s="55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
@@ -3230,10 +3236,10 @@
         <v>45441</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>693</v>
@@ -3242,7 +3248,7 @@
         <v>722330</v>
       </c>
       <c r="F11" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
@@ -3266,10 +3272,10 @@
         <v>45441</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>695</v>
@@ -3278,7 +3284,7 @@
         <v>722330</v>
       </c>
       <c r="F12" s="55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
@@ -3299,28 +3305,28 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F13" s="55">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3335,28 +3341,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F14" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3371,28 +3377,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
       </c>
       <c r="E15" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F15" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -3407,31 +3413,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F16" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>704</v>
@@ -3443,34 +3449,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>404</v>
+        <v>705</v>
       </c>
       <c r="E17" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F17" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3479,28 +3485,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>706</v>
+        <v>404</v>
       </c>
       <c r="E18" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F18" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3515,31 +3521,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F19" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>709</v>
@@ -3551,31 +3557,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>710</v>
       </c>
       <c r="E20" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F20" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>711</v>
@@ -3587,28 +3593,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>712</v>
       </c>
       <c r="E21" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F21" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -3623,7 +3629,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>29</v>
@@ -3635,16 +3641,16 @@
         <v>714</v>
       </c>
       <c r="E22" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F22" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
@@ -3659,28 +3665,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>716</v>
       </c>
       <c r="E23" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F23" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3695,28 +3701,28 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>718</v>
       </c>
       <c r="E24" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F24" s="55">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
@@ -3740,13 +3746,13 @@
         <v>238</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E25" s="55">
         <v>561720</v>
       </c>
       <c r="F25" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>16</v>
@@ -3758,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3776,13 +3782,13 @@
         <v>238</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E26" s="55">
         <v>561720</v>
       </c>
       <c r="F26" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>16</v>
@@ -3794,7 +3800,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3812,13 +3818,13 @@
         <v>238</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E27" s="55">
         <v>561720</v>
       </c>
       <c r="F27" s="55">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>16</v>
@@ -3830,7 +3836,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3839,34 +3845,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E28" s="55">
         <v>561720</v>
       </c>
       <c r="F28" s="55">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3884,13 +3890,13 @@
         <v>226</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E29" s="55">
         <v>561720</v>
       </c>
       <c r="F29" s="55">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>16</v>
@@ -3902,7 +3908,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3914,31 +3920,31 @@
         <v>45295</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E30" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F30" s="55">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H30" s="54">
-        <v>45295</v>
+        <v>45356</v>
       </c>
       <c r="I30" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>10</v>
+        <v>726</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3950,31 +3956,31 @@
         <v>45295</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="E31" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F31" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>726</v>
+        <v>10</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3983,28 +3989,28 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E32" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H32" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I32" s="55" t="s">
         <v>13</v>
@@ -4013,6 +4019,42 @@
         <v>728</v>
       </c>
       <c r="K32" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>729</v>
+      </c>
+      <c r="E33" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F33" s="55">
+        <v>136</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -8386,25 +8428,25 @@
         <v>43997</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>345</v>
       </c>
       <c r="E36" s="55">
-        <v>488190</v>
+        <v>493110</v>
       </c>
       <c r="F36" s="55">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="54">
-        <v>43994</v>
+        <v>44055</v>
       </c>
       <c r="I36" s="55" t="s">
         <v>13</v>
@@ -8422,25 +8464,25 @@
         <v>43997</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>347</v>
       </c>
       <c r="E37" s="55">
-        <v>493110</v>
+        <v>488190</v>
       </c>
       <c r="F37" s="55">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="54">
-        <v>44055</v>
+        <v>43994</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>13</v>
@@ -9610,25 +9652,25 @@
         <v>43935</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="D70" s="55" t="s">
         <v>408</v>
       </c>
       <c r="E70" s="55">
-        <v>712130</v>
+        <v>337910</v>
       </c>
       <c r="F70" s="55">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="G70" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H70" s="54">
-        <v>43941</v>
+        <v>43924</v>
       </c>
       <c r="I70" s="55" t="s">
         <v>13</v>
@@ -9646,25 +9688,25 @@
         <v>43935</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="D71" s="55" t="s">
         <v>410</v>
       </c>
       <c r="E71" s="55">
-        <v>337910</v>
+        <v>712130</v>
       </c>
       <c r="F71" s="55">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H71" s="54">
-        <v>43924</v>
+        <v>43941</v>
       </c>
       <c r="I71" s="55" t="s">
         <v>13</v>
@@ -10261,22 +10303,22 @@
         <v>70</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>273</v>
+        <v>436</v>
       </c>
       <c r="D88" s="55" t="s">
         <v>447</v>
       </c>
       <c r="E88" s="55">
-        <v>623110</v>
+        <v>423110</v>
       </c>
       <c r="F88" s="55">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G88" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="54">
-        <v>43910</v>
+        <v>43934</v>
       </c>
       <c r="I88" s="55" t="s">
         <v>13</v>
@@ -10297,22 +10339,22 @@
         <v>70</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="D89" s="55" t="s">
         <v>449</v>
       </c>
       <c r="E89" s="55">
-        <v>423110</v>
+        <v>623110</v>
       </c>
       <c r="F89" s="55">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G89" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="54">
-        <v>43934</v>
+        <v>43910</v>
       </c>
       <c r="I89" s="55" t="s">
         <v>13</v>
@@ -10366,25 +10408,25 @@
         <v>43923</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>453</v>
       </c>
       <c r="E91" s="55">
-        <v>333999</v>
+        <v>721110</v>
       </c>
       <c r="F91" s="55">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G91" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="54">
-        <v>43926</v>
+        <v>43906</v>
       </c>
       <c r="I91" s="55" t="s">
         <v>13</v>
@@ -10438,25 +10480,25 @@
         <v>43923</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>457</v>
       </c>
       <c r="E93" s="55">
-        <v>721110</v>
+        <v>333999</v>
       </c>
       <c r="F93" s="55">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G93" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="54">
-        <v>43906</v>
+        <v>43926</v>
       </c>
       <c r="I93" s="55" t="s">
         <v>13</v>
@@ -10690,31 +10732,31 @@
         <v>43922</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="D100" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="55">
+        <v>21211</v>
+      </c>
+      <c r="F100" s="55">
+        <v>42</v>
+      </c>
+      <c r="G100" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="54">
+        <v>43984</v>
+      </c>
+      <c r="I100" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="53" t="s">
         <v>469</v>
-      </c>
-      <c r="E100" s="55">
-        <v>541611</v>
-      </c>
-      <c r="F100" s="55">
-        <v>4</v>
-      </c>
-      <c r="G100" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="54">
-        <v>43920</v>
-      </c>
-      <c r="I100" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="53" t="s">
-        <v>470</v>
       </c>
       <c r="K100" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10726,22 +10768,22 @@
         <v>43922</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>201</v>
+        <v>471</v>
       </c>
       <c r="E101" s="55">
         <v>21211</v>
       </c>
       <c r="F101" s="55">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H101" s="54">
         <v>43984</v>
@@ -10750,7 +10792,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="53" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K101" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10762,19 +10804,19 @@
         <v>43922</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C102" s="55" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D102" s="55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E102" s="55">
-        <v>21211</v>
+        <v>423520</v>
       </c>
       <c r="F102" s="55">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="G102" s="55" t="s">
         <v>11</v>
@@ -10786,7 +10828,7 @@
         <v>13</v>
       </c>
       <c r="J102" s="53" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K102" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10798,25 +10840,25 @@
         <v>43922</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>475</v>
+        <v>128</v>
       </c>
       <c r="D103" s="55" t="s">
         <v>476</v>
       </c>
       <c r="E103" s="55">
-        <v>423520</v>
+        <v>541611</v>
       </c>
       <c r="F103" s="55">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G103" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H103" s="54">
-        <v>43984</v>
+        <v>43920</v>
       </c>
       <c r="I103" s="55" t="s">
         <v>13</v>
@@ -15507,12 +15549,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15521,7 +15557,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -15661,7 +15697,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA29DD08-B9CA-4A38-A2F3-62694119A0E0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15674,16 +15728,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE51673D-77B8-4CD3-A493-CC96EAF4BBC3}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.hampton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1D2F700-C211-4B67-A80D-D1A018284E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D739E73-11C7-49D2-AA10-EB5501F800A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="734">
   <si>
     <t>Date Received</t>
   </si>
@@ -1087,18 +1087,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000m0hj/ncG1LQqkdvtnvX2of3ZE2UcNY2sAzm5C4kUOomgoTLg</t>
   </si>
   <si>
+    <t>Jacobsen|Daniel’s Enterprise Inc.-SDF</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lzgA/7J0V94vN.WBDIApE.ddY6W3JupaPtqsO0Sm4yOKqVIs</t>
+  </si>
+  <si>
     <t>RYDER TRUCK-Burlington KY</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lzgt/.fnaoiWvrbSTrYPyqxB2Zx0lRhBdDvaC7xBQN7Eds7w</t>
   </si>
   <si>
-    <t>Jacobsen|Daniel’s Enterprise Inc.-SDF</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lzgA/7J0V94vN.WBDIApE.ddY6W3JupaPtqsO0Sm4yOKqVIs</t>
-  </si>
-  <si>
     <t>Jacobsen|Daniels Enterprise d.b.a Fly Away Valet - CVG</t>
   </si>
   <si>
@@ -1411,6 +1411,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVY/2COXMu6Bd1MCYgNNs.Sc62L0asFJOG..KVsIGQuqD5g</t>
   </si>
   <si>
+    <t>Huhtamaki, Inc.</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUa/gQ7KCmO7r.5JxftEeBG61Dp0YG0btnF0QmbfOv3Jqwg</t>
+  </si>
+  <si>
     <t>SCHULTE COMPANIES</t>
   </si>
   <si>
@@ -1423,12 +1429,6 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVi/IMPz0uy5.8DXS8aWGuSQX3cPDNWc6wEkkwZwPlw6wyc</t>
   </si>
   <si>
-    <t>Huhtamaki, Inc.</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUa/gQ7KCmO7r.5JxftEeBG61Dp0YG0btnF0QmbfOv3Jqwg</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUQ/kIkf6vaRVWxJL33J4laXNMoRoo4Ps.CEaVYB4.M3PIU</t>
   </si>
   <si>
@@ -1459,6 +1459,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUB/Q4XhuwPlCqUiegEdy255dEODFtbl._noeWqruyQLy9c</t>
   </si>
   <si>
+    <t>ALJSCO</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUL/QiUorU3I0MCyonZFb9WQqn78BNq1UIJjwP_tw34J1Sw</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVE/C0OZ4Bz9aNkrc9YrcMiSzi1G1WqI2.arpnDnUUJqUr8</t>
   </si>
   <si>
@@ -1480,12 +1486,6 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owVO/fRo8DiZxbz2baMUvWanGYLiXkNdGw2BDb3YAGYVqjWI</t>
   </si>
   <si>
-    <t>ALJSCO</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owUL/QiUorU3I0MCyonZFb9WQqn78BNq1UIJjwP_tw34J1Sw</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000owPN/jDHwTapPX.yBsZhb3qC7qy.geYOtPuuz3LjGauQ08h8</t>
   </si>
   <si>
@@ -2074,6 +2074,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
   </si>
   <si>
+    <t>White Castle Distributing LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005sUdh/oFKjSazgzRlJyRY6V6pX6raYDedwal0ssWus.uATSWM</t>
+  </si>
+  <si>
     <t>Newgistics (Pitney Bowes)</t>
   </si>
   <si>
@@ -2159,6 +2165,9 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005Vz3P/QgD4eZdXFICQpNm_IJrhp0nrJ6JOJ7cvt3e1DoD_GEo</t>
+  </si>
+  <si>
+    <t>Mikron Industries Inc.</t>
   </si>
   <si>
     <t>PACKERS SANITATION SERVICES, INC (PSSI)</t>
@@ -2851,10 +2860,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2909,28 +2918,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F2" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -2945,64 +2954,64 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F3" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K33" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K35" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F4" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>12</v>
@@ -3017,34 +3026,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>681</v>
-      </c>
       <c r="E5" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F5" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3053,31 +3062,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>225</v>
+        <v>682</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>683</v>
       </c>
       <c r="E6" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F6" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>684</v>
@@ -3089,7 +3098,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>29</v>
@@ -3101,19 +3110,19 @@
         <v>685</v>
       </c>
       <c r="E7" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F7" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>686</v>
@@ -3125,7 +3134,7 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>29</v>
@@ -3137,7 +3146,7 @@
         <v>687</v>
       </c>
       <c r="E8" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F8" s="55">
         <v>94</v>
@@ -3146,7 +3155,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3173,16 +3182,16 @@
         <v>689</v>
       </c>
       <c r="E9" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F9" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
@@ -3200,10 +3209,10 @@
         <v>45441</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>691</v>
@@ -3212,7 +3221,7 @@
         <v>722330</v>
       </c>
       <c r="F10" s="55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
@@ -3236,10 +3245,10 @@
         <v>45441</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>693</v>
@@ -3248,7 +3257,7 @@
         <v>722330</v>
       </c>
       <c r="F11" s="55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
@@ -3272,10 +3281,10 @@
         <v>45441</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>695</v>
@@ -3284,7 +3293,7 @@
         <v>722330</v>
       </c>
       <c r="F12" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
@@ -3308,10 +3317,10 @@
         <v>45441</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>697</v>
@@ -3320,7 +3329,7 @@
         <v>722330</v>
       </c>
       <c r="F13" s="55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
@@ -3341,28 +3350,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F14" s="55">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3377,28 +3386,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
       </c>
       <c r="E15" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F15" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -3413,28 +3422,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F16" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3449,34 +3458,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45363</v>
+        <v>45390</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
       </c>
-      <c r="E17" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F17" s="55">
-        <v>79</v>
+      <c r="E17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45366</v>
+        <v>45510</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>706</v>
+        <v>10</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3485,7 +3494,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>108</v>
@@ -3494,19 +3503,19 @@
         <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>404</v>
+        <v>706</v>
       </c>
       <c r="E18" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F18" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3521,31 +3530,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>470</v>
+        <v>584</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F19" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>709</v>
@@ -3557,7 +3566,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>108</v>
@@ -3566,25 +3575,25 @@
         <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>710</v>
+        <v>404</v>
       </c>
       <c r="E20" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F20" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3593,34 +3602,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E21" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F21" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3629,34 +3638,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E22" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F22" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3665,34 +3674,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E23" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F23" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3701,34 +3710,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D24" s="55" t="s">
+        <v>717</v>
+      </c>
+      <c r="E24" s="55">
+        <v>611511</v>
+      </c>
+      <c r="F24" s="55">
+        <v>8</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54">
+        <v>45315</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>718</v>
-      </c>
-      <c r="E24" s="55">
-        <v>336350</v>
-      </c>
-      <c r="F24" s="55">
-        <v>52</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="54">
-        <v>45401</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>719</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3737,34 +3746,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D25" s="55" t="s">
+        <v>719</v>
+      </c>
+      <c r="E25" s="55">
+        <v>336110</v>
+      </c>
+      <c r="F25" s="55">
+        <v>49</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="54">
+        <v>45365</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="53" t="s">
         <v>720</v>
-      </c>
-      <c r="E25" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F25" s="55">
-        <v>26</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="54">
-        <v>45299</v>
-      </c>
-      <c r="I25" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>721</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3773,28 +3782,28 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E26" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F26" s="55">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
@@ -3818,13 +3827,13 @@
         <v>238</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E27" s="55">
         <v>561720</v>
       </c>
       <c r="F27" s="55">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>16</v>
@@ -3836,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3854,13 +3863,13 @@
         <v>238</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E28" s="55">
         <v>561720</v>
       </c>
       <c r="F28" s="55">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>16</v>
@@ -3872,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3881,34 +3890,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E29" s="55">
         <v>561720</v>
       </c>
       <c r="F29" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3917,34 +3926,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E30" s="55">
         <v>561720</v>
       </c>
       <c r="F30" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3956,31 +3965,31 @@
         <v>45295</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E31" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F31" s="55">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45295</v>
+        <v>45356</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>10</v>
+        <v>728</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3992,13 +4001,13 @@
         <v>45295</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E32" s="55">
         <v>561720</v>
@@ -4016,7 +4025,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4025,36 +4034,108 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E33" s="55">
-        <v>541714</v>
+        <v>331400</v>
       </c>
       <c r="F33" s="55">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="54">
+        <v>45295</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>723</v>
+      </c>
+      <c r="E34" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F34" s="55">
+        <v>40</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>731</v>
+      </c>
+      <c r="K34" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="E35" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F35" s="55">
+        <v>136</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="54">
         <v>45351</v>
       </c>
-      <c r="I33" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>730</v>
-      </c>
-      <c r="K33" s="57" t="str">
+      <c r="I35" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>733</v>
+      </c>
+      <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -8428,25 +8509,25 @@
         <v>43997</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>345</v>
       </c>
       <c r="E36" s="55">
-        <v>493110</v>
+        <v>488190</v>
       </c>
       <c r="F36" s="55">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="54">
-        <v>44055</v>
+        <v>43994</v>
       </c>
       <c r="I36" s="55" t="s">
         <v>13</v>
@@ -8464,25 +8545,25 @@
         <v>43997</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>347</v>
       </c>
       <c r="E37" s="55">
-        <v>488190</v>
+        <v>493110</v>
       </c>
       <c r="F37" s="55">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="54">
-        <v>43994</v>
+        <v>44055</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>13</v>
@@ -10408,25 +10489,25 @@
         <v>43923</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>453</v>
       </c>
       <c r="E91" s="55">
-        <v>721110</v>
+        <v>333999</v>
       </c>
       <c r="F91" s="55">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G91" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="54">
-        <v>43906</v>
+        <v>43926</v>
       </c>
       <c r="I91" s="55" t="s">
         <v>13</v>
@@ -10444,10 +10525,10 @@
         <v>43923</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>455</v>
@@ -10456,13 +10537,13 @@
         <v>721110</v>
       </c>
       <c r="F92" s="55">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G92" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="54">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I92" s="55" t="s">
         <v>13</v>
@@ -10480,25 +10561,25 @@
         <v>43923</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>457</v>
       </c>
       <c r="E93" s="55">
-        <v>333999</v>
+        <v>721110</v>
       </c>
       <c r="F93" s="55">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G93" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="54">
-        <v>43926</v>
+        <v>43910</v>
       </c>
       <c r="I93" s="55" t="s">
         <v>13</v>
@@ -10732,31 +10813,31 @@
         <v>43922</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="E100" s="55">
-        <v>21211</v>
+        <v>541611</v>
       </c>
       <c r="F100" s="55">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G100" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H100" s="54">
-        <v>43984</v>
+        <v>43920</v>
       </c>
       <c r="I100" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J100" s="53" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K100" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10768,22 +10849,22 @@
         <v>43922</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>470</v>
+        <v>227</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>471</v>
+        <v>201</v>
       </c>
       <c r="E101" s="55">
         <v>21211</v>
       </c>
       <c r="F101" s="55">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H101" s="54">
         <v>43984</v>
@@ -10792,7 +10873,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K101" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10804,19 +10885,19 @@
         <v>43922</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C102" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="D102" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="D102" s="55" t="s">
-        <v>474</v>
-      </c>
       <c r="E102" s="55">
-        <v>423520</v>
+        <v>21211</v>
       </c>
       <c r="F102" s="55">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="G102" s="55" t="s">
         <v>11</v>
@@ -10828,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="J102" s="53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K102" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10840,25 +10921,25 @@
         <v>43922</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C103" s="55" t="s">
-        <v>128</v>
+        <v>475</v>
       </c>
       <c r="D103" s="55" t="s">
         <v>476</v>
       </c>
       <c r="E103" s="55">
-        <v>541611</v>
+        <v>423520</v>
       </c>
       <c r="F103" s="55">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G103" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H103" s="54">
-        <v>43920</v>
+        <v>43984</v>
       </c>
       <c r="I103" s="55" t="s">
         <v>13</v>
@@ -13794,13 +13875,13 @@
         <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>452111</v>
       </c>
       <c r="F21" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -13812,7 +13893,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="K21" s="5" t="str">
         <f t="shared" ref="K21" si="5">IF(ISBLANK(J21),"",HYPERLINK(J21,"WARN"))</f>
@@ -13830,13 +13911,13 @@
         <v>128</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="9">
         <v>452111</v>
       </c>
       <c r="F22" s="9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>11</v>
@@ -13848,7 +13929,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="K22" s="11" t="str">
         <f>IF(ISBLANK(J22),"",HYPERLINK(J22,"WARN"))</f>
@@ -15549,15 +15630,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -15697,25 +15769,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F17C5E-CF08-42A5-A8E4-C948CB8A050F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA29DD08-B9CA-4A38-A2F3-62694119A0E0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15728,4 +15801,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.hampton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D739E73-11C7-49D2-AA10-EB5501F800A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989573B8-9157-45CF-8D28-0B7BC63F4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="736">
   <si>
     <t>Date Received</t>
   </si>
@@ -760,12 +760,12 @@
     <t>Kenton</t>
   </si>
   <si>
+    <t>Pulaski</t>
+  </si>
+  <si>
     <t>Toyota Motor Engineering &amp; Manufacturing North America</t>
   </si>
   <si>
-    <t>Pulaski</t>
-  </si>
-  <si>
     <t>Bullitt</t>
   </si>
   <si>
@@ -784,15 +784,15 @@
     <t>Madison</t>
   </si>
   <si>
+    <t>Rockcastle</t>
+  </si>
+  <si>
+    <t>GANNETT COMPANY,  INC.</t>
+  </si>
+  <si>
     <t>Dormakaba</t>
   </si>
   <si>
-    <t>GANNETT COMPANY,  INC.</t>
-  </si>
-  <si>
-    <t>Rockcastle</t>
-  </si>
-  <si>
     <t>WAL-MART</t>
   </si>
   <si>
@@ -1879,57 +1879,57 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004hIgj/EOMEBzGr1qU.gHL6YRjWs6T7PA51axOevH0rVsvjnP4</t>
   </si>
   <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004da4X/G33GzuFN4ACJ1KELoiWmtP3zh0wyOZeC7OlMHbl05tY</t>
+  </si>
+  <si>
+    <t>United Coal - Wellmore Energy Company LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eW5e/b5VBGqG3EmAJlI1zloAeFyIpx2jH.1lnJyY9NXnaA5U</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Paw Paw 2 North</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eah2/jsv67iEszko9Aq5MgfXoYEzM2rszzMC3cH4q8FNH_co</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Elk Creek</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eajE/ELvhoAqi8OchFp8ReuqCXzK__fXKCP6E1f.bpg4ldzU</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Black Watch #8 Prep Plant</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ec3G/N24hINWGsrSTsf4F806D4fl9YWDRc7aBw.LjMFMvLrI</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Surface Minerals #1</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebqR/whovRt6sM3BDTLScMpUNZ5N71Xde.HKGiOdGM21OPcI</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Paw Paw 2 South</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebej/uWpbwRLFb61nOGbUifGP682TgvKfbYAL4m0K81GSbmQ</t>
+  </si>
+  <si>
+    <t>Wellmore Energy Company LLC - Laboratory Department</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ecDe/wx.0b6ITSM4MJlPY3am8ieIv8uXrfX0ZxP8ujHVoUA4</t>
+  </si>
+  <si>
     <t>Wellmore Energy Company LLC - Black Watch Shop and Central Warehouse Departments</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ec8N/s5ZHrPNrZVK2A.CELHLARLZCUbapHL9zYuIe1FDak.8</t>
   </si>
   <si>
-    <t>Wellmore Energy Company LLC - Paw Paw 2 North</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eah2/jsv67iEszko9Aq5MgfXoYEzM2rszzMC3cH4q8FNH_co</t>
-  </si>
-  <si>
-    <t>United Coal - Wellmore Energy Company LLC</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eW5e/b5VBGqG3EmAJlI1zloAeFyIpx2jH.1lnJyY9NXnaA5U</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Laboratory Department</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ecDe/wx.0b6ITSM4MJlPY3am8ieIv8uXrfX0ZxP8ujHVoUA4</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Surface Minerals #1</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebqR/whovRt6sM3BDTLScMpUNZ5N71Xde.HKGiOdGM21OPcI</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Elk Creek</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004eajE/ELvhoAqi8OchFp8ReuqCXzK__fXKCP6E1f.bpg4ldzU</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Black Watch #8 Prep Plant</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ec3G/N24hINWGsrSTsf4F806D4fl9YWDRc7aBw.LjMFMvLrI</t>
-  </si>
-  <si>
-    <t>Wellmore Energy Company LLC - Paw Paw 2 South</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004ebej/uWpbwRLFb61nOGbUifGP682TgvKfbYAL4m0K81GSbmQ</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004da4X/G33GzuFN4ACJ1KELoiWmtP3zh0wyOZeC7OlMHbl05tY</t>
-  </si>
-  <si>
     <t>PBS Radiology Experts</t>
   </si>
   <si>
@@ -1966,18 +1966,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004UZfI/_QAu.uk7cO8BC4Q2t48efCHgskBKCLYjsD2SxA5h6xA</t>
   </si>
   <si>
+    <t>American Medical Response, Inc.</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004UFRb/O723M9HPJBIfi_6s9X.9z2VH3kBneNyML6D5cNFlH20</t>
+  </si>
+  <si>
     <t>Mercy Ambulance Services Inc</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004UIgy/DhqxpUSxm4xIaMthygxKR5HKkWc9Xh_XUCFdVSGirz0</t>
   </si>
   <si>
-    <t>American Medical Response, Inc.</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000004UFRb/O723M9HPJBIfi_6s9X.9z2VH3kBneNyML6D5cNFlH20</t>
-  </si>
-  <si>
     <t>Logan</t>
   </si>
   <si>
@@ -2074,6 +2074,9 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
   </si>
   <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000000pVGH/Qcp.v_kAltFligzcAZOODfbLEsYVlREXhhpczfWH9vU</t>
+  </si>
+  <si>
     <t>White Castle Distributing LLC</t>
   </si>
   <si>
@@ -2125,36 +2128,36 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005grO4/Vc6tHw.pgfZltA4R7RPb6MS7UY060XBDCzz3WNj9vVg</t>
   </si>
   <si>
+    <t>Cygnus Home Service, LLC / Schwans Home Service / Yelloh - Bowling Green</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005grpN/eS.k7AhNDFjnrDN2iaoXJiFP8zyYvhWSyq9l5opBcmA</t>
+  </si>
+  <si>
     <t>Cygnus Home Service, LLC / Schwans Home Service / Yelloh - Burlington</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gs0m/gfhoPjvwRD56BaUk6EWJf8pg1AePTHfspdhNPMQ_NFg</t>
   </si>
   <si>
+    <t>Cygnus Home Service, LLC / Schwans Home Service / Yelloh - London</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsC6/OnM9WKKV4uJPeWNhSYG0olua2CKeWIce5S5BS3W7eH0</t>
+  </si>
+  <si>
+    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh - Prestonsburg</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsHQ/Uyn.OnTL1gwv.05ToMtFrgjKy5M8kVxfW3w36.z98JU</t>
+  </si>
+  <si>
     <t>Cygnus Home Service, LLC / Schwans Home Service / Yelloh - Winchester</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsUg/AvWgMMIAzl6MlzzXNb1m1_12xFjXzlI0asNMteUAmmw</t>
   </si>
   <si>
-    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh - Prestonsburg</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsHQ/Uyn.OnTL1gwv.05ToMtFrgjKy5M8kVxfW3w36.z98JU</t>
-  </si>
-  <si>
-    <t>Cygnus Home Service, LLC / Schwans Home Service / Yelloh - London</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005gsC6/OnM9WKKV4uJPeWNhSYG0olua2CKeWIce5S5BS3W7eH0</t>
-  </si>
-  <si>
-    <t>Cygnus Home Service, LLC / Schwans Home Service / Yelloh - Bowling Green</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005grpN/eS.k7AhNDFjnrDN2iaoXJiFP8zyYvhWSyq9l5opBcmA</t>
-  </si>
-  <si>
     <t>WHEELS UP</t>
   </si>
   <si>
@@ -2224,34 +2227,37 @@
     <t>GDI Integrated Facility Services</t>
   </si>
   <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005AaYZ/nOhlGCeHWJakUVLtYFLpq2QXY.WDel0jlYO6gs7mer8</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005Aajf/_s09zrUsBYJdgPCh.PqdjhGXOuSG1CnCX_R06f6cUpw</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005Aabo/V_hfVFWEIfnIQH57FqfbR9BdouHsTK6yDVavS3W.yC4</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005Aaxr/KwrVbJWv9bt4iW0MMP6gybrw6S28RfEL_VJ2mbxlYXI</t>
   </si>
   <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005Aajf/_s09zrUsBYJdgPCh.PqdjhGXOuSG1CnCX_R06f6cUpw</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005AaYZ/nOhlGCeHWJakUVLtYFLpq2QXY.WDel0jlYO6gs7mer8</t>
+    <t>Electro Cycle, Inc.</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005B3Sg/lFNQFnskUI.qZ2tJB_IQZVUfqW_wm8i740w1gzmZ_aA</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005B6JD/vfcC_JC53AH8idj8myVgt_oKXDPT_HvdtMKwXKEzXpY</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005B9V5/dXaH3O3I1HdhrcpkJ74_d.Rpp1eJVkMhtnhTSMRZteE</t>
   </si>
   <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005B6JD/vfcC_JC53AH8idj8myVgt_oKXDPT_HvdtMKwXKEzXpY</t>
-  </si>
-  <si>
-    <t>Electro Cycle, Inc.</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y000005B3Sg/lFNQFnskUI.qZ2tJB_IQZVUfqW_wm8i740w1gzmZ_aA</t>
-  </si>
-  <si>
     <t>Radial Fulfillment Center</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh - Louisville</t>
   </si>
 </sst>
 </file>
@@ -2860,10 +2866,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2918,34 +2924,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>674</v>
+        <v>735</v>
       </c>
       <c r="E2" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F2" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="54">
         <v>45618</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -2954,70 +2960,70 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="55">
+        <v>424420</v>
+      </c>
+      <c r="F3" s="55">
+        <v>58</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="54">
+        <v>45618</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="E3" s="55">
-        <v>541614</v>
-      </c>
-      <c r="F3" s="55">
-        <v>1</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="54">
-        <v>45552</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>677</v>
-      </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K35" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K36" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="E4" s="55">
+        <v>541614</v>
+      </c>
+      <c r="F4" s="55">
+        <v>1</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="54">
+        <v>45552</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>678</v>
-      </c>
-      <c r="E4" s="55">
-        <v>493110</v>
-      </c>
-      <c r="F4" s="55">
-        <v>69</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="54">
-        <v>45483</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3026,34 +3032,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E5" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F5" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3062,34 +3068,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>682</v>
+        <v>230</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E6" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F6" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3098,34 +3104,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>225</v>
+        <v>683</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F7" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3134,7 +3140,7 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>29</v>
@@ -3143,25 +3149,25 @@
         <v>225</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F8" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3170,7 +3176,7 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>29</v>
@@ -3179,10 +3185,10 @@
         <v>225</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F9" s="55">
         <v>94</v>
@@ -3191,13 +3197,13 @@
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3215,25 +3221,25 @@
         <v>225</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F10" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3245,19 +3251,19 @@
         <v>45441</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E11" s="55">
         <v>722330</v>
       </c>
       <c r="F11" s="55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
@@ -3269,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3281,19 +3287,19 @@
         <v>45441</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E12" s="55">
         <v>722330</v>
       </c>
       <c r="F12" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
@@ -3305,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3323,7 +3329,7 @@
         <v>262</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E13" s="55">
         <v>722330</v>
@@ -3341,7 +3347,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3353,19 +3359,19 @@
         <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E14" s="55">
         <v>722330</v>
       </c>
       <c r="F14" s="55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
@@ -3377,7 +3383,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3386,34 +3392,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E15" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3422,34 +3428,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B16" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="E16" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F16" s="55">
         <v>40</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>703</v>
-      </c>
-      <c r="E16" s="55">
-        <v>326199</v>
-      </c>
-      <c r="F16" s="55">
-        <v>140</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>40</v>
@@ -3467,25 +3473,25 @@
         <v>243</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>705</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>10</v>
+        <v>704</v>
+      </c>
+      <c r="E17" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F17" s="55">
+        <v>140</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>10</v>
+        <v>705</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3494,34 +3500,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>706</v>
       </c>
-      <c r="E18" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F18" s="55">
-        <v>78</v>
+      <c r="E18" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>707</v>
+        <v>10</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3530,34 +3536,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D19" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="E19" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F19" s="55">
+        <v>78</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="54">
+        <v>45382</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="53" t="s">
         <v>708</v>
-      </c>
-      <c r="E19" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F19" s="55">
-        <v>79</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="54">
-        <v>45366</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>709</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3566,31 +3572,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>404</v>
+        <v>709</v>
       </c>
       <c r="E20" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F20" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H20" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>710</v>
@@ -3602,34 +3608,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>711</v>
+        <v>404</v>
       </c>
       <c r="E21" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F21" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3638,34 +3644,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E22" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F22" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3674,34 +3680,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E23" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F23" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3710,34 +3716,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E24" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F24" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>29</v>
@@ -3755,25 +3761,25 @@
         <v>225</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E25" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F25" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3782,34 +3788,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D26" s="55" t="s">
+        <v>720</v>
+      </c>
+      <c r="E26" s="55">
+        <v>336110</v>
+      </c>
+      <c r="F26" s="55">
+        <v>49</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="54">
+        <v>45365</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>721</v>
-      </c>
-      <c r="E26" s="55">
-        <v>336350</v>
-      </c>
-      <c r="F26" s="55">
-        <v>52</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="54">
-        <v>45401</v>
-      </c>
-      <c r="I26" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>722</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3818,34 +3824,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D27" s="55" t="s">
+        <v>722</v>
+      </c>
+      <c r="E27" s="55">
+        <v>336350</v>
+      </c>
+      <c r="F27" s="55">
+        <v>52</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="54">
+        <v>45401</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="53" t="s">
         <v>723</v>
-      </c>
-      <c r="E27" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F27" s="55">
-        <v>26</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="54">
-        <v>45299</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>724</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3863,13 +3869,13 @@
         <v>238</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E28" s="55">
         <v>561720</v>
       </c>
       <c r="F28" s="55">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>16</v>
@@ -3899,7 +3905,7 @@
         <v>238</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E29" s="55">
         <v>561720</v>
@@ -3935,13 +3941,13 @@
         <v>238</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E30" s="55">
         <v>561720</v>
       </c>
       <c r="F30" s="55">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>16</v>
@@ -3962,28 +3968,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E31" s="55">
         <v>561720</v>
       </c>
       <c r="F31" s="55">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4001,31 +4007,31 @@
         <v>45295</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E32" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F32" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>729</v>
+        <v>10</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4037,31 +4043,31 @@
         <v>45295</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D33" s="55" t="s">
+        <v>724</v>
+      </c>
+      <c r="E33" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F33" s="55">
+        <v>40</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="53" t="s">
         <v>730</v>
-      </c>
-      <c r="E33" s="55">
-        <v>331400</v>
-      </c>
-      <c r="F33" s="55">
-        <v>57</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="54">
-        <v>45295</v>
-      </c>
-      <c r="I33" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>10</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4073,13 +4079,13 @@
         <v>45295</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
@@ -4106,36 +4112,72 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>724</v>
+      </c>
+      <c r="E35" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F35" s="55">
+        <v>48</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="K35" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="54">
         <v>45293</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B36" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C36" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>732</v>
-      </c>
-      <c r="E35" s="55">
+      <c r="D36" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="E36" s="55">
         <v>541714</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F36" s="55">
         <v>136</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G36" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H36" s="54">
         <v>45351</v>
       </c>
-      <c r="I35" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="53" t="s">
-        <v>733</v>
-      </c>
-      <c r="K35" s="57" t="str">
+      <c r="I36" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -4606,31 +4648,31 @@
         <v>45127</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D13" s="55" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" s="55">
+        <v>336390</v>
+      </c>
+      <c r="F13" s="55">
+        <v>135</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
+        <v>45290</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>609</v>
-      </c>
-      <c r="E13" s="55">
-        <v>2121</v>
-      </c>
-      <c r="F13" s="55">
-        <v>3</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="54">
-        <v>45179</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>610</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4648,13 +4690,13 @@
         <v>251</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E14" s="55">
         <v>2121</v>
       </c>
       <c r="F14" s="55">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>16</v>
@@ -4666,7 +4708,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4684,13 +4726,13 @@
         <v>251</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E15" s="55">
         <v>2121</v>
       </c>
       <c r="F15" s="55">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
@@ -4702,7 +4744,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4720,25 +4762,25 @@
         <v>251</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E16" s="55">
         <v>2121</v>
       </c>
       <c r="F16" s="55">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45132</v>
+        <v>45179</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4756,25 +4798,25 @@
         <v>251</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E17" s="55">
         <v>2121</v>
       </c>
       <c r="F17" s="55">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="54">
-        <v>45179</v>
+        <v>45132</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4792,13 +4834,13 @@
         <v>251</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E18" s="55">
         <v>2121</v>
       </c>
       <c r="F18" s="55">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>16</v>
@@ -4810,7 +4852,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4828,25 +4870,25 @@
         <v>251</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E19" s="55">
         <v>2121</v>
       </c>
       <c r="F19" s="55">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>45132</v>
+        <v>45179</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4864,25 +4906,25 @@
         <v>251</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E20" s="55">
         <v>2121</v>
       </c>
       <c r="F20" s="55">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="54">
-        <v>45179</v>
+        <v>45132</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4894,25 +4936,25 @@
         <v>45127</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>517</v>
+        <v>624</v>
       </c>
       <c r="E21" s="55">
-        <v>336390</v>
+        <v>2121</v>
       </c>
       <c r="F21" s="55">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" s="54">
-        <v>45290</v>
+        <v>45179</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -5146,10 +5188,10 @@
         <v>45078</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>638</v>
@@ -5158,7 +5200,7 @@
         <v>621910</v>
       </c>
       <c r="F28" s="55">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>16</v>
@@ -5182,10 +5224,10 @@
         <v>45078</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>640</v>
@@ -5194,7 +5236,7 @@
         <v>621910</v>
       </c>
       <c r="F29" s="55">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>16</v>
@@ -7864,7 +7906,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>306</v>
@@ -9160,7 +9202,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54" s="55" t="s">
         <v>380</v>
@@ -12753,7 +12795,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>161</v>
@@ -12969,7 +13011,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>212</v>
@@ -13350,72 +13392,72 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43403</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="E7" s="4">
-        <v>322220</v>
+        <v>518210</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>43465</v>
+        <v>43462</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>IF(ISBLANK(J7),"",HYPERLINK(J7,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43403</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="E8">
-        <v>518210</v>
+        <v>322220</v>
       </c>
       <c r="F8" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="1">
-        <v>43462</v>
+        <v>43465</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>IF(ISBLANK(J8),"",HYPERLINK(J8,"WARN"))</f>
@@ -13575,31 +13617,31 @@
         <v>43370</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2">
-        <v>332510</v>
+        <v>541611</v>
       </c>
       <c r="F13" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1">
-        <v>43437</v>
+        <v>43427</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>IF(ISBLANK(J13),"",HYPERLINK(J13,"WARN"))</f>
@@ -13649,31 +13691,31 @@
         <v>43370</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="E15" s="9">
-        <v>541611</v>
+        <v>332510</v>
       </c>
       <c r="F15" s="9">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="8">
-        <v>43427</v>
+        <v>43437</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K15" s="11" t="str">
         <f t="shared" ref="K15:K17" si="3">IF(ISBLANK(J15),"",HYPERLINK(J15,"WARN"))</f>
@@ -13875,13 +13917,13 @@
         <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2">
         <v>452111</v>
       </c>
       <c r="F21" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -13893,7 +13935,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="K21" s="5" t="str">
         <f t="shared" ref="K21" si="5">IF(ISBLANK(J21),"",HYPERLINK(J21,"WARN"))</f>
@@ -13911,13 +13953,13 @@
         <v>128</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="9">
         <v>452111</v>
       </c>
       <c r="F22" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>11</v>
@@ -13929,7 +13971,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="K22" s="11" t="str">
         <f>IF(ISBLANK(J22),"",HYPERLINK(J22,"WARN"))</f>
@@ -14903,72 +14945,72 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>42934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8">
-        <v>333249</v>
+        <v>45211</v>
       </c>
       <c r="F12" s="8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="8">
-        <v>43026</v>
+        <v>43002</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="37" t="str">
         <f>IF(ISBLANK(J12),"",HYPERLINK(J12,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>42934</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E13" s="8">
-        <v>45211</v>
+        <v>333249</v>
       </c>
       <c r="F13" s="8">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="8">
-        <v>43002</v>
+        <v>43026</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="37" t="str">
         <f t="shared" ref="K13:K20" si="2">IF(ISBLANK(J13),"",HYPERLINK(J13,"WARN"))</f>
@@ -15268,19 +15310,19 @@
         <v>42829</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1">
         <v>45231</v>
       </c>
       <c r="F22" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
@@ -15292,7 +15334,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="K22" s="35" t="str">
         <f>IF(ISBLANK(J22),"",HYPERLINK(J22,"WARN"))</f>
@@ -15310,7 +15352,7 @@
         <v>128</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E23" s="1">
         <v>45231</v>
@@ -15328,7 +15370,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K23" s="35" t="str">
         <f t="shared" ref="K23" si="3">IF(ISBLANK(J23),"",HYPERLINK(J23,"WARN"))</f>
@@ -15340,19 +15382,19 @@
         <v>42829</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1">
         <v>45231</v>
       </c>
       <c r="F24" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -15364,7 +15406,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K24" s="35" t="str">
         <f>IF(ISBLANK(J24),"",HYPERLINK(J24,"WARN"))</f>
@@ -15376,31 +15418,31 @@
         <v>42828</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="E25" s="1">
-        <v>336111</v>
+        <v>335110</v>
       </c>
       <c r="F25" s="1">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="1">
-        <v>42888</v>
+        <v>42881</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K25" s="35" t="str">
         <f t="shared" ref="K25" si="4">IF(ISBLANK(J25),"",HYPERLINK(J25,"WARN"))</f>
@@ -15412,31 +15454,31 @@
         <v>42828</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>132</v>
-      </c>
       <c r="E26" s="1">
-        <v>335110</v>
+        <v>336111</v>
       </c>
       <c r="F26" s="1">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="1">
-        <v>42881</v>
+        <v>42888</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K26" s="35" t="str">
         <f>IF(ISBLANK(J26),"",HYPERLINK(J26,"WARN"))</f>
@@ -15630,6 +15672,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -15769,26 +15820,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F17C5E-CF08-42A5-A8E4-C948CB8A050F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DBA5513-B46F-471C-BD2B-0A50ABDA0EC0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15801,12 +15851,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989573B8-9157-45CF-8D28-0B7BC63F4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76F1380-E5AF-4950-BDE0-0D3434D95B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="740">
   <si>
     <t>Date Received</t>
   </si>
@@ -2074,6 +2074,21 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
   </si>
   <si>
+    <t>Midwest Transport, Inc.</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001MkTS/GAyXsN5YVmKFzUGHMX_DF15O3wrKw6QlzeykyyIlCpM</t>
+  </si>
+  <si>
+    <t>Jabil Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001B5v3/i4z4PyA1w99uSB2B2Kl3eFwV2AXIhD4bk4Coq721kn8</t>
+  </si>
+  <si>
+    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh - Louisville</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000000pVGH/Qcp.v_kAltFligzcAZOODfbLEsYVlREXhhpczfWH9vU</t>
   </si>
   <si>
@@ -2255,9 +2270,6 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
-  </si>
-  <si>
-    <t>Cygnus Home Service, LLC / Schwans Home Services / Yelloh - Louisville</t>
   </si>
 </sst>
 </file>
@@ -2866,10 +2878,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2924,34 +2936,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45558</v>
+        <v>45566</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>108</v>
+        <v>332</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>735</v>
-      </c>
-      <c r="E2" s="55">
-        <v>722330</v>
+        <v>674</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="55">
+        <v>5</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="54">
-        <v>45618</v>
+        <v>45544</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -2960,70 +2972,70 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45517</v>
+        <v>45565</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>424420</v>
+        <v>336390</v>
       </c>
       <c r="F3" s="55">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K36" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K38" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45490</v>
+        <v>45558</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>541614</v>
+        <v>722330</v>
       </c>
       <c r="F4" s="55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3032,34 +3044,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45483</v>
+        <v>45517</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>493110</v>
+        <v>424420</v>
       </c>
       <c r="F5" s="55">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45483</v>
+        <v>45618</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3068,34 +3080,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>335991</v>
+        <v>541614</v>
       </c>
       <c r="F6" s="55">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
-        <v>45481</v>
+        <v>45552</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3104,31 +3116,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45463</v>
+        <v>45483</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>683</v>
+        <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>336390</v>
+        <v>493110</v>
       </c>
       <c r="F7" s="55">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45464</v>
+        <v>45483</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>685</v>
@@ -3140,28 +3152,28 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45448</v>
+        <v>45481</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>45459</v>
+        <v>335991</v>
       </c>
       <c r="F8" s="55">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>12</v>
@@ -3176,34 +3188,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>225</v>
+        <v>688</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E9" s="55">
-        <v>332999</v>
+        <v>336390</v>
       </c>
       <c r="F9" s="55">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45657</v>
+        <v>45464</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3212,7 +3224,7 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>29</v>
@@ -3221,25 +3233,25 @@
         <v>225</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E10" s="55">
-        <v>314999</v>
+        <v>45459</v>
       </c>
       <c r="F10" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3248,34 +3260,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E11" s="55">
-        <v>722330</v>
+        <v>332999</v>
       </c>
       <c r="F11" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45500</v>
+        <v>45657</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3293,25 +3305,25 @@
         <v>225</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F12" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3323,19 +3335,19 @@
         <v>45441</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E13" s="55">
         <v>722330</v>
       </c>
       <c r="F13" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
@@ -3347,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3359,19 +3371,19 @@
         <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E14" s="55">
         <v>722330</v>
       </c>
       <c r="F14" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
@@ -3383,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3395,19 +3407,19 @@
         <v>45441</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E15" s="55">
         <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3419,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3428,34 +3440,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F16" s="55">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3464,34 +3476,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E17" s="55">
-        <v>326199</v>
+        <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45450</v>
+        <v>45500</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3500,34 +3512,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45390</v>
+        <v>45399</v>
       </c>
       <c r="B18" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="E18" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F18" s="55">
         <v>40</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>706</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>10</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45510</v>
+        <v>45459</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>10</v>
+        <v>708</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3536,34 +3548,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F19" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3572,34 +3584,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45363</v>
+        <v>45390</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>709</v>
-      </c>
-      <c r="E20" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F20" s="55">
-        <v>79</v>
+        <v>711</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45366</v>
+        <v>45510</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>710</v>
+        <v>10</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3608,7 +3620,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>108</v>
@@ -3617,25 +3629,25 @@
         <v>128</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>404</v>
+        <v>712</v>
       </c>
       <c r="E21" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F21" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3644,34 +3656,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E22" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F22" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H22" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3680,7 +3692,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>108</v>
@@ -3689,25 +3701,25 @@
         <v>128</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>714</v>
+        <v>404</v>
       </c>
       <c r="E23" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F23" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3716,34 +3728,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E24" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F24" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3752,34 +3764,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E25" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F25" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3788,34 +3800,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E26" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F26" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3824,34 +3836,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E27" s="55">
-        <v>336350</v>
+        <v>611511</v>
       </c>
       <c r="F27" s="55">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45401</v>
+        <v>45315</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3860,34 +3872,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E28" s="55">
-        <v>561720</v>
+        <v>336110</v>
       </c>
       <c r="F28" s="55">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45299</v>
+        <v>45365</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3896,34 +3908,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E29" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F29" s="55">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3941,13 +3953,13 @@
         <v>238</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E30" s="55">
         <v>561720</v>
       </c>
       <c r="F30" s="55">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>16</v>
@@ -3959,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3977,13 +3989,13 @@
         <v>238</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E31" s="55">
         <v>561720</v>
       </c>
       <c r="F31" s="55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>16</v>
@@ -3995,7 +4007,7 @@
         <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4004,34 +4016,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E32" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H32" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>10</v>
+        <v>732</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4040,34 +4052,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E33" s="55">
         <v>561720</v>
       </c>
       <c r="F33" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I33" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4079,31 +4091,31 @@
         <v>45295</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="E34" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F34" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>731</v>
+        <v>10</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4115,19 +4127,19 @@
         <v>45295</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E35" s="55">
         <v>561720</v>
       </c>
       <c r="F35" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>16</v>
@@ -4139,7 +4151,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4148,36 +4160,108 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>729</v>
+      </c>
+      <c r="E36" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F36" s="55">
+        <v>40</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>736</v>
+      </c>
+      <c r="K36" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>729</v>
+      </c>
+      <c r="E37" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F37" s="55">
+        <v>48</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="K37" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="54">
         <v>45293</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B38" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C38" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="55" t="s">
-        <v>733</v>
-      </c>
-      <c r="E36" s="55">
+      <c r="D38" s="55" t="s">
+        <v>738</v>
+      </c>
+      <c r="E38" s="55">
         <v>541714</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F38" s="55">
         <v>136</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G38" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="54">
+      <c r="H38" s="54">
         <v>45351</v>
       </c>
-      <c r="I36" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="53" t="s">
-        <v>734</v>
-      </c>
-      <c r="K36" s="57" t="str">
+      <c r="I38" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -15672,6 +15756,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15680,7 +15770,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -15820,25 +15910,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DBA5513-B46F-471C-BD2B-0A50ABDA0EC0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15851,4 +15923,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE312A2-1508-4F75-A5E2-5F145813F371}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76F1380-E5AF-4950-BDE0-0D3434D95B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6EFECF-83F2-4902-B972-0B06387FA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="742">
   <si>
     <t>Date Received</t>
   </si>
@@ -2078,6 +2078,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001MkTS/GAyXsN5YVmKFzUGHMX_DF15O3wrKw6QlzeykyyIlCpM</t>
+  </si>
+  <si>
+    <t>Kodi Collective LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001Phqn/F6GHA1qCGbvzJeGyND98zByfcveK3jxaVQytDdilkA8</t>
   </si>
   <si>
     <t>Jabil Inc</t>
@@ -2878,10 +2884,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2939,31 +2945,31 @@
         <v>45566</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>674</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>10</v>
+        <v>676</v>
+      </c>
+      <c r="E2" s="55">
+        <v>323120</v>
       </c>
       <c r="F2" s="55">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45544</v>
+        <v>45626</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -2972,64 +2978,64 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E3" s="55">
-        <v>336390</v>
+        <v>4841</v>
       </c>
       <c r="F3" s="55">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45632</v>
+        <v>45544</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K38" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f>IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>722330</v>
+        <v>336390</v>
       </c>
       <c r="F4" s="55">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>12</v>
@@ -3038,37 +3044,37 @@
         <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K4:K39" si="0">IF(ISBLANK(J4),"",HYPERLINK(J4,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F5" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" s="54">
         <v>45618</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>681</v>
@@ -3080,28 +3086,28 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F6" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3116,31 +3122,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F7" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>685</v>
@@ -3152,28 +3158,28 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F8" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>12</v>
@@ -3188,34 +3194,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C9" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>689</v>
-      </c>
       <c r="E9" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F9" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3224,31 +3230,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>225</v>
+        <v>690</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>691</v>
       </c>
       <c r="E10" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F10" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>692</v>
@@ -3260,7 +3266,7 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>29</v>
@@ -3272,19 +3278,19 @@
         <v>693</v>
       </c>
       <c r="E11" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F11" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>694</v>
@@ -3296,7 +3302,7 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>29</v>
@@ -3308,7 +3314,7 @@
         <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F12" s="55">
         <v>94</v>
@@ -3317,7 +3323,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3335,25 +3341,25 @@
         <v>45441</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F13" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3371,10 +3377,10 @@
         <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
@@ -3383,7 +3389,7 @@
         <v>722330</v>
       </c>
       <c r="F14" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
@@ -3407,10 +3413,10 @@
         <v>45441</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
@@ -3419,7 +3425,7 @@
         <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3443,10 +3449,10 @@
         <v>45441</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
@@ -3455,7 +3461,7 @@
         <v>722330</v>
       </c>
       <c r="F16" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
@@ -3479,10 +3485,10 @@
         <v>45441</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
@@ -3491,7 +3497,7 @@
         <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
@@ -3512,28 +3518,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>707</v>
       </c>
       <c r="E18" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F18" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3548,28 +3554,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F19" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3584,7 +3590,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
@@ -3595,23 +3601,23 @@
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="E20" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>10</v>
+      <c r="E20" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F20" s="55">
+        <v>140</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>10</v>
+        <v>712</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3620,34 +3626,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>712</v>
-      </c>
-      <c r="E21" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F21" s="55">
-        <v>78</v>
+        <v>713</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>713</v>
+        <v>10</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3656,31 +3662,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>714</v>
       </c>
       <c r="E22" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F22" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>715</v>
@@ -3692,34 +3698,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>404</v>
+        <v>716</v>
       </c>
       <c r="E23" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F23" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H23" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3728,28 +3734,28 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>717</v>
+        <v>404</v>
       </c>
       <c r="E24" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F24" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
@@ -3764,31 +3770,31 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>719</v>
       </c>
       <c r="E25" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F25" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
         <v>720</v>
@@ -3800,31 +3806,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E26" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F26" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J26" s="53" t="s">
         <v>722</v>
@@ -3836,28 +3842,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>723</v>
       </c>
       <c r="E27" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F27" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>13</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>29</v>
@@ -3884,16 +3890,16 @@
         <v>725</v>
       </c>
       <c r="E28" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F28" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
@@ -3908,28 +3914,28 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>727</v>
       </c>
       <c r="E29" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F29" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
@@ -3944,28 +3950,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E30" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F30" s="55">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -3989,13 +3995,13 @@
         <v>238</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E31" s="55">
         <v>561720</v>
       </c>
       <c r="F31" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>16</v>
@@ -4007,7 +4013,7 @@
         <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4025,13 +4031,13 @@
         <v>238</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E32" s="55">
         <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>16</v>
@@ -4043,7 +4049,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4061,13 +4067,13 @@
         <v>238</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E33" s="55">
         <v>561720</v>
       </c>
       <c r="F33" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
@@ -4079,7 +4085,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4088,34 +4094,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E34" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F34" s="55">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H34" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>10</v>
+        <v>735</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4127,31 +4133,31 @@
         <v>45295</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="E35" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F35" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>735</v>
+        <v>10</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4163,13 +4169,13 @@
         <v>45295</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E36" s="55">
         <v>561720</v>
@@ -4187,7 +4193,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4205,13 +4211,13 @@
         <v>226</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
       </c>
       <c r="F37" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>16</v>
@@ -4223,7 +4229,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4232,28 +4238,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E38" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F38" s="55">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H38" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I38" s="55" t="s">
         <v>13</v>
@@ -4262,6 +4268,42 @@
         <v>739</v>
       </c>
       <c r="K38" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="E39" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F39" s="55">
+        <v>136</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -15756,12 +15798,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15770,7 +15806,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -15910,7 +15946,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1FB4A5-A491-4EF4-AEF2-6A0C4D626A67}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15923,16 +15977,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE312A2-1508-4F75-A5E2-5F145813F371}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6EFECF-83F2-4902-B972-0B06387FA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71C5F80-7D36-408D-ADE1-609A4A8A8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="744">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Wayfair LLC - Florence Outlet</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001WISg/Tb5bZVj6uC_QuGybjGNOOJrFNbqu0rf1RoBfvTEsKZw</t>
   </si>
   <si>
     <t>Midwest Transport, Inc.</t>
@@ -2884,10 +2890,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2942,34 +2948,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>323120</v>
+        <v>449110</v>
       </c>
       <c r="F2" s="55">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -2987,7 +2993,7 @@
         <v>333</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E3" s="55">
         <v>4841</v>
@@ -3005,73 +3011,73 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f>IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K40" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>336390</v>
+        <v>323111</v>
       </c>
       <c r="F4" s="55">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45632</v>
+        <v>45626</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
-        <f t="shared" ref="K4:K39" si="0">IF(ISBLANK(J4),"",HYPERLINK(J4,"WARN"))</f>
+        <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>722330</v>
+        <v>336390</v>
       </c>
       <c r="F5" s="55">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>12</v>
@@ -3086,31 +3092,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F6" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
         <v>45618</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>683</v>
@@ -3122,28 +3128,28 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F7" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3158,31 +3164,31 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F8" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>687</v>
@@ -3194,28 +3200,28 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F9" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>12</v>
@@ -3230,34 +3236,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>691</v>
-      </c>
       <c r="E10" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F10" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3266,31 +3272,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>225</v>
+        <v>692</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>693</v>
       </c>
       <c r="E11" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F11" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>694</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>29</v>
@@ -3314,19 +3320,19 @@
         <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F12" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>696</v>
@@ -3338,7 +3344,7 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>29</v>
@@ -3350,7 +3356,7 @@
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F13" s="55">
         <v>94</v>
@@ -3359,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3377,25 +3383,25 @@
         <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F14" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3413,10 +3419,10 @@
         <v>45441</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
@@ -3425,7 +3431,7 @@
         <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3449,10 +3455,10 @@
         <v>45441</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
@@ -3461,7 +3467,7 @@
         <v>722330</v>
       </c>
       <c r="F16" s="55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
@@ -3485,10 +3491,10 @@
         <v>45441</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
@@ -3497,7 +3503,7 @@
         <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
@@ -3521,10 +3527,10 @@
         <v>45441</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>707</v>
@@ -3533,7 +3539,7 @@
         <v>722330</v>
       </c>
       <c r="F18" s="55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
@@ -3554,28 +3560,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F19" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3590,28 +3596,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
       <c r="E20" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F20" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3626,7 +3632,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>40</v>
@@ -3637,23 +3643,23 @@
       <c r="D21" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>10</v>
+      <c r="E21" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F21" s="55">
+        <v>140</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>10</v>
+        <v>714</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3662,34 +3668,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>714</v>
-      </c>
-      <c r="E22" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F22" s="55">
-        <v>78</v>
+        <v>715</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>715</v>
+        <v>10</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3698,31 +3704,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>716</v>
       </c>
       <c r="E23" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F23" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
         <v>717</v>
@@ -3734,34 +3740,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>404</v>
+        <v>718</v>
       </c>
       <c r="E24" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F24" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3770,28 +3776,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>719</v>
+        <v>404</v>
       </c>
       <c r="E25" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F25" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -3806,31 +3812,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E26" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F26" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
         <v>722</v>
@@ -3842,31 +3848,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>723</v>
       </c>
       <c r="E27" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F27" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J27" s="53" t="s">
         <v>724</v>
@@ -3878,28 +3884,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>725</v>
       </c>
       <c r="E28" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F28" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
@@ -3914,7 +3920,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>29</v>
@@ -3926,16 +3932,16 @@
         <v>727</v>
       </c>
       <c r="E29" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F29" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
@@ -3950,28 +3956,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E30" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F30" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -3986,28 +3992,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E31" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F31" s="55">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4031,13 +4037,13 @@
         <v>238</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E32" s="55">
         <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>16</v>
@@ -4049,7 +4055,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4067,13 +4073,13 @@
         <v>238</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E33" s="55">
         <v>561720</v>
       </c>
       <c r="F33" s="55">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
@@ -4085,7 +4091,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4103,13 +4109,13 @@
         <v>238</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
       </c>
       <c r="F34" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>16</v>
@@ -4121,7 +4127,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4130,34 +4136,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E35" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F35" s="55">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H35" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>10</v>
+        <v>737</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4169,31 +4175,31 @@
         <v>45295</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E36" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F36" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4205,13 +4211,13 @@
         <v>45295</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
@@ -4229,7 +4235,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4247,13 +4253,13 @@
         <v>226</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E38" s="55">
         <v>561720</v>
       </c>
       <c r="F38" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>16</v>
@@ -4265,7 +4271,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4274,28 +4280,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E39" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F39" s="55">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H39" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
@@ -4304,6 +4310,42 @@
         <v>741</v>
       </c>
       <c r="K39" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="E40" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F40" s="55">
+        <v>136</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -15961,7 +16003,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1FB4A5-A491-4EF4-AEF2-6A0C4D626A67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D076749D-598D-4213-A17D-02A733D43CBC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71C5F80-7D36-408D-ADE1-609A4A8A8143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6EFECF-83F2-4902-B972-0B06387FA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="742">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,12 +2072,6 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
-  </si>
-  <si>
-    <t>Wayfair LLC - Florence Outlet</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001WISg/Tb5bZVj6uC_QuGybjGNOOJrFNbqu0rf1RoBfvTEsKZw</t>
   </si>
   <si>
     <t>Midwest Transport, Inc.</t>
@@ -2890,10 +2884,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2948,34 +2942,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45575</v>
+        <v>45566</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E2" s="55">
-        <v>449110</v>
+        <v>323120</v>
       </c>
       <c r="F2" s="55">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -2993,7 +2987,7 @@
         <v>333</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E3" s="55">
         <v>4841</v>
@@ -3011,73 +3005,73 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K40" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f>IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>323111</v>
+        <v>336390</v>
       </c>
       <c r="F4" s="55">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" s="54">
-        <v>45626</v>
+        <v>45632</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K4:K39" si="0">IF(ISBLANK(J4),"",HYPERLINK(J4,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>336390</v>
+        <v>722330</v>
       </c>
       <c r="F5" s="55">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="54">
-        <v>45632</v>
+        <v>45618</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>12</v>
@@ -3092,31 +3086,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45558</v>
+        <v>45517</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>722330</v>
+        <v>424420</v>
       </c>
       <c r="F6" s="55">
+        <v>58</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>16</v>
       </c>
       <c r="H6" s="54">
         <v>45618</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>683</v>
@@ -3128,28 +3122,28 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45517</v>
+        <v>45490</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>424420</v>
+        <v>541614</v>
       </c>
       <c r="F7" s="55">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="54">
-        <v>45618</v>
+        <v>45552</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3164,31 +3158,31 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45490</v>
+        <v>45483</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>541614</v>
+        <v>493110</v>
       </c>
       <c r="F8" s="55">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45552</v>
+        <v>45483</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>687</v>
@@ -3200,28 +3194,28 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45483</v>
+        <v>45481</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>493110</v>
+        <v>335991</v>
       </c>
       <c r="F9" s="55">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45483</v>
+        <v>45481</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>12</v>
@@ -3236,34 +3230,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45481</v>
+        <v>45463</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>230</v>
+        <v>690</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E10" s="55">
-        <v>335991</v>
+        <v>336390</v>
       </c>
       <c r="F10" s="55">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45481</v>
+        <v>45464</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3272,31 +3266,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45463</v>
+        <v>45448</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>692</v>
+        <v>225</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>693</v>
       </c>
       <c r="E11" s="55">
-        <v>336390</v>
+        <v>45459</v>
       </c>
       <c r="F11" s="55">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45464</v>
+        <v>45511</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>694</v>
@@ -3308,7 +3302,7 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45448</v>
+        <v>45442</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>29</v>
@@ -3320,19 +3314,19 @@
         <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>45459</v>
+        <v>332999</v>
       </c>
       <c r="F12" s="55">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45511</v>
+        <v>45657</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>696</v>
@@ -3344,7 +3338,7 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>29</v>
@@ -3356,7 +3350,7 @@
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>332999</v>
+        <v>314999</v>
       </c>
       <c r="F13" s="55">
         <v>94</v>
@@ -3365,7 +3359,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45657</v>
+        <v>45504</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3383,25 +3377,25 @@
         <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>314999</v>
+        <v>722330</v>
       </c>
       <c r="F14" s="55">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45504</v>
+        <v>45500</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3419,10 +3413,10 @@
         <v>45441</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
@@ -3431,7 +3425,7 @@
         <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3455,10 +3449,10 @@
         <v>45441</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
@@ -3467,7 +3461,7 @@
         <v>722330</v>
       </c>
       <c r="F16" s="55">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
@@ -3491,10 +3485,10 @@
         <v>45441</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
@@ -3503,7 +3497,7 @@
         <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
@@ -3527,10 +3521,10 @@
         <v>45441</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>370</v>
+        <v>231</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>707</v>
@@ -3539,7 +3533,7 @@
         <v>722330</v>
       </c>
       <c r="F18" s="55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
@@ -3560,28 +3554,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45441</v>
+        <v>45399</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>722330</v>
+        <v>336411</v>
       </c>
       <c r="F19" s="55">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45500</v>
+        <v>45459</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3596,28 +3590,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45399</v>
+        <v>45391</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
       <c r="E20" s="55">
-        <v>336411</v>
+        <v>326199</v>
       </c>
       <c r="F20" s="55">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45459</v>
+        <v>45450</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3632,7 +3626,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>40</v>
@@ -3643,23 +3637,23 @@
       <c r="D21" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="E21" s="55">
-        <v>326199</v>
-      </c>
-      <c r="F21" s="55">
-        <v>140</v>
+      <c r="E21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45450</v>
+        <v>45510</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>714</v>
+        <v>10</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3668,34 +3662,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45390</v>
+        <v>45378</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="E22" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F22" s="55">
+        <v>78</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="54">
+        <v>45382</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>715</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="54">
-        <v>45510</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>10</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3704,31 +3698,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45378</v>
+        <v>45363</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>716</v>
       </c>
       <c r="E23" s="55">
-        <v>561720</v>
+        <v>541620</v>
       </c>
       <c r="F23" s="55">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="54">
-        <v>45382</v>
+        <v>45366</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
         <v>717</v>
@@ -3740,34 +3734,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45363</v>
+        <v>45357</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D24" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" s="55">
+        <v>493110</v>
+      </c>
+      <c r="F24" s="55">
+        <v>200</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54">
+        <v>45418</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>718</v>
-      </c>
-      <c r="E24" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F24" s="55">
-        <v>79</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="54">
-        <v>45366</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>719</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3776,28 +3770,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45357</v>
+        <v>45352</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>404</v>
+        <v>719</v>
       </c>
       <c r="E25" s="55">
-        <v>493110</v>
+        <v>21211</v>
       </c>
       <c r="F25" s="55">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45418</v>
+        <v>45411</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -3812,31 +3806,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45352</v>
+        <v>45348</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E26" s="55">
-        <v>21211</v>
+        <v>316200</v>
       </c>
       <c r="F26" s="55">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45411</v>
+        <v>45415</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J26" s="53" t="s">
         <v>722</v>
@@ -3848,31 +3842,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45348</v>
+        <v>45320</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>723</v>
       </c>
       <c r="E27" s="55">
-        <v>316200</v>
+        <v>561611</v>
       </c>
       <c r="F27" s="55">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45415</v>
+        <v>45380</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
         <v>724</v>
@@ -3884,28 +3878,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45320</v>
+        <v>45315</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>725</v>
       </c>
       <c r="E28" s="55">
-        <v>561611</v>
+        <v>611511</v>
       </c>
       <c r="F28" s="55">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45380</v>
+        <v>45315</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
@@ -3920,7 +3914,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45315</v>
+        <v>45302</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>29</v>
@@ -3932,16 +3926,16 @@
         <v>727</v>
       </c>
       <c r="E29" s="55">
-        <v>611511</v>
+        <v>336110</v>
       </c>
       <c r="F29" s="55">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45315</v>
+        <v>45365</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
@@ -3956,28 +3950,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E30" s="55">
-        <v>336110</v>
+        <v>336350</v>
       </c>
       <c r="F30" s="55">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H30" s="54">
-        <v>45365</v>
+        <v>45401</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -3992,28 +3986,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E31" s="55">
-        <v>336350</v>
+        <v>561720</v>
       </c>
       <c r="F31" s="55">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45401</v>
+        <v>45299</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4037,13 +4031,13 @@
         <v>238</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E32" s="55">
         <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>16</v>
@@ -4055,7 +4049,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4073,13 +4067,13 @@
         <v>238</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E33" s="55">
         <v>561720</v>
       </c>
       <c r="F33" s="55">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
@@ -4091,7 +4085,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4109,13 +4103,13 @@
         <v>238</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
       </c>
       <c r="F34" s="55">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>16</v>
@@ -4127,7 +4121,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4136,34 +4130,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E35" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F35" s="55">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45299</v>
+        <v>45295</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4175,31 +4169,31 @@
         <v>45295</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E36" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F36" s="55">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H36" s="54">
-        <v>45295</v>
+        <v>45356</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>10</v>
+        <v>737</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4211,13 +4205,13 @@
         <v>45295</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
@@ -4235,7 +4229,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4253,13 +4247,13 @@
         <v>226</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E38" s="55">
         <v>561720</v>
       </c>
       <c r="F38" s="55">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>16</v>
@@ -4271,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4280,28 +4274,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="E39" s="55">
-        <v>561720</v>
+        <v>541714</v>
       </c>
       <c r="F39" s="55">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H39" s="54">
-        <v>45356</v>
+        <v>45351</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
@@ -4310,42 +4304,6 @@
         <v>741</v>
       </c>
       <c r="K39" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="54">
-        <v>45293</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="E40" s="55">
-        <v>541714</v>
-      </c>
-      <c r="F40" s="55">
-        <v>136</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="54">
-        <v>45351</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>743</v>
-      </c>
-      <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16003,7 +15961,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D076749D-598D-4213-A17D-02A733D43CBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7F42-D2F0-4253-B03A-DCD32E64A53F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.hampton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6EFECF-83F2-4902-B972-0B06387FA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CD1E0D-5CB8-451F-9CDE-E2664C768659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="744">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Venminder</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001hKVx/k1iuDrxw49ccJFFouN6ATncyaZMmdZ9TLF6Vv9XVRiU</t>
   </si>
   <si>
     <t>Midwest Transport, Inc.</t>
@@ -2884,11 +2890,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2942,34 +2946,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>323120</v>
+        <v>513210</v>
       </c>
       <c r="F2" s="55">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="54">
-        <v>45626</v>
+        <v>45641</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -2987,7 +2991,7 @@
         <v>333</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E3" s="55">
         <v>4841</v>
@@ -3005,73 +3009,73 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f>IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K40" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>336390</v>
+        <v>323111</v>
       </c>
       <c r="F4" s="55">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45632</v>
+        <v>45626</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>679</v>
       </c>
       <c r="K4" s="57" t="str">
-        <f t="shared" ref="K4:K39" si="0">IF(ISBLANK(J4),"",HYPERLINK(J4,"WARN"))</f>
+        <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>722330</v>
+        <v>336390</v>
       </c>
       <c r="F5" s="55">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>12</v>
@@ -3086,31 +3090,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F6" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
         <v>45618</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>683</v>
@@ -3122,28 +3126,28 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F7" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3158,31 +3162,31 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F8" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>687</v>
@@ -3194,28 +3198,28 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F9" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>12</v>
@@ -3230,34 +3234,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>691</v>
-      </c>
       <c r="E10" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F10" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3266,31 +3270,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>225</v>
+        <v>692</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>693</v>
       </c>
       <c r="E11" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F11" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>694</v>
@@ -3302,7 +3306,7 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>29</v>
@@ -3314,19 +3318,19 @@
         <v>695</v>
       </c>
       <c r="E12" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F12" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>696</v>
@@ -3338,7 +3342,7 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>29</v>
@@ -3350,7 +3354,7 @@
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F13" s="55">
         <v>94</v>
@@ -3359,7 +3363,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3377,25 +3381,25 @@
         <v>45441</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F14" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3413,10 +3417,10 @@
         <v>45441</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
@@ -3425,7 +3429,7 @@
         <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3449,10 +3453,10 @@
         <v>45441</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
@@ -3461,7 +3465,7 @@
         <v>722330</v>
       </c>
       <c r="F16" s="55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
@@ -3485,10 +3489,10 @@
         <v>45441</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
@@ -3497,7 +3501,7 @@
         <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
@@ -3521,10 +3525,10 @@
         <v>45441</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>707</v>
@@ -3533,7 +3537,7 @@
         <v>722330</v>
       </c>
       <c r="F18" s="55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
@@ -3554,28 +3558,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F19" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3590,28 +3594,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
       <c r="E20" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F20" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3626,7 +3630,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>40</v>
@@ -3637,23 +3641,23 @@
       <c r="D21" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>10</v>
+      <c r="E21" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F21" s="55">
+        <v>140</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>10</v>
+        <v>714</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3662,34 +3666,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>714</v>
-      </c>
-      <c r="E22" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F22" s="55">
-        <v>78</v>
+        <v>715</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>715</v>
+        <v>10</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3698,31 +3702,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>716</v>
       </c>
       <c r="E23" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F23" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
         <v>717</v>
@@ -3734,34 +3738,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>404</v>
+        <v>718</v>
       </c>
       <c r="E24" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F24" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3770,28 +3774,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>719</v>
+        <v>404</v>
       </c>
       <c r="E25" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F25" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -3806,31 +3810,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E26" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F26" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
         <v>722</v>
@@ -3842,31 +3846,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>723</v>
       </c>
       <c r="E27" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F27" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J27" s="53" t="s">
         <v>724</v>
@@ -3878,28 +3882,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>725</v>
       </c>
       <c r="E28" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F28" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
@@ -3914,7 +3918,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>29</v>
@@ -3926,16 +3930,16 @@
         <v>727</v>
       </c>
       <c r="E29" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F29" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
@@ -3950,28 +3954,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E30" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F30" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -3986,28 +3990,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E31" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F31" s="55">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4031,13 +4035,13 @@
         <v>238</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E32" s="55">
         <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>16</v>
@@ -4049,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4067,13 +4071,13 @@
         <v>238</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E33" s="55">
         <v>561720</v>
       </c>
       <c r="F33" s="55">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
@@ -4085,7 +4089,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4103,13 +4107,13 @@
         <v>238</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
       </c>
       <c r="F34" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>16</v>
@@ -4121,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4130,34 +4134,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E35" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F35" s="55">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H35" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>10</v>
+        <v>737</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4169,31 +4173,31 @@
         <v>45295</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E36" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F36" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4205,13 +4209,13 @@
         <v>45295</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
@@ -4229,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4247,13 +4251,13 @@
         <v>226</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E38" s="55">
         <v>561720</v>
       </c>
       <c r="F38" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>16</v>
@@ -4265,7 +4269,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4274,28 +4278,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E39" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F39" s="55">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H39" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
@@ -4304,6 +4308,42 @@
         <v>741</v>
       </c>
       <c r="K39" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>742</v>
+      </c>
+      <c r="E40" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F40" s="55">
+        <v>136</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -15961,7 +16001,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7F42-D2F0-4253-B03A-DCD32E64A53F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2CB5CE3-A4C5-460C-A14C-F826FBBE5BFE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.hampton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CD1E0D-5CB8-451F-9CDE-E2664C768659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECC4CC5-104E-4983-9008-1D679110AC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="748">
   <si>
     <t>Date Received</t>
   </si>
@@ -2074,10 +2074,22 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
   </si>
   <si>
+    <t>Avante Health, Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002CeQL/8RyjSS9Wyx_RAWWRRMWKxHnzPx3vQz0Q20zdKJ8pEzs</t>
+  </si>
+  <si>
     <t>Venminder</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000001hKVx/k1iuDrxw49ccJFFouN6ATncyaZMmdZ9TLF6Vv9XVRiU</t>
+  </si>
+  <si>
+    <t>Wayfair LLC - Florence Outlet</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000026Q0H/BkEBRVOw2aDUoF_IosyMRplHzd9QlGRDQP9bZwO_N.k</t>
   </si>
   <si>
     <t>Midwest Transport, Inc.</t>
@@ -2890,9 +2902,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2946,28 +2960,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>513210</v>
+        <v>423450</v>
       </c>
       <c r="F2" s="55">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45641</v>
+        <v>45621</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -2982,28 +2996,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>4841</v>
+        <v>513210</v>
       </c>
       <c r="F3" s="55">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="54">
-        <v>45544</v>
+        <v>45641</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
@@ -3012,34 +3026,34 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K40" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K42" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>323111</v>
+        <v>449110</v>
       </c>
       <c r="F4" s="55">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" s="54">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3054,31 +3068,31 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>336390</v>
+        <v>4841</v>
       </c>
       <c r="F5" s="55">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45632</v>
+        <v>45544</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>681</v>
@@ -3090,31 +3104,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45558</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>722330</v>
+        <v>323111</v>
       </c>
       <c r="F6" s="55">
+        <v>266</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" s="54">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>683</v>
@@ -3126,31 +3140,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45517</v>
+        <v>45565</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>424420</v>
+        <v>336390</v>
       </c>
       <c r="F7" s="55">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>685</v>
@@ -3162,31 +3176,31 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45490</v>
+        <v>45558</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>541614</v>
+        <v>722330</v>
       </c>
       <c r="F8" s="55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>687</v>
@@ -3198,31 +3212,31 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45483</v>
+        <v>45517</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>493110</v>
+        <v>424420</v>
       </c>
       <c r="F9" s="55">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45483</v>
+        <v>45618</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>689</v>
@@ -3234,31 +3248,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>335991</v>
+        <v>541614</v>
       </c>
       <c r="F10" s="55">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45481</v>
+        <v>45552</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>691</v>
@@ -3270,34 +3284,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45463</v>
+        <v>45483</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>693</v>
-      </c>
       <c r="E11" s="55">
-        <v>336390</v>
+        <v>493110</v>
       </c>
       <c r="F11" s="55">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45464</v>
+        <v>45483</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3306,34 +3320,34 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45448</v>
+        <v>45481</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>45459</v>
+        <v>335991</v>
       </c>
       <c r="F12" s="55">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3342,31 +3356,31 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>225</v>
+        <v>696</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>697</v>
       </c>
       <c r="E13" s="55">
-        <v>332999</v>
+        <v>336390</v>
       </c>
       <c r="F13" s="55">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45657</v>
+        <v>45464</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>698</v>
@@ -3378,7 +3392,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>29</v>
@@ -3390,19 +3404,19 @@
         <v>699</v>
       </c>
       <c r="E14" s="55">
-        <v>314999</v>
+        <v>45459</v>
       </c>
       <c r="F14" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>700</v>
@@ -3414,28 +3428,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
       </c>
       <c r="E15" s="55">
-        <v>722330</v>
+        <v>332999</v>
       </c>
       <c r="F15" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45500</v>
+        <v>45657</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -3462,16 +3476,16 @@
         <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F16" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3489,10 +3503,10 @@
         <v>45441</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
@@ -3501,7 +3515,7 @@
         <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
@@ -3525,10 +3539,10 @@
         <v>45441</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>707</v>
@@ -3537,7 +3551,7 @@
         <v>722330</v>
       </c>
       <c r="F18" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
@@ -3561,10 +3575,10 @@
         <v>45441</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
@@ -3573,7 +3587,7 @@
         <v>722330</v>
       </c>
       <c r="F19" s="55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
@@ -3594,28 +3608,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
       <c r="E20" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F20" s="55">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3630,28 +3644,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>713</v>
       </c>
       <c r="E21" s="55">
-        <v>326199</v>
+        <v>722330</v>
       </c>
       <c r="F21" s="55">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45450</v>
+        <v>45500</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -3666,34 +3680,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45390</v>
+        <v>45399</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>715</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>10</v>
+      <c r="E22" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F22" s="55">
+        <v>40</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45510</v>
+        <v>45459</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>10</v>
+        <v>716</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3702,34 +3716,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E23" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F23" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3738,34 +3752,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45363</v>
+        <v>45390</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>718</v>
-      </c>
-      <c r="E24" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F24" s="55">
-        <v>79</v>
+        <v>719</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45366</v>
+        <v>45510</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>719</v>
+        <v>10</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3774,7 +3788,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>108</v>
@@ -3783,25 +3797,25 @@
         <v>128</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>404</v>
+        <v>720</v>
       </c>
       <c r="E25" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F25" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H25" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3810,34 +3824,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E26" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F26" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H26" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3846,7 +3860,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>108</v>
@@ -3855,22 +3869,22 @@
         <v>128</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>723</v>
+        <v>404</v>
       </c>
       <c r="E27" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F27" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
         <v>724</v>
@@ -3882,28 +3896,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>725</v>
       </c>
       <c r="E28" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F28" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
@@ -3918,31 +3932,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>727</v>
       </c>
       <c r="E29" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F29" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J29" s="53" t="s">
         <v>728</v>
@@ -3954,28 +3968,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E30" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F30" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -3990,28 +4004,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E31" s="55">
-        <v>336350</v>
+        <v>611511</v>
       </c>
       <c r="F31" s="55">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45401</v>
+        <v>45315</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4026,28 +4040,28 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>733</v>
       </c>
       <c r="E32" s="55">
-        <v>561720</v>
+        <v>336110</v>
       </c>
       <c r="F32" s="55">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45299</v>
+        <v>45365</v>
       </c>
       <c r="I32" s="55" t="s">
         <v>13</v>
@@ -4062,34 +4076,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E33" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F33" s="55">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I33" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4107,13 +4121,13 @@
         <v>238</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
       </c>
       <c r="F34" s="55">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>16</v>
@@ -4125,7 +4139,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4143,13 +4157,13 @@
         <v>238</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E35" s="55">
         <v>561720</v>
       </c>
       <c r="F35" s="55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>16</v>
@@ -4161,7 +4175,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4170,34 +4184,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E36" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F36" s="55">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H36" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>10</v>
+        <v>740</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4206,34 +4220,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
       </c>
       <c r="F37" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4245,31 +4259,31 @@
         <v>45295</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="E38" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F38" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H38" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>740</v>
+        <v>10</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4281,19 +4295,19 @@
         <v>45295</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E39" s="55">
         <v>561720</v>
       </c>
       <c r="F39" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>16</v>
@@ -4305,7 +4319,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4314,36 +4328,108 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>737</v>
+      </c>
+      <c r="E40" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F40" s="55">
+        <v>40</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="K40" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>737</v>
+      </c>
+      <c r="E41" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F41" s="55">
+        <v>48</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>745</v>
+      </c>
+      <c r="K41" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="54">
         <v>45293</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B42" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C42" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="E40" s="55">
+      <c r="D42" s="55" t="s">
+        <v>746</v>
+      </c>
+      <c r="E42" s="55">
         <v>541714</v>
       </c>
-      <c r="F40" s="55">
+      <c r="F42" s="55">
         <v>136</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G42" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H42" s="54">
         <v>45351</v>
       </c>
-      <c r="I40" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>743</v>
-      </c>
-      <c r="K40" s="57" t="str">
+      <c r="I42" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>747</v>
+      </c>
+      <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16001,7 +16087,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2CB5CE3-A4C5-460C-A14C-F826FBBE5BFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206A8DCC-DC5E-4130-819D-5CEBCB213C18}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECC4CC5-104E-4983-9008-1D679110AC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E330AA-74AC-4C3F-AB17-9F371CF8E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="752">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,18 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Parsons Corporation</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com</t>
+  </si>
+  <si>
+    <t>PARSONS CORPORATION</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002V9Nd/rKS96wLWabuZwW9fOJHBe8vYczCiDXlne9b6p_w6FX4</t>
   </si>
   <si>
     <t>Avante Health, Inc</t>
@@ -2902,10 +2914,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2960,28 +2972,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>423450</v>
+        <v>541330</v>
       </c>
       <c r="F2" s="55">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45621</v>
+        <v>45673</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -2996,28 +3008,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>513210</v>
-      </c>
-      <c r="F3" s="55">
-        <v>100</v>
+        <v>541330</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45641</v>
+        <v>45673</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
@@ -3026,37 +3038,37 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K42" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K44" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45575</v>
+        <v>45590</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>449110</v>
+        <v>423450</v>
       </c>
       <c r="F4" s="55">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45657</v>
+        <v>45621</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>679</v>
@@ -3068,28 +3080,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>4841</v>
+        <v>513210</v>
       </c>
       <c r="F5" s="55">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5" s="54">
-        <v>45544</v>
+        <v>45641</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3104,28 +3116,28 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>323111</v>
+        <v>449110</v>
       </c>
       <c r="F6" s="55">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3140,31 +3152,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>336390</v>
+        <v>4841</v>
       </c>
       <c r="F7" s="55">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45632</v>
+        <v>45544</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>685</v>
@@ -3176,31 +3188,31 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45558</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>722330</v>
+        <v>323111</v>
       </c>
       <c r="F8" s="55">
+        <v>266</v>
+      </c>
+      <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" s="54">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>687</v>
@@ -3212,31 +3224,31 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45517</v>
+        <v>45565</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>424420</v>
+        <v>336390</v>
       </c>
       <c r="F9" s="55">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>689</v>
@@ -3248,31 +3260,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45490</v>
+        <v>45558</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>541614</v>
+        <v>722330</v>
       </c>
       <c r="F10" s="55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>691</v>
@@ -3284,31 +3296,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45483</v>
+        <v>45517</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="55">
-        <v>493110</v>
+        <v>424420</v>
       </c>
       <c r="F11" s="55">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45483</v>
+        <v>45618</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>693</v>
@@ -3320,31 +3332,31 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>335991</v>
+        <v>541614</v>
       </c>
       <c r="F12" s="55">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="54">
-        <v>45481</v>
+        <v>45552</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>695</v>
@@ -3356,34 +3368,34 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45463</v>
+        <v>45483</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C13" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>697</v>
-      </c>
       <c r="E13" s="55">
-        <v>336390</v>
+        <v>493110</v>
       </c>
       <c r="F13" s="55">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45464</v>
+        <v>45483</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3392,34 +3404,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45448</v>
+        <v>45481</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E14" s="55">
-        <v>45459</v>
+        <v>335991</v>
       </c>
       <c r="F14" s="55">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3428,31 +3440,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>701</v>
       </c>
       <c r="E15" s="55">
-        <v>332999</v>
+        <v>336390</v>
       </c>
       <c r="F15" s="55">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45657</v>
+        <v>45464</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>702</v>
@@ -3464,7 +3476,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>29</v>
@@ -3476,19 +3488,19 @@
         <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>314999</v>
+        <v>45459</v>
       </c>
       <c r="F16" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>704</v>
@@ -3500,28 +3512,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>705</v>
       </c>
       <c r="E17" s="55">
-        <v>722330</v>
+        <v>332999</v>
       </c>
       <c r="F17" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45500</v>
+        <v>45657</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
@@ -3548,16 +3560,16 @@
         <v>707</v>
       </c>
       <c r="E18" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F18" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3575,10 +3587,10 @@
         <v>45441</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
@@ -3587,7 +3599,7 @@
         <v>722330</v>
       </c>
       <c r="F19" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
@@ -3611,10 +3623,10 @@
         <v>45441</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
@@ -3623,7 +3635,7 @@
         <v>722330</v>
       </c>
       <c r="F20" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
@@ -3647,10 +3659,10 @@
         <v>45441</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>713</v>
@@ -3659,7 +3671,7 @@
         <v>722330</v>
       </c>
       <c r="F21" s="55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
@@ -3680,28 +3692,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>715</v>
       </c>
       <c r="E22" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F22" s="55">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
@@ -3716,28 +3728,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>717</v>
       </c>
       <c r="E23" s="55">
-        <v>326199</v>
+        <v>722330</v>
       </c>
       <c r="F23" s="55">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45450</v>
+        <v>45500</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3752,34 +3764,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45390</v>
+        <v>45399</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="E24" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>10</v>
+      <c r="E24" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F24" s="55">
+        <v>40</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45510</v>
+        <v>45459</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3788,34 +3800,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E25" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F25" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3824,34 +3836,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45363</v>
+        <v>45390</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>722</v>
-      </c>
-      <c r="E26" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F26" s="55">
-        <v>79</v>
+        <v>723</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45366</v>
+        <v>45510</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>723</v>
+        <v>10</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3860,7 +3872,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>108</v>
@@ -3869,25 +3881,25 @@
         <v>128</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>404</v>
+        <v>724</v>
       </c>
       <c r="E27" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F27" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H27" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3896,34 +3908,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E28" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F28" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H28" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3932,7 +3944,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>108</v>
@@ -3941,22 +3953,22 @@
         <v>128</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>727</v>
+        <v>404</v>
       </c>
       <c r="E29" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F29" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
         <v>728</v>
@@ -3968,28 +3980,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E30" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F30" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -4004,31 +4016,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E31" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F31" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J31" s="53" t="s">
         <v>732</v>
@@ -4040,28 +4052,28 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>733</v>
       </c>
       <c r="E32" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F32" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I32" s="55" t="s">
         <v>13</v>
@@ -4076,28 +4088,28 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>735</v>
       </c>
       <c r="E33" s="55">
-        <v>336350</v>
+        <v>611511</v>
       </c>
       <c r="F33" s="55">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H33" s="54">
-        <v>45401</v>
+        <v>45315</v>
       </c>
       <c r="I33" s="55" t="s">
         <v>13</v>
@@ -4112,28 +4124,28 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D34" s="55" t="s">
         <v>737</v>
       </c>
       <c r="E34" s="55">
-        <v>561720</v>
+        <v>336110</v>
       </c>
       <c r="F34" s="55">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45299</v>
+        <v>45365</v>
       </c>
       <c r="I34" s="55" t="s">
         <v>13</v>
@@ -4148,34 +4160,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E35" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F35" s="55">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4193,13 +4205,13 @@
         <v>238</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E36" s="55">
         <v>561720</v>
       </c>
       <c r="F36" s="55">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>16</v>
@@ -4211,7 +4223,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4229,13 +4241,13 @@
         <v>238</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
       </c>
       <c r="F37" s="55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>16</v>
@@ -4247,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4256,34 +4268,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E38" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F38" s="55">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H38" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>10</v>
+        <v>744</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4292,34 +4304,34 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E39" s="55">
         <v>561720</v>
       </c>
       <c r="F39" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4331,31 +4343,31 @@
         <v>45295</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="E40" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F40" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H40" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>744</v>
+        <v>10</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4367,19 +4379,19 @@
         <v>45295</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E41" s="55">
         <v>561720</v>
       </c>
       <c r="F41" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>16</v>
@@ -4391,7 +4403,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4400,36 +4412,108 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>741</v>
+      </c>
+      <c r="E42" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F42" s="55">
+        <v>40</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>748</v>
+      </c>
+      <c r="K42" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>741</v>
+      </c>
+      <c r="E43" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F43" s="55">
+        <v>48</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I43" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>749</v>
+      </c>
+      <c r="K43" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="54">
         <v>45293</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B44" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C44" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="55" t="s">
-        <v>746</v>
-      </c>
-      <c r="E42" s="55">
+      <c r="D44" s="55" t="s">
+        <v>750</v>
+      </c>
+      <c r="E44" s="55">
         <v>541714</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F44" s="55">
         <v>136</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G44" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="54">
+      <c r="H44" s="54">
         <v>45351</v>
       </c>
-      <c r="I42" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="53" t="s">
-        <v>747</v>
-      </c>
-      <c r="K42" s="57" t="str">
+      <c r="I44" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>751</v>
+      </c>
+      <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16087,7 +16171,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206A8DCC-DC5E-4130-819D-5CEBCB213C18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{154C130A-44CE-4D9E-8839-4CBDEAC59C6E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E330AA-74AC-4C3F-AB17-9F371CF8E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEFC8F8-EDB6-4F88-88D7-18E1340D5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="710" windowWidth="11440" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="754">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Amentum</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002pa57/6uq63rmgIxxmyuH43EblRM6357KYEI286ekNmrMxkWU</t>
   </si>
   <si>
     <t>Parsons Corporation</t>
@@ -2914,7 +2920,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2972,7 +2978,7 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>40</v>
@@ -2984,16 +2990,16 @@
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>541330</v>
+        <v>562920</v>
       </c>
       <c r="F2" s="55">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -3022,8 +3028,8 @@
       <c r="E3" s="55">
         <v>541330</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>10</v>
+      <c r="F3" s="55">
+        <v>11</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
@@ -3038,37 +3044,37 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K44" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K45" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>423450</v>
-      </c>
-      <c r="F4" s="55">
-        <v>55</v>
+        <v>541330</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45621</v>
+        <v>45673</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>679</v>
@@ -3080,31 +3086,31 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>513210</v>
+        <v>423450</v>
       </c>
       <c r="F5" s="55">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45641</v>
+        <v>45621</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>681</v>
@@ -3116,28 +3122,28 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>449110</v>
+        <v>513210</v>
       </c>
       <c r="F6" s="55">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="54">
-        <v>45657</v>
+        <v>45641</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3152,28 +3158,28 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>4841</v>
+        <v>449110</v>
       </c>
       <c r="F7" s="55">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="54">
-        <v>45544</v>
+        <v>45657</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3191,25 +3197,25 @@
         <v>45566</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>323111</v>
+        <v>4841</v>
       </c>
       <c r="F8" s="55">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45626</v>
+        <v>45544</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3224,31 +3230,31 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>336390</v>
+        <v>323111</v>
       </c>
       <c r="F9" s="55">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45632</v>
+        <v>45626</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>689</v>
@@ -3260,28 +3266,28 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>722330</v>
+        <v>336390</v>
       </c>
       <c r="F10" s="55">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>12</v>
@@ -3296,31 +3302,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F11" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" s="54">
         <v>45618</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>693</v>
@@ -3332,28 +3338,28 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F12" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3368,31 +3374,31 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E13" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F13" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>697</v>
@@ -3404,28 +3410,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>698</v>
       </c>
       <c r="E14" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F14" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>12</v>
@@ -3440,34 +3446,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>700</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>701</v>
-      </c>
       <c r="E15" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F15" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3476,31 +3482,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>225</v>
+        <v>702</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>703</v>
       </c>
       <c r="E16" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F16" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>704</v>
@@ -3512,7 +3518,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>29</v>
@@ -3524,19 +3530,19 @@
         <v>705</v>
       </c>
       <c r="E17" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F17" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>706</v>
@@ -3548,7 +3554,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>29</v>
@@ -3560,7 +3566,7 @@
         <v>707</v>
       </c>
       <c r="E18" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F18" s="55">
         <v>94</v>
@@ -3569,7 +3575,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3587,25 +3593,25 @@
         <v>45441</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F19" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3623,10 +3629,10 @@
         <v>45441</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
@@ -3635,7 +3641,7 @@
         <v>722330</v>
       </c>
       <c r="F20" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
@@ -3659,10 +3665,10 @@
         <v>45441</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>713</v>
@@ -3671,7 +3677,7 @@
         <v>722330</v>
       </c>
       <c r="F21" s="55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
@@ -3695,10 +3701,10 @@
         <v>45441</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>715</v>
@@ -3707,7 +3713,7 @@
         <v>722330</v>
       </c>
       <c r="F22" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
@@ -3731,10 +3737,10 @@
         <v>45441</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>717</v>
@@ -3743,7 +3749,7 @@
         <v>722330</v>
       </c>
       <c r="F23" s="55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
@@ -3764,28 +3770,28 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>719</v>
       </c>
       <c r="E24" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F24" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
@@ -3800,28 +3806,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E25" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F25" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -3836,7 +3842,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>40</v>
@@ -3847,23 +3853,23 @@
       <c r="D26" s="55" t="s">
         <v>723</v>
       </c>
-      <c r="E26" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>10</v>
+      <c r="E26" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F26" s="55">
+        <v>140</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>10</v>
+        <v>724</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3872,34 +3878,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>724</v>
-      </c>
-      <c r="E27" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F27" s="55">
-        <v>78</v>
+        <v>725</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>725</v>
+        <v>10</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3908,31 +3914,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>726</v>
       </c>
       <c r="E28" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F28" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
         <v>727</v>
@@ -3944,34 +3950,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="E29" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F29" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H29" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3980,28 +3986,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>729</v>
+        <v>404</v>
       </c>
       <c r="E30" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F30" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -4016,31 +4022,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E31" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F31" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
         <v>732</v>
@@ -4052,31 +4058,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>733</v>
       </c>
       <c r="E32" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F32" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J32" s="53" t="s">
         <v>734</v>
@@ -4088,28 +4094,28 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>735</v>
       </c>
       <c r="E33" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F33" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I33" s="55" t="s">
         <v>13</v>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>29</v>
@@ -4136,16 +4142,16 @@
         <v>737</v>
       </c>
       <c r="E34" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F34" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I34" s="55" t="s">
         <v>13</v>
@@ -4160,28 +4166,28 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>739</v>
       </c>
       <c r="E35" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F35" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>13</v>
@@ -4196,28 +4202,28 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>741</v>
       </c>
       <c r="E36" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F36" s="55">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I36" s="55" t="s">
         <v>13</v>
@@ -4241,13 +4247,13 @@
         <v>238</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E37" s="55">
         <v>561720</v>
       </c>
       <c r="F37" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>16</v>
@@ -4259,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4277,13 +4283,13 @@
         <v>238</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E38" s="55">
         <v>561720</v>
       </c>
       <c r="F38" s="55">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>16</v>
@@ -4295,7 +4301,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4313,13 +4319,13 @@
         <v>238</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E39" s="55">
         <v>561720</v>
       </c>
       <c r="F39" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>16</v>
@@ -4331,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4340,34 +4346,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E40" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F40" s="55">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H40" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>10</v>
+        <v>747</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4379,31 +4385,31 @@
         <v>45295</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="E41" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F41" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H41" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>747</v>
+        <v>10</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4415,13 +4421,13 @@
         <v>45295</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E42" s="55">
         <v>561720</v>
@@ -4439,7 +4445,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4457,13 +4463,13 @@
         <v>226</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E43" s="55">
         <v>561720</v>
       </c>
       <c r="F43" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G43" s="55" t="s">
         <v>16</v>
@@ -4475,7 +4481,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4484,28 +4490,28 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E44" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F44" s="55">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H44" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I44" s="55" t="s">
         <v>13</v>
@@ -4514,6 +4520,42 @@
         <v>751</v>
       </c>
       <c r="K44" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>752</v>
+      </c>
+      <c r="E45" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F45" s="55">
+        <v>136</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>753</v>
+      </c>
+      <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16171,7 +16213,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{154C130A-44CE-4D9E-8839-4CBDEAC59C6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C010BFC4-4537-4579-AD3F-07D56A391901}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEFC8F8-EDB6-4F88-88D7-18E1340D5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67156605-D77C-469E-8670-A40EB0E2DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="710" windowWidth="11440" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="758">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,18 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Excel Mining LLC - MC Mining Preparation Plant</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000339kz/YYga2jD8IMsbDCzq0bYDMe8TH2GsBT.f3xw5wfNSQp0</t>
+  </si>
+  <si>
+    <t>MC Mining Complex - Excel Mining</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000033idt/9V87YdQ1pKaKZ66qqU7Ba5oyuAK6527vnTZaDYENlGw</t>
   </si>
   <si>
     <t>Amentum</t>
@@ -2920,7 +2932,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2978,22 +2990,22 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45607</v>
+        <v>45611</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>562920</v>
+        <v>2121</v>
       </c>
       <c r="F2" s="55">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
@@ -3014,28 +3026,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45600</v>
+        <v>45611</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>541330</v>
+        <v>2121</v>
       </c>
       <c r="F3" s="55">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
@@ -3044,13 +3056,13 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K45" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K47" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>40</v>
@@ -3062,16 +3074,16 @@
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>541330</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>10</v>
+        <v>562920</v>
+      </c>
+      <c r="F4" s="55">
+        <v>20</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3086,31 +3098,31 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>423450</v>
+        <v>541330</v>
       </c>
       <c r="F5" s="55">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45621</v>
+        <v>45673</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>681</v>
@@ -3122,28 +3134,28 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>513210</v>
+        <v>541330</v>
       </c>
       <c r="F6" s="55">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45641</v>
+        <v>45673</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3158,31 +3170,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45575</v>
+        <v>45590</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>449110</v>
+        <v>423450</v>
       </c>
       <c r="F7" s="55">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45657</v>
+        <v>45621</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>685</v>
@@ -3194,28 +3206,28 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>4841</v>
+        <v>513210</v>
       </c>
       <c r="F8" s="55">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" s="54">
-        <v>45544</v>
+        <v>45641</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3230,28 +3242,28 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>323111</v>
+        <v>449110</v>
       </c>
       <c r="F9" s="55">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="54">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
@@ -3266,31 +3278,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>336390</v>
+        <v>4841</v>
       </c>
       <c r="F10" s="55">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45632</v>
+        <v>45544</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>691</v>
@@ -3302,31 +3314,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45558</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="55">
-        <v>722330</v>
+        <v>323111</v>
       </c>
       <c r="F11" s="55">
+        <v>266</v>
+      </c>
+      <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>16</v>
-      </c>
       <c r="H11" s="54">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>693</v>
@@ -3338,31 +3350,31 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45517</v>
+        <v>45565</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>424420</v>
+        <v>336390</v>
       </c>
       <c r="F12" s="55">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>695</v>
@@ -3374,31 +3386,31 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45490</v>
+        <v>45558</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E13" s="55">
-        <v>541614</v>
+        <v>722330</v>
       </c>
       <c r="F13" s="55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>697</v>
@@ -3410,31 +3422,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45483</v>
+        <v>45517</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>698</v>
       </c>
       <c r="E14" s="55">
-        <v>493110</v>
+        <v>424420</v>
       </c>
       <c r="F14" s="55">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45483</v>
+        <v>45618</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>699</v>
@@ -3446,31 +3458,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>700</v>
       </c>
       <c r="E15" s="55">
-        <v>335991</v>
+        <v>541614</v>
       </c>
       <c r="F15" s="55">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45481</v>
+        <v>45552</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>701</v>
@@ -3482,34 +3494,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45463</v>
+        <v>45483</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>702</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>703</v>
-      </c>
       <c r="E16" s="55">
-        <v>336390</v>
+        <v>493110</v>
       </c>
       <c r="F16" s="55">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45464</v>
+        <v>45483</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3518,34 +3530,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45448</v>
+        <v>45481</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E17" s="55">
-        <v>45459</v>
+        <v>335991</v>
       </c>
       <c r="F17" s="55">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3554,31 +3566,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>225</v>
+        <v>706</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>707</v>
       </c>
       <c r="E18" s="55">
-        <v>332999</v>
+        <v>336390</v>
       </c>
       <c r="F18" s="55">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45657</v>
+        <v>45464</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>708</v>
@@ -3590,7 +3602,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>29</v>
@@ -3602,19 +3614,19 @@
         <v>709</v>
       </c>
       <c r="E19" s="55">
-        <v>314999</v>
+        <v>45459</v>
       </c>
       <c r="F19" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>710</v>
@@ -3626,28 +3638,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
       <c r="E20" s="55">
-        <v>722330</v>
+        <v>332999</v>
       </c>
       <c r="F20" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45500</v>
+        <v>45657</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3674,16 +3686,16 @@
         <v>713</v>
       </c>
       <c r="E21" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F21" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -3701,10 +3713,10 @@
         <v>45441</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>715</v>
@@ -3713,7 +3725,7 @@
         <v>722330</v>
       </c>
       <c r="F22" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
@@ -3737,10 +3749,10 @@
         <v>45441</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>717</v>
@@ -3749,7 +3761,7 @@
         <v>722330</v>
       </c>
       <c r="F23" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
@@ -3773,10 +3785,10 @@
         <v>45441</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>719</v>
@@ -3785,7 +3797,7 @@
         <v>722330</v>
       </c>
       <c r="F24" s="55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
@@ -3806,28 +3818,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E25" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F25" s="55">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -3842,28 +3854,28 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>723</v>
       </c>
       <c r="E26" s="55">
-        <v>326199</v>
+        <v>722330</v>
       </c>
       <c r="F26" s="55">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45450</v>
+        <v>45500</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
@@ -3878,34 +3890,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45390</v>
+        <v>45399</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>725</v>
       </c>
-      <c r="E27" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>10</v>
+      <c r="E27" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F27" s="55">
+        <v>40</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45510</v>
+        <v>45459</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>10</v>
+        <v>726</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3914,34 +3926,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E28" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F28" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3950,34 +3962,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45363</v>
+        <v>45390</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>728</v>
-      </c>
-      <c r="E29" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F29" s="55">
-        <v>79</v>
+        <v>729</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45366</v>
+        <v>45510</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>729</v>
+        <v>10</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3986,7 +3998,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>108</v>
@@ -3995,25 +4007,25 @@
         <v>128</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>404</v>
+        <v>730</v>
       </c>
       <c r="E30" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F30" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H30" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4022,34 +4034,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E31" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F31" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H31" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4058,7 +4070,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>108</v>
@@ -4067,22 +4079,22 @@
         <v>128</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>733</v>
+        <v>404</v>
       </c>
       <c r="E32" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F32" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
         <v>734</v>
@@ -4094,28 +4106,28 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>735</v>
       </c>
       <c r="E33" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F33" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I33" s="55" t="s">
         <v>13</v>
@@ -4130,31 +4142,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D34" s="55" t="s">
         <v>737</v>
       </c>
       <c r="E34" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F34" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J34" s="53" t="s">
         <v>738</v>
@@ -4166,28 +4178,28 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>739</v>
       </c>
       <c r="E35" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F35" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>13</v>
@@ -4202,28 +4214,28 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>741</v>
       </c>
       <c r="E36" s="55">
-        <v>336350</v>
+        <v>611511</v>
       </c>
       <c r="F36" s="55">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45401</v>
+        <v>45315</v>
       </c>
       <c r="I36" s="55" t="s">
         <v>13</v>
@@ -4238,28 +4250,28 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>743</v>
       </c>
       <c r="E37" s="55">
-        <v>561720</v>
+        <v>336110</v>
       </c>
       <c r="F37" s="55">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H37" s="54">
-        <v>45299</v>
+        <v>45365</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>13</v>
@@ -4274,34 +4286,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E38" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F38" s="55">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I38" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4319,13 +4331,13 @@
         <v>238</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E39" s="55">
         <v>561720</v>
       </c>
       <c r="F39" s="55">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>16</v>
@@ -4337,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4355,13 +4367,13 @@
         <v>238</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E40" s="55">
         <v>561720</v>
       </c>
       <c r="F40" s="55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" s="55" t="s">
         <v>16</v>
@@ -4373,7 +4385,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4382,34 +4394,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E41" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F41" s="55">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H41" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>10</v>
+        <v>750</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4418,34 +4430,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E42" s="55">
         <v>561720</v>
       </c>
       <c r="F42" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I42" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4457,31 +4469,31 @@
         <v>45295</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="E43" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F43" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H43" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>750</v>
+        <v>10</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4493,19 +4505,19 @@
         <v>45295</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E44" s="55">
         <v>561720</v>
       </c>
       <c r="F44" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>16</v>
@@ -4517,7 +4529,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4526,36 +4538,108 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>747</v>
+      </c>
+      <c r="E45" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F45" s="55">
+        <v>40</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>754</v>
+      </c>
+      <c r="K45" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>747</v>
+      </c>
+      <c r="E46" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F46" s="55">
+        <v>48</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="K46" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="54">
         <v>45293</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B47" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C47" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="55" t="s">
-        <v>752</v>
-      </c>
-      <c r="E45" s="55">
+      <c r="D47" s="55" t="s">
+        <v>756</v>
+      </c>
+      <c r="E47" s="55">
         <v>541714</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F47" s="55">
         <v>136</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G47" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="54">
+      <c r="H47" s="54">
         <v>45351</v>
       </c>
-      <c r="I45" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>753</v>
-      </c>
-      <c r="K45" s="57" t="str">
+      <c r="I47" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>757</v>
+      </c>
+      <c r="K47" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16213,7 +16297,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C010BFC4-4537-4579-AD3F-07D56A391901}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B111C0F4-E392-465C-A227-2F55A7558EFF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67156605-D77C-469E-8670-A40EB0E2DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A59C6CE-215F-44B5-96D0-9C452CF4B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="762">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,18 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Bel Brands USA</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000040t8g/d3o.61_e8wtcuwvp6rZ1igSsAn_t7T5xZAOZ.IN9.pI</t>
+  </si>
+  <si>
+    <t>Bechtel National Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000003EeLe/kymj0LFlbIMJYSRECVYYYiPS9oTdCtKrEEMMpLZ7fEw</t>
   </si>
   <si>
     <t>Excel Mining LLC - MC Mining Preparation Plant</t>
@@ -2932,10 +2944,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2990,28 +3002,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45611</v>
+        <v>45637</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>2121</v>
+        <v>311513</v>
       </c>
       <c r="F2" s="55">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45672</v>
+        <v>45698</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -3026,28 +3038,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>2121</v>
+        <v>237990</v>
       </c>
       <c r="F3" s="55">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
@@ -3056,28 +3068,28 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K47" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K49" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45607</v>
+        <v>45611</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>562920</v>
+        <v>2121</v>
       </c>
       <c r="F4" s="55">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
@@ -3098,28 +3110,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45600</v>
+        <v>45611</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>541330</v>
+        <v>2121</v>
       </c>
       <c r="F5" s="55">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3134,7 +3146,7 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>40</v>
@@ -3146,16 +3158,16 @@
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>541330</v>
+        <v>562920</v>
       </c>
       <c r="F6" s="55">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3170,31 +3182,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>423450</v>
+        <v>541330</v>
       </c>
       <c r="F7" s="55">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45621</v>
+        <v>45673</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>685</v>
@@ -3206,28 +3218,28 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45580</v>
+        <v>45600</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>513210</v>
+        <v>541330</v>
       </c>
       <c r="F8" s="55">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45641</v>
+        <v>45673</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3242,31 +3254,31 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45575</v>
+        <v>45590</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>449110</v>
+        <v>423450</v>
       </c>
       <c r="F9" s="55">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45657</v>
+        <v>45621</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>689</v>
@@ -3278,28 +3290,28 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45566</v>
+        <v>45580</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>4841</v>
+        <v>513210</v>
       </c>
       <c r="F10" s="55">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45544</v>
+        <v>45641</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
@@ -3314,28 +3326,28 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="55">
-        <v>323111</v>
+        <v>449110</v>
       </c>
       <c r="F11" s="55">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" s="54">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
@@ -3350,31 +3362,31 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>336390</v>
+        <v>4841</v>
       </c>
       <c r="F12" s="55">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45632</v>
+        <v>45544</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>695</v>
@@ -3386,31 +3398,31 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45558</v>
+        <v>45566</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E13" s="55">
-        <v>722330</v>
+        <v>323111</v>
       </c>
       <c r="F13" s="55">
+        <v>266</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" s="54">
-        <v>45618</v>
+        <v>45626</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>697</v>
@@ -3422,31 +3434,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45517</v>
+        <v>45565</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>698</v>
       </c>
       <c r="E14" s="55">
-        <v>424420</v>
+        <v>336390</v>
       </c>
       <c r="F14" s="55">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H14" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>699</v>
@@ -3458,31 +3470,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45490</v>
+        <v>45558</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>700</v>
       </c>
       <c r="E15" s="55">
-        <v>541614</v>
+        <v>722330</v>
       </c>
       <c r="F15" s="55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>701</v>
@@ -3494,31 +3506,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45483</v>
+        <v>45517</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>702</v>
       </c>
       <c r="E16" s="55">
-        <v>493110</v>
+        <v>424420</v>
       </c>
       <c r="F16" s="55">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45483</v>
+        <v>45618</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>703</v>
@@ -3530,31 +3542,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45481</v>
+        <v>45490</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>704</v>
       </c>
       <c r="E17" s="55">
-        <v>335991</v>
+        <v>541614</v>
       </c>
       <c r="F17" s="55">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="54">
-        <v>45481</v>
+        <v>45552</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>705</v>
@@ -3566,34 +3578,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45463</v>
+        <v>45483</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C18" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="55" t="s">
         <v>706</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>707</v>
-      </c>
       <c r="E18" s="55">
-        <v>336390</v>
+        <v>493110</v>
       </c>
       <c r="F18" s="55">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45464</v>
+        <v>45483</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3602,34 +3614,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45448</v>
+        <v>45481</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>45459</v>
+        <v>335991</v>
       </c>
       <c r="F19" s="55">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45511</v>
+        <v>45481</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3638,31 +3650,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>225</v>
+        <v>710</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>711</v>
       </c>
       <c r="E20" s="55">
-        <v>332999</v>
+        <v>336390</v>
       </c>
       <c r="F20" s="55">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45657</v>
+        <v>45464</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>712</v>
@@ -3674,7 +3686,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45441</v>
+        <v>45448</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>29</v>
@@ -3686,19 +3698,19 @@
         <v>713</v>
       </c>
       <c r="E21" s="55">
-        <v>314999</v>
+        <v>45459</v>
       </c>
       <c r="F21" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>714</v>
@@ -3710,28 +3722,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>715</v>
       </c>
       <c r="E22" s="55">
-        <v>722330</v>
+        <v>332999</v>
       </c>
       <c r="F22" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45500</v>
+        <v>45657</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
@@ -3758,16 +3770,16 @@
         <v>717</v>
       </c>
       <c r="E23" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F23" s="55">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3785,10 +3797,10 @@
         <v>45441</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>719</v>
@@ -3797,7 +3809,7 @@
         <v>722330</v>
       </c>
       <c r="F24" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
@@ -3821,10 +3833,10 @@
         <v>45441</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>721</v>
@@ -3833,7 +3845,7 @@
         <v>722330</v>
       </c>
       <c r="F25" s="55">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
@@ -3857,10 +3869,10 @@
         <v>45441</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>723</v>
@@ -3869,7 +3881,7 @@
         <v>722330</v>
       </c>
       <c r="F26" s="55">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
@@ -3890,28 +3902,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>235</v>
+        <v>370</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>725</v>
       </c>
       <c r="E27" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F27" s="55">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>13</v>
@@ -3926,28 +3938,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45391</v>
+        <v>45441</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>727</v>
       </c>
       <c r="E28" s="55">
-        <v>326199</v>
+        <v>722330</v>
       </c>
       <c r="F28" s="55">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45450</v>
+        <v>45500</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
@@ -3962,34 +3974,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45390</v>
+        <v>45399</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="E29" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>10</v>
+      <c r="E29" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F29" s="55">
+        <v>40</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45510</v>
+        <v>45459</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>10</v>
+        <v>730</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3998,34 +4010,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45378</v>
+        <v>45391</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E30" s="55">
-        <v>561720</v>
+        <v>326199</v>
       </c>
       <c r="F30" s="55">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45382</v>
+        <v>45450</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4034,34 +4046,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45363</v>
+        <v>45390</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>732</v>
-      </c>
-      <c r="E31" s="55">
-        <v>541620</v>
-      </c>
-      <c r="F31" s="55">
-        <v>79</v>
+        <v>733</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45366</v>
+        <v>45510</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>733</v>
+        <v>10</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4070,7 +4082,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>108</v>
@@ -4079,25 +4091,25 @@
         <v>128</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>404</v>
+        <v>734</v>
       </c>
       <c r="E32" s="55">
-        <v>493110</v>
+        <v>561720</v>
       </c>
       <c r="F32" s="55">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H32" s="54">
-        <v>45418</v>
+        <v>45382</v>
       </c>
       <c r="I32" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4106,34 +4118,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45352</v>
+        <v>45363</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>472</v>
+        <v>584</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E33" s="55">
-        <v>21211</v>
+        <v>541620</v>
       </c>
       <c r="F33" s="55">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H33" s="54">
-        <v>45411</v>
+        <v>45366</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4142,7 +4154,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45348</v>
+        <v>45357</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>108</v>
@@ -4151,22 +4163,22 @@
         <v>128</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>737</v>
+        <v>404</v>
       </c>
       <c r="E34" s="55">
-        <v>316200</v>
+        <v>493110</v>
       </c>
       <c r="F34" s="55">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
         <v>738</v>
@@ -4178,28 +4190,28 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>739</v>
       </c>
       <c r="E35" s="55">
-        <v>561611</v>
+        <v>21211</v>
       </c>
       <c r="F35" s="55">
-        <v>63</v>
+        <v>230</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45380</v>
+        <v>45411</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>13</v>
@@ -4214,31 +4226,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>741</v>
       </c>
       <c r="E36" s="55">
-        <v>611511</v>
+        <v>316200</v>
       </c>
       <c r="F36" s="55">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45315</v>
+        <v>45415</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J36" s="53" t="s">
         <v>742</v>
@@ -4250,28 +4262,28 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
-        <v>45302</v>
+        <v>45320</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>743</v>
       </c>
       <c r="E37" s="55">
-        <v>336110</v>
+        <v>561611</v>
       </c>
       <c r="F37" s="55">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="54">
-        <v>45365</v>
+        <v>45380</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>13</v>
@@ -4286,28 +4298,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
-        <v>45301</v>
+        <v>45315</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>745</v>
       </c>
       <c r="E38" s="55">
-        <v>336350</v>
+        <v>611511</v>
       </c>
       <c r="F38" s="55">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H38" s="54">
-        <v>45401</v>
+        <v>45315</v>
       </c>
       <c r="I38" s="55" t="s">
         <v>13</v>
@@ -4322,28 +4334,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>747</v>
       </c>
       <c r="E39" s="55">
-        <v>561720</v>
+        <v>336110</v>
       </c>
       <c r="F39" s="55">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H39" s="54">
-        <v>45299</v>
+        <v>45365</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
@@ -4358,34 +4370,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E40" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F40" s="55">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G40" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I40" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4403,13 +4415,13 @@
         <v>238</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E41" s="55">
         <v>561720</v>
       </c>
       <c r="F41" s="55">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>16</v>
@@ -4421,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4439,13 +4451,13 @@
         <v>238</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E42" s="55">
         <v>561720</v>
       </c>
       <c r="F42" s="55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" s="55" t="s">
         <v>16</v>
@@ -4457,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4466,34 +4478,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E43" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F43" s="55">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H43" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>10</v>
+        <v>754</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4502,34 +4514,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E44" s="55">
         <v>561720</v>
       </c>
       <c r="F44" s="55">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="54">
-        <v>45356</v>
+        <v>45299</v>
       </c>
       <c r="I44" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4541,31 +4553,31 @@
         <v>45295</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="E45" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F45" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H45" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I45" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>754</v>
+        <v>10</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4577,19 +4589,19 @@
         <v>45295</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="E46" s="55">
         <v>561720</v>
       </c>
       <c r="F46" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G46" s="55" t="s">
         <v>16</v>
@@ -4601,7 +4613,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K46" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4610,36 +4622,108 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>751</v>
+      </c>
+      <c r="E47" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F47" s="55">
+        <v>40</v>
+      </c>
+      <c r="G47" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="K47" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="54">
+        <v>45295</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>751</v>
+      </c>
+      <c r="E48" s="55">
+        <v>561720</v>
+      </c>
+      <c r="F48" s="55">
+        <v>48</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="54">
+        <v>45356</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="K48" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="54">
         <v>45293</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B49" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C49" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="55" t="s">
-        <v>756</v>
-      </c>
-      <c r="E47" s="55">
+      <c r="D49" s="55" t="s">
+        <v>760</v>
+      </c>
+      <c r="E49" s="55">
         <v>541714</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F49" s="55">
         <v>136</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G49" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="54">
+      <c r="H49" s="54">
         <v>45351</v>
       </c>
-      <c r="I47" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="53" t="s">
-        <v>757</v>
-      </c>
-      <c r="K47" s="57" t="str">
+      <c r="I49" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="K49" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16134,6 +16218,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16142,7 +16232,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16282,25 +16372,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B111C0F4-E392-465C-A227-2F55A7558EFF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16313,4 +16385,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4941762-3859-4AA7-9253-DCC5FEFF780D}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A59C6CE-215F-44B5-96D0-9C452CF4B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6114D3-1893-4416-8B70-39E2255633AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="764">
   <si>
     <t>Date Received</t>
   </si>
@@ -2074,7 +2074,13 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
   </si>
   <si>
-    <t>Bel Brands USA</t>
+    <t>IV Media, LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004LbWv/xqoxzauYcIcP5QxHVY8HRbnjOzqsvU8MOq1PR2AanYs</t>
+  </si>
+  <si>
+    <t>Bel USA, Inc</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000040t8g/d3o.61_e8wtcuwvp6rZ1igSsAn_t7T5xZAOZ.IN9.pI</t>
@@ -2944,10 +2950,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3002,28 +3008,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45637</v>
+        <v>45646</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>311513</v>
+        <v>51</v>
       </c>
       <c r="F2" s="55">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45698</v>
+        <v>45712</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -3038,28 +3044,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45614</v>
+        <v>45637</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>237990</v>
+        <v>311513</v>
       </c>
       <c r="F3" s="55">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45673</v>
+        <v>45698</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
@@ -3068,34 +3074,34 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K49" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K50" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>2121</v>
+        <v>237990</v>
       </c>
       <c r="F4" s="55">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3125,7 +3131,7 @@
         <v>2121</v>
       </c>
       <c r="F5" s="55">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
@@ -3146,22 +3152,22 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45607</v>
+        <v>45611</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>682</v>
       </c>
       <c r="E6" s="55">
-        <v>562920</v>
+        <v>2121</v>
       </c>
       <c r="F6" s="55">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>40</v>
@@ -3194,16 +3200,16 @@
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>541330</v>
+        <v>562920</v>
       </c>
       <c r="F7" s="55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3233,7 +3239,7 @@
         <v>541330</v>
       </c>
       <c r="F8" s="55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
@@ -3254,31 +3260,31 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>688</v>
       </c>
       <c r="E9" s="55">
-        <v>423450</v>
+        <v>541330</v>
       </c>
       <c r="F9" s="55">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45621</v>
+        <v>45673</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>689</v>
@@ -3290,31 +3296,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>513210</v>
+        <v>423450</v>
       </c>
       <c r="F10" s="55">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45641</v>
+        <v>45621</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>691</v>
@@ -3326,28 +3332,28 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="55">
-        <v>449110</v>
+        <v>513210</v>
       </c>
       <c r="F11" s="55">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="54">
-        <v>45657</v>
+        <v>45641</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
@@ -3362,28 +3368,28 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>4841</v>
+        <v>449110</v>
       </c>
       <c r="F12" s="55">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="54">
-        <v>45544</v>
+        <v>45657</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3401,25 +3407,25 @@
         <v>45566</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E13" s="55">
-        <v>323111</v>
+        <v>4841</v>
       </c>
       <c r="F13" s="55">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45626</v>
+        <v>45544</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3434,31 +3440,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>698</v>
       </c>
       <c r="E14" s="55">
-        <v>336390</v>
+        <v>323111</v>
       </c>
       <c r="F14" s="55">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45632</v>
+        <v>45626</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>699</v>
@@ -3470,28 +3476,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>700</v>
       </c>
       <c r="E15" s="55">
-        <v>722330</v>
+        <v>336390</v>
       </c>
       <c r="F15" s="55">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>12</v>
@@ -3506,31 +3512,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>702</v>
       </c>
       <c r="E16" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F16" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" s="54">
         <v>45618</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>703</v>
@@ -3542,28 +3548,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>704</v>
       </c>
       <c r="E17" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F17" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
@@ -3578,31 +3584,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>706</v>
       </c>
       <c r="E18" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F18" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>707</v>
@@ -3614,28 +3620,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F19" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>12</v>
@@ -3650,34 +3656,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>711</v>
-      </c>
       <c r="E20" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F20" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3686,31 +3692,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>225</v>
+        <v>712</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>713</v>
       </c>
       <c r="E21" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F21" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>714</v>
@@ -3722,7 +3728,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>29</v>
@@ -3734,19 +3740,19 @@
         <v>715</v>
       </c>
       <c r="E22" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F22" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>716</v>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>29</v>
@@ -3770,7 +3776,7 @@
         <v>717</v>
       </c>
       <c r="E23" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F23" s="55">
         <v>94</v>
@@ -3779,7 +3785,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3797,25 +3803,25 @@
         <v>45441</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>719</v>
       </c>
       <c r="E24" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F24" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
@@ -3833,10 +3839,10 @@
         <v>45441</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>721</v>
@@ -3845,7 +3851,7 @@
         <v>722330</v>
       </c>
       <c r="F25" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
@@ -3869,10 +3875,10 @@
         <v>45441</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>723</v>
@@ -3881,7 +3887,7 @@
         <v>722330</v>
       </c>
       <c r="F26" s="55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
@@ -3905,10 +3911,10 @@
         <v>45441</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>725</v>
@@ -3917,7 +3923,7 @@
         <v>722330</v>
       </c>
       <c r="F27" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
@@ -3941,10 +3947,10 @@
         <v>45441</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>727</v>
@@ -3953,7 +3959,7 @@
         <v>722330</v>
       </c>
       <c r="F28" s="55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
@@ -3974,28 +3980,28 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>729</v>
       </c>
       <c r="E29" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F29" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
@@ -4010,28 +4016,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E30" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F30" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -4046,7 +4052,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>40</v>
@@ -4057,23 +4063,23 @@
       <c r="D31" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="E31" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>10</v>
+      <c r="E31" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F31" s="55">
+        <v>140</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>10</v>
+        <v>734</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4082,34 +4088,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>734</v>
-      </c>
-      <c r="E32" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F32" s="55">
-        <v>78</v>
+        <v>735</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>735</v>
+        <v>10</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4118,31 +4124,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>736</v>
       </c>
       <c r="E33" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F33" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
         <v>737</v>
@@ -4154,34 +4160,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>404</v>
+        <v>738</v>
       </c>
       <c r="E34" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F34" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H34" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4190,28 +4196,28 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>739</v>
+        <v>404</v>
       </c>
       <c r="E35" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F35" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>13</v>
@@ -4226,31 +4232,31 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>741</v>
       </c>
       <c r="E36" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F36" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
         <v>742</v>
@@ -4262,31 +4268,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>743</v>
       </c>
       <c r="E37" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F37" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I37" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J37" s="53" t="s">
         <v>744</v>
@@ -4298,28 +4304,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>745</v>
       </c>
       <c r="E38" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F38" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I38" s="55" t="s">
         <v>13</v>
@@ -4334,7 +4340,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B39" s="55" t="s">
         <v>29</v>
@@ -4346,16 +4352,16 @@
         <v>747</v>
       </c>
       <c r="E39" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F39" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
@@ -4370,28 +4376,28 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D40" s="55" t="s">
         <v>749</v>
       </c>
       <c r="E40" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F40" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H40" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I40" s="55" t="s">
         <v>13</v>
@@ -4406,28 +4412,28 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>751</v>
       </c>
       <c r="E41" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F41" s="55">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I41" s="55" t="s">
         <v>13</v>
@@ -4451,13 +4457,13 @@
         <v>238</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E42" s="55">
         <v>561720</v>
       </c>
       <c r="F42" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G42" s="55" t="s">
         <v>16</v>
@@ -4469,7 +4475,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4487,13 +4493,13 @@
         <v>238</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E43" s="55">
         <v>561720</v>
       </c>
       <c r="F43" s="55">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G43" s="55" t="s">
         <v>16</v>
@@ -4505,7 +4511,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4523,13 +4529,13 @@
         <v>238</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E44" s="55">
         <v>561720</v>
       </c>
       <c r="F44" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>16</v>
@@ -4541,7 +4547,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4550,34 +4556,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E45" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F45" s="55">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H45" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I45" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>10</v>
+        <v>757</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4589,31 +4595,31 @@
         <v>45295</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="E46" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F46" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H46" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I46" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>757</v>
+        <v>10</v>
       </c>
       <c r="K46" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4625,13 +4631,13 @@
         <v>45295</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E47" s="55">
         <v>561720</v>
@@ -4649,7 +4655,7 @@
         <v>13</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K47" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4667,13 +4673,13 @@
         <v>226</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E48" s="55">
         <v>561720</v>
       </c>
       <c r="F48" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G48" s="55" t="s">
         <v>16</v>
@@ -4685,7 +4691,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K48" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4694,28 +4700,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E49" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F49" s="55">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H49" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I49" s="55" t="s">
         <v>13</v>
@@ -4724,6 +4730,42 @@
         <v>761</v>
       </c>
       <c r="K49" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="E50" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F50" s="55">
+        <v>136</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>763</v>
+      </c>
+      <c r="K50" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16218,12 +16260,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16232,7 +16268,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16372,7 +16408,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D2E59F-8747-4AD2-AA40-89926D6C9B85}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16385,16 +16439,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4941762-3859-4AA7-9253-DCC5FEFF780D}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6114D3-1893-4416-8B70-39E2255633AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A5A97-652A-4148-9344-EEEC6C4DDE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="766">
   <si>
     <t>Date Received</t>
   </si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000044AjY/AIrRiUx57cQN91Gt3GEskluAye9VTB5lmjzmRGMobI4</t>
+  </si>
+  <si>
+    <t>Whitney M. Young, Jr. Job Corps Center</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004PKNp/m6fEJIQNs14gu3noBF5gjej8EnW4gPDax.v0XqI1Gm4</t>
   </si>
   <si>
     <t>IV Media, LLC</t>
@@ -2950,10 +2956,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3008,28 +3014,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>674</v>
       </c>
       <c r="E2" s="55">
-        <v>51</v>
+        <v>611519</v>
       </c>
       <c r="F2" s="55">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45712</v>
+        <v>45688</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -3044,28 +3050,28 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45637</v>
+        <v>45646</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>676</v>
       </c>
       <c r="E3" s="55">
-        <v>311513</v>
+        <v>51</v>
       </c>
       <c r="F3" s="55">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45698</v>
+        <v>45712</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
@@ -3074,34 +3080,34 @@
         <v>677</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K50" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K51" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45614</v>
+        <v>45637</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>678</v>
       </c>
       <c r="E4" s="55">
-        <v>237990</v>
+        <v>311513</v>
       </c>
       <c r="F4" s="55">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45673</v>
+        <v>45698</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3116,28 +3122,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>680</v>
       </c>
       <c r="E5" s="55">
-        <v>2121</v>
+        <v>237990</v>
       </c>
       <c r="F5" s="55">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3167,7 +3173,7 @@
         <v>2121</v>
       </c>
       <c r="F6" s="55">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
@@ -3188,22 +3194,22 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45607</v>
+        <v>45611</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>684</v>
       </c>
       <c r="E7" s="55">
-        <v>562920</v>
+        <v>2121</v>
       </c>
       <c r="F7" s="55">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
@@ -3224,7 +3230,7 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45600</v>
+        <v>45607</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>40</v>
@@ -3236,16 +3242,16 @@
         <v>686</v>
       </c>
       <c r="E8" s="55">
-        <v>541330</v>
+        <v>562920</v>
       </c>
       <c r="F8" s="55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45673</v>
+        <v>45672</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3275,7 +3281,7 @@
         <v>541330</v>
       </c>
       <c r="F9" s="55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
@@ -3296,31 +3302,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45590</v>
+        <v>45600</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="55">
-        <v>423450</v>
+        <v>541330</v>
       </c>
       <c r="F10" s="55">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45621</v>
+        <v>45673</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>691</v>
@@ -3332,31 +3338,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45580</v>
+        <v>45590</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="55">
-        <v>513210</v>
+        <v>423450</v>
       </c>
       <c r="F11" s="55">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45641</v>
+        <v>45621</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>693</v>
@@ -3368,28 +3374,28 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>694</v>
       </c>
       <c r="E12" s="55">
-        <v>449110</v>
+        <v>513210</v>
       </c>
       <c r="F12" s="55">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="54">
-        <v>45657</v>
+        <v>45641</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3404,28 +3410,28 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45566</v>
+        <v>45575</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>696</v>
       </c>
       <c r="E13" s="55">
-        <v>4841</v>
+        <v>449110</v>
       </c>
       <c r="F13" s="55">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="54">
-        <v>45544</v>
+        <v>45657</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3443,25 +3449,25 @@
         <v>45566</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>698</v>
       </c>
       <c r="E14" s="55">
-        <v>323111</v>
+        <v>4841</v>
       </c>
       <c r="F14" s="55">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45626</v>
+        <v>45544</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3476,31 +3482,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>700</v>
       </c>
       <c r="E15" s="55">
-        <v>336390</v>
+        <v>323111</v>
       </c>
       <c r="F15" s="55">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45632</v>
+        <v>45626</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>701</v>
@@ -3512,28 +3518,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>702</v>
       </c>
       <c r="E16" s="55">
-        <v>722330</v>
+        <v>336390</v>
       </c>
       <c r="F16" s="55">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45618</v>
+        <v>45632</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>12</v>
@@ -3548,31 +3554,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>704</v>
       </c>
       <c r="E17" s="55">
-        <v>424420</v>
+        <v>722330</v>
       </c>
       <c r="F17" s="55">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="54">
         <v>45618</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>705</v>
@@ -3584,28 +3590,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45490</v>
+        <v>45517</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>706</v>
       </c>
       <c r="E18" s="55">
-        <v>541614</v>
+        <v>424420</v>
       </c>
       <c r="F18" s="55">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45552</v>
+        <v>45618</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3620,31 +3626,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>708</v>
       </c>
       <c r="E19" s="55">
-        <v>493110</v>
+        <v>541614</v>
       </c>
       <c r="F19" s="55">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>45483</v>
+        <v>45552</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>709</v>
@@ -3656,28 +3662,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>710</v>
       </c>
       <c r="E20" s="55">
-        <v>335991</v>
+        <v>493110</v>
       </c>
       <c r="F20" s="55">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45481</v>
+        <v>45483</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>12</v>
@@ -3692,34 +3698,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45463</v>
+        <v>45481</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C21" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>713</v>
-      </c>
       <c r="E21" s="55">
-        <v>336390</v>
+        <v>335991</v>
       </c>
       <c r="F21" s="55">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45464</v>
+        <v>45481</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3728,31 +3734,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45448</v>
+        <v>45463</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>225</v>
+        <v>714</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>715</v>
       </c>
       <c r="E22" s="55">
-        <v>45459</v>
+        <v>336390</v>
       </c>
       <c r="F22" s="55">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45511</v>
+        <v>45464</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>716</v>
@@ -3764,7 +3770,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45442</v>
+        <v>45448</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>29</v>
@@ -3776,19 +3782,19 @@
         <v>717</v>
       </c>
       <c r="E23" s="55">
-        <v>332999</v>
+        <v>45459</v>
       </c>
       <c r="F23" s="55">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45657</v>
+        <v>45511</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
         <v>718</v>
@@ -3800,7 +3806,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>29</v>
@@ -3812,7 +3818,7 @@
         <v>719</v>
       </c>
       <c r="E24" s="55">
-        <v>314999</v>
+        <v>332999</v>
       </c>
       <c r="F24" s="55">
         <v>94</v>
@@ -3821,7 +3827,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45504</v>
+        <v>45657</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
@@ -3839,25 +3845,25 @@
         <v>45441</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>721</v>
       </c>
       <c r="E25" s="55">
-        <v>722330</v>
+        <v>314999</v>
       </c>
       <c r="F25" s="55">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45500</v>
+        <v>45504</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -3875,10 +3881,10 @@
         <v>45441</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>723</v>
@@ -3887,7 +3893,7 @@
         <v>722330</v>
       </c>
       <c r="F26" s="55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
@@ -3911,10 +3917,10 @@
         <v>45441</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>725</v>
@@ -3923,7 +3929,7 @@
         <v>722330</v>
       </c>
       <c r="F27" s="55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
@@ -3947,10 +3953,10 @@
         <v>45441</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>727</v>
@@ -3959,7 +3965,7 @@
         <v>722330</v>
       </c>
       <c r="F28" s="55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
@@ -3983,10 +3989,10 @@
         <v>45441</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>729</v>
@@ -3995,7 +4001,7 @@
         <v>722330</v>
       </c>
       <c r="F29" s="55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
@@ -4016,28 +4022,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>731</v>
       </c>
       <c r="E30" s="55">
-        <v>336411</v>
+        <v>722330</v>
       </c>
       <c r="F30" s="55">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45459</v>
+        <v>45500</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -4052,28 +4058,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45391</v>
+        <v>45399</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>733</v>
       </c>
       <c r="E31" s="55">
-        <v>326199</v>
+        <v>336411</v>
       </c>
       <c r="F31" s="55">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45450</v>
+        <v>45459</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4088,7 +4094,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>40</v>
@@ -4099,23 +4105,23 @@
       <c r="D32" s="55" t="s">
         <v>735</v>
       </c>
-      <c r="E32" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>10</v>
+      <c r="E32" s="55">
+        <v>326199</v>
+      </c>
+      <c r="F32" s="55">
+        <v>140</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45510</v>
+        <v>45450</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>10</v>
+        <v>736</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4124,34 +4130,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45378</v>
+        <v>45390</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>736</v>
-      </c>
-      <c r="E33" s="55">
-        <v>561720</v>
-      </c>
-      <c r="F33" s="55">
-        <v>78</v>
+        <v>737</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H33" s="54">
-        <v>45382</v>
+        <v>45510</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>737</v>
+        <v>10</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4160,31 +4166,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45363</v>
+        <v>45378</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>584</v>
+        <v>128</v>
       </c>
       <c r="D34" s="55" t="s">
         <v>738</v>
       </c>
       <c r="E34" s="55">
-        <v>541620</v>
+        <v>561720</v>
       </c>
       <c r="F34" s="55">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="54">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
         <v>739</v>
@@ -4196,34 +4202,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>404</v>
+        <v>740</v>
       </c>
       <c r="E35" s="55">
-        <v>493110</v>
+        <v>541620</v>
       </c>
       <c r="F35" s="55">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H35" s="54">
-        <v>45418</v>
+        <v>45366</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4232,28 +4238,28 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="54">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>741</v>
+        <v>404</v>
       </c>
       <c r="E36" s="55">
-        <v>21211</v>
+        <v>493110</v>
       </c>
       <c r="F36" s="55">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45411</v>
+        <v>45418</v>
       </c>
       <c r="I36" s="55" t="s">
         <v>13</v>
@@ -4268,31 +4274,31 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>743</v>
       </c>
       <c r="E37" s="55">
-        <v>316200</v>
+        <v>21211</v>
       </c>
       <c r="F37" s="55">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="54">
-        <v>45415</v>
+        <v>45411</v>
       </c>
       <c r="I37" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
         <v>744</v>
@@ -4304,31 +4310,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="54">
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>745</v>
       </c>
       <c r="E38" s="55">
-        <v>561611</v>
+        <v>316200</v>
       </c>
       <c r="F38" s="55">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="54">
-        <v>45380</v>
+        <v>45415</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J38" s="53" t="s">
         <v>746</v>
@@ -4340,28 +4346,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="54">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>747</v>
       </c>
       <c r="E39" s="55">
-        <v>611511</v>
+        <v>561611</v>
       </c>
       <c r="F39" s="55">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="54">
-        <v>45315</v>
+        <v>45380</v>
       </c>
       <c r="I39" s="55" t="s">
         <v>13</v>
@@ -4376,7 +4382,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
-        <v>45302</v>
+        <v>45315</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>29</v>
@@ -4388,16 +4394,16 @@
         <v>749</v>
       </c>
       <c r="E40" s="55">
-        <v>336110</v>
+        <v>611511</v>
       </c>
       <c r="F40" s="55">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G40" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="54">
-        <v>45365</v>
+        <v>45315</v>
       </c>
       <c r="I40" s="55" t="s">
         <v>13</v>
@@ -4412,28 +4418,28 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="54">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>751</v>
       </c>
       <c r="E41" s="55">
-        <v>336350</v>
+        <v>336110</v>
       </c>
       <c r="F41" s="55">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H41" s="54">
-        <v>45401</v>
+        <v>45365</v>
       </c>
       <c r="I41" s="55" t="s">
         <v>13</v>
@@ -4448,28 +4454,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="54">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D42" s="55" t="s">
         <v>753</v>
       </c>
       <c r="E42" s="55">
-        <v>561720</v>
+        <v>336350</v>
       </c>
       <c r="F42" s="55">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G42" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="54">
-        <v>45299</v>
+        <v>45401</v>
       </c>
       <c r="I42" s="55" t="s">
         <v>13</v>
@@ -4493,13 +4499,13 @@
         <v>238</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E43" s="55">
         <v>561720</v>
       </c>
       <c r="F43" s="55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G43" s="55" t="s">
         <v>16</v>
@@ -4511,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4529,13 +4535,13 @@
         <v>238</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E44" s="55">
         <v>561720</v>
       </c>
       <c r="F44" s="55">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>16</v>
@@ -4547,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4565,13 +4571,13 @@
         <v>238</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E45" s="55">
         <v>561720</v>
       </c>
       <c r="F45" s="55">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G45" s="55" t="s">
         <v>16</v>
@@ -4583,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4592,34 +4598,34 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E46" s="55">
-        <v>331400</v>
+        <v>561720</v>
       </c>
       <c r="F46" s="55">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H46" s="54">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="I46" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>10</v>
+        <v>759</v>
       </c>
       <c r="K46" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4631,31 +4637,31 @@
         <v>45295</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="E47" s="55">
-        <v>561720</v>
+        <v>331400</v>
       </c>
       <c r="F47" s="55">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G47" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H47" s="54">
-        <v>45356</v>
+        <v>45295</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>759</v>
+        <v>10</v>
       </c>
       <c r="K47" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4667,13 +4673,13 @@
         <v>45295</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E48" s="55">
         <v>561720</v>
@@ -4691,7 +4697,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="K48" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4709,13 +4715,13 @@
         <v>226</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E49" s="55">
         <v>561720</v>
       </c>
       <c r="F49" s="55">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G49" s="55" t="s">
         <v>16</v>
@@ -4727,7 +4733,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K49" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4736,28 +4742,28 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="54">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E50" s="55">
-        <v>541714</v>
+        <v>561720</v>
       </c>
       <c r="F50" s="55">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H50" s="54">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="I50" s="55" t="s">
         <v>13</v>
@@ -4766,6 +4772,42 @@
         <v>763</v>
       </c>
       <c r="K50" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="54">
+        <v>45293</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="E51" s="55">
+        <v>541714</v>
+      </c>
+      <c r="F51" s="55">
+        <v>136</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="54">
+        <v>45351</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>765</v>
+      </c>
+      <c r="K51" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16260,15 +16302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16408,25 +16441,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E73D2BA-990A-4375-A800-72099933BCE3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D2E59F-8747-4AD2-AA40-89926D6C9B85}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16439,4 +16473,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A5A97-652A-4148-9344-EEEC6C4DDE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2524D65-EDC7-433C-BEED-5106FC60C398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="765">
   <si>
     <t>Date Received</t>
   </si>
@@ -679,21 +679,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000WdOj/EtoHFBGYRGKEa6HRL919.tBmdJgWhFQwvQrNBo_3sMw</t>
   </si>
   <si>
-    <t>TRANE U.S. Inc.</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000RDEn/Km.eR1JpRzHzWCG1sfudTWfq6WgleLWWcwhdFwpxEsI</t>
   </si>
   <si>
-    <t>Russell Locomotive Shop</t>
-  </si>
-  <si>
     <t>ResCare CAKY of Somerset</t>
   </si>
   <si>
-    <t>Bingham Gardens</t>
-  </si>
-  <si>
     <t>Piramal Pharma Solutions, Inc.</t>
   </si>
   <si>
@@ -709,9 +700,6 @@
     <t>IPSCO Tubulars (KY), L.L.C.</t>
   </si>
   <si>
-    <t>Conduent Federal Solutions, LLC.</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/t0000000lyUD/xjoH5J7lvixV8k5XWXFfDFMAzFEvMzhjkUBc_NOcDE4</t>
   </si>
   <si>
@@ -856,12 +844,12 @@
     <t>Campbell</t>
   </si>
   <si>
-    <t>Union</t>
-  </si>
-  <si>
     <t>Hart</t>
   </si>
   <si>
+    <t>TRANE USA Inc</t>
+  </si>
+  <si>
     <t>Simpson</t>
   </si>
   <si>
@@ -871,7 +859,16 @@
     <t>Greenup</t>
   </si>
   <si>
+    <t>CSX Russell Locomotive Shop</t>
+  </si>
+  <si>
     <t>Hardin</t>
+  </si>
+  <si>
+    <t>Conduent State &amp; Local Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>BrightSpring Bingham Gardens</t>
   </si>
   <si>
     <t>Woodford</t>
@@ -2985,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>2</v>
@@ -3020,10 +3017,10 @@
         <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E2" s="55">
         <v>611519</v>
@@ -3041,7 +3038,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3056,10 +3053,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E3" s="55">
         <v>51</v>
@@ -3077,7 +3074,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K3" s="57" t="str">
         <f t="shared" ref="K3:K51" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
@@ -3092,10 +3089,10 @@
         <v>70</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E4" s="55">
         <v>311513</v>
@@ -3113,7 +3110,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3128,10 +3125,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E5" s="55">
         <v>237990</v>
@@ -3149,7 +3146,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3164,10 +3161,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E6" s="55">
         <v>2121</v>
@@ -3185,7 +3182,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3200,10 +3197,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E7" s="55">
         <v>2121</v>
@@ -3221,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3236,10 +3233,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E8" s="55">
         <v>562920</v>
@@ -3257,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3272,10 +3269,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E9" s="55">
         <v>541330</v>
@@ -3293,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3308,10 +3305,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E10" s="55">
         <v>541330</v>
@@ -3329,7 +3326,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3347,7 +3344,7 @@
         <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E11" s="55">
         <v>423450</v>
@@ -3365,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3380,10 +3377,10 @@
         <v>70</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E12" s="55">
         <v>513210</v>
@@ -3401,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3416,10 +3413,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E13" s="55">
         <v>449110</v>
@@ -3437,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3449,13 +3446,13 @@
         <v>45566</v>
       </c>
       <c r="B14" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D14" s="55" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E14" s="55">
         <v>4841</v>
@@ -3473,7 +3470,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3488,10 +3485,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E15" s="55">
         <v>323111</v>
@@ -3509,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3524,10 +3521,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E16" s="55">
         <v>336390</v>
@@ -3545,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3563,7 +3560,7 @@
         <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E17" s="55">
         <v>722330</v>
@@ -3581,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3596,10 +3593,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E18" s="55">
         <v>424420</v>
@@ -3617,7 +3614,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3632,10 +3629,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E19" s="55">
         <v>541614</v>
@@ -3653,7 +3650,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3671,7 +3668,7 @@
         <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E20" s="55">
         <v>493110</v>
@@ -3689,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3704,10 +3701,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E21" s="55">
         <v>335991</v>
@@ -3725,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3740,10 +3737,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>714</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>715</v>
       </c>
       <c r="E22" s="55">
         <v>336390</v>
@@ -3761,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3776,10 +3773,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E23" s="55">
         <v>45459</v>
@@ -3797,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3812,10 +3809,10 @@
         <v>29</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E24" s="55">
         <v>332999</v>
@@ -3833,7 +3830,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3848,10 +3845,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E25" s="55">
         <v>314999</v>
@@ -3869,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3884,10 +3881,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="55">
         <v>722330</v>
@@ -3905,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3920,10 +3917,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E27" s="55">
         <v>722330</v>
@@ -3941,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3956,10 +3953,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E28" s="55">
         <v>722330</v>
@@ -3977,7 +3974,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3992,10 +3989,10 @@
         <v>14</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E29" s="55">
         <v>722330</v>
@@ -4013,7 +4010,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4028,10 +4025,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E30" s="55">
         <v>722330</v>
@@ -4049,7 +4046,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4064,10 +4061,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E31" s="55">
         <v>336411</v>
@@ -4085,7 +4082,7 @@
         <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4100,10 +4097,10 @@
         <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E32" s="55">
         <v>326199</v>
@@ -4121,7 +4118,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4136,10 +4133,10 @@
         <v>40</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E33" s="55" t="s">
         <v>10</v>
@@ -4175,7 +4172,7 @@
         <v>128</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
@@ -4193,7 +4190,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4208,10 +4205,10 @@
         <v>38</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E35" s="55">
         <v>541620</v>
@@ -4229,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4247,7 +4244,7 @@
         <v>128</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E36" s="55">
         <v>493110</v>
@@ -4265,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4280,10 +4277,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E37" s="55">
         <v>21211</v>
@@ -4301,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4319,7 +4316,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E38" s="55">
         <v>316200</v>
@@ -4337,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4352,10 +4349,10 @@
         <v>14</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E39" s="55">
         <v>561611</v>
@@ -4373,7 +4370,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4388,10 +4385,10 @@
         <v>29</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E40" s="55">
         <v>611511</v>
@@ -4409,7 +4406,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4424,10 +4421,10 @@
         <v>29</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E41" s="55">
         <v>336110</v>
@@ -4445,7 +4442,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4460,10 +4457,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E42" s="55">
         <v>336350</v>
@@ -4481,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4496,10 +4493,10 @@
         <v>108</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E43" s="55">
         <v>561720</v>
@@ -4517,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4532,10 +4529,10 @@
         <v>108</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E44" s="55">
         <v>561720</v>
@@ -4553,7 +4550,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4568,10 +4565,10 @@
         <v>108</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E45" s="55">
         <v>561720</v>
@@ -4589,7 +4586,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4604,10 +4601,10 @@
         <v>108</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E46" s="55">
         <v>561720</v>
@@ -4625,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K46" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4640,10 +4637,10 @@
         <v>38</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E47" s="55">
         <v>331400</v>
@@ -4676,10 +4673,10 @@
         <v>26</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E48" s="55">
         <v>561720</v>
@@ -4697,7 +4694,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K48" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4712,10 +4709,10 @@
         <v>40</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E49" s="55">
         <v>561720</v>
@@ -4733,7 +4730,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K49" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4748,10 +4745,10 @@
         <v>40</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E50" s="55">
         <v>561720</v>
@@ -4769,7 +4766,7 @@
         <v>13</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K50" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4787,7 +4784,7 @@
         <v>128</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E51" s="55">
         <v>541714</v>
@@ -4805,7 +4802,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K51" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4850,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>2</v>
@@ -4885,10 +4882,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E2" s="55">
         <v>423840</v>
@@ -4906,7 +4903,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -4921,10 +4918,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E3" s="55">
         <v>561422</v>
@@ -4942,7 +4939,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K3" s="57" t="str">
         <f t="shared" ref="K3:K45" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
@@ -4957,10 +4954,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>591</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>592</v>
       </c>
       <c r="E4" s="55">
         <v>424420</v>
@@ -4978,7 +4975,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4993,10 +4990,10 @@
         <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E5" s="55">
         <v>488510</v>
@@ -5014,7 +5011,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5029,10 +5026,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>596</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>597</v>
       </c>
       <c r="E6" s="55">
         <v>445110</v>
@@ -5050,7 +5047,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5062,13 +5059,13 @@
         <v>45167</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D7" s="55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E7" s="55">
         <v>5221</v>
@@ -5086,7 +5083,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5101,10 +5098,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E8" s="55">
         <v>326291</v>
@@ -5122,7 +5119,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5137,10 +5134,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E9" s="55">
         <v>624120</v>
@@ -5158,7 +5155,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5173,10 +5170,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E10" s="55">
         <v>484110</v>
@@ -5194,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5209,10 +5206,10 @@
         <v>38</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E11" s="55">
         <v>484110</v>
@@ -5230,7 +5227,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5245,10 +5242,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E12" s="55">
         <v>484110</v>
@@ -5266,7 +5263,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5281,10 +5278,10 @@
         <v>108</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E13" s="55">
         <v>336390</v>
@@ -5302,7 +5299,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5317,10 +5314,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E14" s="55">
         <v>2121</v>
@@ -5338,7 +5335,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5353,10 +5350,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E15" s="55">
         <v>2121</v>
@@ -5374,7 +5371,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5389,10 +5386,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E16" s="55">
         <v>2121</v>
@@ -5410,7 +5407,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5425,10 +5422,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E17" s="55">
         <v>2121</v>
@@ -5446,7 +5443,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5461,10 +5458,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" s="55">
         <v>2121</v>
@@ -5482,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5497,10 +5494,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E19" s="55">
         <v>2121</v>
@@ -5518,7 +5515,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5533,10 +5530,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E20" s="55">
         <v>2121</v>
@@ -5554,7 +5551,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5569,10 +5566,10 @@
         <v>14</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E21" s="55">
         <v>2121</v>
@@ -5590,7 +5587,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5605,10 +5602,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E22" s="55">
         <v>561440</v>
@@ -5626,7 +5623,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5641,10 +5638,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E23" s="55">
         <v>323111</v>
@@ -5662,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5677,10 +5674,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E24" s="55">
         <v>324199</v>
@@ -5698,7 +5695,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5713,10 +5710,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E25" s="55">
         <v>336390</v>
@@ -5734,7 +5731,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5749,10 +5746,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E26" s="55">
         <v>2121</v>
@@ -5770,7 +5767,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5785,10 +5782,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E27" s="55">
         <v>541219</v>
@@ -5806,7 +5803,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5824,7 +5821,7 @@
         <v>128</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E28" s="55">
         <v>621910</v>
@@ -5842,7 +5839,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5857,10 +5854,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E29" s="55">
         <v>621910</v>
@@ -5878,7 +5875,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5893,10 +5890,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="55" t="s">
+        <v>641</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>642</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>643</v>
       </c>
       <c r="E30" s="55">
         <v>334514</v>
@@ -5914,7 +5911,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5929,10 +5926,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E31" s="55">
         <v>722310</v>
@@ -5950,7 +5947,7 @@
         <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5965,10 +5962,10 @@
         <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E32" s="55">
         <v>624120</v>
@@ -5986,7 +5983,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6001,10 +5998,10 @@
         <v>108</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E33" s="55">
         <v>488510</v>
@@ -6022,7 +6019,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6037,10 +6034,10 @@
         <v>38</v>
       </c>
       <c r="C34" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>649</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>650</v>
       </c>
       <c r="E34" s="55">
         <v>541614</v>
@@ -6058,7 +6055,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6073,10 +6070,10 @@
         <v>108</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E35" s="55">
         <v>541714</v>
@@ -6094,7 +6091,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6109,10 +6106,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E36" s="55">
         <v>33392</v>
@@ -6130,7 +6127,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6145,10 +6142,10 @@
         <v>40</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E37" s="55">
         <v>541614</v>
@@ -6166,7 +6163,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6184,7 +6181,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E38" s="55">
         <v>323111</v>
@@ -6202,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6217,10 +6214,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E39" s="55">
         <v>322130</v>
@@ -6238,7 +6235,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6253,10 +6250,10 @@
         <v>29</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E40" s="55">
         <v>332999</v>
@@ -6274,7 +6271,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6289,10 +6286,10 @@
         <v>108</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E41" s="55">
         <v>493110</v>
@@ -6310,7 +6307,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6325,10 +6322,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E42" s="55">
         <v>336323</v>
@@ -6346,7 +6343,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6361,10 +6358,10 @@
         <v>108</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E43" s="55">
         <v>488210</v>
@@ -6382,7 +6379,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6400,7 +6397,7 @@
         <v>128</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E44" s="55">
         <v>321199</v>
@@ -6418,7 +6415,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6430,13 +6427,13 @@
         <v>44937</v>
       </c>
       <c r="B45" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C45" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D45" s="55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E45" s="55">
         <v>485320</v>
@@ -6454,7 +6451,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6499,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>2</v>
@@ -6534,10 +6531,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E2" s="55">
         <v>44121</v>
@@ -6555,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -6570,10 +6567,10 @@
         <v>70</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" s="55" t="s">
         <v>10</v>
@@ -6591,7 +6588,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K3" s="57" t="str">
         <f t="shared" ref="K3:K16" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
@@ -6606,10 +6603,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E4" s="55">
         <v>722310</v>
@@ -6627,7 +6624,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6642,10 +6639,10 @@
         <v>67</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>560</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>561</v>
       </c>
       <c r="E5" s="55">
         <v>5614</v>
@@ -6663,7 +6660,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6678,10 +6675,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E6" s="55">
         <v>48821</v>
@@ -6699,7 +6696,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6714,10 +6711,10 @@
         <v>67</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E7" s="55">
         <v>326150</v>
@@ -6735,7 +6732,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6750,10 +6747,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E8" s="55">
         <v>621610</v>
@@ -6771,7 +6768,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6786,10 +6783,10 @@
         <v>47</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E9" s="55">
         <v>331318</v>
@@ -6807,7 +6804,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6822,10 +6819,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>10</v>
@@ -6843,7 +6840,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6858,10 +6855,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E11" s="55">
         <v>454110</v>
@@ -6879,7 +6876,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6894,13 +6891,13 @@
         <v>108</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D12" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" s="55" t="s">
         <v>575</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>576</v>
       </c>
       <c r="F12" s="55">
         <v>225</v>
@@ -6915,7 +6912,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6933,7 +6930,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E13" s="55">
         <v>452210</v>
@@ -6951,7 +6948,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -6966,10 +6963,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E14" s="55">
         <v>424480</v>
@@ -6987,7 +6984,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7002,10 +6999,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E15" s="55">
         <v>454390</v>
@@ -7023,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7038,10 +7035,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>584</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>585</v>
       </c>
       <c r="E16" s="55">
         <v>339999</v>
@@ -7059,7 +7056,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7104,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>2</v>
@@ -7142,7 +7139,7 @@
         <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E2" s="55">
         <v>333517</v>
@@ -7160,7 +7157,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -7175,10 +7172,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E3" s="55">
         <v>532120</v>
@@ -7196,7 +7193,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K3" s="57" t="str">
         <f t="shared" ref="K3:K22" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
@@ -7211,10 +7208,10 @@
         <v>70</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>10</v>
@@ -7232,7 +7229,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7244,13 +7241,13 @@
         <v>44471</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D5" s="55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>10</v>
@@ -7283,10 +7280,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E6" s="55">
         <v>333249</v>
@@ -7304,7 +7301,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7322,7 +7319,7 @@
         <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E7" s="55">
         <v>62331</v>
@@ -7340,7 +7337,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7355,10 +7352,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="E8" s="55">
         <v>333415</v>
@@ -7376,7 +7373,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7391,10 +7388,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E9" s="55">
         <v>336370</v>
@@ -7412,7 +7409,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7430,7 +7427,7 @@
         <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E10" s="55">
         <v>488510</v>
@@ -7448,7 +7445,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7463,10 +7460,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E11" s="55">
         <v>518210</v>
@@ -7484,7 +7481,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7499,10 +7496,10 @@
         <v>108</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E12" s="55">
         <v>541330</v>
@@ -7520,7 +7517,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7538,7 +7535,7 @@
         <v>128</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E13" s="55">
         <v>623110</v>
@@ -7556,7 +7553,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7571,10 +7568,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E14" s="55" t="s">
         <v>10</v>
@@ -7607,10 +7604,10 @@
         <v>108</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E15" s="55">
         <v>453998</v>
@@ -7628,7 +7625,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7643,10 +7640,10 @@
         <v>108</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E16" s="55">
         <v>484121</v>
@@ -7679,10 +7676,10 @@
         <v>108</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E17" s="55">
         <v>484121</v>
@@ -7700,7 +7697,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7718,7 +7715,7 @@
         <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E18" s="55">
         <v>454110</v>
@@ -7736,7 +7733,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7751,10 +7748,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E19" s="55">
         <v>336360</v>
@@ -7772,7 +7769,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7787,10 +7784,10 @@
         <v>108</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E20" s="55">
         <v>541614</v>
@@ -7808,7 +7805,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7823,10 +7820,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E21" s="55">
         <v>332613</v>
@@ -7844,7 +7841,7 @@
         <v>27</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7862,7 +7859,7 @@
         <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E22" s="55">
         <v>511110</v>
@@ -7880,7 +7877,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7925,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>2</v>
@@ -7963,7 +7960,7 @@
         <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" s="55">
         <v>423450</v>
@@ -7981,7 +7978,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -7996,10 +7993,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="55">
         <v>561612</v>
@@ -8017,7 +8014,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K3" s="57" t="str">
         <f t="shared" ref="K3:K66" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
@@ -8032,10 +8029,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="55">
         <v>30354</v>
@@ -8053,7 +8050,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8068,10 +8065,10 @@
         <v>70</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="55">
         <v>333912</v>
@@ -8089,7 +8086,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8104,10 +8101,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E6" s="55">
         <v>72172</v>
@@ -8125,7 +8122,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8143,7 +8140,7 @@
         <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="55">
         <v>721110</v>
@@ -8161,7 +8158,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8176,10 +8173,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="55">
         <v>325211</v>
@@ -8197,7 +8194,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8212,10 +8209,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E9" s="55">
         <v>53211</v>
@@ -8233,7 +8230,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8248,10 +8245,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="55">
         <v>336370</v>
@@ -8269,7 +8266,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8284,10 +8281,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E11" s="55">
         <v>81293</v>
@@ -8305,7 +8302,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8323,7 +8320,7 @@
         <v>128</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="55">
         <v>722511</v>
@@ -8341,7 +8338,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8356,10 +8353,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E13" s="55">
         <v>722511</v>
@@ -8377,7 +8374,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8395,7 +8392,7 @@
         <v>128</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="55">
         <v>721110</v>
@@ -8413,7 +8410,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8431,7 +8428,7 @@
         <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="55">
         <v>722511</v>
@@ -8449,7 +8446,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8464,10 +8461,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="55">
         <v>721110</v>
@@ -8485,7 +8482,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8503,7 +8500,7 @@
         <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17" s="55">
         <v>561720</v>
@@ -8521,7 +8518,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8536,10 +8533,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E18" s="55">
         <v>3221</v>
@@ -8557,7 +8554,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8572,10 +8569,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="55">
         <v>72251</v>
@@ -8593,7 +8590,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8611,7 +8608,7 @@
         <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E20" s="55">
         <v>541618</v>
@@ -8629,7 +8626,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8644,10 +8641,10 @@
         <v>29</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E21" s="55">
         <v>453220</v>
@@ -8665,7 +8662,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8680,10 +8677,10 @@
         <v>29</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22" s="55">
         <v>541613</v>
@@ -8701,7 +8698,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8719,7 +8716,7 @@
         <v>128</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23" s="55">
         <v>561510</v>
@@ -8737,7 +8734,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8752,10 +8749,10 @@
         <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E24" s="55">
         <v>213113</v>
@@ -8773,7 +8770,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8788,10 +8785,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="55">
         <v>213113</v>
@@ -8809,7 +8806,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8824,10 +8821,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="55">
         <v>213113</v>
@@ -8845,7 +8842,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8863,7 +8860,7 @@
         <v>128</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E27" s="55">
         <v>541614</v>
@@ -8881,7 +8878,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8896,10 +8893,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E28" s="55">
         <v>541800</v>
@@ -8917,7 +8914,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8935,7 +8932,7 @@
         <v>128</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E29" s="55">
         <v>722110</v>
@@ -8953,7 +8950,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8971,7 +8968,7 @@
         <v>128</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E30" s="55">
         <v>722110</v>
@@ -8989,7 +8986,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9001,13 +8998,13 @@
         <v>44011</v>
       </c>
       <c r="B31" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="D31" s="55" t="s">
         <v>333</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>334</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>10</v>
@@ -9040,10 +9037,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>335</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>336</v>
       </c>
       <c r="E32" s="55">
         <v>33331</v>
@@ -9061,7 +9058,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9076,10 +9073,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E33" s="55">
         <v>721110</v>
@@ -9097,7 +9094,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9112,10 +9109,10 @@
         <v>40</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" s="55">
         <v>336340</v>
@@ -9133,7 +9130,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9148,10 +9145,10 @@
         <v>108</v>
       </c>
       <c r="C35" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>342</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>343</v>
       </c>
       <c r="E35" s="55">
         <v>517210</v>
@@ -9169,7 +9166,7 @@
         <v>27</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9184,10 +9181,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E36" s="55">
         <v>488190</v>
@@ -9205,7 +9202,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9220,10 +9217,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E37" s="55">
         <v>493110</v>
@@ -9241,7 +9238,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9256,10 +9253,10 @@
         <v>29</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="55">
         <v>488190</v>
@@ -9277,7 +9274,7 @@
         <v>13</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9292,10 +9289,10 @@
         <v>29</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39" s="55">
         <v>54130</v>
@@ -9313,7 +9310,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9328,10 +9325,10 @@
         <v>26</v>
       </c>
       <c r="C40" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>352</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>353</v>
       </c>
       <c r="E40" s="55">
         <v>337110</v>
@@ -9349,7 +9346,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9364,10 +9361,10 @@
         <v>29</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E41" s="55">
         <v>561990</v>
@@ -9385,7 +9382,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9403,7 +9400,7 @@
         <v>128</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E42" s="55">
         <v>721110</v>
@@ -9421,7 +9418,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9436,10 +9433,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43" s="55">
         <v>721110</v>
@@ -9457,7 +9454,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9472,10 +9469,10 @@
         <v>38</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E44" s="55">
         <v>332613</v>
@@ -9493,7 +9490,7 @@
         <v>27</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9508,10 +9505,10 @@
         <v>29</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E45" s="55">
         <v>532111</v>
@@ -9529,7 +9526,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9547,7 +9544,7 @@
         <v>128</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" s="55" t="s">
         <v>10</v>
@@ -9583,7 +9580,7 @@
         <v>128</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>10</v>
@@ -9616,10 +9613,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="D48" s="55" t="s">
         <v>367</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>368</v>
       </c>
       <c r="E48" s="55">
         <v>23840</v>
@@ -9637,7 +9634,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K48" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9652,10 +9649,10 @@
         <v>14</v>
       </c>
       <c r="C49" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="D49" s="55" t="s">
         <v>370</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>371</v>
       </c>
       <c r="E49" s="55">
         <v>213113</v>
@@ -9673,7 +9670,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K49" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9688,10 +9685,10 @@
         <v>15</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E50" s="55">
         <v>151026</v>
@@ -9709,7 +9706,7 @@
         <v>13</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K50" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9724,10 +9721,10 @@
         <v>15</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E51" s="55">
         <v>315190</v>
@@ -9745,7 +9742,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K51" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9757,13 +9754,13 @@
         <v>43948</v>
       </c>
       <c r="B52" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D52" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E52" s="55">
         <v>722511</v>
@@ -9781,7 +9778,7 @@
         <v>13</v>
       </c>
       <c r="J52" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K52" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9796,10 +9793,10 @@
         <v>40</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E53" s="55">
         <v>423110</v>
@@ -9817,7 +9814,7 @@
         <v>13</v>
       </c>
       <c r="J53" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K53" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9832,10 +9829,10 @@
         <v>26</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E54" s="55">
         <v>336390</v>
@@ -9853,7 +9850,7 @@
         <v>13</v>
       </c>
       <c r="J54" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K54" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9868,10 +9865,10 @@
         <v>47</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E55" s="55">
         <v>322121</v>
@@ -9889,7 +9886,7 @@
         <v>13</v>
       </c>
       <c r="J55" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K55" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9904,10 +9901,10 @@
         <v>40</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E56" s="55">
         <v>532111</v>
@@ -9925,7 +9922,7 @@
         <v>13</v>
       </c>
       <c r="J56" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K56" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9943,7 +9940,7 @@
         <v>128</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E57" s="55">
         <v>532111</v>
@@ -9961,7 +9958,7 @@
         <v>13</v>
       </c>
       <c r="J57" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K57" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9979,7 +9976,7 @@
         <v>128</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E58" s="55">
         <v>532111</v>
@@ -9997,7 +9994,7 @@
         <v>13</v>
       </c>
       <c r="J58" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K58" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10012,10 +10009,10 @@
         <v>70</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E59" s="55">
         <v>423210</v>
@@ -10033,7 +10030,7 @@
         <v>13</v>
       </c>
       <c r="J59" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K59" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10045,13 +10042,13 @@
         <v>43944</v>
       </c>
       <c r="B60" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C60" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D60" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E60" s="55">
         <v>446130</v>
@@ -10069,7 +10066,7 @@
         <v>13</v>
       </c>
       <c r="J60" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K60" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10084,10 +10081,10 @@
         <v>29</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E61" s="55">
         <v>326220</v>
@@ -10105,7 +10102,7 @@
         <v>13</v>
       </c>
       <c r="J61" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K61" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10120,10 +10117,10 @@
         <v>40</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E62" s="55">
         <v>33392</v>
@@ -10141,7 +10138,7 @@
         <v>13</v>
       </c>
       <c r="J62" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K62" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10156,10 +10153,10 @@
         <v>29</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E63" s="55">
         <v>532111</v>
@@ -10177,7 +10174,7 @@
         <v>13</v>
       </c>
       <c r="J63" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K63" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10195,7 +10192,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E64" s="55">
         <v>532111</v>
@@ -10213,7 +10210,7 @@
         <v>13</v>
       </c>
       <c r="J64" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K64" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10228,10 +10225,10 @@
         <v>29</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E65" s="55">
         <v>488190</v>
@@ -10249,7 +10246,7 @@
         <v>13</v>
       </c>
       <c r="J65" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K65" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10264,7 +10261,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D66" s="55" t="s">
         <v>133</v>
@@ -10285,7 +10282,7 @@
         <v>13</v>
       </c>
       <c r="J66" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K66" s="57" t="str">
         <f t="shared" si="0"/>
@@ -10300,7 +10297,7 @@
         <v>40</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>133</v>
@@ -10321,7 +10318,7 @@
         <v>13</v>
       </c>
       <c r="J67" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K67" s="57" t="str">
         <f t="shared" ref="K67:K125" si="1">IF(ISBLANK(J67),"",HYPERLINK(J67,"WARN"))</f>
@@ -10339,7 +10336,7 @@
         <v>128</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E68" s="55">
         <v>493110</v>
@@ -10357,7 +10354,7 @@
         <v>13</v>
       </c>
       <c r="J68" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K68" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10375,7 +10372,7 @@
         <v>128</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E69" s="55">
         <v>339116</v>
@@ -10393,7 +10390,7 @@
         <v>27</v>
       </c>
       <c r="J69" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K69" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10411,7 +10408,7 @@
         <v>128</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E70" s="55">
         <v>337910</v>
@@ -10429,7 +10426,7 @@
         <v>13</v>
       </c>
       <c r="J70" s="53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K70" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10444,10 +10441,10 @@
         <v>29</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E71" s="55">
         <v>712130</v>
@@ -10465,7 +10462,7 @@
         <v>13</v>
       </c>
       <c r="J71" s="53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K71" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10480,10 +10477,10 @@
         <v>40</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E72" s="55">
         <v>561311</v>
@@ -10501,7 +10498,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K72" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10516,10 +10513,10 @@
         <v>40</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E73" s="55">
         <v>62111</v>
@@ -10537,7 +10534,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K73" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10552,10 +10549,10 @@
         <v>38</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D74" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E74" s="55">
         <v>62211</v>
@@ -10573,7 +10570,7 @@
         <v>13</v>
       </c>
       <c r="J74" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K74" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10588,10 +10585,10 @@
         <v>29</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E75" s="55">
         <v>488510</v>
@@ -10609,7 +10606,7 @@
         <v>13</v>
       </c>
       <c r="J75" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K75" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10624,10 +10621,10 @@
         <v>29</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D76" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E76" s="55">
         <v>72251</v>
@@ -10645,7 +10642,7 @@
         <v>13</v>
       </c>
       <c r="J76" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K76" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10660,10 +10657,10 @@
         <v>29</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E77" s="55">
         <v>336413</v>
@@ -10681,7 +10678,7 @@
         <v>13</v>
       </c>
       <c r="J77" s="53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K77" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10693,13 +10690,13 @@
         <v>43927</v>
       </c>
       <c r="B78" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="C78" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="D78" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E78" s="55">
         <v>722511</v>
@@ -10717,7 +10714,7 @@
         <v>13</v>
       </c>
       <c r="J78" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K78" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10732,10 +10729,10 @@
         <v>70</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D79" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E79" s="55">
         <v>623110</v>
@@ -10753,7 +10750,7 @@
         <v>13</v>
       </c>
       <c r="J79" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K79" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10768,10 +10765,10 @@
         <v>70</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D80" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E80" s="55">
         <v>623110</v>
@@ -10789,7 +10786,7 @@
         <v>13</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K80" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10804,10 +10801,10 @@
         <v>70</v>
       </c>
       <c r="C81" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="D81" s="55" t="s">
         <v>430</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>431</v>
       </c>
       <c r="E81" s="55">
         <v>623110</v>
@@ -10825,7 +10822,7 @@
         <v>13</v>
       </c>
       <c r="J81" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K81" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10840,10 +10837,10 @@
         <v>70</v>
       </c>
       <c r="C82" s="55" t="s">
+        <v>432</v>
+      </c>
+      <c r="D82" s="55" t="s">
         <v>433</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>434</v>
       </c>
       <c r="E82" s="55">
         <v>623110</v>
@@ -10861,7 +10858,7 @@
         <v>13</v>
       </c>
       <c r="J82" s="53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K82" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10876,10 +10873,10 @@
         <v>70</v>
       </c>
       <c r="C83" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="D83" s="55" t="s">
         <v>436</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>437</v>
       </c>
       <c r="E83" s="55">
         <v>623110</v>
@@ -10897,7 +10894,7 @@
         <v>13</v>
       </c>
       <c r="J83" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K83" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10912,10 +10909,10 @@
         <v>70</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D84" s="55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E84" s="55">
         <v>623110</v>
@@ -10933,7 +10930,7 @@
         <v>13</v>
       </c>
       <c r="J84" s="53" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K84" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10948,10 +10945,10 @@
         <v>70</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D85" s="55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E85" s="55">
         <v>623110</v>
@@ -10969,7 +10966,7 @@
         <v>13</v>
       </c>
       <c r="J85" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K85" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10984,10 +10981,10 @@
         <v>70</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D86" s="55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E86" s="55">
         <v>623110</v>
@@ -11005,7 +11002,7 @@
         <v>13</v>
       </c>
       <c r="J86" s="53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K86" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11020,10 +11017,10 @@
         <v>70</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E87" s="55">
         <v>623110</v>
@@ -11041,7 +11038,7 @@
         <v>13</v>
       </c>
       <c r="J87" s="53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K87" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11056,10 +11053,10 @@
         <v>70</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E88" s="55">
         <v>423110</v>
@@ -11077,7 +11074,7 @@
         <v>13</v>
       </c>
       <c r="J88" s="53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K88" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11092,10 +11089,10 @@
         <v>70</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E89" s="55">
         <v>623110</v>
@@ -11113,7 +11110,7 @@
         <v>13</v>
       </c>
       <c r="J89" s="53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K89" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11128,10 +11125,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E90" s="55">
         <v>423440</v>
@@ -11149,7 +11146,7 @@
         <v>13</v>
       </c>
       <c r="J90" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K90" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11164,10 +11161,10 @@
         <v>38</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E91" s="55">
         <v>333999</v>
@@ -11185,7 +11182,7 @@
         <v>13</v>
       </c>
       <c r="J91" s="53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K91" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11203,7 +11200,7 @@
         <v>128</v>
       </c>
       <c r="D92" s="55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E92" s="55">
         <v>721110</v>
@@ -11221,7 +11218,7 @@
         <v>13</v>
       </c>
       <c r="J92" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K92" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11236,10 +11233,10 @@
         <v>70</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D93" s="55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E93" s="55">
         <v>721110</v>
@@ -11257,7 +11254,7 @@
         <v>13</v>
       </c>
       <c r="J93" s="53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K93" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11275,7 +11272,7 @@
         <v>128</v>
       </c>
       <c r="D94" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E94" s="55">
         <v>721110</v>
@@ -11293,7 +11290,7 @@
         <v>13</v>
       </c>
       <c r="J94" s="53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K94" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11311,7 +11308,7 @@
         <v>128</v>
       </c>
       <c r="D95" s="55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E95" s="55">
         <v>721110</v>
@@ -11329,7 +11326,7 @@
         <v>13</v>
       </c>
       <c r="J95" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K95" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11344,10 +11341,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E96" s="55">
         <v>512131</v>
@@ -11365,7 +11362,7 @@
         <v>13</v>
       </c>
       <c r="J96" s="53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K96" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11383,7 +11380,7 @@
         <v>128</v>
       </c>
       <c r="D97" s="55" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E97" s="55">
         <v>424110</v>
@@ -11401,7 +11398,7 @@
         <v>13</v>
       </c>
       <c r="J97" s="53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K97" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11419,7 +11416,7 @@
         <v>128</v>
       </c>
       <c r="D98" s="55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E98" s="55">
         <v>721110</v>
@@ -11437,7 +11434,7 @@
         <v>13</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K98" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11455,7 +11452,7 @@
         <v>128</v>
       </c>
       <c r="D99" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E99" s="55">
         <v>721110</v>
@@ -11473,7 +11470,7 @@
         <v>13</v>
       </c>
       <c r="J99" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K99" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11491,7 +11488,7 @@
         <v>128</v>
       </c>
       <c r="D100" s="55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E100" s="55">
         <v>541611</v>
@@ -11509,7 +11506,7 @@
         <v>13</v>
       </c>
       <c r="J100" s="53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K100" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11524,7 +11521,7 @@
         <v>47</v>
       </c>
       <c r="C101" s="55" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D101" s="55" t="s">
         <v>201</v>
@@ -11545,7 +11542,7 @@
         <v>13</v>
       </c>
       <c r="J101" s="53" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K101" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11560,10 +11557,10 @@
         <v>38</v>
       </c>
       <c r="C102" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="D102" s="55" t="s">
         <v>472</v>
-      </c>
-      <c r="D102" s="55" t="s">
-        <v>473</v>
       </c>
       <c r="E102" s="55">
         <v>21211</v>
@@ -11581,7 +11578,7 @@
         <v>13</v>
       </c>
       <c r="J102" s="53" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K102" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11596,10 +11593,10 @@
         <v>40</v>
       </c>
       <c r="C103" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="D103" s="55" t="s">
         <v>475</v>
-      </c>
-      <c r="D103" s="55" t="s">
-        <v>476</v>
       </c>
       <c r="E103" s="55">
         <v>423520</v>
@@ -11617,7 +11614,7 @@
         <v>13</v>
       </c>
       <c r="J103" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K103" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11653,7 +11650,7 @@
         <v>13</v>
       </c>
       <c r="J104" s="53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K104" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11671,7 +11668,7 @@
         <v>128</v>
       </c>
       <c r="D105" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E105" s="55">
         <v>112990</v>
@@ -11689,7 +11686,7 @@
         <v>27</v>
       </c>
       <c r="J105" s="53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K105" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11704,10 +11701,10 @@
         <v>40</v>
       </c>
       <c r="C106" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E106" s="55">
         <v>493110</v>
@@ -11725,7 +11722,7 @@
         <v>13</v>
       </c>
       <c r="J106" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K106" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11740,10 +11737,10 @@
         <v>15</v>
       </c>
       <c r="C107" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="D107" s="55" t="s">
         <v>482</v>
-      </c>
-      <c r="D107" s="55" t="s">
-        <v>483</v>
       </c>
       <c r="E107" s="55">
         <v>238210</v>
@@ -11761,7 +11758,7 @@
         <v>13</v>
       </c>
       <c r="J107" s="53" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K107" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11776,10 +11773,10 @@
         <v>15</v>
       </c>
       <c r="C108" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E108" s="55">
         <v>425120</v>
@@ -11797,7 +11794,7 @@
         <v>13</v>
       </c>
       <c r="J108" s="53" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K108" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11812,10 +11809,10 @@
         <v>29</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E109" s="55">
         <v>621112</v>
@@ -11833,7 +11830,7 @@
         <v>13</v>
       </c>
       <c r="J109" s="53" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K109" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11848,10 +11845,10 @@
         <v>29</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E110" s="55">
         <v>811118</v>
@@ -11869,7 +11866,7 @@
         <v>13</v>
       </c>
       <c r="J110" s="53" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K110" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11887,7 +11884,7 @@
         <v>128</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E111" s="55">
         <v>722511</v>
@@ -11905,7 +11902,7 @@
         <v>13</v>
       </c>
       <c r="J111" s="53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K111" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11920,10 +11917,10 @@
         <v>40</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E112" s="55">
         <v>561110</v>
@@ -11941,7 +11938,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="53" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K112" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11959,7 +11956,7 @@
         <v>128</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E113" s="55">
         <v>488190</v>
@@ -11977,7 +11974,7 @@
         <v>13</v>
       </c>
       <c r="J113" s="53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K113" s="57" t="str">
         <f t="shared" si="1"/>
@@ -11995,7 +11992,7 @@
         <v>128</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E114" s="55">
         <v>561431</v>
@@ -12013,7 +12010,7 @@
         <v>13</v>
       </c>
       <c r="J114" s="53" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K114" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12028,10 +12025,10 @@
         <v>38</v>
       </c>
       <c r="C115" s="55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E115" s="55">
         <v>336360</v>
@@ -12049,7 +12046,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="53" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K115" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12064,10 +12061,10 @@
         <v>26</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="E116" s="55">
         <v>58121</v>
@@ -12085,7 +12082,7 @@
         <v>13</v>
       </c>
       <c r="J116" s="53" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K116" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12100,10 +12097,10 @@
         <v>29</v>
       </c>
       <c r="C117" s="55" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D117" s="55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E117" s="55">
         <v>492110</v>
@@ -12121,7 +12118,7 @@
         <v>13</v>
       </c>
       <c r="J117" s="53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K117" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12136,10 +12133,10 @@
         <v>29</v>
       </c>
       <c r="C118" s="55" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D118" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E118" s="55">
         <v>425120</v>
@@ -12157,7 +12154,7 @@
         <v>12</v>
       </c>
       <c r="J118" s="53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K118" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12172,10 +12169,10 @@
         <v>67</v>
       </c>
       <c r="C119" s="55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D119" s="55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E119" s="55">
         <v>622000</v>
@@ -12193,7 +12190,7 @@
         <v>13</v>
       </c>
       <c r="J119" s="53" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K119" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12208,7 +12205,7 @@
         <v>38</v>
       </c>
       <c r="C120" s="55" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D120" s="55" t="s">
         <v>141</v>
@@ -12229,7 +12226,7 @@
         <v>13</v>
       </c>
       <c r="J120" s="53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K120" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12247,7 +12244,7 @@
         <v>128</v>
       </c>
       <c r="D121" s="55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E121" s="55">
         <v>485999</v>
@@ -12265,7 +12262,7 @@
         <v>13</v>
       </c>
       <c r="J121" s="53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K121" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12280,10 +12277,10 @@
         <v>15</v>
       </c>
       <c r="C122" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="D122" s="55" t="s">
         <v>509</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>510</v>
       </c>
       <c r="E122" s="55">
         <v>323117</v>
@@ -12301,7 +12298,7 @@
         <v>13</v>
       </c>
       <c r="J122" s="53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K122" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12316,10 +12313,10 @@
         <v>29</v>
       </c>
       <c r="C123" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="D123" s="55" t="s">
         <v>512</v>
-      </c>
-      <c r="D123" s="55" t="s">
-        <v>513</v>
       </c>
       <c r="E123" s="55">
         <v>424480</v>
@@ -12337,7 +12334,7 @@
         <v>13</v>
       </c>
       <c r="J123" s="53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K123" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12352,10 +12349,10 @@
         <v>29</v>
       </c>
       <c r="C124" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D124" s="55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E124" s="55">
         <v>424990</v>
@@ -12373,7 +12370,7 @@
         <v>10</v>
       </c>
       <c r="J124" s="53" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K124" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12388,10 +12385,10 @@
         <v>108</v>
       </c>
       <c r="C125" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D125" s="55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E125" s="55">
         <v>336390</v>
@@ -12409,7 +12406,7 @@
         <v>13</v>
       </c>
       <c r="J125" s="53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K125" s="57" t="str">
         <f t="shared" si="1"/>
@@ -12455,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>2</v>
@@ -12490,7 +12487,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>201</v>
@@ -12526,7 +12523,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>198</v>
@@ -12562,7 +12559,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>196</v>
@@ -12598,10 +12595,10 @@
         <v>70</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E5" s="55">
         <v>444220</v>
@@ -12634,7 +12631,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>193</v>
@@ -12670,7 +12667,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>202</v>
@@ -12706,7 +12703,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>204</v>
@@ -12742,7 +12739,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>205</v>
@@ -12778,7 +12775,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>189</v>
@@ -12814,7 +12811,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>206</v>
@@ -12850,7 +12847,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>203</v>
@@ -12886,7 +12883,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>184</v>
@@ -12922,10 +12919,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E14" s="2">
         <v>326160</v>
@@ -12958,7 +12955,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>207</v>
@@ -12994,7 +12991,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>179</v>
@@ -13030,7 +13027,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>182</v>
@@ -13102,10 +13099,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19" s="2">
         <v>425120</v>
@@ -13138,7 +13135,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>173</v>
@@ -13171,10 +13168,10 @@
         <v>43647</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>175</v>
@@ -13209,7 +13206,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>169</v>
@@ -13281,10 +13278,10 @@
         <v>40</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="E24" s="47">
         <v>333415</v>
@@ -13302,7 +13299,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K24" s="50" t="str">
         <f t="shared" ref="K24" si="14">IF(ISBLANK(J24),"",HYPERLINK(J24,"WARN"))</f>
@@ -13317,7 +13314,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D25" s="51" t="s">
         <v>165</v>
@@ -13353,10 +13350,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E26" s="47">
         <v>315190</v>
@@ -13389,10 +13386,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E27" s="52">
         <v>518210</v>
@@ -13425,7 +13422,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D28" s="51" t="s">
         <v>161</v>
@@ -13461,7 +13458,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D29" s="51" t="s">
         <v>159</v>
@@ -13497,10 +13494,10 @@
         <v>67</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="E30" s="47">
         <v>336510</v>
@@ -13533,7 +13530,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>156</v>
@@ -13569,10 +13566,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="E32" s="47">
         <v>58121</v>
@@ -13608,7 +13605,7 @@
         <v>128</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="E33" s="47">
         <v>561110</v>
@@ -13641,10 +13638,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E34" s="47">
         <v>624120</v>
@@ -13749,7 +13746,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
         <v>146</v>
@@ -13815,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
@@ -13850,7 +13847,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>133</v>
@@ -13922,10 +13919,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="9">
         <v>325412</v>
@@ -13958,7 +13955,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>138</v>
@@ -13994,7 +13991,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>117</v>
@@ -14030,10 +14027,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E7" s="4">
         <v>518210</v>
@@ -14176,7 +14173,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>141</v>
@@ -14213,7 +14210,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>109</v>
@@ -14250,7 +14247,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>104</v>
@@ -14290,7 +14287,7 @@
         <v>128</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E14" s="9">
         <v>511110</v>
@@ -14324,10 +14321,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E15" s="9">
         <v>332510</v>
@@ -14398,7 +14395,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>143</v>
@@ -14435,7 +14432,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>99</v>
@@ -14472,10 +14469,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E19" s="2">
         <v>452111</v>
@@ -14619,7 +14616,7 @@
         <v>128</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E23" s="9">
         <v>112990</v>
@@ -14652,10 +14649,10 @@
         <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E24" s="2">
         <v>511191</v>
@@ -14688,7 +14685,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>87</v>
@@ -14724,7 +14721,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>89</v>
@@ -14832,7 +14829,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>81</v>
@@ -14868,7 +14865,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>144</v>
@@ -14904,7 +14901,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>79</v>
@@ -15012,7 +15009,7 @@
         <v>108</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>73</v>
@@ -15048,10 +15045,10 @@
         <v>29</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E35" s="20">
         <v>488119</v>
@@ -15084,10 +15081,10 @@
         <v>40</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E36" s="9">
         <v>511191</v>
@@ -15120,7 +15117,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>68</v>
@@ -15188,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -15223,7 +15220,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>119</v>
@@ -15259,7 +15256,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>120</v>
@@ -15295,7 +15292,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>122</v>
@@ -15331,7 +15328,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>63</v>
@@ -15367,7 +15364,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>61</v>
@@ -15403,7 +15400,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>123</v>
@@ -15439,7 +15436,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>56</v>
@@ -15475,7 +15472,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>58</v>
@@ -15511,7 +15508,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>124</v>
@@ -15547,7 +15544,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>53</v>
@@ -15583,7 +15580,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>50</v>
@@ -15619,7 +15616,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>125</v>
@@ -15655,7 +15652,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>48</v>
@@ -15691,7 +15688,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>45</v>
@@ -15727,10 +15724,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E16" s="8">
         <v>517911</v>
@@ -15763,7 +15760,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>42</v>
@@ -15799,7 +15796,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>126</v>
@@ -15835,7 +15832,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>127</v>
@@ -15907,7 +15904,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>36</v>
@@ -15943,7 +15940,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>32</v>
@@ -16051,7 +16048,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>132</v>
@@ -16087,10 +16084,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1">
         <v>336111</v>
@@ -16159,7 +16156,7 @@
         <v>108</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>21</v>
@@ -16195,7 +16192,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>19</v>
@@ -16231,7 +16228,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>9</v>
@@ -16302,6 +16299,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16441,26 +16447,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E73D2BA-990A-4375-A800-72099933BCE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1000593C-77CA-4F62-AD19-D00F6C542115}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16473,12 +16478,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2524D65-EDC7-433C-BEED-5106FC60C398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{357FA361-E306-49CC-8209-8F3F089B0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024" sheetId="8" r:id="rId1"/>
-    <sheet name="2023" sheetId="7" r:id="rId2"/>
-    <sheet name="2022" sheetId="6" r:id="rId3"/>
-    <sheet name="2021" sheetId="5" r:id="rId4"/>
-    <sheet name="2020" sheetId="4" r:id="rId5"/>
-    <sheet name="2019" sheetId="3" r:id="rId6"/>
-    <sheet name="2018" sheetId="1" r:id="rId7"/>
-    <sheet name="2017" sheetId="2" r:id="rId8"/>
+    <sheet name="2025" sheetId="10" r:id="rId1"/>
+    <sheet name="2024" sheetId="8" r:id="rId2"/>
+    <sheet name="2023" sheetId="7" r:id="rId3"/>
+    <sheet name="2022" sheetId="6" r:id="rId4"/>
+    <sheet name="2021" sheetId="5" r:id="rId5"/>
+    <sheet name="2020" sheetId="4" r:id="rId6"/>
+    <sheet name="2019" sheetId="3" r:id="rId7"/>
+    <sheet name="2018" sheetId="1" r:id="rId8"/>
+    <sheet name="2017" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2017'!$A$1:$K$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2018'!$A$1:$K$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2019'!$A$1:$K$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2020'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2021'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2022'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2023'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2017'!$A$1:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2018'!$A$1:$K$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2019'!$A$1:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2020'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2021'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2022'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2023'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="776">
   <si>
     <t>Date Received</t>
   </si>
@@ -2345,6 +2347,39 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002V7wv/jCX3hEn5297gzTmwoFA9qbObWxfTpXe8xCX2aUFtEOc</t>
+  </si>
+  <si>
+    <t>Brown-Forman Cooperage</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005UZAL/7Y0xXkhdLdy4xuWLwpdW2ZEVACIGeVUF1dp33hPXmNw</t>
+  </si>
+  <si>
+    <t>Get Insured</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000059qm5/FHy2CM844OQ8YZu0K8dWuwdWnOIG.IMp0ztN0Q5C4tw</t>
+  </si>
+  <si>
+    <t>Jack Cooper Transport</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BhjV/cwcc9u.mTONGnExGB5Cj30qSsAkZbaWFqArLmeY5Ib4</t>
+  </si>
+  <si>
+    <t>Jack Cooper Transport (Grade Lane Facility)</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BqZt/S.8z9TEK.LdUSMiyPyU2OmmvfyB72n_GLoo8WfuIvpQ</t>
+  </si>
+  <si>
+    <t>Federal Express Corporation</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
   </si>
 </sst>
 </file>
@@ -2953,10 +2988,291 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54">
+        <v>45679</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F2" s="55">
+        <v>55</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>765</v>
+      </c>
+      <c r="K2" s="57" t="str">
+        <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54">
+        <v>45679</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="E3" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F3" s="55">
+        <v>210</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="54">
+        <v>45772</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>767</v>
+      </c>
+      <c r="K3" s="57" t="str">
+        <f t="shared" ref="K3:K7" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>768</v>
+      </c>
+      <c r="E4" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>769</v>
+      </c>
+      <c r="K4" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="E5" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F5" s="55">
+        <v>100</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>771</v>
+      </c>
+      <c r="K5" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F6" s="55">
+        <v>89</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>773</v>
+      </c>
+      <c r="K6" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>774</v>
+      </c>
+      <c r="E7" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F7" s="55">
+        <v>122</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="K7" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3035,7 +3351,7 @@
         <v>45688</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>674</v>
@@ -4815,8 +5131,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6464,8 +6780,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7069,8 +7385,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7890,8 +8206,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12419,8 +12735,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13772,16 +14088,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="J15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="K21" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15155,8 +15471,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -16293,7 +16609,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K30" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:K30" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16308,6 +16624,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16447,12 +16769,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
   <ds:schemaRefs>
@@ -16462,10 +16778,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1000593C-77CA-4F62-AD19-D00F6C542115}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16478,4 +16790,8 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31ABCB4B-18E4-45CC-96FA-70FF9DB67BC3}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{357FA361-E306-49CC-8209-8F3F089B0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F1F1BD-45ED-43B3-BC56-3ECBE803FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="780">
   <si>
     <t>Date Received</t>
   </si>
@@ -2349,6 +2349,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005rKP7/_6OrzQnap.NgHNQvLioKYFhNgXkiL.uWcLQkWaiFDYo</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005ij8D/gapgoIf5KsAjDZV3wK_1gYFZv36G8D5qEz3uFST_Jvw</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002V7wv/jCX3hEn5297gzTmwoFA9qbObWxfTpXe8xCX2aUFtEOc</t>
   </si>
   <si>
@@ -2358,13 +2364,19 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005UZAL/7Y0xXkhdLdy4xuWLwpdW2ZEVACIGeVUF1dp33hPXmNw</t>
   </si>
   <si>
+    <t>BANDO USA INC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005gof3/H7JnyP3i85WtzR4gL_28.hHTfjh.mR7IATUxIFY8iV8</t>
+  </si>
+  <si>
     <t>Get Insured</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000059qm5/FHy2CM844OQ8YZu0K8dWuwdWnOIG.IMp0ztN0Q5C4tw</t>
   </si>
   <si>
-    <t>Jack Cooper Transport</t>
+    <t>Jack Cooper Transport (Westport Road Facility)</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BhjV/cwcc9u.mTONGnExGB5Cj30qSsAkZbaWFqArLmeY5Ib4</t>
@@ -2988,7 +3000,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3044,31 +3056,31 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45679</v>
+        <v>45687</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E2" s="55">
-        <v>541330</v>
+        <v>51</v>
       </c>
       <c r="F2" s="55">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>765</v>
@@ -3080,70 +3092,70 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E3" s="55">
+        <v>562910</v>
+      </c>
+      <c r="F3" s="55">
+        <v>90</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="E3" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F3" s="55">
-        <v>210</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="54">
-        <v>45772</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>767</v>
-      </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K7" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K10" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>332</v>
+        <v>239</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>768</v>
+        <v>687</v>
       </c>
       <c r="E4" s="55">
-        <v>524210</v>
+        <v>541330</v>
       </c>
       <c r="F4" s="55">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45707</v>
+        <v>45743</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3152,7 +3164,7 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>108</v>
@@ -3161,25 +3173,25 @@
         <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E5" s="55">
-        <v>484220</v>
+        <v>312140</v>
       </c>
       <c r="F5" s="55">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45688</v>
+        <v>45772</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3188,34 +3200,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E6" s="55">
-        <v>484220</v>
+        <v>326220</v>
       </c>
       <c r="F6" s="55">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3224,36 +3236,144 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="E7" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F7" s="55">
+        <v>2</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>773</v>
+      </c>
+      <c r="K7" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>774</v>
+      </c>
+      <c r="E8" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F8" s="55">
+        <v>100</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="K8" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>776</v>
+      </c>
+      <c r="E9" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F9" s="55">
+        <v>89</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>777</v>
+      </c>
+      <c r="K9" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="54">
         <v>45660</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B10" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C10" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="55" t="s">
-        <v>774</v>
-      </c>
-      <c r="E7" s="55">
+      <c r="D10" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="E10" s="55">
         <v>492110</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F10" s="55">
         <v>122</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="54">
+      <c r="G10" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="54">
         <v>45719</v>
       </c>
-      <c r="I7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="K7" s="57" t="str">
+      <c r="I10" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>779</v>
+      </c>
+      <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -3555,7 +3675,7 @@
         <v>685</v>
       </c>
       <c r="E8" s="55">
-        <v>562920</v>
+        <v>562910</v>
       </c>
       <c r="F8" s="55">
         <v>20</v>
@@ -16615,21 +16735,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16769,15 +16880,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16792,6 +16904,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F194AA4A-079B-43CE-8CF5-A6EBA0C20F83}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31ABCB4B-18E4-45CC-96FA-70FF9DB67BC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F1F1BD-45ED-43B3-BC56-3ECBE803FC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ABED21-0E29-48BB-9520-A9EBB6A3B31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="782">
   <si>
     <t>Date Received</t>
   </si>
@@ -2347,6 +2347,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>Diageo North America Stitzel-Weller Distillery</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005wXYb/MJ0Y.gZyiFzqcJe6oeoFT0Rv7Fep5xuwOmOCG50VGMk</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005rKP7/_6OrzQnap.NgHNQvLioKYFhNgXkiL.uWcLQkWaiFDYo</t>
@@ -3000,7 +3006,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3056,34 +3062,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="E2" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F2" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3092,43 +3098,43 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E3" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F3" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K10" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K11" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>40</v>
@@ -3137,13 +3143,13 @@
         <v>239</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E4" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F4" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
@@ -3155,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3167,28 +3173,28 @@
         <v>45679</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>768</v>
+        <v>687</v>
       </c>
       <c r="E5" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F5" s="55">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>769</v>
@@ -3200,28 +3206,28 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>770</v>
       </c>
       <c r="E6" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F6" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>10</v>
@@ -3236,31 +3242,31 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>772</v>
       </c>
       <c r="E7" s="55">
-        <v>524210</v>
+        <v>326220</v>
       </c>
       <c r="F7" s="55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="54">
-        <v>45707</v>
+        <v>45744</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="53" t="s">
         <v>773</v>
@@ -3275,28 +3281,28 @@
         <v>45671</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>774</v>
       </c>
       <c r="E8" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F8" s="55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H8" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" s="53" t="s">
         <v>775</v>
@@ -3323,7 +3329,7 @@
         <v>484220</v>
       </c>
       <c r="F9" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
@@ -3344,36 +3350,72 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>778</v>
       </c>
       <c r="E10" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F10" s="55">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>779</v>
       </c>
       <c r="K10" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>780</v>
+      </c>
+      <c r="E11" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F11" s="55">
+        <v>122</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16735,12 +16777,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16880,7 +16916,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16889,7 +16925,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45DD95D-F779-4C24-B445-539DA29C8789}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16902,16 +16956,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F194AA4A-079B-43CE-8CF5-A6EBA0C20F83}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65ABED21-0E29-48BB-9520-A9EBB6A3B31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A363D244-75A1-498F-A9B3-9C6D1B5EC4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="720" windowWidth="13610" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -16777,6 +16777,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -16916,7 +16922,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -16925,25 +16931,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45DD95D-F779-4C24-B445-539DA29C8789}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -16956,4 +16944,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768C6752-2EBB-476F-B054-320D4C2B8CE8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A363D244-75A1-498F-A9B3-9C6D1B5EC4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFAAE928-999D-4693-8394-A0A76F9D9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="720" windowWidth="13610" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="785">
   <si>
     <t>Date Received</t>
   </si>
@@ -2115,15 +2115,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002pa57/6uq63rmgIxxmyuH43EblRM6357KYEI286ekNmrMxkWU</t>
   </si>
   <si>
-    <t>Parsons Corporation</t>
+    <t>PARSONS CORPORATION</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com</t>
   </si>
   <si>
-    <t>PARSONS CORPORATION</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002V9Nd/rKS96wLWabuZwW9fOJHBe8vYczCiDXlne9b6p_w6FX4</t>
   </si>
   <si>
@@ -2347,6 +2344,18 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>Battelle</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000006tjPG/2I4lYNSkXHeX5zTSEMB1z.CpQcneksKXiOcK4OwU_EI</t>
+  </si>
+  <si>
+    <t>Battelle Memorial Institute E3</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000073ueL/MyYKHtOhEr5wch0_5F84slUZadA.oMb89jKQ6YFUTeM</t>
   </si>
   <si>
     <t>Diageo North America Stitzel-Weller Distillery</t>
@@ -3006,7 +3015,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3062,34 +3071,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45688</v>
+        <v>45712</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D2" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="E2" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F2" s="55">
+        <v>245</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="54">
+        <v>45785</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>765</v>
-      </c>
-      <c r="E2" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F2" s="55">
-        <v>57</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="54">
-        <v>45777</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>766</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3098,70 +3107,70 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45687</v>
+        <v>45709</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>675</v>
-      </c>
-      <c r="E3" s="55">
-        <v>51</v>
-      </c>
-      <c r="F3" s="55">
-        <v>107</v>
+        <v>766</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45747</v>
+        <v>45771</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K11" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K13" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="E4" s="55">
-        <v>562910</v>
+        <v>312140</v>
       </c>
       <c r="F4" s="55">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45743</v>
+        <v>45777</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3170,34 +3179,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45679</v>
+        <v>45687</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E5" s="55">
-        <v>541330</v>
+        <v>51</v>
       </c>
       <c r="F5" s="55">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3206,31 +3215,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>770</v>
+        <v>685</v>
       </c>
       <c r="E6" s="55">
-        <v>312140</v>
+        <v>562910</v>
       </c>
       <c r="F6" s="55">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>771</v>
@@ -3242,34 +3251,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D7" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F7" s="55">
+        <v>55</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>772</v>
-      </c>
-      <c r="E7" s="55">
-        <v>326220</v>
-      </c>
-      <c r="F7" s="55">
-        <v>65</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="54">
-        <v>45744</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>773</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3278,34 +3287,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>773</v>
+      </c>
+      <c r="E8" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F8" s="55">
+        <v>210</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45772</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>774</v>
-      </c>
-      <c r="E8" s="55">
-        <v>524210</v>
-      </c>
-      <c r="F8" s="55">
-        <v>2</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="54">
-        <v>45707</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>775</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3314,34 +3323,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E9" s="55">
-        <v>484220</v>
+        <v>326220</v>
       </c>
       <c r="F9" s="55">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="54">
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3353,31 +3362,31 @@
         <v>45671</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D10" s="55" t="s">
+        <v>777</v>
+      </c>
+      <c r="E10" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F10" s="55">
+        <v>2</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="53" t="s">
         <v>778</v>
-      </c>
-      <c r="E10" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F10" s="55">
-        <v>89</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>779</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3386,36 +3395,108 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>779</v>
+      </c>
+      <c r="E11" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F11" s="55">
+        <v>100</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>780</v>
+      </c>
+      <c r="K11" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>781</v>
+      </c>
+      <c r="E12" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F12" s="55">
+        <v>89</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>782</v>
+      </c>
+      <c r="K12" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="54">
         <v>45660</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B13" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C13" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>780</v>
-      </c>
-      <c r="E11" s="55">
+      <c r="D13" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="E13" s="55">
         <v>492110</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F13" s="55">
         <v>122</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="54">
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
         <v>45719</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>781</v>
-      </c>
-      <c r="K11" s="57" t="str">
+      <c r="I13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>784</v>
+      </c>
+      <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -3786,7 +3867,7 @@
         <v>239</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E10" s="55">
         <v>541330</v>
@@ -3804,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3822,7 +3903,7 @@
         <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E11" s="55">
         <v>423450</v>
@@ -3840,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3858,7 +3939,7 @@
         <v>270</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E12" s="55">
         <v>513210</v>
@@ -3876,7 +3957,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3894,7 +3975,7 @@
         <v>221</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E13" s="55">
         <v>449110</v>
@@ -3912,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3930,7 +4011,7 @@
         <v>332</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E14" s="55">
         <v>4841</v>
@@ -3948,7 +4029,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3966,7 +4047,7 @@
         <v>244</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E15" s="55">
         <v>323111</v>
@@ -3984,7 +4065,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4002,7 +4083,7 @@
         <v>221</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E16" s="55">
         <v>336390</v>
@@ -4020,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4038,7 +4119,7 @@
         <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E17" s="55">
         <v>722330</v>
@@ -4056,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4074,7 +4155,7 @@
         <v>231</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E18" s="55">
         <v>424420</v>
@@ -4092,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4110,7 +4191,7 @@
         <v>221</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E19" s="55">
         <v>541614</v>
@@ -4128,7 +4209,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4146,7 +4227,7 @@
         <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E20" s="55">
         <v>493110</v>
@@ -4164,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4182,7 +4263,7 @@
         <v>226</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E21" s="55">
         <v>335991</v>
@@ -4200,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4215,10 +4296,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>713</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>714</v>
       </c>
       <c r="E22" s="55">
         <v>336390</v>
@@ -4236,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4254,7 +4335,7 @@
         <v>221</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E23" s="55">
         <v>45459</v>
@@ -4272,7 +4353,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4290,7 +4371,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E24" s="55">
         <v>332999</v>
@@ -4308,7 +4389,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4326,7 +4407,7 @@
         <v>221</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E25" s="55">
         <v>314999</v>
@@ -4344,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4362,7 +4443,7 @@
         <v>235</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E26" s="55">
         <v>722330</v>
@@ -4380,7 +4461,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4398,7 +4479,7 @@
         <v>221</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E27" s="55">
         <v>722330</v>
@@ -4416,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4434,7 +4515,7 @@
         <v>258</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E28" s="55">
         <v>722330</v>
@@ -4452,7 +4533,7 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4470,7 +4551,7 @@
         <v>369</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E29" s="55">
         <v>722330</v>
@@ -4488,7 +4569,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4506,7 +4587,7 @@
         <v>227</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E30" s="55">
         <v>722330</v>
@@ -4524,7 +4605,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4542,7 +4623,7 @@
         <v>231</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E31" s="55">
         <v>336411</v>
@@ -4560,7 +4641,7 @@
         <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4578,7 +4659,7 @@
         <v>239</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E32" s="55">
         <v>326199</v>
@@ -4596,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4614,7 +4695,7 @@
         <v>239</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E33" s="55" t="s">
         <v>10</v>
@@ -4650,7 +4731,7 @@
         <v>128</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E34" s="55">
         <v>561720</v>
@@ -4668,7 +4749,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4686,7 +4767,7 @@
         <v>583</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E35" s="55">
         <v>541620</v>
@@ -4704,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4740,7 +4821,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4758,7 +4839,7 @@
         <v>471</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E37" s="55">
         <v>21211</v>
@@ -4776,7 +4857,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4794,7 +4875,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E38" s="55">
         <v>316200</v>
@@ -4812,7 +4893,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K38" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4830,7 +4911,7 @@
         <v>230</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E39" s="55">
         <v>561611</v>
@@ -4848,7 +4929,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4866,7 +4947,7 @@
         <v>221</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E40" s="55">
         <v>611511</v>
@@ -4884,7 +4965,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4902,7 +4983,7 @@
         <v>221</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E41" s="55">
         <v>336110</v>
@@ -4920,7 +5001,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4938,7 +5019,7 @@
         <v>236</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E42" s="55">
         <v>336350</v>
@@ -4956,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4974,7 +5055,7 @@
         <v>234</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E43" s="55">
         <v>561720</v>
@@ -4992,7 +5073,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5010,7 +5091,7 @@
         <v>234</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E44" s="55">
         <v>561720</v>
@@ -5028,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K44" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5046,7 +5127,7 @@
         <v>234</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E45" s="55">
         <v>561720</v>
@@ -5064,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K45" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5082,7 +5163,7 @@
         <v>234</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E46" s="55">
         <v>561720</v>
@@ -5100,7 +5181,7 @@
         <v>13</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K46" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5118,7 +5199,7 @@
         <v>218</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E47" s="55">
         <v>331400</v>
@@ -5154,7 +5235,7 @@
         <v>219</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E48" s="55">
         <v>561720</v>
@@ -5172,7 +5253,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K48" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5190,7 +5271,7 @@
         <v>222</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E49" s="55">
         <v>561720</v>
@@ -5208,7 +5289,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K49" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5226,7 +5307,7 @@
         <v>222</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E50" s="55">
         <v>561720</v>
@@ -5244,7 +5325,7 @@
         <v>13</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K50" s="57" t="str">
         <f t="shared" si="0"/>
@@ -5262,7 +5343,7 @@
         <v>128</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E51" s="55">
         <v>541714</v>
@@ -5280,7 +5361,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K51" s="57" t="str">
         <f t="shared" si="0"/>
@@ -16947,7 +17028,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768C6752-2EBB-476F-B054-320D4C2B8CE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38F64CF-9304-4FB3-B555-90CCFCA5DAF8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFAAE928-999D-4693-8394-A0A76F9D9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF2686E-EB7C-4A42-B787-611533AE34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="786">
   <si>
     <t>Date Received</t>
   </si>
@@ -2344,6 +2344,9 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007Eqh3/LRRjzqecT_ev45Q0V3xqOGfKDrT83C7A_Rb_I9huvDQ</t>
   </si>
   <si>
     <t>Battelle</t>
@@ -3015,7 +3018,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>40</v>
@@ -3080,25 +3083,25 @@
         <v>239</v>
       </c>
       <c r="D2" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F2" s="55">
+        <v>22</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="54">
+        <v>45792</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>764</v>
-      </c>
-      <c r="E2" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F2" s="55">
-        <v>245</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="54">
-        <v>45785</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>40</v>
@@ -3116,61 +3119,61 @@
         <v>239</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="E3" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F3" s="55">
+        <v>245</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="54">
+        <v>45785</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="54">
-        <v>45771</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>767</v>
-      </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K13" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K14" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45688</v>
+        <v>45709</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>767</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="54">
+        <v>45771</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>768</v>
-      </c>
-      <c r="E4" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F4" s="55">
-        <v>57</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="54">
-        <v>45777</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>769</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3179,31 +3182,31 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>675</v>
+        <v>769</v>
       </c>
       <c r="E5" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F5" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>770</v>
@@ -3215,31 +3218,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E6" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F6" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>771</v>
@@ -3251,7 +3254,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>40</v>
@@ -3260,13 +3263,13 @@
         <v>239</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E7" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F7" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
@@ -3290,31 +3293,31 @@
         <v>45679</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E8" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F8" s="55">
+        <v>55</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>773</v>
-      </c>
-      <c r="E8" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F8" s="55">
-        <v>210</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="54">
-        <v>45772</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>774</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3323,34 +3326,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E9" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F9" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3359,34 +3362,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D10" s="55" t="s">
+        <v>776</v>
+      </c>
+      <c r="E10" s="55">
+        <v>326220</v>
+      </c>
+      <c r="F10" s="55">
+        <v>65</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="54">
+        <v>45744</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="53" t="s">
         <v>777</v>
-      </c>
-      <c r="E10" s="55">
-        <v>524210</v>
-      </c>
-      <c r="F10" s="55">
-        <v>2</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="54">
-        <v>45707</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>778</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3398,31 +3401,31 @@
         <v>45671</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D11" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="E11" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F11" s="55">
+        <v>2</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="53" t="s">
         <v>779</v>
-      </c>
-      <c r="E11" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F11" s="55">
-        <v>100</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>780</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3440,13 +3443,13 @@
         <v>128</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E12" s="55">
         <v>484220</v>
       </c>
       <c r="F12" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
@@ -3458,7 +3461,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3467,36 +3470,72 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>782</v>
+      </c>
+      <c r="E13" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F13" s="55">
+        <v>89</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>783</v>
+      </c>
+      <c r="K13" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="54">
         <v>45660</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B14" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C14" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>783</v>
-      </c>
-      <c r="E13" s="55">
+      <c r="D14" s="55" t="s">
+        <v>784</v>
+      </c>
+      <c r="E14" s="55">
         <v>492110</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F14" s="55">
         <v>122</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="G14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="54">
         <v>45719</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>784</v>
-      </c>
-      <c r="K13" s="57" t="str">
+      <c r="I14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>785</v>
+      </c>
+      <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17028,7 +17067,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38F64CF-9304-4FB3-B555-90CCFCA5DAF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D48E3B8-7C80-4339-ADBE-8B2D00E74521}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF2686E-EB7C-4A42-B787-611533AE34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA8B6B7-394E-42F3-AD11-98A04D719345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="788">
   <si>
     <t>Date Received</t>
   </si>
@@ -2359,6 +2359,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000073ueL/MyYKHtOhEr5wch0_5F84slUZadA.oMb89jKQ6YFUTeM</t>
+  </si>
+  <si>
+    <t>Yokohama Industries Americas Inc/Div 1</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007hkBd/WpGCscLLYhEuUklIAa6oUBlPffAOLjW0asRl4_fKrUA</t>
   </si>
   <si>
     <t>Diageo North America Stitzel-Weller Distillery</t>
@@ -3018,7 +3024,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3140,7 +3146,7 @@
         <v>766</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K14" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K15" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
@@ -3182,31 +3188,31 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>769</v>
       </c>
       <c r="E5" s="55">
-        <v>312140</v>
+        <v>326211</v>
       </c>
       <c r="F5" s="55">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>770</v>
@@ -3218,34 +3224,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>675</v>
+        <v>771</v>
       </c>
       <c r="E6" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F6" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3254,34 +3260,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E7" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F7" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3290,7 +3296,7 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>40</v>
@@ -3299,13 +3305,13 @@
         <v>239</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E8" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F8" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
@@ -3317,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3329,28 +3335,28 @@
         <v>45679</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>774</v>
+        <v>687</v>
       </c>
       <c r="E9" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F9" s="55">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>775</v>
@@ -3362,28 +3368,28 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>776</v>
       </c>
       <c r="E10" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F10" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>10</v>
@@ -3398,31 +3404,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>778</v>
       </c>
       <c r="E11" s="55">
-        <v>524210</v>
+        <v>326220</v>
       </c>
       <c r="F11" s="55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="54">
-        <v>45707</v>
+        <v>45744</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>779</v>
@@ -3437,28 +3443,28 @@
         <v>45671</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>780</v>
       </c>
       <c r="E12" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F12" s="55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>781</v>
@@ -3485,7 +3491,7 @@
         <v>484220</v>
       </c>
       <c r="F13" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
@@ -3506,36 +3512,72 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>784</v>
       </c>
       <c r="E14" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F14" s="55">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>785</v>
       </c>
       <c r="K14" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F15" s="55">
+        <v>122</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16897,12 +16939,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17042,16 +17093,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17066,14 +17116,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D48E3B8-7C80-4339-ADBE-8B2D00E74521}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ADA7705-06C4-43CF-AF5D-5EB3AEDEF5EA}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA8B6B7-394E-42F3-AD11-98A04D719345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F414A50C-41D6-4C73-86BF-D3BEF53C604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="793">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,6 +2346,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>Danimer Scientific - Main</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000837mj/BpCdZkLmv8k2DspHaWrPpVmhAmHV36BKizZ0KFG0MJ4</t>
+  </si>
+  <si>
+    <t>Danimer Scientific - Extrusion</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000083a7B/nA7ZESdFZHxMPC1WQvvpAFy44K3Pc1Bfxnu.W5rIx68</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007Eqh3/LRRjzqecT_ev45Q0V3xqOGfKDrT83C7A_Rb_I9huvDQ</t>
   </si>
   <si>
@@ -2416,6 +2428,9 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -3024,9 +3039,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3080,34 +3097,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>541330</v>
+        <v>541715</v>
       </c>
       <c r="F2" s="55">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3116,43 +3133,43 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>541715</v>
+        <v>325211</v>
       </c>
       <c r="F3" s="55">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45785</v>
+        <v>45737</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K15" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K17" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45709</v>
+        <v>45719</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>40</v>
@@ -3161,19 +3178,19 @@
         <v>239</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>767</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>10</v>
+        <v>687</v>
+      </c>
+      <c r="E4" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F4" s="55">
+        <v>22</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45771</v>
+        <v>45792</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3188,28 +3205,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>769</v>
       </c>
       <c r="E5" s="55">
-        <v>326211</v>
+        <v>541715</v>
       </c>
       <c r="F5" s="55">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45807</v>
+        <v>45785</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3224,31 +3241,31 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45688</v>
+        <v>45709</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>771</v>
       </c>
       <c r="E6" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F6" s="55">
-        <v>57</v>
+        <v>541715</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>792</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45777</v>
+        <v>45771</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>772</v>
@@ -3260,34 +3277,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45687</v>
+        <v>45707</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>675</v>
+        <v>773</v>
       </c>
       <c r="E7" s="55">
-        <v>51</v>
+        <v>326211</v>
       </c>
       <c r="F7" s="55">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45747</v>
+        <v>45807</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3296,34 +3313,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="E8" s="55">
-        <v>562910</v>
+        <v>312140</v>
       </c>
       <c r="F8" s="55">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45743</v>
+        <v>45777</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3332,34 +3349,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45679</v>
+        <v>45687</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E9" s="55">
-        <v>541330</v>
+        <v>51</v>
       </c>
       <c r="F9" s="55">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3368,34 +3385,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>776</v>
+        <v>685</v>
       </c>
       <c r="E10" s="55">
-        <v>312140</v>
+        <v>562910</v>
       </c>
       <c r="F10" s="55">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3404,31 +3421,31 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>778</v>
+        <v>687</v>
       </c>
       <c r="E11" s="55">
-        <v>326220</v>
+        <v>541330</v>
       </c>
       <c r="F11" s="55">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>779</v>
@@ -3440,31 +3457,31 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>780</v>
       </c>
       <c r="E12" s="55">
-        <v>524210</v>
+        <v>312140</v>
       </c>
       <c r="F12" s="55">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45707</v>
+        <v>45772</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>781</v>
@@ -3476,28 +3493,28 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>782</v>
       </c>
       <c r="E13" s="55">
-        <v>484220</v>
+        <v>326220</v>
       </c>
       <c r="F13" s="55">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="54">
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>10</v>
@@ -3515,28 +3532,28 @@
         <v>45671</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>784</v>
       </c>
       <c r="E14" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F14" s="55">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H14" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>785</v>
@@ -3548,36 +3565,108 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>786</v>
       </c>
       <c r="E15" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F15" s="55">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>787</v>
       </c>
       <c r="K15" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>788</v>
+      </c>
+      <c r="E16" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F16" s="55">
+        <v>89</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="K16" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>790</v>
+      </c>
+      <c r="E17" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F17" s="55">
+        <v>122</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>791</v>
+      </c>
+      <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -16939,21 +17028,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17093,15 +17173,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17116,6 +17197,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A29592A-0FC1-4D0E-A4F4-E6BF4F4EB161}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ADA7705-06C4-43CF-AF5D-5EB3AEDEF5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F414A50C-41D6-4C73-86BF-D3BEF53C604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96047299-1C9F-4D93-BE55-BDB9C5F3122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="795">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,6 +2346,15 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Fiht/Qw.xhp7wgDSurey8MJvsLUepYFVphTB42JSxvyrcglw</t>
+  </si>
+  <si>
+    <t>Laurel Grocery Company LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Oi9D/C5YPv5B3bjp6XCeW4ePcejhHRdLTmz1K.uJuIy7TL2w</t>
+  </si>
+  <si>
     <t>Danimer Scientific - Main</t>
   </si>
   <si>
@@ -2428,9 +2437,6 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -3039,11 +3045,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3097,34 +3101,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D2" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E2" s="55">
+        <v>51</v>
+      </c>
+      <c r="F2" s="55">
+        <v>84</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="54">
+        <v>45800</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>764</v>
-      </c>
-      <c r="E2" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F2" s="55">
-        <v>70</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3133,64 +3137,64 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45734</v>
+        <v>45756</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="E3" s="55">
+        <v>424410</v>
+      </c>
+      <c r="F3" s="55">
+        <v>115</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="54">
+        <v>45762</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="E3" s="55">
-        <v>325211</v>
-      </c>
-      <c r="F3" s="55">
-        <v>11</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>767</v>
-      </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K17" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K19" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="E4" s="55">
-        <v>541330</v>
+        <v>541715</v>
       </c>
       <c r="F4" s="55">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3205,28 +3209,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>769</v>
       </c>
       <c r="E5" s="55">
-        <v>541715</v>
+        <v>325211</v>
       </c>
       <c r="F5" s="55">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45785</v>
+        <v>45737</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3241,7 +3245,7 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45709</v>
+        <v>45719</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>40</v>
@@ -3250,25 +3254,25 @@
         <v>239</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E6" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F6" s="55">
+        <v>22</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54">
+        <v>45792</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>771</v>
-      </c>
-      <c r="E6" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>792</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="54">
-        <v>45771</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>772</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3277,34 +3281,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D7" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="E7" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F7" s="55">
+        <v>245</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="54">
+        <v>45785</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>773</v>
-      </c>
-      <c r="E7" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F7" s="55">
-        <v>250</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="54">
-        <v>45807</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>774</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3313,34 +3317,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45688</v>
+        <v>45709</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>774</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45771</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>775</v>
-      </c>
-      <c r="E8" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F8" s="55">
-        <v>57</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="54">
-        <v>45777</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>776</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3349,31 +3353,31 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45687</v>
+        <v>45707</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>675</v>
+        <v>776</v>
       </c>
       <c r="E9" s="55">
-        <v>51</v>
+        <v>326211</v>
       </c>
       <c r="F9" s="55">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45747</v>
+        <v>45807</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>777</v>
@@ -3385,34 +3389,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>685</v>
+        <v>778</v>
       </c>
       <c r="E10" s="55">
-        <v>562910</v>
+        <v>312140</v>
       </c>
       <c r="F10" s="55">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45743</v>
+        <v>45777</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3421,34 +3425,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45679</v>
+        <v>45687</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E11" s="55">
-        <v>541330</v>
+        <v>51</v>
       </c>
       <c r="F11" s="55">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3457,31 +3461,31 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
       <c r="E12" s="55">
-        <v>312140</v>
+        <v>562910</v>
       </c>
       <c r="F12" s="55">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>781</v>
@@ -3493,34 +3497,34 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E13" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F13" s="55">
+        <v>55</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>782</v>
-      </c>
-      <c r="E13" s="55">
-        <v>326220</v>
-      </c>
-      <c r="F13" s="55">
-        <v>65</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="54">
-        <v>45744</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>783</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3529,34 +3533,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D14" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="E14" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F14" s="55">
+        <v>210</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="54">
+        <v>45772</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>784</v>
-      </c>
-      <c r="E14" s="55">
-        <v>524210</v>
-      </c>
-      <c r="F14" s="55">
-        <v>2</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="54">
-        <v>45707</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>785</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3565,34 +3569,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E15" s="55">
-        <v>484220</v>
+        <v>326220</v>
       </c>
       <c r="F15" s="55">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="54">
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3604,31 +3608,31 @@
         <v>45671</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D16" s="55" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F16" s="55">
+        <v>2</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>788</v>
-      </c>
-      <c r="E16" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F16" s="55">
-        <v>89</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>789</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3637,36 +3641,108 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>789</v>
+      </c>
+      <c r="E17" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F17" s="55">
+        <v>100</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>790</v>
+      </c>
+      <c r="K17" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>791</v>
+      </c>
+      <c r="E18" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F18" s="55">
+        <v>89</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="K18" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="54">
         <v>45660</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B19" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C19" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>790</v>
-      </c>
-      <c r="E17" s="55">
+      <c r="D19" s="55" t="s">
+        <v>793</v>
+      </c>
+      <c r="E19" s="55">
         <v>492110</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F19" s="55">
         <v>122</v>
       </c>
-      <c r="G17" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="54">
+      <c r="G19" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="54">
         <v>45719</v>
       </c>
-      <c r="I17" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>791</v>
-      </c>
-      <c r="K17" s="57" t="str">
+      <c r="I19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>794</v>
+      </c>
+      <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17198,7 +17274,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A29592A-0FC1-4D0E-A4F4-E6BF4F4EB161}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB15C8C-F38C-4565-9CC3-2543EF5F2DEF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96047299-1C9F-4D93-BE55-BDB9C5F3122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EAD72B-D3FD-4DE1-BDDB-F69AD41358B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="720" windowWidth="10790" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="797">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,13 +2346,19 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>Laurel Grocery Company LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Oi9D/C5YPv5B3bjp6XCeW4ePcejhHRdLTmz1K.uJuIy7TL2w</t>
+  </si>
+  <si>
+    <t>Kentucky BioProcessing Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009R2a1/dL7fl90HKY2sTSg8o0g_FHXA7C_BNaTq993jEr.sTo0</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Fiht/Qw.xhp7wgDSurey8MJvsLUepYFVphTB42JSxvyrcglw</t>
-  </si>
-  <si>
-    <t>Laurel Grocery Company LLC</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Oi9D/C5YPv5B3bjp6XCeW4ePcejhHRdLTmz1K.uJuIy7TL2w</t>
   </si>
   <si>
     <t>Danimer Scientific - Main</t>
@@ -3045,7 +3051,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3101,34 +3107,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>51</v>
+        <v>424410</v>
       </c>
       <c r="F2" s="55">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45800</v>
+        <v>45762</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3137,64 +3143,64 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>424410</v>
+        <v>3254</v>
       </c>
       <c r="F3" s="55">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45762</v>
+        <v>45840</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K19" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K20" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
       <c r="E4" s="55">
-        <v>541715</v>
+        <v>51</v>
       </c>
       <c r="F4" s="55">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45737</v>
+        <v>45800</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3221,10 +3227,10 @@
         <v>769</v>
       </c>
       <c r="E5" s="55">
-        <v>325211</v>
+        <v>541715</v>
       </c>
       <c r="F5" s="55">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
@@ -3245,34 +3251,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="E6" s="55">
-        <v>541330</v>
+        <v>325211</v>
       </c>
       <c r="F6" s="55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>40</v>
@@ -3290,19 +3296,19 @@
         <v>239</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>772</v>
+        <v>687</v>
       </c>
       <c r="E7" s="55">
-        <v>541715</v>
+        <v>541330</v>
       </c>
       <c r="F7" s="55">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
@@ -3317,7 +3323,7 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>40</v>
@@ -3328,17 +3334,17 @@
       <c r="D8" s="55" t="s">
         <v>774</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>10</v>
+      <c r="E8" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F8" s="55">
+        <v>245</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3353,28 +3359,28 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>776</v>
       </c>
-      <c r="E9" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F9" s="55">
-        <v>250</v>
+      <c r="E9" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45807</v>
+        <v>45771</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
@@ -3389,31 +3395,31 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>778</v>
       </c>
       <c r="E10" s="55">
-        <v>312140</v>
+        <v>326211</v>
       </c>
       <c r="F10" s="55">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>779</v>
@@ -3425,34 +3431,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>675</v>
+        <v>780</v>
       </c>
       <c r="E11" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F11" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3461,34 +3467,34 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E12" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F12" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3497,7 +3503,7 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>40</v>
@@ -3506,13 +3512,13 @@
         <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E13" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F13" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
@@ -3524,7 +3530,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3536,28 +3542,28 @@
         <v>45679</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>783</v>
+        <v>687</v>
       </c>
       <c r="E14" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F14" s="55">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
         <v>784</v>
@@ -3569,28 +3575,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>785</v>
       </c>
       <c r="E15" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F15" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>10</v>
@@ -3605,31 +3611,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>787</v>
       </c>
       <c r="E16" s="55">
-        <v>524210</v>
+        <v>326220</v>
       </c>
       <c r="F16" s="55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45707</v>
+        <v>45744</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>788</v>
@@ -3644,28 +3650,28 @@
         <v>45671</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>789</v>
       </c>
       <c r="E17" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F17" s="55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>790</v>
@@ -3692,7 +3698,7 @@
         <v>484220</v>
       </c>
       <c r="F18" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
@@ -3713,36 +3719,72 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>793</v>
       </c>
       <c r="E19" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F19" s="55">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J19" s="53" t="s">
         <v>794</v>
       </c>
       <c r="K19" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>795</v>
+      </c>
+      <c r="E20" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F20" s="55">
+        <v>122</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17104,12 +17146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17249,7 +17285,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17258,7 +17294,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E786D15-5FCE-4080-A784-188556F5EF38}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17271,16 +17325,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB15C8C-F38C-4565-9CC3-2543EF5F2DEF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EAD72B-D3FD-4DE1-BDDB-F69AD41358B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C780654F-10E5-4427-8871-300E56E423F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="720" windowWidth="10790" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="720" windowWidth="10790" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="807">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,6 +2346,33 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>Dakkota Integrated Systems, LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIAUd/C4vor.nsrx3KvG4Khd6L7xpfAotuhH0.rpb1K2ctYZ8</t>
+  </si>
+  <si>
+    <t>Dakkota Integrated Systems, Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKP7/iklIZoCNC1ArWs5JuLt060S6izbQuW_ONFM3J7PPIpo</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKoy/CspA8xGVq85ugP4E0jRUu02uyCbzUFlqcjZdio_PYRg</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AILt3/DmkHGc2HH76FUBjw4F90tycbjQcUMliwSD6..1pS95s</t>
+  </si>
+  <si>
+    <t>Lockheed martin , rotary  Mission Systems Business Area</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000A9ybt/9PP8pO93Kvh7teU_eKBV5U99EBotSahtxk6bfpAVh5c</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009cdBF/0YxwzpfAtn8zafLnCJxVwcH_xvG6Rzg03EcEAKmL_6A</t>
+  </si>
+  <si>
     <t>Laurel Grocery Company LLC</t>
   </si>
   <si>
@@ -2443,6 +2470,9 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
+  </si>
+  <si>
+    <t>Dakkota Related Systems, Inc</t>
   </si>
 </sst>
 </file>
@@ -3051,9 +3081,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3107,31 +3139,31 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>424410</v>
+        <v>49311</v>
       </c>
       <c r="F2" s="55">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="54">
-        <v>45762</v>
+        <v>45839</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>765</v>
@@ -3143,67 +3175,67 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>3254</v>
+        <v>49311</v>
       </c>
       <c r="F3" s="55">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="54">
-        <v>45840</v>
+        <v>45839</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K20" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K26" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45758</v>
+        <v>45782</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>675</v>
+        <v>806</v>
       </c>
       <c r="E4" s="55">
-        <v>51</v>
+        <v>49311</v>
       </c>
       <c r="F4" s="55">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4" s="54">
-        <v>45800</v>
+        <v>45839</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>768</v>
@@ -3215,34 +3247,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45734</v>
+        <v>45782</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="E5" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F5" s="55">
+        <v>41</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="54">
+        <v>45870</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>769</v>
-      </c>
-      <c r="E5" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F5" s="55">
-        <v>70</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>770</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3251,34 +3283,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45734</v>
+        <v>45779</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F6" s="55">
+        <v>64</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>771</v>
-      </c>
-      <c r="E6" s="55">
-        <v>325211</v>
-      </c>
-      <c r="F6" s="55">
-        <v>11</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>772</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3287,7 +3319,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45719</v>
+        <v>45768</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>40</v>
@@ -3302,19 +3334,19 @@
         <v>541330</v>
       </c>
       <c r="F7" s="55">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45792</v>
+        <v>45838</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3323,34 +3355,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45712</v>
+        <v>45762</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>773</v>
+      </c>
+      <c r="E8" s="55">
+        <v>424410</v>
+      </c>
+      <c r="F8" s="55">
+        <v>115</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45762</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>774</v>
-      </c>
-      <c r="E8" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F8" s="55">
-        <v>245</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="54">
-        <v>45785</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>775</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3359,34 +3391,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45709</v>
+        <v>45762</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D9" s="55" t="s">
+        <v>775</v>
+      </c>
+      <c r="E9" s="55">
+        <v>3254</v>
+      </c>
+      <c r="F9" s="55">
+        <v>46</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="54">
+        <v>45840</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="53" t="s">
         <v>776</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="54">
-        <v>45771</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>777</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3395,34 +3427,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45707</v>
+        <v>45758</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>778</v>
+        <v>675</v>
       </c>
       <c r="E10" s="55">
-        <v>326211</v>
+        <v>51</v>
       </c>
       <c r="F10" s="55">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45807</v>
+        <v>45800</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3431,34 +3463,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45688</v>
+        <v>45734</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E11" s="55">
-        <v>312140</v>
+        <v>541715</v>
       </c>
       <c r="F11" s="55">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45777</v>
+        <v>45737</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3467,34 +3499,34 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45687</v>
+        <v>45734</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>675</v>
+        <v>780</v>
       </c>
       <c r="E12" s="55">
-        <v>51</v>
+        <v>325211</v>
       </c>
       <c r="F12" s="55">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45747</v>
+        <v>45737</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3503,7 +3535,7 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45684</v>
+        <v>45719</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>40</v>
@@ -3512,25 +3544,25 @@
         <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E13" s="55">
-        <v>562910</v>
+        <v>541330</v>
       </c>
       <c r="F13" s="55">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45743</v>
+        <v>45792</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3539,7 +3571,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45679</v>
+        <v>45712</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>40</v>
@@ -3548,19 +3580,19 @@
         <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="E14" s="55">
-        <v>541330</v>
+        <v>541715</v>
       </c>
       <c r="F14" s="55">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45743</v>
+        <v>45785</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3575,31 +3607,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45679</v>
+        <v>45709</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>785</v>
       </c>
-      <c r="E15" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F15" s="55">
-        <v>210</v>
+      <c r="E15" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>786</v>
@@ -3611,31 +3643,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45674</v>
+        <v>45707</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>787</v>
       </c>
       <c r="E16" s="55">
-        <v>326220</v>
+        <v>326211</v>
       </c>
       <c r="F16" s="55">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45744</v>
+        <v>45807</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>788</v>
@@ -3647,31 +3679,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45671</v>
+        <v>45688</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>789</v>
       </c>
       <c r="E17" s="55">
-        <v>524210</v>
+        <v>312140</v>
       </c>
       <c r="F17" s="55">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45707</v>
+        <v>45777</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>790</v>
@@ -3683,34 +3715,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45671</v>
+        <v>45687</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D18" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E18" s="55">
+        <v>51</v>
+      </c>
+      <c r="F18" s="55">
+        <v>107</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="54">
+        <v>45747</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="53" t="s">
         <v>791</v>
-      </c>
-      <c r="E18" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F18" s="55">
-        <v>100</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>792</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3719,34 +3751,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45671</v>
+        <v>45684</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>793</v>
+        <v>685</v>
       </c>
       <c r="E19" s="55">
-        <v>484220</v>
+        <v>562910</v>
       </c>
       <c r="F19" s="55">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45688</v>
+        <v>45743</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3755,36 +3787,252 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E20" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F20" s="55">
+        <v>55</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="K20" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="54">
+        <v>45679</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>794</v>
+      </c>
+      <c r="E21" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F21" s="55">
+        <v>210</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="54">
+        <v>45772</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="K21" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="54">
+        <v>45674</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>796</v>
+      </c>
+      <c r="E22" s="55">
+        <v>326220</v>
+      </c>
+      <c r="F22" s="55">
+        <v>65</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="54">
+        <v>45744</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>797</v>
+      </c>
+      <c r="K22" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>798</v>
+      </c>
+      <c r="E23" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F23" s="55">
+        <v>2</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>799</v>
+      </c>
+      <c r="K23" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F24" s="55">
+        <v>100</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="K24" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>802</v>
+      </c>
+      <c r="E25" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F25" s="55">
+        <v>89</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="K25" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>795</v>
-      </c>
-      <c r="E20" s="55">
+      <c r="D26" s="55" t="s">
+        <v>804</v>
+      </c>
+      <c r="E26" s="55">
         <v>492110</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F26" s="55">
         <v>122</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="G26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="54">
         <v>45719</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>796</v>
-      </c>
-      <c r="K20" s="57" t="str">
+      <c r="I26" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>805</v>
+      </c>
+      <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17146,6 +17394,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17285,7 +17539,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17294,25 +17548,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E786D15-5FCE-4080-A784-188556F5EF38}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17325,4 +17561,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D1D0685-09B2-43B0-BA97-04867C818102}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C780654F-10E5-4427-8871-300E56E423F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{139734D4-9FDF-4B33-A8CB-B919444DB7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="720" windowWidth="10790" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -2358,6 +2358,9 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKP7/iklIZoCNC1ArWs5JuLt060S6izbQuW_ONFM3J7PPIpo</t>
   </si>
   <si>
+    <t>DAkkota Related Systems, Inc</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKoy/CspA8xGVq85ugP4E0jRUu02uyCbzUFlqcjZdio_PYRg</t>
   </si>
   <si>
@@ -2470,9 +2473,6 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
-  </si>
-  <si>
-    <t>Dakkota Related Systems, Inc</t>
   </si>
 </sst>
 </file>
@@ -3083,8 +3083,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3220,7 +3220,7 @@
         <v>128</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>806</v>
+        <v>768</v>
       </c>
       <c r="E4" s="55">
         <v>49311</v>
@@ -3238,7 +3238,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3274,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3292,7 +3292,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E6" s="55">
         <v>336411</v>
@@ -3310,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3346,7 +3346,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3364,7 +3364,7 @@
         <v>258</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E8" s="55">
         <v>424410</v>
@@ -3382,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3400,7 +3400,7 @@
         <v>226</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E9" s="55">
         <v>3254</v>
@@ -3418,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3454,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3472,7 +3472,7 @@
         <v>227</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E11" s="55">
         <v>541715</v>
@@ -3490,7 +3490,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3508,7 +3508,7 @@
         <v>227</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E12" s="55">
         <v>325211</v>
@@ -3526,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3562,7 +3562,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3580,7 +3580,7 @@
         <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E14" s="55">
         <v>541715</v>
@@ -3598,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3616,7 +3616,7 @@
         <v>239</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E15" s="55" t="s">
         <v>10</v>
@@ -3634,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3652,7 +3652,7 @@
         <v>273</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E16" s="55">
         <v>326211</v>
@@ -3670,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3688,7 +3688,7 @@
         <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E17" s="55">
         <v>312140</v>
@@ -3706,7 +3706,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3742,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3778,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3814,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3832,7 +3832,7 @@
         <v>128</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E21" s="55">
         <v>312140</v>
@@ -3850,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3868,7 +3868,7 @@
         <v>235</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E22" s="55">
         <v>326220</v>
@@ -3886,7 +3886,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3904,7 +3904,7 @@
         <v>332</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E23" s="55">
         <v>524210</v>
@@ -3922,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3940,7 +3940,7 @@
         <v>128</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E24" s="55">
         <v>484220</v>
@@ -3958,7 +3958,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3976,7 +3976,7 @@
         <v>128</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E25" s="55">
         <v>484220</v>
@@ -3994,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4012,7 +4012,7 @@
         <v>222</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E26" s="55">
         <v>492110</v>
@@ -4030,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -17394,12 +17394,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17539,7 +17533,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17548,7 +17542,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57F93628-014B-46C7-B93E-ABC69C8BEEF2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17561,16 +17573,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D1D0685-09B2-43B0-BA97-04867C818102}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139734D4-9FDF-4B33-A8CB-B919444DB7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABB169E-B83A-4BE1-B21A-9BFBDF7A7E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="720" windowWidth="10220" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="809">
   <si>
     <t>Date Received</t>
   </si>
@@ -2344,6 +2344,12 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>Yum! Brands Inc</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BR83B/qHQvrKSn0SqdzwieZgmUz.9VGXCHegUegNu71KQrgIA</t>
   </si>
   <si>
     <t>Dakkota Integrated Systems, LLC</t>
@@ -3081,11 +3087,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3139,31 +3143,31 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45782</v>
+        <v>45800</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="E2" s="55">
-        <v>49311</v>
+      <c r="E2" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="55">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45839</v>
+        <v>45930</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>765</v>
@@ -3181,7 +3185,7 @@
         <v>108</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
@@ -3190,7 +3194,7 @@
         <v>49311</v>
       </c>
       <c r="F3" s="55">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>16</v>
@@ -3205,7 +3209,7 @@
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K26" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K27" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
@@ -3226,7 +3230,7 @@
         <v>49311</v>
       </c>
       <c r="F4" s="55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>16</v>
@@ -3256,25 +3260,25 @@
         <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>766</v>
-      </c>
-      <c r="E5" s="55">
-        <v>49311</v>
+        <v>770</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="55">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3283,7 +3287,7 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>108</v>
@@ -3292,19 +3296,19 @@
         <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>771</v>
-      </c>
-      <c r="E6" s="55">
-        <v>336411</v>
+        <v>768</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="55">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
-        <v>45838</v>
+        <v>45870</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>10</v>
@@ -3319,22 +3323,22 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45768</v>
+        <v>45779</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="E7" s="55">
-        <v>541330</v>
+        <v>336411</v>
       </c>
       <c r="F7" s="55">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
@@ -3343,10 +3347,10 @@
         <v>45838</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3355,28 +3359,28 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>774</v>
+        <v>687</v>
       </c>
       <c r="E8" s="55">
-        <v>424410</v>
+        <v>541330</v>
       </c>
       <c r="F8" s="55">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45762</v>
+        <v>45838</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
@@ -3394,28 +3398,28 @@
         <v>45762</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>776</v>
       </c>
       <c r="E9" s="55">
-        <v>3254</v>
+        <v>424410</v>
       </c>
       <c r="F9" s="55">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45840</v>
+        <v>45762</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>777</v>
@@ -3427,34 +3431,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="E10" s="55">
-        <v>51</v>
+        <v>3254</v>
       </c>
       <c r="F10" s="55">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45800</v>
+        <v>45840</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3463,28 +3467,28 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>779</v>
+        <v>675</v>
       </c>
       <c r="E11" s="55">
-        <v>541715</v>
+        <v>51</v>
       </c>
       <c r="F11" s="55">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45737</v>
+        <v>45800</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
@@ -3511,10 +3515,10 @@
         <v>781</v>
       </c>
       <c r="E12" s="55">
-        <v>325211</v>
+        <v>541715</v>
       </c>
       <c r="F12" s="55">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
@@ -3535,34 +3539,34 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="E13" s="55">
-        <v>541330</v>
+        <v>325211</v>
       </c>
       <c r="F13" s="55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3571,7 +3575,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>40</v>
@@ -3580,19 +3584,19 @@
         <v>239</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>784</v>
+        <v>687</v>
       </c>
       <c r="E14" s="55">
-        <v>541715</v>
+        <v>541330</v>
       </c>
       <c r="F14" s="55">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3607,7 +3611,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>40</v>
@@ -3618,17 +3622,17 @@
       <c r="D15" s="55" t="s">
         <v>786</v>
       </c>
-      <c r="E15" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>10</v>
+      <c r="E15" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F15" s="55">
+        <v>245</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -3643,28 +3647,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>788</v>
       </c>
-      <c r="E16" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F16" s="55">
-        <v>250</v>
+      <c r="E16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45807</v>
+        <v>45771</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3679,31 +3683,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>790</v>
       </c>
       <c r="E17" s="55">
-        <v>312140</v>
+        <v>326211</v>
       </c>
       <c r="F17" s="55">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>791</v>
@@ -3715,34 +3719,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>675</v>
+        <v>792</v>
       </c>
       <c r="E18" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F18" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3751,34 +3755,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E19" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F19" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3787,7 +3791,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
@@ -3796,13 +3800,13 @@
         <v>239</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E20" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F20" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
@@ -3814,7 +3818,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3826,28 +3830,28 @@
         <v>45679</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>795</v>
+        <v>687</v>
       </c>
       <c r="E21" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F21" s="55">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>796</v>
@@ -3859,28 +3863,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>797</v>
       </c>
       <c r="E22" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F22" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>10</v>
@@ -3895,31 +3899,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>799</v>
       </c>
       <c r="E23" s="55">
-        <v>524210</v>
+        <v>326220</v>
       </c>
       <c r="F23" s="55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="54">
-        <v>45707</v>
+        <v>45744</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="53" t="s">
         <v>800</v>
@@ -3934,28 +3938,28 @@
         <v>45671</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>801</v>
       </c>
       <c r="E24" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F24" s="55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H24" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J24" s="53" t="s">
         <v>802</v>
@@ -3982,7 +3986,7 @@
         <v>484220</v>
       </c>
       <c r="F25" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
@@ -4003,36 +4007,72 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>805</v>
       </c>
       <c r="E26" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F26" s="55">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J26" s="53" t="s">
         <v>806</v>
       </c>
       <c r="K26" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>807</v>
+      </c>
+      <c r="E27" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F27" s="55">
+        <v>122</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>808</v>
+      </c>
+      <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17394,6 +17434,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17533,7 +17579,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17542,25 +17588,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57F93628-014B-46C7-B93E-ABC69C8BEEF2}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17573,4 +17601,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167C880A-D740-431C-B081-C337CF2A3852}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CABB169E-B83A-4BE1-B21A-9BFBDF7A7E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB79480A-A517-445D-8026-072C126D1AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="720" windowWidth="10220" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="823">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,34 +2346,76 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
-    <t>Yum! Brands Inc</t>
+    <t>Civil LLC - Harlan Truck Shop</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkR3h/aGQ7ke0lV3urHzNBy6rXTKsam169c8Y.qefyLKCDE2A</t>
+  </si>
+  <si>
+    <t>Civil LLC - Pikeville Engineer Office</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkTK2/7Jlg44VwRxZ7aD.5uuhJ1fkVmBTvdd0OmMK0dyCe4Ck</t>
+  </si>
+  <si>
+    <t>Civil LLC - Jenkins Mechanic Shop</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkVTu/DNQ6odCqLsJFMdzrhVs1eZWTrFrGrH2OZbql13YFLa0</t>
+  </si>
+  <si>
+    <t>Carl D. Perkins Job Corps Center</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Bl1VN/D42_E2KMTgGXpYH1K8WkmjhpFgBOc1H3oZqexEn3p0k</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Earle C Clements Job Corps</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkooH/tLcgqBywKuxGAUfgWs0PX2knVzgYiohzdUHbl5L2AdA</t>
+  </si>
+  <si>
+    <t>Muhlenberg Job Corps</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Bl0O1/xbxSw6CQIcItRQN96HhmqeauTrTdj7YYCJb_ZEVy6OI</t>
+  </si>
+  <si>
+    <t>Yum! Restaurant Support Center</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BR83B/qHQvrKSn0SqdzwieZgmUz.9VGXCHegUegNu71KQrgIA</t>
   </si>
   <si>
-    <t>Dakkota Integrated Systems, LLC</t>
+    <t>Dakkota Integrated Systems LLC - Louisville / Westport</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIAUd/C4vor.nsrx3KvG4Khd6L7xpfAotuhH0.rpb1K2ctYZ8</t>
   </si>
   <si>
-    <t>Dakkota Integrated Systems, Inc</t>
+    <t>Dakkota Integrated Systems LLC - Louisville / Westport 2</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKP7/iklIZoCNC1ArWs5JuLt060S6izbQuW_ONFM3J7PPIpo</t>
   </si>
   <si>
-    <t>DAkkota Related Systems, Inc</t>
+    <t>Dakkota Integrated Systems LLC - Louisville / Chamberlain 1</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKoy/CspA8xGVq85ugP4E0jRUu02uyCbzUFlqcjZdio_PYRg</t>
   </si>
   <si>
+    <t>Dakkota Integrated Systems LLC - Louisville / Chamberlain 2</t>
+  </si>
+  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AILt3/DmkHGc2HH76FUBjw4F90tycbjQcUMliwSD6..1pS95s</t>
   </si>
   <si>
-    <t>Lockheed martin , rotary  Mission Systems Business Area</t>
+    <t>Lockheed Martin, Rotary Mission Systems Business Area</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000A9ybt/9PP8pO93Kvh7teU_eKBV5U99EBotSahtxk6bfpAVh5c</t>
@@ -3087,7 +3129,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3143,28 +3185,28 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45800</v>
+        <v>45813</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>10</v>
+      <c r="E2" s="55">
+        <v>811111</v>
       </c>
       <c r="F2" s="55">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45930</v>
+        <v>45871</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>13</v>
@@ -3179,67 +3221,67 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>49311</v>
+        <v>541330</v>
       </c>
       <c r="F3" s="55">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45839</v>
+        <v>45871</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K27" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K33" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>768</v>
       </c>
       <c r="E4" s="55">
-        <v>49311</v>
+        <v>811111</v>
       </c>
       <c r="F4" s="55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45839</v>
+        <v>45871</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>769</v>
@@ -3251,31 +3293,31 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45782</v>
+        <v>45812</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>369</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>770</v>
       </c>
-      <c r="E5" s="55" t="s">
-        <v>10</v>
+      <c r="E5" s="55">
+        <v>611519</v>
       </c>
       <c r="F5" s="55">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45839</v>
+        <v>45838</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>771</v>
@@ -3287,34 +3329,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45782</v>
+        <v>45812</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>772</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>768</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>10</v>
+        <v>773</v>
+      </c>
+      <c r="E6" s="55">
+        <v>611519</v>
       </c>
       <c r="F6" s="55">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45870</v>
+        <v>45838</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3323,22 +3365,22 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45779</v>
+        <v>45812</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>128</v>
+        <v>471</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E7" s="55">
-        <v>336411</v>
+        <v>611519</v>
       </c>
       <c r="F7" s="55">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
@@ -3347,10 +3389,10 @@
         <v>45838</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3359,34 +3401,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45768</v>
+        <v>45800</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="E8" s="55">
-        <v>541330</v>
+        <v>551114</v>
       </c>
       <c r="F8" s="55">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="I8" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3395,34 +3437,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E9" s="55">
-        <v>424410</v>
+        <v>49311</v>
       </c>
       <c r="F9" s="55">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="54">
-        <v>45762</v>
+        <v>45839</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3431,34 +3473,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E10" s="55">
-        <v>3254</v>
+        <v>49311</v>
       </c>
       <c r="F10" s="55">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45840</v>
+        <v>45839</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3467,34 +3509,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45758</v>
+        <v>45782</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>675</v>
+        <v>783</v>
       </c>
       <c r="E11" s="55">
-        <v>51</v>
+        <v>49311</v>
       </c>
       <c r="F11" s="55">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H11" s="54">
-        <v>45800</v>
+        <v>45839</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3503,34 +3545,34 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45734</v>
+        <v>45782</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="E12" s="55">
-        <v>541715</v>
+        <v>49311</v>
       </c>
       <c r="F12" s="55">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H12" s="54">
-        <v>45737</v>
+        <v>45870</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3539,34 +3581,34 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45734</v>
+        <v>45779</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="E13" s="55">
-        <v>325211</v>
+        <v>336411</v>
       </c>
       <c r="F13" s="55">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45737</v>
+        <v>45838</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3575,7 +3617,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45719</v>
+        <v>45768</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>40</v>
@@ -3590,19 +3632,19 @@
         <v>541330</v>
       </c>
       <c r="F14" s="55">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45792</v>
+        <v>45838</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3611,34 +3653,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45712</v>
+        <v>45762</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E15" s="55">
-        <v>541715</v>
+        <v>424410</v>
       </c>
       <c r="F15" s="55">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45785</v>
+        <v>45762</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3647,34 +3689,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45709</v>
+        <v>45762</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>788</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>10</v>
+        <v>792</v>
+      </c>
+      <c r="E16" s="55">
+        <v>3254</v>
+      </c>
+      <c r="F16" s="55">
+        <v>46</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45771</v>
+        <v>45840</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3683,34 +3725,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45707</v>
+        <v>45758</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="E17" s="55">
-        <v>326211</v>
+        <v>51</v>
       </c>
       <c r="F17" s="55">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45807</v>
+        <v>45800</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3719,34 +3761,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45688</v>
+        <v>45734</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E18" s="55">
-        <v>312140</v>
+        <v>541715</v>
       </c>
       <c r="F18" s="55">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45777</v>
+        <v>45737</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3755,34 +3797,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45687</v>
+        <v>45734</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>675</v>
+        <v>797</v>
       </c>
       <c r="E19" s="55">
-        <v>51</v>
+        <v>325211</v>
       </c>
       <c r="F19" s="55">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45747</v>
+        <v>45737</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3791,7 +3833,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45684</v>
+        <v>45719</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
@@ -3800,25 +3842,25 @@
         <v>239</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E20" s="55">
-        <v>562910</v>
+        <v>541330</v>
       </c>
       <c r="F20" s="55">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45743</v>
+        <v>45792</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3827,7 +3869,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45679</v>
+        <v>45712</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>40</v>
@@ -3836,25 +3878,25 @@
         <v>239</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>687</v>
+        <v>800</v>
       </c>
       <c r="E21" s="55">
-        <v>541330</v>
+        <v>541715</v>
       </c>
       <c r="F21" s="55">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45743</v>
+        <v>45785</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3863,34 +3905,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45679</v>
+        <v>45709</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>797</v>
-      </c>
-      <c r="E22" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F22" s="55">
-        <v>210</v>
+        <v>802</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3899,34 +3941,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45674</v>
+        <v>45707</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="E23" s="55">
-        <v>326220</v>
+        <v>326211</v>
       </c>
       <c r="F23" s="55">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45744</v>
+        <v>45807</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3935,34 +3977,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45671</v>
+        <v>45688</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="E24" s="55">
-        <v>524210</v>
+        <v>312140</v>
       </c>
       <c r="F24" s="55">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45707</v>
+        <v>45777</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3971,34 +4013,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45671</v>
+        <v>45687</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>803</v>
+        <v>675</v>
       </c>
       <c r="E25" s="55">
-        <v>484220</v>
+        <v>51</v>
       </c>
       <c r="F25" s="55">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45688</v>
+        <v>45747</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4007,34 +4049,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45671</v>
+        <v>45684</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>805</v>
+        <v>685</v>
       </c>
       <c r="E26" s="55">
-        <v>484220</v>
+        <v>562910</v>
       </c>
       <c r="F26" s="55">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45688</v>
+        <v>45743</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4043,36 +4085,252 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E27" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F27" s="55">
+        <v>55</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>810</v>
+      </c>
+      <c r="K27" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="54">
+        <v>45679</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="E28" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F28" s="55">
+        <v>210</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="54">
+        <v>45772</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>812</v>
+      </c>
+      <c r="K28" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="54">
+        <v>45674</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>813</v>
+      </c>
+      <c r="E29" s="55">
+        <v>326220</v>
+      </c>
+      <c r="F29" s="55">
+        <v>65</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="54">
+        <v>45744</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>814</v>
+      </c>
+      <c r="K29" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>815</v>
+      </c>
+      <c r="E30" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F30" s="55">
+        <v>2</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="K30" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="E31" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F31" s="55">
+        <v>100</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>818</v>
+      </c>
+      <c r="K31" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="E32" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F32" s="55">
+        <v>89</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>820</v>
+      </c>
+      <c r="K32" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="55" t="s">
-        <v>807</v>
-      </c>
-      <c r="E27" s="55">
+      <c r="D33" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="E33" s="55">
         <v>492110</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F33" s="55">
         <v>122</v>
       </c>
-      <c r="G27" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="54">
+      <c r="G33" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="54">
         <v>45719</v>
       </c>
-      <c r="I27" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>808</v>
-      </c>
-      <c r="K27" s="57" t="str">
+      <c r="I33" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>822</v>
+      </c>
+      <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17434,12 +17692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17579,7 +17831,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17588,7 +17840,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767CE216-130F-4758-B9D4-5844E90C0A39}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17601,16 +17871,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{167C880A-D740-431C-B081-C337CF2A3852}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB79480A-A517-445D-8026-072C126D1AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3BCDF1-90A4-40E8-9643-03B947A3B921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2022'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2023'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="816">
   <si>
     <t>Date Received</t>
   </si>
@@ -2362,27 +2362,6 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkVTu/DNQ6odCqLsJFMdzrhVs1eZWTrFrGrH2OZbql13YFLa0</t>
-  </si>
-  <si>
-    <t>Carl D. Perkins Job Corps Center</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Bl1VN/D42_E2KMTgGXpYH1K8WkmjhpFgBOc1H3oZqexEn3p0k</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Earle C Clements Job Corps</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkooH/tLcgqBywKuxGAUfgWs0PX2knVzgYiohzdUHbl5L2AdA</t>
-  </si>
-  <si>
-    <t>Muhlenberg Job Corps</t>
-  </si>
-  <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Bl0O1/xbxSw6CQIcItRQN96HhmqeauTrTdj7YYCJb_ZEVy6OI</t>
   </si>
   <si>
     <t>Yum! Restaurant Support Center</t>
@@ -3129,9 +3108,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3251,7 +3232,7 @@
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K33" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K30" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
@@ -3293,28 +3274,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45812</v>
+        <v>45800</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>369</v>
+        <v>128</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>770</v>
       </c>
       <c r="E5" s="55">
-        <v>611519</v>
+        <v>551114</v>
       </c>
       <c r="F5" s="55">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3329,34 +3310,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45812</v>
+        <v>45782</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>772</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="E6" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F6" s="55">
+        <v>75</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="54">
+        <v>45839</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>773</v>
-      </c>
-      <c r="E6" s="55">
-        <v>611519</v>
-      </c>
-      <c r="F6" s="55">
-        <v>295</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="54">
-        <v>45838</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>774</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3365,34 +3346,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45812</v>
+        <v>45782</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>471</v>
+        <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
+        <v>774</v>
+      </c>
+      <c r="E7" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F7" s="55">
+        <v>1</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="54">
+        <v>45839</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>775</v>
-      </c>
-      <c r="E7" s="55">
-        <v>611519</v>
-      </c>
-      <c r="F7" s="55">
-        <v>88</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="54">
-        <v>45838</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>776</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3401,7 +3382,7 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45800</v>
+        <v>45782</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>108</v>
@@ -3410,25 +3391,25 @@
         <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
+        <v>776</v>
+      </c>
+      <c r="E8" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F8" s="55">
+        <v>11</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45839</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>777</v>
-      </c>
-      <c r="E8" s="55">
-        <v>551114</v>
-      </c>
-      <c r="F8" s="55">
-        <v>91</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="54">
-        <v>45930</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>778</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3446,25 +3427,25 @@
         <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E9" s="55">
         <v>49311</v>
       </c>
       <c r="F9" s="55">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="54">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3473,7 +3454,7 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45782</v>
+        <v>45779</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>108</v>
@@ -3482,133 +3463,133 @@
         <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
+        <v>780</v>
+      </c>
+      <c r="E10" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F10" s="55">
+        <v>64</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="53" t="s">
         <v>781</v>
       </c>
-      <c r="E10" s="55">
-        <v>49311</v>
-      </c>
-      <c r="F10" s="55">
-        <v>1</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="54">
-        <v>45839</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="53" t="s">
+      <c r="K10" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="54">
+        <v>45768</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E11" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F11" s="55">
+        <v>18</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="53" t="s">
         <v>782</v>
       </c>
-      <c r="K10" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54">
-        <v>45782</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="55" t="s">
+      <c r="K11" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="54">
+        <v>45762</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>783</v>
       </c>
-      <c r="E11" s="55">
-        <v>49311</v>
-      </c>
-      <c r="F11" s="55">
-        <v>11</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="54">
-        <v>45839</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="53" t="s">
+      <c r="E12" s="55">
+        <v>424410</v>
+      </c>
+      <c r="F12" s="55">
+        <v>115</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="54">
+        <v>45762</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="53" t="s">
         <v>784</v>
       </c>
-      <c r="K11" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54">
-        <v>45782</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="55" t="s">
+      <c r="K12" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="54">
+        <v>45762</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>785</v>
       </c>
-      <c r="E12" s="55">
-        <v>49311</v>
-      </c>
-      <c r="F12" s="55">
-        <v>41</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="54">
-        <v>45870</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="53" t="s">
+      <c r="E13" s="55">
+        <v>3254</v>
+      </c>
+      <c r="F13" s="55">
+        <v>46</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
+        <v>45840</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>786</v>
-      </c>
-      <c r="K12" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54">
-        <v>45779</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>787</v>
-      </c>
-      <c r="E13" s="55">
-        <v>336411</v>
-      </c>
-      <c r="F13" s="55">
-        <v>64</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="54">
-        <v>45838</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>788</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3617,34 +3598,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45768</v>
+        <v>45758</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E14" s="55">
-        <v>541330</v>
+        <v>51</v>
       </c>
       <c r="F14" s="55">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45838</v>
+        <v>45800</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3653,34 +3634,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45762</v>
+        <v>45734</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E15" s="55">
-        <v>424410</v>
+        <v>541715</v>
       </c>
       <c r="F15" s="55">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45762</v>
+        <v>45737</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3689,34 +3670,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45762</v>
+        <v>45734</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E16" s="55">
-        <v>3254</v>
+        <v>325211</v>
       </c>
       <c r="F16" s="55">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45840</v>
+        <v>45737</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3725,34 +3706,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45758</v>
+        <v>45719</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="E17" s="55">
-        <v>51</v>
+        <v>541330</v>
       </c>
       <c r="F17" s="55">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45800</v>
+        <v>45792</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3761,34 +3742,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45734</v>
+        <v>45712</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E18" s="55">
         <v>541715</v>
       </c>
       <c r="F18" s="55">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45737</v>
+        <v>45785</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3797,34 +3778,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45734</v>
+        <v>45709</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>797</v>
-      </c>
-      <c r="E19" s="55">
-        <v>325211</v>
-      </c>
-      <c r="F19" s="55">
-        <v>11</v>
+        <v>795</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45737</v>
+        <v>45771</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3833,34 +3814,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45719</v>
+        <v>45707</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>687</v>
+        <v>797</v>
       </c>
       <c r="E20" s="55">
-        <v>541330</v>
+        <v>326211</v>
       </c>
       <c r="F20" s="55">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45792</v>
+        <v>45807</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3869,34 +3850,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45712</v>
+        <v>45688</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D21" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="E21" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F21" s="55">
+        <v>57</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="54">
+        <v>45777</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="53" t="s">
         <v>800</v>
-      </c>
-      <c r="E21" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F21" s="55">
-        <v>245</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="54">
-        <v>45785</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>801</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3905,34 +3886,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45709</v>
+        <v>45687</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>802</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>10</v>
+        <v>675</v>
+      </c>
+      <c r="E22" s="55">
+        <v>51</v>
+      </c>
+      <c r="F22" s="55">
+        <v>107</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45771</v>
+        <v>45747</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3941,34 +3922,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45707</v>
+        <v>45684</v>
       </c>
       <c r="B23" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>804</v>
+        <v>685</v>
       </c>
       <c r="E23" s="55">
-        <v>326211</v>
+        <v>562910</v>
       </c>
       <c r="F23" s="55">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45807</v>
+        <v>45743</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3977,34 +3958,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45688</v>
+        <v>45679</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>806</v>
+        <v>687</v>
       </c>
       <c r="E24" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F24" s="55">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45777</v>
+        <v>45743</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4013,34 +3994,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45687</v>
+        <v>45679</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>675</v>
+        <v>804</v>
       </c>
       <c r="E25" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F25" s="55">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45747</v>
+        <v>45772</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4049,34 +4030,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45684</v>
+        <v>45674</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>685</v>
+        <v>806</v>
       </c>
       <c r="E26" s="55">
-        <v>562910</v>
+        <v>326220</v>
       </c>
       <c r="F26" s="55">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H26" s="54">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4085,34 +4066,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45679</v>
+        <v>45671</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>687</v>
+        <v>808</v>
       </c>
       <c r="E27" s="55">
-        <v>541330</v>
+        <v>524210</v>
       </c>
       <c r="F27" s="55">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H27" s="54">
-        <v>45743</v>
+        <v>45707</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4121,7 +4102,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45679</v>
+        <v>45671</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>108</v>
@@ -4130,25 +4111,25 @@
         <v>128</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E28" s="55">
-        <v>312140</v>
+        <v>484220</v>
       </c>
       <c r="F28" s="55">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45772</v>
+        <v>45688</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4157,34 +4138,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45674</v>
+        <v>45671</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E29" s="55">
-        <v>326220</v>
+        <v>484220</v>
       </c>
       <c r="F29" s="55">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45744</v>
+        <v>45688</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4193,144 +4174,36 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45671</v>
+        <v>45660</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="D30" s="55" t="s">
+        <v>814</v>
+      </c>
+      <c r="E30" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F30" s="55">
+        <v>122</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="53" t="s">
         <v>815</v>
       </c>
-      <c r="E30" s="55">
-        <v>524210</v>
-      </c>
-      <c r="F30" s="55">
-        <v>2</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="54">
-        <v>45707</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>816</v>
-      </c>
       <c r="K30" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="54">
-        <v>45671</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>817</v>
-      </c>
-      <c r="E31" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F31" s="55">
-        <v>100</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I31" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="53" t="s">
-        <v>818</v>
-      </c>
-      <c r="K31" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="54">
-        <v>45671</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>819</v>
-      </c>
-      <c r="E32" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F32" s="55">
-        <v>89</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>820</v>
-      </c>
-      <c r="K32" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="54">
-        <v>45660</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="E33" s="55">
-        <v>492110</v>
-      </c>
-      <c r="F33" s="55">
-        <v>122</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="54">
-        <v>45719</v>
-      </c>
-      <c r="I33" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>822</v>
-      </c>
-      <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17692,6 +17565,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17831,15 +17713,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17847,15 +17720,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767CE216-130F-4758-B9D4-5844E90C0A39}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001EBC7-DE76-48F7-A00A-1A95601D688C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D3BCDF1-90A4-40E8-9643-03B947A3B921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7771A70-9F6D-498D-B407-C74940F9800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="840" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="819">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,6 +2346,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>Levis Strauss</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000CLJC1/DbyYp68sVwKoN.GQkRf5EyzUntPUC3BOkVG9L_FcJUc</t>
+  </si>
+  <si>
     <t>Civil LLC - Harlan Truck Shop</t>
   </si>
   <si>
@@ -2356,6 +2362,9 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkTK2/7Jlg44VwRxZ7aD.5uuhJ1fkVmBTvdd0OmMK0dyCe4Ck</t>
+  </si>
+  <si>
+    <t>Letcher</t>
   </si>
   <si>
     <t>Civil LLC - Jenkins Mechanic Shop</t>
@@ -3108,10 +3117,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3166,31 +3175,31 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45813</v>
+        <v>45824</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>811111</v>
+        <v>33993</v>
       </c>
       <c r="F2" s="55">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45871</v>
+        <v>45887</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>765</v>
@@ -3208,16 +3217,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>541330</v>
+        <v>811111</v>
       </c>
       <c r="F3" s="55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
@@ -3232,7 +3241,7 @@
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K30" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K31" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
@@ -3250,10 +3259,10 @@
         <v>768</v>
       </c>
       <c r="E4" s="55">
-        <v>811111</v>
+        <v>541330</v>
       </c>
       <c r="F4" s="55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
@@ -3274,34 +3283,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45800</v>
+        <v>45813</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>128</v>
+        <v>770</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E5" s="55">
-        <v>551114</v>
+        <v>811111</v>
       </c>
       <c r="F5" s="55">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45930</v>
+        <v>45871</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3310,7 +3319,7 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45782</v>
+        <v>45800</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>108</v>
@@ -3319,25 +3328,25 @@
         <v>128</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E6" s="55">
-        <v>49311</v>
+        <v>551114</v>
       </c>
       <c r="F6" s="55">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45839</v>
+        <v>45930</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3355,13 +3364,13 @@
         <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E7" s="55">
         <v>49311</v>
       </c>
       <c r="F7" s="55">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>16</v>
@@ -3373,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3391,13 +3400,13 @@
         <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E8" s="55">
         <v>49311</v>
       </c>
       <c r="F8" s="55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>16</v>
@@ -3409,7 +3418,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3427,25 +3436,25 @@
         <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E9" s="55">
         <v>49311</v>
       </c>
       <c r="F9" s="55">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3454,7 +3463,7 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>108</v>
@@ -3463,25 +3472,25 @@
         <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E10" s="55">
-        <v>336411</v>
+        <v>49311</v>
       </c>
       <c r="F10" s="55">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45838</v>
+        <v>45870</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3490,22 +3499,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45768</v>
+        <v>45779</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="E11" s="55">
-        <v>541330</v>
+        <v>336411</v>
       </c>
       <c r="F11" s="55">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
@@ -3517,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3526,34 +3535,34 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>783</v>
+        <v>687</v>
       </c>
       <c r="E12" s="55">
-        <v>424410</v>
+        <v>541330</v>
       </c>
       <c r="F12" s="55">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45762</v>
+        <v>45838</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3565,31 +3574,31 @@
         <v>45762</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E13" s="55">
-        <v>3254</v>
+        <v>424410</v>
       </c>
       <c r="F13" s="55">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45840</v>
+        <v>45762</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3598,34 +3607,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="E14" s="55">
-        <v>51</v>
+        <v>3254</v>
       </c>
       <c r="F14" s="55">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45800</v>
+        <v>45840</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3634,34 +3643,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>788</v>
+        <v>675</v>
       </c>
       <c r="E15" s="55">
-        <v>541715</v>
+        <v>51</v>
       </c>
       <c r="F15" s="55">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45737</v>
+        <v>45800</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3679,13 +3688,13 @@
         <v>227</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E16" s="55">
-        <v>325211</v>
+        <v>541715</v>
       </c>
       <c r="F16" s="55">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
@@ -3697,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3706,34 +3715,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E17" s="55">
-        <v>541330</v>
+        <v>325211</v>
       </c>
       <c r="F17" s="55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3742,7 +3751,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>40</v>
@@ -3751,25 +3760,25 @@
         <v>239</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>793</v>
+        <v>687</v>
       </c>
       <c r="E18" s="55">
-        <v>541715</v>
+        <v>541330</v>
       </c>
       <c r="F18" s="55">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3778,7 +3787,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>40</v>
@@ -3787,25 +3796,25 @@
         <v>239</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>795</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>10</v>
+        <v>796</v>
+      </c>
+      <c r="E19" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F19" s="55">
+        <v>245</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3814,34 +3823,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>797</v>
-      </c>
-      <c r="E20" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F20" s="55">
-        <v>250</v>
+        <v>798</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45807</v>
+        <v>45771</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3850,34 +3859,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E21" s="55">
-        <v>312140</v>
+        <v>326211</v>
       </c>
       <c r="F21" s="55">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I21" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3886,34 +3895,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>675</v>
+        <v>802</v>
       </c>
       <c r="E22" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F22" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3922,34 +3931,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E23" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F23" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3958,7 +3967,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>40</v>
@@ -3967,13 +3976,13 @@
         <v>239</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E24" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F24" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
@@ -3985,7 +3994,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3997,31 +4006,31 @@
         <v>45679</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>804</v>
+        <v>687</v>
       </c>
       <c r="E25" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F25" s="55">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4030,34 +4039,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E26" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F26" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4066,34 +4075,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E27" s="55">
-        <v>524210</v>
+        <v>326220</v>
       </c>
       <c r="F27" s="55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="54">
-        <v>45707</v>
+        <v>45744</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4105,31 +4114,31 @@
         <v>45671</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E28" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F28" s="55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H28" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4147,13 +4156,13 @@
         <v>128</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E29" s="55">
         <v>484220</v>
       </c>
       <c r="F29" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
@@ -4165,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4174,36 +4183,72 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>815</v>
+      </c>
+      <c r="E30" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F30" s="55">
+        <v>89</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="K30" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="54">
         <v>45660</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C31" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>814</v>
-      </c>
-      <c r="E30" s="55">
+      <c r="D31" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="E31" s="55">
         <v>492110</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F31" s="55">
         <v>122</v>
       </c>
-      <c r="G30" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="54">
+      <c r="G31" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="54">
         <v>45719</v>
       </c>
-      <c r="I30" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>815</v>
-      </c>
-      <c r="K30" s="57" t="str">
+      <c r="I31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>818</v>
+      </c>
+      <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17565,12 +17610,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17714,24 +17756,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001EBC7-DE76-48F7-A00A-1A95601D688C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17744,4 +17777,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FBC52D0-CEE4-4A28-817F-9A5A8D714E9F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7771A70-9F6D-498D-B407-C74940F9800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{833BA254-D04A-42F8-919D-30AF6595E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="840" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2022'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2023'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="820">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,7 +2346,10 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
-    <t>Levis Strauss</t>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000D1Bd3/WjqRbkHxqb9JuYlKhL4YE9cyAZgRsdHscqCZTzVAerY</t>
+  </si>
+  <si>
+    <t>Levi Strauss &amp; Co</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000CLJC1/DbyYp68sVwKoN.GQkRf5EyzUntPUC3BOkVG9L_FcJUc</t>
@@ -3117,10 +3120,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3175,34 +3178,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45824</v>
+        <v>45839</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D2" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F2" s="55">
+        <v>21</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="54">
+        <v>45904</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>764</v>
-      </c>
-      <c r="E2" s="55">
-        <v>33993</v>
-      </c>
-      <c r="F2" s="55">
-        <v>346</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="54">
-        <v>45887</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3211,37 +3214,37 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45813</v>
+        <v>45824</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="E3" s="55">
+        <v>33993</v>
+      </c>
+      <c r="F3" s="55">
+        <v>346</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="54">
+        <v>45887</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="E3" s="55">
-        <v>811111</v>
-      </c>
-      <c r="F3" s="55">
-        <v>20</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="54">
-        <v>45871</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>767</v>
-      </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K31" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K32" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
@@ -3253,16 +3256,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E4" s="55">
-        <v>541330</v>
+        <v>811111</v>
       </c>
       <c r="F4" s="55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
@@ -3274,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3289,16 +3292,16 @@
         <v>14</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>770</v>
+        <v>247</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E5" s="55">
-        <v>811111</v>
+        <v>541330</v>
       </c>
       <c r="F5" s="55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
@@ -3310,7 +3313,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3319,34 +3322,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45800</v>
+        <v>45813</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>128</v>
+        <v>771</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="55">
+        <v>811111</v>
+      </c>
+      <c r="F6" s="55">
+        <v>8</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54">
+        <v>45871</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>773</v>
-      </c>
-      <c r="E6" s="55">
-        <v>551114</v>
-      </c>
-      <c r="F6" s="55">
-        <v>91</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="54">
-        <v>45930</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>774</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3355,7 +3358,7 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45782</v>
+        <v>45800</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>108</v>
@@ -3364,25 +3367,25 @@
         <v>128</v>
       </c>
       <c r="D7" s="55" t="s">
+        <v>774</v>
+      </c>
+      <c r="E7" s="55">
+        <v>551114</v>
+      </c>
+      <c r="F7" s="55">
+        <v>91</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="54">
+        <v>45930</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>775</v>
-      </c>
-      <c r="E7" s="55">
-        <v>49311</v>
-      </c>
-      <c r="F7" s="55">
-        <v>75</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="54">
-        <v>45839</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>776</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3400,13 +3403,13 @@
         <v>128</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E8" s="55">
         <v>49311</v>
       </c>
       <c r="F8" s="55">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>16</v>
@@ -3418,7 +3421,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3436,13 +3439,13 @@
         <v>128</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E9" s="55">
         <v>49311</v>
       </c>
       <c r="F9" s="55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>16</v>
@@ -3454,7 +3457,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3472,34 +3475,34 @@
         <v>128</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E10" s="55">
         <v>49311</v>
       </c>
       <c r="F10" s="55">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>108</v>
@@ -3508,49 +3511,49 @@
         <v>128</v>
       </c>
       <c r="D11" s="55" t="s">
+        <v>782</v>
+      </c>
+      <c r="E11" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F11" s="55">
+        <v>41</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45870</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="53" t="s">
         <v>783</v>
       </c>
-      <c r="E11" s="55">
+      <c r="K11" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54">
+        <v>45779</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>784</v>
+      </c>
+      <c r="E12" s="55">
         <v>336411</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F12" s="55">
         <v>64</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="54">
-        <v>45838</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>784</v>
-      </c>
-      <c r="K11" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="54">
-        <v>45768</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>687</v>
-      </c>
-      <c r="E12" s="55">
-        <v>541330</v>
-      </c>
-      <c r="F12" s="55">
-        <v>18</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
@@ -3569,36 +3572,36 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D13" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E13" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F13" s="55">
+        <v>18</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>786</v>
-      </c>
-      <c r="E13" s="55">
-        <v>424410</v>
-      </c>
-      <c r="F13" s="55">
-        <v>115</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="54">
-        <v>45762</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>787</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3610,31 +3613,31 @@
         <v>45762</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D14" s="55" t="s">
+        <v>787</v>
+      </c>
+      <c r="E14" s="55">
+        <v>424410</v>
+      </c>
+      <c r="F14" s="55">
+        <v>115</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="54">
+        <v>45762</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>788</v>
-      </c>
-      <c r="E14" s="55">
-        <v>3254</v>
-      </c>
-      <c r="F14" s="55">
-        <v>46</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="54">
-        <v>45840</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>789</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3643,31 +3646,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>675</v>
+        <v>789</v>
       </c>
       <c r="E15" s="55">
-        <v>51</v>
+        <v>3254</v>
       </c>
       <c r="F15" s="55">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45800</v>
+        <v>45840</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="53" t="s">
         <v>790</v>
@@ -3679,34 +3682,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D16" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E16" s="55">
+        <v>51</v>
+      </c>
+      <c r="F16" s="55">
+        <v>84</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="54">
+        <v>45800</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>791</v>
-      </c>
-      <c r="E16" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F16" s="55">
-        <v>70</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>792</v>
       </c>
       <c r="K16" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3724,13 +3727,13 @@
         <v>227</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E17" s="55">
-        <v>325211</v>
+        <v>541715</v>
       </c>
       <c r="F17" s="55">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
@@ -3742,7 +3745,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K17" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3751,28 +3754,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>687</v>
+        <v>794</v>
       </c>
       <c r="E18" s="55">
-        <v>541330</v>
+        <v>325211</v>
       </c>
       <c r="F18" s="55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>40</v>
@@ -3796,25 +3799,25 @@
         <v>239</v>
       </c>
       <c r="D19" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E19" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F19" s="55">
+        <v>22</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="54">
+        <v>45792</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="53" t="s">
         <v>796</v>
-      </c>
-      <c r="E19" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F19" s="55">
-        <v>245</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="54">
-        <v>45785</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>797</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>40</v>
@@ -3832,25 +3835,25 @@
         <v>239</v>
       </c>
       <c r="D20" s="55" t="s">
+        <v>797</v>
+      </c>
+      <c r="E20" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F20" s="55">
+        <v>245</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="54">
+        <v>45785</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="53" t="s">
         <v>798</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="54">
-        <v>45771</v>
-      </c>
-      <c r="I20" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>799</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3859,34 +3862,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D21" s="55" t="s">
+        <v>799</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="54">
+        <v>45771</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="53" t="s">
         <v>800</v>
-      </c>
-      <c r="E21" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F21" s="55">
-        <v>250</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="54">
-        <v>45807</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>801</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3895,34 +3898,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D22" s="55" t="s">
+        <v>801</v>
+      </c>
+      <c r="E22" s="55">
+        <v>326211</v>
+      </c>
+      <c r="F22" s="55">
+        <v>250</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="54">
+        <v>45807</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>802</v>
-      </c>
-      <c r="E22" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F22" s="55">
-        <v>57</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="54">
-        <v>45777</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>803</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3931,31 +3934,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>675</v>
+        <v>803</v>
       </c>
       <c r="E23" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F23" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I23" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="53" t="s">
         <v>804</v>
@@ -3967,31 +3970,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E24" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F24" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="53" t="s">
         <v>805</v>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>40</v>
@@ -4012,13 +4015,13 @@
         <v>239</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E25" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F25" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
@@ -4042,31 +4045,31 @@
         <v>45679</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D26" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F26" s="55">
+        <v>55</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>807</v>
-      </c>
-      <c r="E26" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F26" s="55">
-        <v>210</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="54">
-        <v>45772</v>
-      </c>
-      <c r="I26" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>808</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4075,34 +4078,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E27" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F27" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4111,34 +4114,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D28" s="55" t="s">
+        <v>810</v>
+      </c>
+      <c r="E28" s="55">
+        <v>326220</v>
+      </c>
+      <c r="F28" s="55">
+        <v>65</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="54">
+        <v>45744</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="53" t="s">
         <v>811</v>
-      </c>
-      <c r="E28" s="55">
-        <v>524210</v>
-      </c>
-      <c r="F28" s="55">
-        <v>2</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="54">
-        <v>45707</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>812</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4150,31 +4153,31 @@
         <v>45671</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D29" s="55" t="s">
+        <v>812</v>
+      </c>
+      <c r="E29" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F29" s="55">
+        <v>2</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="53" t="s">
         <v>813</v>
-      </c>
-      <c r="E29" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F29" s="55">
-        <v>100</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I29" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>814</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4192,13 +4195,13 @@
         <v>128</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E30" s="55">
         <v>484220</v>
       </c>
       <c r="F30" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
@@ -4210,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4219,36 +4222,72 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="E31" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F31" s="55">
+        <v>89</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>817</v>
+      </c>
+      <c r="K31" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="54">
         <v>45660</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B32" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C32" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>817</v>
-      </c>
-      <c r="E31" s="55">
+      <c r="D32" s="55" t="s">
+        <v>818</v>
+      </c>
+      <c r="E32" s="55">
         <v>492110</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F32" s="55">
         <v>122</v>
       </c>
-      <c r="G31" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="54">
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
         <v>45719</v>
       </c>
-      <c r="I31" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="53" t="s">
-        <v>818</v>
-      </c>
-      <c r="K31" s="57" t="str">
+      <c r="I32" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -17610,12 +17649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17755,7 +17788,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17764,7 +17797,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C61A8D55-1EFF-4B12-A8CA-1F62861FC39B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17777,16 +17828,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FBC52D0-CEE4-4A28-817F-9A5A8D714E9F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.hampton\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{833BA254-D04A-42F8-919D-30AF6595E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAB3BFF-89E2-4457-A45D-CA7DF9189562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="828">
   <si>
     <t>Date Received</t>
   </si>
@@ -2344,6 +2344,30 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>Omniplex World Services, Corp</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLs17/N8kNwHD7NrJsysV0zp8g9_ZcVeQc2PIwPTnTs0XZzY0</t>
+  </si>
+  <si>
+    <t>Constellis</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLu7l/EdeBjKSoTfm4L7CqUJvMx5tmMv_rj4_780cA3MxRv8A</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLqIi/KcpQocZHmetBQG6IKEINOFe33Uc3axuDtjFliX4ytiA</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLxTp/LoWzAFYAP4NS.p5h5nLGmAIAal3QaIuQ2xGIvw8dMZ0</t>
+  </si>
+  <si>
+    <t>Pearl Interactive</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLUrf/Me6wkymcct0BWQCfSq4jZWAgHYxOGWp8Qb.GMFZ1cXM</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000D1Bd3/WjqRbkHxqb9JuYlKhL4YE9cyAZgRsdHscqCZTzVAerY</t>
@@ -3120,11 +3144,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3178,34 +3200,34 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45839</v>
+        <v>45848</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>541330</v>
+        <v>561612</v>
       </c>
       <c r="F2" s="55">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" s="54">
-        <v>45904</v>
+        <v>45869</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
@@ -3214,7 +3236,7 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45824</v>
+        <v>45848</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>29</v>
@@ -3223,58 +3245,58 @@
         <v>221</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>33993</v>
+        <v>561612</v>
       </c>
       <c r="F3" s="55">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="54">
-        <v>45887</v>
+        <v>45869</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K32" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K37" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
-        <v>45813</v>
+        <v>45848</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E4" s="55">
-        <v>811111</v>
+        <v>561612</v>
       </c>
       <c r="F4" s="55">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="54">
-        <v>45871</v>
+        <v>45869</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>768</v>
@@ -3286,34 +3308,34 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54">
-        <v>45813</v>
+        <v>45848</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="E5" s="55">
+        <v>561612</v>
+      </c>
+      <c r="F5" s="55">
+        <v>22</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="54">
+        <v>45869</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>769</v>
-      </c>
-      <c r="E5" s="55">
-        <v>541330</v>
-      </c>
-      <c r="F5" s="55">
-        <v>4</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="54">
-        <v>45871</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>770</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3322,34 +3344,34 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54">
-        <v>45813</v>
+        <v>45848</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="55">
+        <v>561422</v>
+      </c>
+      <c r="F6" s="55">
+        <v>342</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54">
+        <v>45910</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>771</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>772</v>
-      </c>
-      <c r="E6" s="55">
-        <v>811111</v>
-      </c>
-      <c r="F6" s="55">
-        <v>8</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="54">
-        <v>45871</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>773</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3358,34 +3380,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45800</v>
+        <v>45839</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>774</v>
+        <v>687</v>
       </c>
       <c r="E7" s="55">
-        <v>551114</v>
+        <v>541330</v>
       </c>
       <c r="F7" s="55">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="54">
-        <v>45930</v>
+        <v>45904</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3394,34 +3416,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45782</v>
+        <v>45824</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E8" s="55">
-        <v>49311</v>
+        <v>33993</v>
       </c>
       <c r="F8" s="55">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45839</v>
+        <v>45887</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3430,34 +3452,34 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E9" s="55">
-        <v>49311</v>
+        <v>811111</v>
       </c>
       <c r="F9" s="55">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45839</v>
+        <v>45871</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3466,34 +3488,34 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E10" s="55">
-        <v>49311</v>
+        <v>541330</v>
       </c>
       <c r="F10" s="55">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45839</v>
+        <v>45871</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K10" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3502,34 +3524,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>128</v>
+        <v>779</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E11" s="55">
-        <v>49311</v>
+        <v>811111</v>
       </c>
       <c r="F11" s="55">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45870</v>
+        <v>45871</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3538,7 +3560,7 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45779</v>
+        <v>45800</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>108</v>
@@ -3547,25 +3569,25 @@
         <v>128</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E12" s="55">
-        <v>336411</v>
+        <v>551114</v>
       </c>
       <c r="F12" s="55">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45838</v>
+        <v>45930</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3574,34 +3596,34 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45768</v>
+        <v>45782</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="E13" s="55">
-        <v>541330</v>
+        <v>49311</v>
       </c>
       <c r="F13" s="55">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="54">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="K13" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3610,34 +3632,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D14" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="E14" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F14" s="55">
+        <v>1</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="54">
+        <v>45839</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>787</v>
-      </c>
-      <c r="E14" s="55">
-        <v>424410</v>
-      </c>
-      <c r="F14" s="55">
-        <v>115</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="54">
-        <v>45762</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>788</v>
       </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3646,34 +3668,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="54">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
+        <v>788</v>
+      </c>
+      <c r="E15" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F15" s="55">
+        <v>11</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="54">
+        <v>45839</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="53" t="s">
         <v>789</v>
-      </c>
-      <c r="E15" s="55">
-        <v>3254</v>
-      </c>
-      <c r="F15" s="55">
-        <v>46</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="54">
-        <v>45840</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="53" t="s">
-        <v>790</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3682,28 +3704,28 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="54">
-        <v>45758</v>
+        <v>45782</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>675</v>
+        <v>790</v>
       </c>
       <c r="E16" s="55">
-        <v>51</v>
+        <v>49311</v>
       </c>
       <c r="F16" s="55">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45800</v>
+        <v>45870</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3718,28 +3740,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45734</v>
+        <v>45779</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>792</v>
       </c>
       <c r="E17" s="55">
-        <v>541715</v>
+        <v>336411</v>
       </c>
       <c r="F17" s="55">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45737</v>
+        <v>45838</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
@@ -3754,34 +3776,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45734</v>
+        <v>45768</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D18" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E18" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F18" s="55">
+        <v>18</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="53" t="s">
         <v>794</v>
-      </c>
-      <c r="E18" s="55">
-        <v>325211</v>
-      </c>
-      <c r="F18" s="55">
-        <v>11</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>795</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3790,28 +3812,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45719</v>
+        <v>45762</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>687</v>
+        <v>795</v>
       </c>
       <c r="E19" s="55">
-        <v>541330</v>
+        <v>424410</v>
       </c>
       <c r="F19" s="55">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45792</v>
+        <v>45762</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3826,31 +3848,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45712</v>
+        <v>45762</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>797</v>
       </c>
       <c r="E20" s="55">
-        <v>541715</v>
+        <v>3254</v>
       </c>
       <c r="F20" s="55">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45785</v>
+        <v>45840</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>798</v>
@@ -3862,34 +3884,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45709</v>
+        <v>45758</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D21" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="55">
+        <v>51</v>
+      </c>
+      <c r="F21" s="55">
+        <v>84</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="54">
+        <v>45800</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="53" t="s">
         <v>799</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="54">
-        <v>45771</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>800</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3898,34 +3920,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45707</v>
+        <v>45734</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="D22" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="E22" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F22" s="55">
+        <v>70</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="54">
+        <v>45737</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>801</v>
-      </c>
-      <c r="E22" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F22" s="55">
-        <v>250</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="54">
-        <v>45807</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>802</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3934,34 +3956,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45688</v>
+        <v>45734</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="D23" s="55" t="s">
+        <v>802</v>
+      </c>
+      <c r="E23" s="55">
+        <v>325211</v>
+      </c>
+      <c r="F23" s="55">
+        <v>11</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="54">
+        <v>45737</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="53" t="s">
         <v>803</v>
-      </c>
-      <c r="E23" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F23" s="55">
-        <v>57</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="54">
-        <v>45777</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>804</v>
       </c>
       <c r="K23" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3970,34 +3992,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45687</v>
+        <v>45719</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="E24" s="55">
-        <v>51</v>
+        <v>541330</v>
       </c>
       <c r="F24" s="55">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45747</v>
+        <v>45792</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4006,7 +4028,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45684</v>
+        <v>45712</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>40</v>
@@ -4015,19 +4037,19 @@
         <v>239</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>685</v>
+        <v>805</v>
       </c>
       <c r="E25" s="55">
-        <v>562910</v>
+        <v>541715</v>
       </c>
       <c r="F25" s="55">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45743</v>
+        <v>45785</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -4042,7 +4064,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45679</v>
+        <v>45709</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>40</v>
@@ -4051,25 +4073,25 @@
         <v>239</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>687</v>
-      </c>
-      <c r="E26" s="55">
-        <v>541330</v>
-      </c>
-      <c r="F26" s="55">
-        <v>55</v>
+        <v>807</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45743</v>
+        <v>45771</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4078,34 +4100,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45679</v>
+        <v>45707</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E27" s="55">
-        <v>312140</v>
+        <v>326211</v>
       </c>
       <c r="F27" s="55">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45772</v>
+        <v>45807</v>
       </c>
       <c r="I27" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4114,34 +4136,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45674</v>
+        <v>45688</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E28" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F28" s="55">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45744</v>
+        <v>45777</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4150,28 +4172,28 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45671</v>
+        <v>45687</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>812</v>
+        <v>675</v>
       </c>
       <c r="E29" s="55">
-        <v>524210</v>
+        <v>51</v>
       </c>
       <c r="F29" s="55">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45707</v>
+        <v>45747</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>12</v>
@@ -4186,34 +4208,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45671</v>
+        <v>45684</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D30" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E30" s="55">
+        <v>562910</v>
+      </c>
+      <c r="F30" s="55">
+        <v>90</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="53" t="s">
         <v>814</v>
-      </c>
-      <c r="E30" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F30" s="55">
-        <v>100</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="53" t="s">
-        <v>815</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4222,34 +4244,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>816</v>
+        <v>687</v>
       </c>
       <c r="E31" s="55">
-        <v>484220</v>
+        <v>541330</v>
       </c>
       <c r="F31" s="55">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45688</v>
+        <v>45743</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="K31" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4258,36 +4280,216 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
+        <v>45679</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="E32" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F32" s="55">
+        <v>210</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
+        <v>45772</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>817</v>
+      </c>
+      <c r="K32" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="54">
+        <v>45674</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>818</v>
+      </c>
+      <c r="E33" s="55">
+        <v>326220</v>
+      </c>
+      <c r="F33" s="55">
+        <v>65</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="54">
+        <v>45744</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="K33" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>820</v>
+      </c>
+      <c r="E34" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F34" s="55">
+        <v>2</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="K34" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>822</v>
+      </c>
+      <c r="E35" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F35" s="55">
+        <v>100</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>823</v>
+      </c>
+      <c r="K35" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>824</v>
+      </c>
+      <c r="E36" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F36" s="55">
+        <v>89</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>825</v>
+      </c>
+      <c r="K36" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="54">
         <v>45660</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B37" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C37" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>818</v>
-      </c>
-      <c r="E32" s="55">
+      <c r="D37" s="55" t="s">
+        <v>826</v>
+      </c>
+      <c r="E37" s="55">
         <v>492110</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F37" s="55">
         <v>122</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="54">
+      <c r="G37" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="54">
         <v>45719</v>
       </c>
-      <c r="I32" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>819</v>
-      </c>
-      <c r="K32" s="57" t="str">
+      <c r="I37" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>827</v>
+      </c>
+      <c r="K37" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -14728,7 +14930,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48">
         <v>43591</v>
       </c>
@@ -15088,7 +15290,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>43490</v>
       </c>
@@ -17066,7 +17268,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>42879</v>
       </c>
@@ -17138,7 +17340,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42852</v>
       </c>
@@ -17174,7 +17376,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42845</v>
       </c>
@@ -17210,7 +17412,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42832</v>
       </c>
@@ -17318,7 +17520,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42829</v>
       </c>
@@ -17354,7 +17556,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42829</v>
       </c>
@@ -17390,7 +17592,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42828</v>
       </c>
@@ -17426,7 +17628,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42828</v>
       </c>
@@ -17462,7 +17664,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42804</v>
       </c>
@@ -17606,7 +17808,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42760</v>
       </c>
@@ -17649,6 +17851,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -17788,7 +17996,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17797,25 +18005,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C61A8D55-1EFF-4B12-A8CA-1F62861FC39B}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -17828,4 +18018,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46991D5E-5F2B-4E81-B623-7457E3EE0B67}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennifer.hampton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAB3BFF-89E2-4457-A45D-CA7DF9189562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E572F9-65DA-40FF-8695-1D6F59C4CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="830">
   <si>
     <t>Date Received</t>
   </si>
@@ -2346,6 +2346,18 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>CVS MED CARE PHARMACY LLC</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000EdSPN/c0fLyqrfAiqjJw_FO8PHbsD5OwaRjNBW30cvv8sR2h4</t>
+  </si>
+  <si>
+    <t>Battelle Memorial Institute E3</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000ELTF3/igSCL9QBGiYSBBBF0RY5jcajhnZ13NgBcfONVL2_iFQ</t>
+  </si>
+  <si>
     <t>Omniplex World Services, Corp</t>
   </si>
   <si>
@@ -2469,13 +2481,7 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007Eqh3/LRRjzqecT_ev45Q0V3xqOGfKDrT83C7A_Rb_I9huvDQ</t>
   </si>
   <si>
-    <t>Battelle</t>
-  </si>
-  <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000006tjPG/2I4lYNSkXHeX5zTSEMB1z.CpQcneksKXiOcK4OwU_EI</t>
-  </si>
-  <si>
-    <t>Battelle Memorial Institute E3</t>
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000073ueL/MyYKHtOhEr5wch0_5F84slUZadA.oMb89jKQ6YFUTeM</t>
@@ -3144,7 +3150,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3200,7 +3206,7 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
-        <v>45848</v>
+        <v>45876</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>29</v>
@@ -3212,19 +3218,19 @@
         <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>561612</v>
+        <v>456110</v>
       </c>
       <c r="F2" s="55">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45869</v>
+        <v>45941</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>765</v>
@@ -3236,37 +3242,37 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
-        <v>45848</v>
+        <v>45869</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>561612</v>
+        <v>541715</v>
       </c>
       <c r="F3" s="55">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K37" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K39" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
@@ -3281,25 +3287,25 @@
         <v>221</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E4" s="55">
         <v>561612</v>
       </c>
       <c r="F4" s="55">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" s="54">
         <v>45869</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="K4" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3317,13 +3323,13 @@
         <v>221</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="E5" s="55">
         <v>561612</v>
       </c>
       <c r="F5" s="55">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>16</v>
@@ -3332,10 +3338,10 @@
         <v>45869</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3347,31 +3353,31 @@
         <v>45848</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E6" s="55">
-        <v>561422</v>
+        <v>561612</v>
       </c>
       <c r="F6" s="55">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="54">
-        <v>45910</v>
+        <v>45869</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3380,34 +3386,34 @@
     </row>
     <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54">
-        <v>45839</v>
+        <v>45848</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="E7" s="55">
-        <v>541330</v>
+        <v>561612</v>
       </c>
       <c r="F7" s="55">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="54">
-        <v>45904</v>
+        <v>45869</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3416,34 +3422,34 @@
     </row>
     <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="54">
-        <v>45824</v>
+        <v>45848</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E8" s="55">
-        <v>33993</v>
+        <v>561422</v>
       </c>
       <c r="F8" s="55">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="54">
-        <v>45887</v>
+        <v>45910</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3452,28 +3458,28 @@
     </row>
     <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="54">
-        <v>45813</v>
+        <v>45839</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>775</v>
+        <v>687</v>
       </c>
       <c r="E9" s="55">
-        <v>811111</v>
+        <v>541330</v>
       </c>
       <c r="F9" s="55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="54">
-        <v>45871</v>
+        <v>45904</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>13</v>
@@ -3488,28 +3494,28 @@
     </row>
     <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="54">
-        <v>45813</v>
+        <v>45824</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>777</v>
       </c>
       <c r="E10" s="55">
-        <v>541330</v>
+        <v>33993</v>
       </c>
       <c r="F10" s="55">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="54">
-        <v>45871</v>
+        <v>45887</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
@@ -3530,16 +3536,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>779</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>780</v>
       </c>
       <c r="E11" s="55">
         <v>811111</v>
       </c>
       <c r="F11" s="55">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
@@ -3551,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3560,34 +3566,34 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54">
-        <v>45800</v>
+        <v>45813</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="D12" s="55" t="s">
+        <v>781</v>
+      </c>
+      <c r="E12" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F12" s="55">
+        <v>4</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="54">
+        <v>45871</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="53" t="s">
         <v>782</v>
-      </c>
-      <c r="E12" s="55">
-        <v>551114</v>
-      </c>
-      <c r="F12" s="55">
-        <v>91</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="54">
-        <v>45930</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>783</v>
       </c>
       <c r="K12" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3596,28 +3602,28 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54">
-        <v>45782</v>
+        <v>45813</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>128</v>
+        <v>783</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>784</v>
       </c>
       <c r="E13" s="55">
-        <v>49311</v>
+        <v>811111</v>
       </c>
       <c r="F13" s="55">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45839</v>
+        <v>45871</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3632,7 +3638,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="54">
-        <v>45782</v>
+        <v>45800</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>108</v>
@@ -3644,16 +3650,16 @@
         <v>786</v>
       </c>
       <c r="E14" s="55">
-        <v>49311</v>
+        <v>551114</v>
       </c>
       <c r="F14" s="55">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H14" s="54">
-        <v>45839</v>
+        <v>45930</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -3683,7 +3689,7 @@
         <v>49311</v>
       </c>
       <c r="F15" s="55">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>16</v>
@@ -3719,13 +3725,13 @@
         <v>49311</v>
       </c>
       <c r="F16" s="55">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>108</v>
@@ -3752,16 +3758,16 @@
         <v>792</v>
       </c>
       <c r="E17" s="55">
-        <v>336411</v>
+        <v>49311</v>
       </c>
       <c r="F17" s="55">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="54">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
@@ -3776,34 +3782,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="54">
-        <v>45768</v>
+        <v>45782</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>687</v>
+        <v>794</v>
       </c>
       <c r="E18" s="55">
-        <v>541330</v>
+        <v>49311</v>
       </c>
       <c r="F18" s="55">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>45838</v>
+        <v>45870</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3812,34 +3818,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="54">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E19" s="55">
-        <v>424410</v>
+        <v>336411</v>
       </c>
       <c r="F19" s="55">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="54">
-        <v>45762</v>
+        <v>45838</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3848,31 +3854,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="54">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>797</v>
+        <v>687</v>
       </c>
       <c r="E20" s="55">
-        <v>3254</v>
+        <v>541330</v>
       </c>
       <c r="F20" s="55">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="54">
-        <v>45840</v>
+        <v>45838</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
         <v>798</v>
@@ -3884,34 +3890,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="54">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>675</v>
+        <v>799</v>
       </c>
       <c r="E21" s="55">
-        <v>51</v>
+        <v>424410</v>
       </c>
       <c r="F21" s="55">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="54">
-        <v>45800</v>
+        <v>45762</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3920,34 +3926,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="54">
-        <v>45734</v>
+        <v>45762</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E22" s="55">
-        <v>541715</v>
+        <v>3254</v>
       </c>
       <c r="F22" s="55">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="54">
-        <v>45737</v>
+        <v>45840</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3956,28 +3962,28 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>802</v>
+        <v>675</v>
       </c>
       <c r="E23" s="55">
-        <v>325211</v>
+        <v>51</v>
       </c>
       <c r="F23" s="55">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45737</v>
+        <v>45800</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3992,34 +3998,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B24" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>687</v>
+        <v>804</v>
       </c>
       <c r="E24" s="55">
-        <v>541330</v>
+        <v>541715</v>
       </c>
       <c r="F24" s="55">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I24" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4028,34 +4034,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="54">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E25" s="55">
-        <v>541715</v>
+        <v>325211</v>
       </c>
       <c r="F25" s="55">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45785</v>
+        <v>45737</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="54">
-        <v>45709</v>
+        <v>45719</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>40</v>
@@ -4073,19 +4079,19 @@
         <v>239</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>807</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>10</v>
+        <v>687</v>
+      </c>
+      <c r="E26" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F26" s="55">
+        <v>22</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45771</v>
+        <v>45792</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
@@ -4100,34 +4106,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="54">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D27" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="E27" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F27" s="55">
+        <v>245</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="54">
+        <v>45785</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="53" t="s">
         <v>809</v>
-      </c>
-      <c r="E27" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F27" s="55">
-        <v>250</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="54">
-        <v>45807</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>810</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4136,34 +4142,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="54">
-        <v>45688</v>
+        <v>45709</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>811</v>
+        <v>766</v>
       </c>
       <c r="E28" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F28" s="55">
-        <v>57</v>
+        <v>541715</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45777</v>
+        <v>45771</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4172,34 +4178,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="54">
-        <v>45687</v>
+        <v>45707</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>675</v>
+        <v>811</v>
       </c>
       <c r="E29" s="55">
-        <v>51</v>
+        <v>326211</v>
       </c>
       <c r="F29" s="55">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45747</v>
+        <v>45807</v>
       </c>
       <c r="I29" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4208,31 +4214,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="54">
-        <v>45684</v>
+        <v>45688</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>685</v>
+        <v>813</v>
       </c>
       <c r="E30" s="55">
-        <v>562910</v>
+        <v>312140</v>
       </c>
       <c r="F30" s="55">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45743</v>
+        <v>45777</v>
       </c>
       <c r="I30" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J30" s="53" t="s">
         <v>814</v>
@@ -4244,31 +4250,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
-        <v>45679</v>
+        <v>45687</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="E31" s="55">
-        <v>541330</v>
+        <v>51</v>
       </c>
       <c r="F31" s="55">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I31" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="53" t="s">
         <v>815</v>
@@ -4280,34 +4286,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D32" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="E32" s="55">
+        <v>562910</v>
+      </c>
+      <c r="F32" s="55">
+        <v>90</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="53" t="s">
         <v>816</v>
-      </c>
-      <c r="E32" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F32" s="55">
-        <v>210</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="54">
-        <v>45772</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>817</v>
       </c>
       <c r="K32" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4316,34 +4322,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>818</v>
+        <v>687</v>
       </c>
       <c r="E33" s="55">
-        <v>326220</v>
+        <v>541330</v>
       </c>
       <c r="F33" s="55">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H33" s="54">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4352,34 +4358,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E34" s="55">
-        <v>524210</v>
+        <v>312140</v>
       </c>
       <c r="F34" s="55">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45707</v>
+        <v>45772</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4388,34 +4394,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E35" s="55">
-        <v>484220</v>
+        <v>326220</v>
       </c>
       <c r="F35" s="55">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H35" s="54">
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4427,31 +4433,31 @@
         <v>45671</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E36" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F36" s="55">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H36" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="K36" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4460,36 +4466,108 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>824</v>
+      </c>
+      <c r="E37" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F37" s="55">
+        <v>100</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>825</v>
+      </c>
+      <c r="K37" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>826</v>
+      </c>
+      <c r="E38" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F38" s="55">
+        <v>89</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>827</v>
+      </c>
+      <c r="K38" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="54">
         <v>45660</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B39" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C39" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="55" t="s">
-        <v>826</v>
-      </c>
-      <c r="E37" s="55">
+      <c r="D39" s="55" t="s">
+        <v>828</v>
+      </c>
+      <c r="E39" s="55">
         <v>492110</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F39" s="55">
         <v>122</v>
       </c>
-      <c r="G37" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="54">
+      <c r="G39" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="54">
         <v>45719</v>
       </c>
-      <c r="I37" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="53" t="s">
-        <v>827</v>
-      </c>
-      <c r="K37" s="57" t="str">
+      <c r="I39" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>829</v>
+      </c>
+      <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -14930,7 +15008,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48">
         <v>43591</v>
       </c>
@@ -15290,7 +15368,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>43490</v>
       </c>
@@ -17268,7 +17346,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>42879</v>
       </c>
@@ -17340,7 +17418,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42852</v>
       </c>
@@ -17376,7 +17454,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42845</v>
       </c>
@@ -17412,7 +17490,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42832</v>
       </c>
@@ -17520,7 +17598,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42829</v>
       </c>
@@ -17556,7 +17634,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42829</v>
       </c>
@@ -17592,7 +17670,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42828</v>
       </c>
@@ -17628,7 +17706,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42828</v>
       </c>
@@ -17664,7 +17742,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42804</v>
       </c>
@@ -17808,7 +17886,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42760</v>
       </c>
@@ -18021,7 +18099,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46991D5E-5F2B-4E81-B623-7457E3EE0B67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65995922-1142-450A-99AE-15E7D9920236}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rapid Response\WARN Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndsprdugvimgstg\AppData\Local\Temp\00Dt00000004X3hEAE\005eq00000IJgZ4AAL\e41f0d99-140e-40c0-b7f5-4f32935e580e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E572F9-65DA-40FF-8695-1D6F59C4CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,9 +41,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="834">
   <si>
     <t>Date Received</t>
   </si>
@@ -2344,6 +2340,18 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>AHF Products Manufacturing</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000F8rT7/naKYm5a9T_8DlsI_oosnCgacgmOze7QGz7OtM4JHF7M</t>
+  </si>
+  <si>
+    <t>Russellville Engineered Casting</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000F27b3/1_MkkcthKxlbiFWQL.wyv3bsvQ_y.wnfBVF7yNonP6Q</t>
   </si>
   <si>
     <t>CVS MED CARE PHARMACY LLC</t>
@@ -2547,7 +2555,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3146,30 +3154,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3204,33 +3212,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
-        <v>45876</v>
+        <v>45889</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>764</v>
       </c>
       <c r="E2" s="55">
-        <v>456110</v>
+        <v>321920</v>
       </c>
       <c r="F2" s="55">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>45941</v>
+        <v>46003</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>765</v>
@@ -3240,45 +3248,45 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
-        <v>45869</v>
+        <v>45884</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>239</v>
+        <v>641</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>541715</v>
+        <v>331523</v>
       </c>
       <c r="F3" s="55">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45930</v>
+        <v>45891</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K39" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K3:K41" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
-        <v>45848</v>
+        <v>45876</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>29</v>
@@ -3290,16 +3298,16 @@
         <v>768</v>
       </c>
       <c r="E4" s="55">
-        <v>561612</v>
+        <v>456110</v>
       </c>
       <c r="F4" s="55">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45869</v>
+        <v>45941</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>13</v>
@@ -3312,30 +3320,30 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
-        <v>45848</v>
+        <v>45869</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>770</v>
       </c>
       <c r="E5" s="55">
-        <v>561612</v>
+        <v>541715</v>
       </c>
       <c r="F5" s="55">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3348,7 +3356,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>45848</v>
       </c>
@@ -3359,13 +3367,13 @@
         <v>221</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E6" s="55">
         <v>561612</v>
       </c>
       <c r="F6" s="55">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>16</v>
@@ -3377,14 +3385,14 @@
         <v>13</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K6" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>45848</v>
       </c>
@@ -3395,13 +3403,13 @@
         <v>221</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="E7" s="55">
         <v>561612</v>
       </c>
       <c r="F7" s="55">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>16</v>
@@ -3413,145 +3421,145 @@
         <v>13</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="54">
         <v>45848</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="E8" s="55">
+        <v>561612</v>
+      </c>
+      <c r="F8" s="55">
+        <v>41</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="54">
+        <v>45869</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="K8" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+      <c r="A9" s="54">
+        <v>45848</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="E9" s="55">
+        <v>561612</v>
+      </c>
+      <c r="F9" s="55">
+        <v>22</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="54">
+        <v>45869</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>777</v>
+      </c>
+      <c r="K9" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+      <c r="A10" s="54">
+        <v>45848</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C10" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>774</v>
-      </c>
-      <c r="E8" s="55">
+      <c r="D10" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="E10" s="55">
         <v>561422</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F10" s="55">
         <v>342</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="54">
+      <c r="G10" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="54">
         <v>45910</v>
       </c>
-      <c r="I8" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="K8" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54">
+      <c r="I10" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>779</v>
+      </c>
+      <c r="K10" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+      <c r="A11" s="54">
         <v>45839</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C11" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D11" s="55" t="s">
         <v>687</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E11" s="55">
         <v>541330</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F11" s="55">
         <v>21</v>
       </c>
-      <c r="G9" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="54">
+      <c r="G11" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="54">
         <v>45904</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>776</v>
-      </c>
-      <c r="K9" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54">
-        <v>45824</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>777</v>
-      </c>
-      <c r="E10" s="55">
-        <v>33993</v>
-      </c>
-      <c r="F10" s="55">
-        <v>346</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="54">
-        <v>45887</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>778</v>
-      </c>
-      <c r="K10" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54">
-        <v>45813</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>779</v>
-      </c>
-      <c r="E11" s="55">
-        <v>811111</v>
-      </c>
-      <c r="F11" s="55">
-        <v>20</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="54">
-        <v>45871</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
@@ -3564,30 +3572,30 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
-        <v>45813</v>
+        <v>45824</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>781</v>
       </c>
       <c r="E12" s="55">
-        <v>541330</v>
+        <v>33993</v>
       </c>
       <c r="F12" s="55">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45871</v>
+        <v>45887</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3600,7 +3608,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
         <v>45813</v>
       </c>
@@ -3608,16 +3616,16 @@
         <v>14</v>
       </c>
       <c r="C13" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>783</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>784</v>
       </c>
       <c r="E13" s="55">
         <v>811111</v>
       </c>
       <c r="F13" s="55">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
@@ -3629,73 +3637,73 @@
         <v>13</v>
       </c>
       <c r="J13" s="53" t="s">
+        <v>784</v>
+      </c>
+      <c r="K13" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="54">
+        <v>45813</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>785</v>
       </c>
-      <c r="K13" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="54">
-        <v>45800</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="55" t="s">
+      <c r="E14" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F14" s="55">
+        <v>4</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="54">
+        <v>45871</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>786</v>
       </c>
-      <c r="E14" s="55">
-        <v>551114</v>
-      </c>
-      <c r="F14" s="55">
-        <v>91</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="54">
-        <v>45930</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="53" t="s">
+      <c r="K14" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="54">
+        <v>45813</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>787</v>
-      </c>
-      <c r="K14" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="54">
-        <v>45782</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>128</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>788</v>
       </c>
       <c r="E15" s="55">
-        <v>49311</v>
+        <v>811111</v>
       </c>
       <c r="F15" s="55">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="54">
-        <v>45839</v>
+        <v>45871</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -3708,9 +3716,9 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="54">
-        <v>45782</v>
+        <v>45800</v>
       </c>
       <c r="B16" s="55" t="s">
         <v>108</v>
@@ -3722,16 +3730,16 @@
         <v>790</v>
       </c>
       <c r="E16" s="55">
-        <v>49311</v>
+        <v>551114</v>
       </c>
       <c r="F16" s="55">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45839</v>
+        <v>45930</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3744,7 +3752,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="54">
         <v>45782</v>
       </c>
@@ -3761,7 +3769,7 @@
         <v>49311</v>
       </c>
       <c r="F17" s="55">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>16</v>
@@ -3780,7 +3788,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="54">
         <v>45782</v>
       </c>
@@ -3797,13 +3805,13 @@
         <v>49311</v>
       </c>
       <c r="F18" s="55">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
@@ -3816,9 +3824,9 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>108</v>
@@ -3830,16 +3838,16 @@
         <v>796</v>
       </c>
       <c r="E19" s="55">
-        <v>336411</v>
+        <v>49311</v>
       </c>
       <c r="F19" s="55">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" s="54">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3852,105 +3860,105 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="54">
+        <v>45782</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>798</v>
+      </c>
+      <c r="E20" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F20" s="55">
+        <v>41</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="54">
+        <v>45870</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>799</v>
+      </c>
+      <c r="K20" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="54">
+        <v>45779</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="E21" s="55">
+        <v>336411</v>
+      </c>
+      <c r="F21" s="55">
+        <v>64</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="K21" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="54">
         <v>45768</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B22" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C22" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D22" s="55" t="s">
         <v>687</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E22" s="55">
         <v>541330</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F22" s="55">
         <v>18</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="G22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="54">
         <v>45838</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>798</v>
-      </c>
-      <c r="K20" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="54">
-        <v>45762</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>799</v>
-      </c>
-      <c r="E21" s="55">
-        <v>424410</v>
-      </c>
-      <c r="F21" s="55">
-        <v>115</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="54">
-        <v>45762</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>800</v>
-      </c>
-      <c r="K21" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="54">
-        <v>45762</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>801</v>
-      </c>
-      <c r="E22" s="55">
-        <v>3254</v>
-      </c>
-      <c r="F22" s="55">
-        <v>46</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="54">
-        <v>45840</v>
-      </c>
       <c r="I22" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
         <v>802</v>
@@ -3960,102 +3968,102 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="54">
+        <v>45762</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" s="55">
+        <v>424410</v>
+      </c>
+      <c r="F23" s="55">
+        <v>115</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="54">
+        <v>45762</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>804</v>
+      </c>
+      <c r="K23" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="54">
+        <v>45762</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>805</v>
+      </c>
+      <c r="E24" s="55">
+        <v>3254</v>
+      </c>
+      <c r="F24" s="55">
+        <v>46</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54">
+        <v>45840</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>806</v>
+      </c>
+      <c r="K24" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="54">
         <v>45758</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B25" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C25" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D25" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E25" s="55">
         <v>51</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F25" s="55">
         <v>84</v>
       </c>
-      <c r="G23" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="54">
+      <c r="G25" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="54">
         <v>45800</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>803</v>
-      </c>
-      <c r="K23" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="54">
-        <v>45734</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>804</v>
-      </c>
-      <c r="E24" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F24" s="55">
-        <v>70</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>805</v>
-      </c>
-      <c r="K24" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="54">
-        <v>45734</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>806</v>
-      </c>
-      <c r="E25" s="55">
-        <v>325211</v>
-      </c>
-      <c r="F25" s="55">
-        <v>11</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="54">
-        <v>45737</v>
       </c>
       <c r="I25" s="55" t="s">
         <v>13</v>
@@ -4068,81 +4076,81 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>687</v>
+        <v>808</v>
       </c>
       <c r="E26" s="55">
-        <v>541330</v>
+        <v>541715</v>
       </c>
       <c r="F26" s="55">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="K26" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="54">
-        <v>45712</v>
+        <v>45734</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>766</v>
+        <v>810</v>
       </c>
       <c r="E27" s="55">
-        <v>541715</v>
+        <v>325211</v>
       </c>
       <c r="F27" s="55">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="54">
-        <v>45785</v>
+        <v>45737</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="54">
-        <v>45709</v>
+        <v>45719</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>40</v>
@@ -4151,94 +4159,94 @@
         <v>239</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
       <c r="E28" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>10</v>
+        <v>541330</v>
+      </c>
+      <c r="F28" s="55">
+        <v>22</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45771</v>
+        <v>45792</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="54">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>811</v>
+        <v>770</v>
       </c>
       <c r="E29" s="55">
-        <v>326211</v>
+        <v>541715</v>
       </c>
       <c r="F29" s="55">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45807</v>
+        <v>45785</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="54">
-        <v>45688</v>
+        <v>45709</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>813</v>
+        <v>770</v>
       </c>
       <c r="E30" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F30" s="55">
-        <v>57</v>
+        <v>541715</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45777</v>
+        <v>45771</v>
       </c>
       <c r="I30" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
         <v>814</v>
@@ -4248,177 +4256,177 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" s="54">
+        <v>45707</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>815</v>
+      </c>
+      <c r="E31" s="55">
+        <v>326211</v>
+      </c>
+      <c r="F31" s="55">
+        <v>250</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="54">
+        <v>45807</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="K31" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="54">
+        <v>45688</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="E32" s="55">
+        <v>312140</v>
+      </c>
+      <c r="F32" s="55">
+        <v>57</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
+        <v>45777</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>818</v>
+      </c>
+      <c r="K32" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="54">
         <v>45687</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B33" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C33" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D33" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E33" s="55">
         <v>51</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F33" s="55">
         <v>107</v>
       </c>
-      <c r="G31" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="54">
+      <c r="G33" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="54">
         <v>45747</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="I33" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="53" t="s">
-        <v>815</v>
-      </c>
-      <c r="K31" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="54">
+      <c r="J33" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="K33" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="54">
         <v>45684</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B34" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C34" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D34" s="55" t="s">
         <v>685</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E34" s="55">
         <v>562910</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F34" s="55">
         <v>90</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="54">
+      <c r="G34" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="54">
         <v>45743</v>
       </c>
-      <c r="I32" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>816</v>
-      </c>
-      <c r="K32" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="54">
+      <c r="I34" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>820</v>
+      </c>
+      <c r="K34" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="54">
         <v>45679</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B35" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C35" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D35" s="55" t="s">
         <v>687</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E35" s="55">
         <v>541330</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F35" s="55">
         <v>55</v>
       </c>
-      <c r="G33" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="54">
+      <c r="G35" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="54">
         <v>45743</v>
       </c>
-      <c r="I33" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>817</v>
-      </c>
-      <c r="K33" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="54">
-        <v>45679</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>818</v>
-      </c>
-      <c r="E34" s="55">
-        <v>312140</v>
-      </c>
-      <c r="F34" s="55">
-        <v>210</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="54">
-        <v>45772</v>
-      </c>
-      <c r="I34" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="53" t="s">
-        <v>819</v>
-      </c>
-      <c r="K34" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="54">
-        <v>45674</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>820</v>
-      </c>
-      <c r="E35" s="55">
-        <v>326220</v>
-      </c>
-      <c r="F35" s="55">
-        <v>65</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="54">
-        <v>45744</v>
-      </c>
       <c r="I35" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
         <v>821</v>
@@ -4428,33 +4436,33 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" s="54">
-        <v>45671</v>
+        <v>45679</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>822</v>
       </c>
       <c r="E36" s="55">
-        <v>524210</v>
+        <v>312140</v>
       </c>
       <c r="F36" s="55">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45707</v>
+        <v>45772</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J36" s="53" t="s">
         <v>823</v>
@@ -4464,30 +4472,30 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>824</v>
       </c>
       <c r="E37" s="55">
-        <v>484220</v>
+        <v>326220</v>
       </c>
       <c r="F37" s="55">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H37" s="54">
-        <v>45688</v>
+        <v>45744</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>10</v>
@@ -4500,33 +4508,33 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" s="54">
         <v>45671</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>826</v>
       </c>
       <c r="E38" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F38" s="55">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H38" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J38" s="53" t="s">
         <v>827</v>
@@ -4536,38 +4544,110 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>828</v>
       </c>
       <c r="E39" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F39" s="55">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J39" s="53" t="s">
         <v>829</v>
       </c>
       <c r="K39" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="E40" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F40" s="55">
+        <v>89</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>831</v>
+      </c>
+      <c r="K40" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>832</v>
+      </c>
+      <c r="E41" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F41" s="55">
+        <v>122</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>833</v>
+      </c>
+      <c r="K41" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -4579,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4589,22 +4669,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -4639,7 +4719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
         <v>45649</v>
       </c>
@@ -4675,7 +4755,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
         <v>45646</v>
       </c>
@@ -4711,7 +4791,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
         <v>45637</v>
       </c>
@@ -4747,7 +4827,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
         <v>45614</v>
       </c>
@@ -4783,7 +4863,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>45611</v>
       </c>
@@ -4819,7 +4899,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>45611</v>
       </c>
@@ -4855,7 +4935,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="54">
         <v>45607</v>
       </c>
@@ -4891,7 +4971,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A9" s="54">
         <v>45600</v>
       </c>
@@ -4927,7 +5007,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A10" s="54">
         <v>45600</v>
       </c>
@@ -4963,7 +5043,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
         <v>45590</v>
       </c>
@@ -4999,7 +5079,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
         <v>45580</v>
       </c>
@@ -5035,7 +5115,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
         <v>45575</v>
       </c>
@@ -5071,7 +5151,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="54">
         <v>45566</v>
       </c>
@@ -5107,7 +5187,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="54">
         <v>45566</v>
       </c>
@@ -5143,7 +5223,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="54">
         <v>45565</v>
       </c>
@@ -5179,7 +5259,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="54">
         <v>45558</v>
       </c>
@@ -5215,7 +5295,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="54">
         <v>45517</v>
       </c>
@@ -5251,7 +5331,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="54">
         <v>45490</v>
       </c>
@@ -5287,7 +5367,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="54">
         <v>45483</v>
       </c>
@@ -5323,7 +5403,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="54">
         <v>45481</v>
       </c>
@@ -5359,7 +5439,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="54">
         <v>45463</v>
       </c>
@@ -5395,7 +5475,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="54">
         <v>45448</v>
       </c>
@@ -5431,7 +5511,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="54">
         <v>45442</v>
       </c>
@@ -5467,7 +5547,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" s="54">
         <v>45441</v>
       </c>
@@ -5503,7 +5583,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" s="54">
         <v>45441</v>
       </c>
@@ -5539,7 +5619,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="54">
         <v>45441</v>
       </c>
@@ -5575,7 +5655,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="54">
         <v>45441</v>
       </c>
@@ -5611,7 +5691,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="54">
         <v>45441</v>
       </c>
@@ -5647,7 +5727,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="54">
         <v>45441</v>
       </c>
@@ -5683,7 +5763,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" s="54">
         <v>45399</v>
       </c>
@@ -5719,7 +5799,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" s="54">
         <v>45391</v>
       </c>
@@ -5755,7 +5835,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" s="54">
         <v>45390</v>
       </c>
@@ -5791,7 +5871,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" s="54">
         <v>45378</v>
       </c>
@@ -5827,7 +5907,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" s="54">
         <v>45363</v>
       </c>
@@ -5863,7 +5943,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" s="54">
         <v>45357</v>
       </c>
@@ -5899,7 +5979,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" s="54">
         <v>45352</v>
       </c>
@@ -5935,7 +6015,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" s="54">
         <v>45348</v>
       </c>
@@ -5971,7 +6051,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" s="54">
         <v>45320</v>
       </c>
@@ -6007,7 +6087,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" s="54">
         <v>45315</v>
       </c>
@@ -6043,7 +6123,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" s="54">
         <v>45302</v>
       </c>
@@ -6079,7 +6159,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11">
       <c r="A42" s="54">
         <v>45301</v>
       </c>
@@ -6115,7 +6195,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" s="54">
         <v>45299</v>
       </c>
@@ -6151,7 +6231,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" s="54">
         <v>45299</v>
       </c>
@@ -6187,7 +6267,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" s="54">
         <v>45299</v>
       </c>
@@ -6223,7 +6303,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11">
       <c r="A46" s="54">
         <v>45299</v>
       </c>
@@ -6259,7 +6339,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11">
       <c r="A47" s="54">
         <v>45295</v>
       </c>
@@ -6295,7 +6375,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" s="54">
         <v>45295</v>
       </c>
@@ -6331,7 +6411,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11">
       <c r="A49" s="54">
         <v>45295</v>
       </c>
@@ -6367,7 +6447,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11">
       <c r="A50" s="54">
         <v>45295</v>
       </c>
@@ -6403,7 +6483,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11">
       <c r="A51" s="54">
         <v>45293</v>
       </c>
@@ -6446,7 +6526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6454,22 +6534,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
         <v>45273</v>
       </c>
@@ -6540,7 +6620,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
         <v>45266</v>
       </c>
@@ -6576,7 +6656,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
         <v>45261</v>
       </c>
@@ -6612,7 +6692,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
         <v>45222</v>
       </c>
@@ -6648,7 +6728,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>45191</v>
       </c>
@@ -6684,7 +6764,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>45167</v>
       </c>
@@ -6720,7 +6800,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="54">
         <v>45159</v>
       </c>
@@ -6756,7 +6836,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A9" s="54">
         <v>45139</v>
       </c>
@@ -6792,7 +6872,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A10" s="54">
         <v>45137</v>
       </c>
@@ -6828,7 +6908,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
         <v>45137</v>
       </c>
@@ -6864,7 +6944,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
         <v>45137</v>
       </c>
@@ -6900,7 +6980,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
         <v>45127</v>
       </c>
@@ -6936,7 +7016,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="54">
         <v>45127</v>
       </c>
@@ -6972,7 +7052,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="54">
         <v>45127</v>
       </c>
@@ -7008,7 +7088,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="54">
         <v>45127</v>
       </c>
@@ -7044,7 +7124,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="54">
         <v>45127</v>
       </c>
@@ -7080,7 +7160,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="54">
         <v>45127</v>
       </c>
@@ -7116,7 +7196,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="54">
         <v>45127</v>
       </c>
@@ -7152,7 +7232,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="54">
         <v>45127</v>
       </c>
@@ -7188,7 +7268,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="54">
         <v>45127</v>
       </c>
@@ -7224,7 +7304,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="54">
         <v>45117</v>
       </c>
@@ -7260,7 +7340,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="54">
         <v>45110</v>
       </c>
@@ -7296,7 +7376,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="54">
         <v>45097</v>
       </c>
@@ -7332,7 +7412,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" s="54">
         <v>45090</v>
       </c>
@@ -7368,7 +7448,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" s="54">
         <v>45083</v>
       </c>
@@ -7404,7 +7484,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="54">
         <v>45079</v>
       </c>
@@ -7440,7 +7520,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="54">
         <v>45078</v>
       </c>
@@ -7476,7 +7556,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="54">
         <v>45078</v>
       </c>
@@ -7512,7 +7592,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="54">
         <v>45076</v>
       </c>
@@ -7548,7 +7628,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" s="54">
         <v>45062</v>
       </c>
@@ -7584,7 +7664,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" s="54">
         <v>45051</v>
       </c>
@@ -7620,7 +7700,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" s="54">
         <v>45044</v>
       </c>
@@ -7656,7 +7736,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" s="54">
         <v>45042</v>
       </c>
@@ -7692,7 +7772,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" s="54">
         <v>45042</v>
       </c>
@@ -7728,7 +7808,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" s="54">
         <v>45026</v>
       </c>
@@ -7764,7 +7844,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" s="54">
         <v>45019</v>
       </c>
@@ -7800,7 +7880,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" s="54">
         <v>45006</v>
       </c>
@@ -7836,7 +7916,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" s="54">
         <v>44984</v>
       </c>
@@ -7872,7 +7952,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" s="54">
         <v>44956</v>
       </c>
@@ -7908,7 +7988,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" s="54">
         <v>44950</v>
       </c>
@@ -7944,7 +8024,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11">
       <c r="A42" s="54">
         <v>44945</v>
       </c>
@@ -7980,7 +8060,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" s="54">
         <v>44943</v>
       </c>
@@ -8016,7 +8096,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" s="54">
         <v>44937</v>
       </c>
@@ -8052,7 +8132,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" s="54">
         <v>44937</v>
       </c>
@@ -8095,7 +8175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8103,22 +8183,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -8153,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
         <v>44908</v>
       </c>
@@ -8189,7 +8269,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
         <v>44877</v>
       </c>
@@ -8225,7 +8305,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
         <v>44866</v>
       </c>
@@ -8261,7 +8341,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
         <v>44861</v>
       </c>
@@ -8297,7 +8377,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>44813</v>
       </c>
@@ -8333,7 +8413,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>44785</v>
       </c>
@@ -8369,7 +8449,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="54">
         <v>44772</v>
       </c>
@@ -8405,7 +8485,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A9" s="54">
         <v>44734</v>
       </c>
@@ -8441,7 +8521,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A10" s="54">
         <v>44687</v>
       </c>
@@ -8477,7 +8557,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
         <v>44652</v>
       </c>
@@ -8513,7 +8593,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
         <v>44645</v>
       </c>
@@ -8549,7 +8629,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
         <v>44641</v>
       </c>
@@ -8585,7 +8665,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="54">
         <v>44582</v>
       </c>
@@ -8621,7 +8701,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="54">
         <v>44574</v>
       </c>
@@ -8657,7 +8737,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="54">
         <v>44571</v>
       </c>
@@ -8700,7 +8780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8708,22 +8788,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -8758,7 +8838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
         <v>44516</v>
       </c>
@@ -8794,7 +8874,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
         <v>44504</v>
       </c>
@@ -8830,7 +8910,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
         <v>44474</v>
       </c>
@@ -8866,7 +8946,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
         <v>44471</v>
       </c>
@@ -8902,7 +8982,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>44468</v>
       </c>
@@ -8938,7 +9018,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>44460</v>
       </c>
@@ -8974,7 +9054,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="54">
         <v>44404</v>
       </c>
@@ -9010,7 +9090,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A9" s="54">
         <v>44355</v>
       </c>
@@ -9046,7 +9126,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A10" s="54">
         <v>44344</v>
       </c>
@@ -9082,7 +9162,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
         <v>44319</v>
       </c>
@@ -9118,7 +9198,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
         <v>44316</v>
       </c>
@@ -9154,7 +9234,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
         <v>44308</v>
       </c>
@@ -9190,7 +9270,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="54">
         <v>44306</v>
       </c>
@@ -9226,7 +9306,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="54">
         <v>44274</v>
       </c>
@@ -9262,7 +9342,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="54">
         <v>44256</v>
       </c>
@@ -9298,7 +9378,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="54">
         <v>44251</v>
       </c>
@@ -9334,7 +9414,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="54">
         <v>44250</v>
       </c>
@@ -9370,7 +9450,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="54">
         <v>44235</v>
       </c>
@@ -9406,7 +9486,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="54">
         <v>44229</v>
       </c>
@@ -9442,7 +9522,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="54">
         <v>44218</v>
       </c>
@@ -9478,7 +9558,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="54">
         <v>44202</v>
       </c>
@@ -9521,7 +9601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9529,22 +9609,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="24" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="137.81640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="137.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="24" customWidth="1"/>
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -9579,7 +9659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
         <v>44179</v>
       </c>
@@ -9615,7 +9695,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
         <v>44172</v>
       </c>
@@ -9651,7 +9731,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
         <v>44130</v>
       </c>
@@ -9687,7 +9767,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
         <v>44123</v>
       </c>
@@ -9723,7 +9803,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>44099</v>
       </c>
@@ -9759,7 +9839,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>44097</v>
       </c>
@@ -9795,7 +9875,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="54">
         <v>44097</v>
       </c>
@@ -9831,7 +9911,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A9" s="54">
         <v>44096</v>
       </c>
@@ -9867,7 +9947,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A10" s="54">
         <v>44095</v>
       </c>
@@ -9903,7 +9983,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
         <v>44092</v>
       </c>
@@ -9939,7 +10019,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
         <v>44092</v>
       </c>
@@ -9975,7 +10055,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
         <v>44092</v>
       </c>
@@ -10011,7 +10091,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="54">
         <v>44090</v>
       </c>
@@ -10047,7 +10127,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="54">
         <v>44088</v>
       </c>
@@ -10083,7 +10163,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="54">
         <v>44082</v>
       </c>
@@ -10119,7 +10199,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="54">
         <v>44076</v>
       </c>
@@ -10155,7 +10235,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="54">
         <v>44050</v>
       </c>
@@ -10191,7 +10271,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="54">
         <v>44050</v>
       </c>
@@ -10227,7 +10307,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="54">
         <v>44042</v>
       </c>
@@ -10263,7 +10343,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="54">
         <v>44039</v>
       </c>
@@ -10299,7 +10379,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="54">
         <v>44039</v>
       </c>
@@ -10335,7 +10415,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="54">
         <v>44036</v>
       </c>
@@ -10371,7 +10451,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="54">
         <v>44035</v>
       </c>
@@ -10407,7 +10487,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" s="54">
         <v>44035</v>
       </c>
@@ -10443,7 +10523,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" s="54">
         <v>44035</v>
       </c>
@@ -10479,7 +10559,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" s="54">
         <v>44033</v>
       </c>
@@ -10515,7 +10595,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="54">
         <v>44028</v>
       </c>
@@ -10551,7 +10631,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="54">
         <v>44014</v>
       </c>
@@ -10587,7 +10667,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="54">
         <v>44014</v>
       </c>
@@ -10623,7 +10703,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" s="54">
         <v>44011</v>
       </c>
@@ -10659,7 +10739,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" s="54">
         <v>44008</v>
       </c>
@@ -10695,7 +10775,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" s="54">
         <v>44008</v>
       </c>
@@ -10731,7 +10811,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" s="54">
         <v>44007</v>
       </c>
@@ -10767,7 +10847,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" s="54">
         <v>43998</v>
       </c>
@@ -10803,7 +10883,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" s="54">
         <v>43997</v>
       </c>
@@ -10839,7 +10919,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" s="54">
         <v>43997</v>
       </c>
@@ -10875,7 +10955,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" s="54">
         <v>43994</v>
       </c>
@@ -10911,7 +10991,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" s="54">
         <v>43991</v>
       </c>
@@ -10947,7 +11027,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" s="54">
         <v>43986</v>
       </c>
@@ -10983,7 +11063,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" s="54">
         <v>43983</v>
       </c>
@@ -11019,7 +11099,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11">
       <c r="A42" s="54">
         <v>43974</v>
       </c>
@@ -11055,7 +11135,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" s="54">
         <v>43973</v>
       </c>
@@ -11091,7 +11171,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" s="54">
         <v>43973</v>
       </c>
@@ -11127,7 +11207,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" s="54">
         <v>43971</v>
       </c>
@@ -11163,7 +11243,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11">
       <c r="A46" s="54">
         <v>43969</v>
       </c>
@@ -11199,7 +11279,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11">
       <c r="A47" s="54">
         <v>43966</v>
       </c>
@@ -11235,7 +11315,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" s="54">
         <v>43965</v>
       </c>
@@ -11271,7 +11351,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11">
       <c r="A49" s="54">
         <v>43962</v>
       </c>
@@ -11307,7 +11387,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11">
       <c r="A50" s="54">
         <v>43951</v>
       </c>
@@ -11343,7 +11423,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11">
       <c r="A51" s="54">
         <v>43949</v>
       </c>
@@ -11379,7 +11459,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11">
       <c r="A52" s="54">
         <v>43948</v>
       </c>
@@ -11415,7 +11495,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11">
       <c r="A53" s="54">
         <v>43948</v>
       </c>
@@ -11451,7 +11531,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11">
       <c r="A54" s="54">
         <v>43948</v>
       </c>
@@ -11487,7 +11567,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11">
       <c r="A55" s="54">
         <v>43948</v>
       </c>
@@ -11523,7 +11603,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11">
       <c r="A56" s="54">
         <v>43945</v>
       </c>
@@ -11559,7 +11639,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11">
       <c r="A57" s="54">
         <v>43945</v>
       </c>
@@ -11595,7 +11675,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11">
       <c r="A58" s="54">
         <v>43945</v>
       </c>
@@ -11631,7 +11711,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11">
       <c r="A59" s="54">
         <v>43945</v>
       </c>
@@ -11667,7 +11747,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11">
       <c r="A60" s="54">
         <v>43944</v>
       </c>
@@ -11703,7 +11783,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11">
       <c r="A61" s="54">
         <v>43941</v>
       </c>
@@ -11739,7 +11819,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11">
       <c r="A62" s="54">
         <v>43938</v>
       </c>
@@ -11775,7 +11855,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11">
       <c r="A63" s="54">
         <v>43938</v>
       </c>
@@ -11811,7 +11891,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11">
       <c r="A64" s="54">
         <v>43938</v>
       </c>
@@ -11847,7 +11927,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11">
       <c r="A65" s="54">
         <v>43936</v>
       </c>
@@ -11883,7 +11963,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11">
       <c r="A66" s="54">
         <v>43936</v>
       </c>
@@ -11919,7 +11999,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11">
       <c r="A67" s="54">
         <v>43936</v>
       </c>
@@ -11955,7 +12035,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11">
       <c r="A68" s="54">
         <v>43935</v>
       </c>
@@ -11991,7 +12071,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11">
       <c r="A69" s="54">
         <v>43935</v>
       </c>
@@ -12027,7 +12107,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11">
       <c r="A70" s="54">
         <v>43935</v>
       </c>
@@ -12063,7 +12143,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11">
       <c r="A71" s="54">
         <v>43935</v>
       </c>
@@ -12099,7 +12179,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11">
       <c r="A72" s="54">
         <v>43934</v>
       </c>
@@ -12135,7 +12215,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11">
       <c r="A73" s="54">
         <v>43931</v>
       </c>
@@ -12171,7 +12251,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11">
       <c r="A74" s="54">
         <v>43929</v>
       </c>
@@ -12207,7 +12287,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11">
       <c r="A75" s="54">
         <v>43929</v>
       </c>
@@ -12243,7 +12323,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11">
       <c r="A76" s="54">
         <v>43928</v>
       </c>
@@ -12279,7 +12359,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11">
       <c r="A77" s="54">
         <v>43928</v>
       </c>
@@ -12315,7 +12395,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11">
       <c r="A78" s="54">
         <v>43927</v>
       </c>
@@ -12351,7 +12431,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11">
       <c r="A79" s="54">
         <v>43927</v>
       </c>
@@ -12387,7 +12467,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11">
       <c r="A80" s="54">
         <v>43927</v>
       </c>
@@ -12423,7 +12503,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11">
       <c r="A81" s="54">
         <v>43927</v>
       </c>
@@ -12459,7 +12539,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11">
       <c r="A82" s="54">
         <v>43927</v>
       </c>
@@ -12495,7 +12575,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11">
       <c r="A83" s="54">
         <v>43927</v>
       </c>
@@ -12531,7 +12611,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11">
       <c r="A84" s="54">
         <v>43927</v>
       </c>
@@ -12567,7 +12647,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11">
       <c r="A85" s="54">
         <v>43927</v>
       </c>
@@ -12603,7 +12683,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11">
       <c r="A86" s="54">
         <v>43927</v>
       </c>
@@ -12639,7 +12719,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11">
       <c r="A87" s="54">
         <v>43927</v>
       </c>
@@ -12675,7 +12755,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11">
       <c r="A88" s="54">
         <v>43927</v>
       </c>
@@ -12711,7 +12791,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11">
       <c r="A89" s="54">
         <v>43927</v>
       </c>
@@ -12747,7 +12827,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11">
       <c r="A90" s="54">
         <v>43924</v>
       </c>
@@ -12783,7 +12863,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11">
       <c r="A91" s="54">
         <v>43923</v>
       </c>
@@ -12819,7 +12899,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11">
       <c r="A92" s="54">
         <v>43923</v>
       </c>
@@ -12855,7 +12935,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11">
       <c r="A93" s="54">
         <v>43923</v>
       </c>
@@ -12891,7 +12971,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11">
       <c r="A94" s="54">
         <v>43922</v>
       </c>
@@ -12927,7 +13007,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11">
       <c r="A95" s="54">
         <v>43922</v>
       </c>
@@ -12963,7 +13043,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11">
       <c r="A96" s="54">
         <v>43922</v>
       </c>
@@ -12999,7 +13079,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11">
       <c r="A97" s="54">
         <v>43922</v>
       </c>
@@ -13035,7 +13115,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11">
       <c r="A98" s="54">
         <v>43922</v>
       </c>
@@ -13071,7 +13151,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11">
       <c r="A99" s="54">
         <v>43922</v>
       </c>
@@ -13107,7 +13187,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11">
       <c r="A100" s="54">
         <v>43922</v>
       </c>
@@ -13143,7 +13223,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11">
       <c r="A101" s="54">
         <v>43922</v>
       </c>
@@ -13179,7 +13259,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11">
       <c r="A102" s="54">
         <v>43922</v>
       </c>
@@ -13215,7 +13295,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11">
       <c r="A103" s="54">
         <v>43922</v>
       </c>
@@ -13251,7 +13331,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11">
       <c r="A104" s="54">
         <v>43921</v>
       </c>
@@ -13287,7 +13367,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11">
       <c r="A105" s="54">
         <v>43921</v>
       </c>
@@ -13323,7 +13403,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11">
       <c r="A106" s="54">
         <v>43921</v>
       </c>
@@ -13359,7 +13439,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11">
       <c r="A107" s="54">
         <v>43921</v>
       </c>
@@ -13395,7 +13475,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11">
       <c r="A108" s="54">
         <v>43920</v>
       </c>
@@ -13431,7 +13511,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11">
       <c r="A109" s="54">
         <v>43920</v>
       </c>
@@ -13467,7 +13547,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11">
       <c r="A110" s="54">
         <v>43914</v>
       </c>
@@ -13503,7 +13583,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11">
       <c r="A111" s="54">
         <v>43913</v>
       </c>
@@ -13539,7 +13619,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11">
       <c r="A112" s="54">
         <v>43910</v>
       </c>
@@ -13575,7 +13655,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11">
       <c r="A113" s="54">
         <v>43909</v>
       </c>
@@ -13611,7 +13691,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11">
       <c r="A114" s="54">
         <v>43900</v>
       </c>
@@ -13647,7 +13727,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11">
       <c r="A115" s="54">
         <v>43886</v>
       </c>
@@ -13683,7 +13763,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11">
       <c r="A116" s="54">
         <v>43882</v>
       </c>
@@ -13719,7 +13799,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11">
       <c r="A117" s="54">
         <v>43875</v>
       </c>
@@ -13755,7 +13835,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11">
       <c r="A118" s="54">
         <v>43866</v>
       </c>
@@ -13791,7 +13871,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11">
       <c r="A119" s="54">
         <v>43861</v>
       </c>
@@ -13827,7 +13907,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11">
       <c r="A120" s="54">
         <v>43858</v>
       </c>
@@ -13863,7 +13943,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11">
       <c r="A121" s="54">
         <v>43853</v>
       </c>
@@ -13899,7 +13979,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11">
       <c r="A122" s="54">
         <v>43846</v>
       </c>
@@ -13935,7 +14015,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11">
       <c r="A123" s="54">
         <v>43845</v>
       </c>
@@ -13971,7 +14051,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11">
       <c r="A124" s="54">
         <v>43845</v>
       </c>
@@ -14007,7 +14087,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11">
       <c r="A125" s="54">
         <v>43843</v>
       </c>
@@ -14050,7 +14130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14058,23 +14138,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="21.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="60.1796875" style="51" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="47" customWidth="1"/>
     <col min="8" max="8" width="16" style="48" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="47" customWidth="1"/>
     <col min="10" max="10" width="90" style="47" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" style="47" customWidth="1"/>
-    <col min="12" max="16384" width="9.453125" style="47"/>
+    <col min="11" max="11" width="16.7109375" style="47" customWidth="1"/>
+    <col min="12" max="16384" width="9.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21.2" customHeight="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -14109,7 +14189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
         <v>43825</v>
       </c>
@@ -14145,7 +14225,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
         <v>43818</v>
       </c>
@@ -14181,7 +14261,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
         <v>43808</v>
       </c>
@@ -14217,7 +14297,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
         <v>43788</v>
       </c>
@@ -14253,7 +14333,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
         <v>43784</v>
       </c>
@@ -14289,7 +14369,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A7" s="54">
         <v>43781</v>
       </c>
@@ -14325,7 +14405,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
       <c r="A8" s="1">
         <v>43773</v>
       </c>
@@ -14361,7 +14441,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
       <c r="A9" s="1">
         <v>43773</v>
       </c>
@@ -14397,7 +14477,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
       <c r="A10" s="1">
         <v>43773</v>
       </c>
@@ -14433,7 +14513,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
         <v>43773</v>
       </c>
@@ -14469,7 +14549,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
         <v>43773</v>
       </c>
@@ -14505,7 +14585,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="21.2" customHeight="1">
       <c r="A13" s="1">
         <v>43767</v>
       </c>
@@ -14541,7 +14621,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="21.2" customHeight="1">
       <c r="A14" s="1">
         <v>43720</v>
       </c>
@@ -14577,7 +14657,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="21.2" customHeight="1">
       <c r="A15" s="1">
         <v>43713</v>
       </c>
@@ -14613,7 +14693,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="21.2" customHeight="1">
       <c r="A16" s="1">
         <v>43711</v>
       </c>
@@ -14649,7 +14729,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="21.2" customHeight="1">
       <c r="A17" s="1">
         <v>43699</v>
       </c>
@@ -14685,7 +14765,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="21.2" customHeight="1">
       <c r="A18" s="1">
         <v>43678</v>
       </c>
@@ -14721,7 +14801,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="21.2" customHeight="1">
       <c r="A19" s="1">
         <v>43676</v>
       </c>
@@ -14757,7 +14837,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="21.2" customHeight="1">
       <c r="A20" s="1">
         <v>43668</v>
       </c>
@@ -14793,7 +14873,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="21.2" customHeight="1">
       <c r="A21" s="48">
         <v>43647</v>
       </c>
@@ -14828,7 +14908,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="21.2" customHeight="1">
       <c r="A22" s="48">
         <v>43637</v>
       </c>
@@ -14864,7 +14944,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="21.2" customHeight="1">
       <c r="A23" s="48">
         <v>43635</v>
       </c>
@@ -14900,7 +14980,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="21.2" customHeight="1">
       <c r="A24" s="48">
         <v>43615</v>
       </c>
@@ -14936,7 +15016,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="21.2" customHeight="1">
       <c r="A25" s="48">
         <v>43615</v>
       </c>
@@ -14972,7 +15052,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="21.2" customHeight="1">
       <c r="A26" s="48">
         <v>43607</v>
       </c>
@@ -15008,7 +15088,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="21.2" customHeight="1">
       <c r="A27" s="48">
         <v>43591</v>
       </c>
@@ -15044,7 +15124,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="21.2" customHeight="1">
       <c r="A28" s="48">
         <v>43586</v>
       </c>
@@ -15080,7 +15160,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="21.2" customHeight="1">
       <c r="A29" s="48">
         <v>43578</v>
       </c>
@@ -15116,7 +15196,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="21.2" customHeight="1">
       <c r="A30" s="48">
         <v>43560</v>
       </c>
@@ -15152,7 +15232,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="21.2" customHeight="1">
       <c r="A31" s="48">
         <v>43551</v>
       </c>
@@ -15188,7 +15268,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="21.2" customHeight="1">
       <c r="A32" s="48">
         <v>43546</v>
       </c>
@@ -15224,7 +15304,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="21.2" customHeight="1">
       <c r="A33" s="48">
         <v>43536</v>
       </c>
@@ -15260,7 +15340,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="21.2" customHeight="1">
       <c r="A34" s="48">
         <v>43536</v>
       </c>
@@ -15296,7 +15376,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="21.2" customHeight="1">
       <c r="A35" s="48">
         <v>43521</v>
       </c>
@@ -15332,7 +15412,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="21.2" customHeight="1">
       <c r="A36" s="48">
         <v>43517</v>
       </c>
@@ -15368,7 +15448,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="15">
       <c r="A37">
         <v>43490</v>
       </c>
@@ -15402,8 +15482,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="J15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="K21" r:id="rId1"/>
+    <hyperlink ref="J15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" r:id="rId3"/>
@@ -15411,7 +15491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15419,22 +15499,22 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="15" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="0.54296875" style="28" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="8.54296875" style="15"/>
+    <col min="1" max="1" width="18.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="15" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="28" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="20" customWidth="1"/>
+    <col min="12" max="16384" width="8.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="42" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -15469,7 +15549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A2" s="1">
         <v>43447</v>
       </c>
@@ -15505,7 +15585,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" customFormat="1" ht="30">
       <c r="A3" s="1">
         <v>43446</v>
       </c>
@@ -15541,7 +15621,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" customFormat="1" ht="15">
       <c r="A4" s="1">
         <v>43434</v>
       </c>
@@ -15577,7 +15657,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.35" customHeight="1">
       <c r="A5" s="1">
         <v>43431</v>
       </c>
@@ -15613,7 +15693,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A6" s="1">
         <v>43404</v>
       </c>
@@ -15649,7 +15729,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="30">
       <c r="A7" s="1">
         <v>43403</v>
       </c>
@@ -15685,7 +15765,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="30">
       <c r="A8" s="1">
         <v>43403</v>
       </c>
@@ -15721,7 +15801,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="30">
       <c r="A9" s="1">
         <v>43399</v>
       </c>
@@ -15758,7 +15838,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="1">
         <v>43399</v>
       </c>
@@ -15795,7 +15875,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="1">
         <v>43389</v>
       </c>
@@ -15832,7 +15912,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="1">
         <v>43374</v>
       </c>
@@ -15869,7 +15949,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="1">
         <v>43370</v>
       </c>
@@ -15906,7 +15986,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>43370</v>
       </c>
@@ -15943,7 +16023,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="1">
         <v>43370</v>
       </c>
@@ -15980,7 +16060,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="1">
         <v>43332</v>
       </c>
@@ -16017,7 +16097,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="1">
         <v>43307</v>
       </c>
@@ -16054,7 +16134,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="1">
         <v>43299</v>
       </c>
@@ -16091,7 +16171,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="1">
         <v>43293</v>
       </c>
@@ -16127,7 +16207,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="1">
         <v>43293</v>
       </c>
@@ -16163,7 +16243,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="1">
         <v>43293</v>
       </c>
@@ -16199,7 +16279,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="23.25" customHeight="1">
       <c r="A22" s="1">
         <v>43293</v>
       </c>
@@ -16235,7 +16315,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="1">
         <v>43286</v>
       </c>
@@ -16271,7 +16351,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="1">
         <v>43284</v>
       </c>
@@ -16307,7 +16387,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="1">
         <v>43283</v>
       </c>
@@ -16343,7 +16423,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="1">
         <v>43282</v>
       </c>
@@ -16379,7 +16459,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="1">
         <v>43265</v>
       </c>
@@ -16415,7 +16495,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="24" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="1">
         <v>43256</v>
       </c>
@@ -16451,7 +16531,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="1">
         <v>43251</v>
       </c>
@@ -16487,7 +16567,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="1">
         <v>43241</v>
       </c>
@@ -16523,7 +16603,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="1">
         <v>43221</v>
       </c>
@@ -16559,7 +16639,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="1">
         <v>43160</v>
       </c>
@@ -16595,7 +16675,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="1">
         <v>43154</v>
       </c>
@@ -16631,7 +16711,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="1">
         <v>43143</v>
       </c>
@@ -16667,7 +16747,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="1">
         <v>43118</v>
       </c>
@@ -16703,7 +16783,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="1">
         <v>43111</v>
       </c>
@@ -16739,7 +16819,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="1">
         <v>43109</v>
       </c>
@@ -16786,28 +16866,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.453125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="76.453125" style="7" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" style="1"/>
-    <col min="12" max="16384" width="8.54296875" style="7"/>
+    <col min="2" max="2" width="19.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1"/>
+    <col min="12" max="16384" width="8.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16842,7 +16922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>43087</v>
       </c>
@@ -16878,7 +16958,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="1">
         <v>43087</v>
       </c>
@@ -16914,7 +16994,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="30">
       <c r="A4" s="8">
         <v>43082</v>
       </c>
@@ -16950,7 +17030,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="8" customFormat="1">
       <c r="A5" s="1">
         <v>43046</v>
       </c>
@@ -16986,7 +17066,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="A6" s="8">
         <v>43039</v>
       </c>
@@ -17022,7 +17102,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="1">
         <v>43038</v>
       </c>
@@ -17058,7 +17138,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="8">
         <v>43019</v>
       </c>
@@ -17094,7 +17174,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" s="40" customFormat="1" ht="30">
       <c r="A9" s="8">
         <v>43019</v>
       </c>
@@ -17130,7 +17210,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="30">
       <c r="A10" s="8">
         <v>42964</v>
       </c>
@@ -17166,7 +17246,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="8" customFormat="1">
       <c r="A11" s="8">
         <v>42949</v>
       </c>
@@ -17202,7 +17282,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="8" customFormat="1">
       <c r="A12" s="8">
         <v>42934</v>
       </c>
@@ -17238,7 +17318,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="30">
       <c r="A13" s="8">
         <v>42934</v>
       </c>
@@ -17274,7 +17354,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="1" customFormat="1">
       <c r="A14" s="8">
         <v>42926</v>
       </c>
@@ -17310,7 +17390,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="42" customFormat="1">
       <c r="A15" s="1">
         <v>42914</v>
       </c>
@@ -17346,7 +17426,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="42" customFormat="1" ht="30">
       <c r="A16" s="8">
         <v>42879</v>
       </c>
@@ -17382,7 +17462,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="34" customFormat="1">
       <c r="A17" s="1">
         <v>42860</v>
       </c>
@@ -17418,7 +17498,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="30">
       <c r="A18" s="1">
         <v>42852</v>
       </c>
@@ -17454,7 +17534,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="42" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="42" customFormat="1" ht="30">
       <c r="A19" s="1">
         <v>42845</v>
       </c>
@@ -17490,7 +17570,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="30">
       <c r="A20" s="1">
         <v>42832</v>
       </c>
@@ -17526,7 +17606,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="8">
         <v>42832</v>
       </c>
@@ -17562,7 +17642,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>42829</v>
       </c>
@@ -17598,7 +17678,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="30">
       <c r="A23" s="1">
         <v>42829</v>
       </c>
@@ -17634,7 +17714,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="1">
         <v>42829</v>
       </c>
@@ -17670,7 +17750,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="1">
         <v>42828</v>
       </c>
@@ -17706,7 +17786,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="1">
         <v>42828</v>
       </c>
@@ -17742,7 +17822,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="1">
         <v>42804</v>
       </c>
@@ -17778,7 +17858,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>42779</v>
       </c>
@@ -17814,7 +17894,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>42779</v>
       </c>
@@ -17850,7 +17930,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>42766</v>
       </c>
@@ -17886,7 +17966,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="30">
       <c r="A31" s="1">
         <v>42760</v>
       </c>
@@ -17923,15 +18003,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K30" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:K30"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18075,15 +18158,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13E0E9A-C18E-421E-A118-3CE9CD01316F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BEB26DE-B3FC-45A8-BF93-B326AF5FAB7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -18096,16 +18188,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65995922-1142-450A-99AE-15E7D9920236}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndsprdugvimgstg\AppData\Local\Temp\00Dt00000004X3hEAE\005eq00000IJgZ4AAL\e41f0d99-140e-40c0-b7f5-4f32935e580e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndsprdugvimgstg\AppData\Local\Temp\00Dt00000004X3hEAE\005eq00000IJgZ4AAL\380f4d3e-a531-46ae-8051-98828a66b7fa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="836">
   <si>
     <t>Date Received</t>
   </si>
@@ -2342,6 +2342,12 @@
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
   </si>
   <si>
+    <t>Kentucky Cooperage</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000FFs13/XZKdKlPnTEgMrjo.02XpzEi1qh9oGcQaEs_Qde2_VQs</t>
+  </si>
+  <si>
     <t>AHF Products Manufacturing</t>
   </si>
   <si>
@@ -2351,7 +2357,7 @@
     <t>Russellville Engineered Casting</t>
   </si>
   <si>
-    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000F27b3/1_MkkcthKxlbiFWQL.wyv3bsvQ_y.wnfBVF7yNonP6Q</t>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000FFi9l/61uQ9INOfuIWYlwIZ8JoXsBiJs4Dko6LjCcyAAfQ5GY</t>
   </si>
   <si>
     <t>CVS MED CARE PHARMACY LLC</t>
@@ -3158,7 +3164,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3214,13 +3220,13 @@
     </row>
     <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A2" s="54">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>232</v>
+        <v>435</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>764</v>
@@ -3229,13 +3235,13 @@
         <v>321920</v>
       </c>
       <c r="F2" s="55">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="54">
-        <v>46003</v>
+        <v>45949</v>
       </c>
       <c r="I2" s="55" t="s">
         <v>12</v>
@@ -3250,67 +3256,67 @@
     </row>
     <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A3" s="54">
-        <v>45884</v>
+        <v>45889</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>641</v>
+        <v>232</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>766</v>
       </c>
       <c r="E3" s="55">
-        <v>331523</v>
+        <v>321920</v>
       </c>
       <c r="F3" s="55">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>45891</v>
+        <v>46003</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
         <v>767</v>
       </c>
       <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K41" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <f t="shared" ref="K3:K42" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A4" s="54">
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>221</v>
+        <v>641</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>768</v>
       </c>
       <c r="E4" s="55">
-        <v>456110</v>
+        <v>331523</v>
       </c>
       <c r="F4" s="55">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="54">
-        <v>45941</v>
+        <v>45891</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>769</v>
@@ -3322,28 +3328,28 @@
     </row>
     <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A5" s="54">
-        <v>45869</v>
+        <v>45876</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>770</v>
       </c>
       <c r="E5" s="55">
-        <v>541715</v>
+        <v>456110</v>
       </c>
       <c r="F5" s="55">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="54">
-        <v>45930</v>
+        <v>45941</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>13</v>
@@ -3358,28 +3364,28 @@
     </row>
     <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A6" s="54">
-        <v>45848</v>
+        <v>45869</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>772</v>
       </c>
       <c r="E6" s="55">
-        <v>561612</v>
+        <v>541715</v>
       </c>
       <c r="F6" s="55">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="54">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>13</v>
@@ -3409,7 +3415,7 @@
         <v>561612</v>
       </c>
       <c r="F7" s="55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>16</v>
@@ -3439,13 +3445,13 @@
         <v>221</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E8" s="55">
         <v>561612</v>
       </c>
       <c r="F8" s="55">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>16</v>
@@ -3457,7 +3463,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3475,13 +3481,13 @@
         <v>221</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E9" s="55">
         <v>561612</v>
       </c>
       <c r="F9" s="55">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>16</v>
@@ -3493,7 +3499,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="53" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K9" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3505,25 +3511,25 @@
         <v>45848</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E10" s="55">
-        <v>561422</v>
+        <v>561612</v>
       </c>
       <c r="F10" s="55">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="54">
-        <v>45910</v>
+        <v>45869</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
@@ -3538,34 +3544,34 @@
     </row>
     <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A11" s="54">
-        <v>45839</v>
+        <v>45848</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>687</v>
+        <v>780</v>
       </c>
       <c r="E11" s="55">
-        <v>541330</v>
+        <v>561422</v>
       </c>
       <c r="F11" s="55">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="54">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="53" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3574,28 +3580,28 @@
     </row>
     <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A12" s="54">
-        <v>45824</v>
+        <v>45839</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>781</v>
+        <v>687</v>
       </c>
       <c r="E12" s="55">
-        <v>33993</v>
+        <v>541330</v>
       </c>
       <c r="F12" s="55">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45887</v>
+        <v>45904</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3610,28 +3616,28 @@
     </row>
     <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
       <c r="A13" s="54">
-        <v>45813</v>
+        <v>45824</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>783</v>
       </c>
       <c r="E13" s="55">
-        <v>811111</v>
+        <v>33993</v>
       </c>
       <c r="F13" s="55">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="54">
-        <v>45871</v>
+        <v>45887</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -3652,16 +3658,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>785</v>
       </c>
       <c r="E14" s="55">
-        <v>541330</v>
+        <v>811111</v>
       </c>
       <c r="F14" s="55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>11</v>
@@ -3688,16 +3694,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>787</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>788</v>
-      </c>
       <c r="E15" s="55">
-        <v>811111</v>
+        <v>541330</v>
       </c>
       <c r="F15" s="55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3709,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3718,28 +3724,28 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="54">
-        <v>45800</v>
+        <v>45813</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>128</v>
+        <v>789</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>790</v>
       </c>
       <c r="E16" s="55">
-        <v>551114</v>
+        <v>811111</v>
       </c>
       <c r="F16" s="55">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="54">
-        <v>45930</v>
+        <v>45871</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="54">
-        <v>45782</v>
+        <v>45800</v>
       </c>
       <c r="B17" s="55" t="s">
         <v>108</v>
@@ -3766,16 +3772,16 @@
         <v>792</v>
       </c>
       <c r="E17" s="55">
-        <v>49311</v>
+        <v>551114</v>
       </c>
       <c r="F17" s="55">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H17" s="54">
-        <v>45839</v>
+        <v>45930</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
@@ -3805,7 +3811,7 @@
         <v>49311</v>
       </c>
       <c r="F18" s="55">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>16</v>
@@ -3841,7 +3847,7 @@
         <v>49311</v>
       </c>
       <c r="F19" s="55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>16</v>
@@ -3877,13 +3883,13 @@
         <v>49311</v>
       </c>
       <c r="F20" s="55">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3898,7 +3904,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>108</v>
@@ -3910,16 +3916,16 @@
         <v>800</v>
       </c>
       <c r="E21" s="55">
-        <v>336411</v>
+        <v>49311</v>
       </c>
       <c r="F21" s="55">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" s="54">
-        <v>45838</v>
+        <v>45870</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -3934,22 +3940,22 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="54">
-        <v>45768</v>
+        <v>45779</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>687</v>
+        <v>802</v>
       </c>
       <c r="E22" s="55">
-        <v>541330</v>
+        <v>336411</v>
       </c>
       <c r="F22" s="55">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>11</v>
@@ -3961,7 +3967,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K22" s="57" t="str">
         <f t="shared" si="0"/>
@@ -3970,28 +3976,28 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="54">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="E23" s="55">
-        <v>424410</v>
+        <v>541330</v>
       </c>
       <c r="F23" s="55">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="54">
-        <v>45762</v>
+        <v>45838</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -4009,28 +4015,28 @@
         <v>45762</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>805</v>
       </c>
       <c r="E24" s="55">
-        <v>3254</v>
+        <v>424410</v>
       </c>
       <c r="F24" s="55">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="54">
-        <v>45840</v>
+        <v>45762</v>
       </c>
       <c r="I24" s="55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" s="53" t="s">
         <v>806</v>
@@ -4042,34 +4048,34 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="54">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>675</v>
+        <v>807</v>
       </c>
       <c r="E25" s="55">
-        <v>51</v>
+        <v>3254</v>
       </c>
       <c r="F25" s="55">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="54">
-        <v>45800</v>
+        <v>45840</v>
       </c>
       <c r="I25" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="K25" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4078,28 +4084,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>808</v>
+        <v>675</v>
       </c>
       <c r="E26" s="55">
-        <v>541715</v>
+        <v>51</v>
       </c>
       <c r="F26" s="55">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="54">
-        <v>45737</v>
+        <v>45800</v>
       </c>
       <c r="I26" s="55" t="s">
         <v>13</v>
@@ -4126,10 +4132,10 @@
         <v>810</v>
       </c>
       <c r="E27" s="55">
-        <v>325211</v>
+        <v>541715</v>
       </c>
       <c r="F27" s="55">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>11</v>
@@ -4150,34 +4156,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>687</v>
+        <v>812</v>
       </c>
       <c r="E28" s="55">
-        <v>541330</v>
+        <v>325211</v>
       </c>
       <c r="F28" s="55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I28" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4186,7 +4192,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>40</v>
@@ -4195,25 +4201,25 @@
         <v>239</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>770</v>
+        <v>687</v>
       </c>
       <c r="E29" s="55">
-        <v>541715</v>
+        <v>541330</v>
       </c>
       <c r="F29" s="55">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4222,7 +4228,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>40</v>
@@ -4231,25 +4237,25 @@
         <v>239</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E30" s="55">
         <v>541715</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>10</v>
+      <c r="F30" s="55">
+        <v>245</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="K30" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4258,28 +4264,28 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="54">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
       <c r="E31" s="55">
-        <v>326211</v>
-      </c>
-      <c r="F31" s="55">
-        <v>250</v>
+        <v>541715</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45807</v>
+        <v>45771</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4294,31 +4300,31 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>817</v>
       </c>
       <c r="E32" s="55">
-        <v>312140</v>
+        <v>326211</v>
       </c>
       <c r="F32" s="55">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G32" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="54">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" s="53" t="s">
         <v>818</v>
@@ -4330,34 +4336,34 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="54">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>675</v>
+        <v>819</v>
       </c>
       <c r="E33" s="55">
-        <v>51</v>
+        <v>312140</v>
       </c>
       <c r="F33" s="55">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="G33" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="54">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="I33" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="K33" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4366,34 +4372,34 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E34" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F34" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I34" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="K34" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4402,7 +4408,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>40</v>
@@ -4411,13 +4417,13 @@
         <v>239</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E35" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F35" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>11</v>
@@ -4429,7 +4435,7 @@
         <v>13</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="K35" s="57" t="str">
         <f t="shared" si="0"/>
@@ -4441,28 +4447,28 @@
         <v>45679</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>822</v>
+        <v>687</v>
       </c>
       <c r="E36" s="55">
-        <v>312140</v>
+        <v>541330</v>
       </c>
       <c r="F36" s="55">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="54">
-        <v>45772</v>
+        <v>45743</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J36" s="53" t="s">
         <v>823</v>
@@ -4474,28 +4480,28 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="54">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>824</v>
       </c>
       <c r="E37" s="55">
-        <v>326220</v>
+        <v>312140</v>
       </c>
       <c r="F37" s="55">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H37" s="54">
-        <v>45744</v>
+        <v>45772</v>
       </c>
       <c r="I37" s="55" t="s">
         <v>10</v>
@@ -4510,31 +4516,31 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="54">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>826</v>
       </c>
       <c r="E38" s="55">
-        <v>524210</v>
+        <v>326220</v>
       </c>
       <c r="F38" s="55">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="54">
-        <v>45707</v>
+        <v>45744</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J38" s="53" t="s">
         <v>827</v>
@@ -4549,28 +4555,28 @@
         <v>45671</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>828</v>
       </c>
       <c r="E39" s="55">
-        <v>484220</v>
+        <v>524210</v>
       </c>
       <c r="F39" s="55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H39" s="54">
-        <v>45688</v>
+        <v>45707</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J39" s="53" t="s">
         <v>829</v>
@@ -4597,7 +4603,7 @@
         <v>484220</v>
       </c>
       <c r="F40" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G40" s="55" t="s">
         <v>11</v>
@@ -4618,36 +4624,72 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="54">
-        <v>45660</v>
+        <v>45671</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>832</v>
       </c>
       <c r="E41" s="55">
-        <v>492110</v>
+        <v>484220</v>
       </c>
       <c r="F41" s="55">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="54">
-        <v>45719</v>
+        <v>45688</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J41" s="53" t="s">
         <v>833</v>
       </c>
       <c r="K41" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="54">
+        <v>45660</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>834</v>
+      </c>
+      <c r="E42" s="55">
+        <v>492110</v>
+      </c>
+      <c r="F42" s="55">
+        <v>122</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="54">
+        <v>45719</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>835</v>
+      </c>
+      <c r="K42" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -18172,7 +18214,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13E0E9A-C18E-421E-A118-3CE9CD01316F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E46588A-AC73-459A-9529-7F858312BEA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndsprdugvimgstg\AppData\Local\Temp\00Dt00000004X3hEAE\005eq00000IJgZ4AAL\380f4d3e-a531-46ae-8051-98828a66b7fa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Jobs\Brett's Jobs\Kentucky Career Center\WARN NOTICES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23E7ABD-A8CA-4DD2-ADBB-1FB517083565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="10" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2025'!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,6 +42,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="837">
   <si>
     <t>Date Received</t>
   </si>
@@ -2340,6 +2344,9 @@
   </si>
   <si>
     <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/8y0000059JY9/.N6HoGkECR.LWLyKrovcNZspopu8ARwkYUFsIi3u3Aw</t>
+  </si>
+  <si>
+    <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000GL1eD/2ODCtUzQn93Szd2x5sMDA4vYra.JHZJKDsfcCGc7r60</t>
   </si>
   <si>
     <t>Kentucky Cooperage</t>
@@ -2561,7 +2568,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3160,15 +3167,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
@@ -3183,7 +3190,7 @@
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3218,223 +3225,223 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
-        <v>45890</v>
+        <v>45916</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>435</v>
+        <v>236</v>
       </c>
       <c r="D2" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="55">
+        <v>337215</v>
+      </c>
+      <c r="F2" s="55">
+        <v>100</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="54">
+        <v>45971</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>764</v>
-      </c>
-      <c r="E2" s="55">
-        <v>321920</v>
-      </c>
-      <c r="F2" s="55">
-        <v>112</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="54">
-        <v>45949</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>765</v>
       </c>
       <c r="K2" s="57" t="str">
         <f>IF(ISBLANK(J2),"",HYPERLINK(J2,"WARN"))</f>
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>232</v>
+        <v>435</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E3" s="55">
         <v>321920</v>
       </c>
       <c r="F3" s="55">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="54">
-        <v>46003</v>
+        <v>45949</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="K3" s="57" t="str">
+        <f t="shared" ref="K3:K43" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>45889</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>767</v>
       </c>
-      <c r="K3" s="57" t="str">
-        <f t="shared" ref="K3:K42" si="0">IF(ISBLANK(J3),"",HYPERLINK(J3,"WARN"))</f>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
-      <c r="A4" s="54">
+      <c r="E4" s="55">
+        <v>321920</v>
+      </c>
+      <c r="F4" s="55">
+        <v>134</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="54">
+        <v>46003</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>768</v>
+      </c>
+      <c r="K4" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
         <v>45884</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C5" s="55" t="s">
         <v>641</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>768</v>
-      </c>
-      <c r="E4" s="55">
+      <c r="D5" s="55" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="55">
         <v>331523</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F5" s="55">
         <v>102</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="54">
+      <c r="G5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="54">
         <v>45891</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="53" t="s">
-        <v>769</v>
-      </c>
-      <c r="K4" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
-      <c r="A5" s="54">
+      <c r="J5" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="K5" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
         <v>45876</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C6" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>770</v>
-      </c>
-      <c r="E5" s="55">
+      <c r="D6" s="55" t="s">
+        <v>771</v>
+      </c>
+      <c r="E6" s="55">
         <v>456110</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F6" s="55">
         <v>77</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="54">
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="54">
         <v>45941</v>
       </c>
-      <c r="I5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>771</v>
-      </c>
-      <c r="K5" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
-      <c r="A6" s="54">
+      <c r="I6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="K6" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
         <v>45869</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B7" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C7" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>772</v>
-      </c>
-      <c r="E6" s="55">
+      <c r="D7" s="55" t="s">
+        <v>773</v>
+      </c>
+      <c r="E7" s="55">
         <v>541715</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F7" s="55">
         <v>61</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="54">
+      <c r="G7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="54">
         <v>45930</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>773</v>
-      </c>
-      <c r="K6" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
-      <c r="A7" s="54">
-        <v>45848</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="I7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>774</v>
       </c>
-      <c r="E7" s="55">
-        <v>561612</v>
-      </c>
-      <c r="F7" s="55">
-        <v>9</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="54">
-        <v>45869</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>775</v>
-      </c>
       <c r="K7" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>45848</v>
       </c>
@@ -3445,13 +3452,13 @@
         <v>221</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E8" s="55">
         <v>561612</v>
       </c>
       <c r="F8" s="55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G8" s="55" t="s">
         <v>16</v>
@@ -3463,14 +3470,14 @@
         <v>13</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K8" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>45848</v>
       </c>
@@ -3481,13 +3488,13 @@
         <v>221</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E9" s="55">
         <v>561612</v>
       </c>
       <c r="F9" s="55">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>16</v>
@@ -3506,7 +3513,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>45848</v>
       </c>
@@ -3517,13 +3524,13 @@
         <v>221</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E10" s="55">
         <v>561612</v>
       </c>
       <c r="F10" s="55">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>16</v>
@@ -3542,66 +3549,66 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>45848</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D11" s="55" t="s">
+        <v>775</v>
+      </c>
+      <c r="E11" s="55">
+        <v>561612</v>
+      </c>
+      <c r="F11" s="55">
+        <v>22</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45869</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="53" t="s">
         <v>780</v>
       </c>
-      <c r="E11" s="55">
-        <v>561422</v>
-      </c>
-      <c r="F11" s="55">
-        <v>342</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="54">
-        <v>45910</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>781</v>
-      </c>
       <c r="K11" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
-        <v>45839</v>
+        <v>45848</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>687</v>
+        <v>781</v>
       </c>
       <c r="E12" s="55">
-        <v>541330</v>
+        <v>561422</v>
       </c>
       <c r="F12" s="55">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="54">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -3614,79 +3621,79 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
+        <v>45839</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E13" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F13" s="55">
+        <v>21</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="54">
+        <v>45904</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>783</v>
+      </c>
+      <c r="K13" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <v>45824</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C14" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>783</v>
-      </c>
-      <c r="E13" s="55">
+      <c r="D14" s="55" t="s">
+        <v>784</v>
+      </c>
+      <c r="E14" s="55">
         <v>33993</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F14" s="55">
         <v>346</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="54">
+      <c r="G14" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="54">
         <v>45887</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>784</v>
-      </c>
-      <c r="K13" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="54">
-        <v>45813</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="55" t="s">
+      <c r="I14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>785</v>
       </c>
-      <c r="E14" s="55">
-        <v>811111</v>
-      </c>
-      <c r="F14" s="55">
-        <v>20</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="54">
-        <v>45871</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="53" t="s">
-        <v>786</v>
-      </c>
       <c r="K14" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>45813</v>
       </c>
@@ -3694,16 +3701,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E15" s="55">
-        <v>541330</v>
+        <v>811111</v>
       </c>
       <c r="F15" s="55">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>11</v>
@@ -3715,14 +3722,14 @@
         <v>13</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K15" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>45813</v>
       </c>
@@ -3730,16 +3737,16 @@
         <v>14</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>789</v>
+        <v>247</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E16" s="55">
-        <v>811111</v>
+        <v>541330</v>
       </c>
       <c r="F16" s="55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>11</v>
@@ -3751,52 +3758,52 @@
         <v>13</v>
       </c>
       <c r="J16" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="K16" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <v>45813</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="K16" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="54">
+      <c r="E17" s="55">
+        <v>811111</v>
+      </c>
+      <c r="F17" s="55">
+        <v>8</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="54">
+        <v>45871</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="K17" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
         <v>45800</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>792</v>
-      </c>
-      <c r="E17" s="55">
-        <v>551114</v>
-      </c>
-      <c r="F17" s="55">
-        <v>91</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="54">
-        <v>45930</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>793</v>
-      </c>
-      <c r="K17" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="54">
-        <v>45782</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>108</v>
@@ -3805,32 +3812,32 @@
         <v>128</v>
       </c>
       <c r="D18" s="55" t="s">
+        <v>793</v>
+      </c>
+      <c r="E18" s="55">
+        <v>551114</v>
+      </c>
+      <c r="F18" s="55">
+        <v>91</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="54">
+        <v>45930</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="53" t="s">
         <v>794</v>
       </c>
-      <c r="E18" s="55">
-        <v>49311</v>
-      </c>
-      <c r="F18" s="55">
-        <v>75</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="54">
-        <v>45839</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>795</v>
-      </c>
       <c r="K18" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>45782</v>
       </c>
@@ -3841,13 +3848,13 @@
         <v>128</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E19" s="55">
         <v>49311</v>
       </c>
       <c r="F19" s="55">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>16</v>
@@ -3859,14 +3866,14 @@
         <v>13</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="K19" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>45782</v>
       </c>
@@ -3877,13 +3884,13 @@
         <v>128</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E20" s="55">
         <v>49311</v>
       </c>
       <c r="F20" s="55">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>16</v>
@@ -3895,14 +3902,14 @@
         <v>13</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K20" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>45782</v>
       </c>
@@ -3913,34 +3920,34 @@
         <v>128</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E21" s="55">
         <v>49311</v>
       </c>
       <c r="F21" s="55">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="54">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K21" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B22" s="55" t="s">
         <v>108</v>
@@ -3949,49 +3956,49 @@
         <v>128</v>
       </c>
       <c r="D22" s="55" t="s">
+        <v>801</v>
+      </c>
+      <c r="E22" s="55">
+        <v>49311</v>
+      </c>
+      <c r="F22" s="55">
+        <v>41</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="54">
+        <v>45870</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>802</v>
       </c>
-      <c r="E22" s="55">
+      <c r="K22" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
+        <v>45779</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="E23" s="55">
         <v>336411</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F23" s="55">
         <v>64</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="54">
-        <v>45838</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>803</v>
-      </c>
-      <c r="K22" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="54">
-        <v>45768</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>687</v>
-      </c>
-      <c r="E23" s="55">
-        <v>541330</v>
-      </c>
-      <c r="F23" s="55">
-        <v>18</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>11</v>
@@ -4010,105 +4017,105 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D24" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E24" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F24" s="55">
+        <v>18</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="54">
+        <v>45838</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>805</v>
       </c>
-      <c r="E24" s="55">
-        <v>424410</v>
-      </c>
-      <c r="F24" s="55">
-        <v>115</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="54">
-        <v>45762</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>806</v>
-      </c>
       <c r="K24" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>45762</v>
       </c>
       <c r="B25" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>806</v>
+      </c>
+      <c r="E25" s="55">
+        <v>424410</v>
+      </c>
+      <c r="F25" s="55">
+        <v>115</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="54">
+        <v>45762</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>807</v>
+      </c>
+      <c r="K25" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="54">
+        <v>45762</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C26" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>807</v>
-      </c>
-      <c r="E25" s="55">
+      <c r="D26" s="55" t="s">
+        <v>808</v>
+      </c>
+      <c r="E26" s="55">
         <v>3254</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F26" s="55">
         <v>46</v>
       </c>
-      <c r="G25" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="54">
+      <c r="G26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="54">
         <v>45840</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I26" s="55" t="s">
         <v>12</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>808</v>
-      </c>
-      <c r="K25" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="54">
-        <v>45758</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>675</v>
-      </c>
-      <c r="E26" s="55">
-        <v>51</v>
-      </c>
-      <c r="F26" s="55">
-        <v>84</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="54">
-        <v>45800</v>
-      </c>
-      <c r="I26" s="55" t="s">
-        <v>13</v>
       </c>
       <c r="J26" s="53" t="s">
         <v>809</v>
@@ -4118,43 +4125,43 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
-        <v>45734</v>
+        <v>45758</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D27" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E27" s="55">
+        <v>51</v>
+      </c>
+      <c r="F27" s="55">
+        <v>84</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="54">
+        <v>45800</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="53" t="s">
         <v>810</v>
       </c>
-      <c r="E27" s="55">
-        <v>541715</v>
-      </c>
-      <c r="F27" s="55">
-        <v>70</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="54">
-        <v>45737</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>811</v>
-      </c>
       <c r="K27" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>45734</v>
       </c>
@@ -4165,13 +4172,13 @@
         <v>227</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E28" s="55">
-        <v>325211</v>
+        <v>541715</v>
       </c>
       <c r="F28" s="55">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>11</v>
@@ -4183,37 +4190,37 @@
         <v>13</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K28" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
-        <v>45719</v>
+        <v>45734</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>687</v>
+        <v>813</v>
       </c>
       <c r="E29" s="55">
-        <v>541330</v>
+        <v>325211</v>
       </c>
       <c r="F29" s="55">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="54">
-        <v>45792</v>
+        <v>45737</v>
       </c>
       <c r="I29" s="55" t="s">
         <v>13</v>
@@ -4226,9 +4233,9 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>40</v>
@@ -4237,19 +4244,19 @@
         <v>239</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>772</v>
+        <v>687</v>
       </c>
       <c r="E30" s="55">
-        <v>541715</v>
+        <v>541330</v>
       </c>
       <c r="F30" s="55">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G30" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="54">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="I30" s="55" t="s">
         <v>13</v>
@@ -4262,9 +4269,9 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>40</v>
@@ -4273,19 +4280,19 @@
         <v>239</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E31" s="55">
         <v>541715</v>
       </c>
-      <c r="F31" s="55" t="s">
-        <v>10</v>
+      <c r="F31" s="55">
+        <v>245</v>
       </c>
       <c r="G31" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="54">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="I31" s="55" t="s">
         <v>13</v>
@@ -4298,105 +4305,105 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>773</v>
+      </c>
+      <c r="E32" s="55">
+        <v>541715</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="54">
+        <v>45771</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>817</v>
+      </c>
+      <c r="K32" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="54">
+        <v>45707</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>817</v>
-      </c>
-      <c r="E32" s="55">
+      <c r="D33" s="55" t="s">
+        <v>818</v>
+      </c>
+      <c r="E33" s="55">
         <v>326211</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F33" s="55">
         <v>250</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="54">
+      <c r="G33" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="54">
         <v>45807</v>
       </c>
-      <c r="I32" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="53" t="s">
-        <v>818</v>
-      </c>
-      <c r="K32" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="54">
+      <c r="I33" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>819</v>
+      </c>
+      <c r="K33" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="54">
         <v>45688</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B34" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C34" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>819</v>
-      </c>
-      <c r="E33" s="55">
+      <c r="D34" s="55" t="s">
+        <v>820</v>
+      </c>
+      <c r="E34" s="55">
         <v>312140</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F34" s="55">
         <v>57</v>
       </c>
-      <c r="G33" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="54">
+      <c r="G34" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="54">
         <v>45777</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I34" s="55" t="s">
         <v>10</v>
-      </c>
-      <c r="J33" s="53" t="s">
-        <v>820</v>
-      </c>
-      <c r="K33" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="54">
-        <v>45687</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>675</v>
-      </c>
-      <c r="E34" s="55">
-        <v>51</v>
-      </c>
-      <c r="F34" s="55">
-        <v>107</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="54">
-        <v>45747</v>
-      </c>
-      <c r="I34" s="55" t="s">
-        <v>12</v>
       </c>
       <c r="J34" s="53" t="s">
         <v>821</v>
@@ -4406,33 +4413,33 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E35" s="55">
-        <v>562910</v>
+        <v>51</v>
       </c>
       <c r="F35" s="55">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="54">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="53" t="s">
         <v>822</v>
@@ -4442,9 +4449,9 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>40</v>
@@ -4453,13 +4460,13 @@
         <v>239</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E36" s="55">
-        <v>541330</v>
+        <v>562910</v>
       </c>
       <c r="F36" s="55">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>11</v>
@@ -4478,151 +4485,151 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>45679</v>
       </c>
       <c r="B37" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="E37" s="55">
+        <v>541330</v>
+      </c>
+      <c r="F37" s="55">
+        <v>55</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="54">
+        <v>45743</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>824</v>
+      </c>
+      <c r="K37" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="54">
+        <v>45679</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C38" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="55" t="s">
-        <v>824</v>
-      </c>
-      <c r="E37" s="55">
+      <c r="D38" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="E38" s="55">
         <v>312140</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F38" s="55">
         <v>210</v>
       </c>
-      <c r="G37" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="54">
+      <c r="G38" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="54">
         <v>45772</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="53" t="s">
-        <v>825</v>
-      </c>
-      <c r="K37" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="54">
-        <v>45674</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>826</v>
-      </c>
-      <c r="E38" s="55">
-        <v>326220</v>
-      </c>
-      <c r="F38" s="55">
-        <v>65</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="54">
-        <v>45744</v>
       </c>
       <c r="I38" s="55" t="s">
         <v>10</v>
       </c>
       <c r="J38" s="53" t="s">
+        <v>826</v>
+      </c>
+      <c r="K38" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="54">
+        <v>45674</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="55" t="s">
         <v>827</v>
       </c>
-      <c r="K38" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="54">
-        <v>45671</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="55" t="s">
+      <c r="E39" s="55">
+        <v>326220</v>
+      </c>
+      <c r="F39" s="55">
+        <v>65</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="54">
+        <v>45744</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="53" t="s">
         <v>828</v>
       </c>
-      <c r="E39" s="55">
-        <v>524210</v>
-      </c>
-      <c r="F39" s="55">
-        <v>2</v>
-      </c>
-      <c r="G39" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="54">
-        <v>45707</v>
-      </c>
-      <c r="I39" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="53" t="s">
-        <v>829</v>
-      </c>
       <c r="K39" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>45671</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="D40" s="55" t="s">
+        <v>829</v>
+      </c>
+      <c r="E40" s="55">
+        <v>524210</v>
+      </c>
+      <c r="F40" s="55">
+        <v>2</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="54">
+        <v>45707</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="53" t="s">
         <v>830</v>
       </c>
-      <c r="E40" s="55">
-        <v>484220</v>
-      </c>
-      <c r="F40" s="55">
-        <v>100</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="54">
-        <v>45688</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>831</v>
-      </c>
       <c r="K40" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>45671</v>
       </c>
@@ -4633,13 +4640,13 @@
         <v>128</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E41" s="55">
         <v>484220</v>
       </c>
       <c r="F41" s="55">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>11</v>
@@ -4651,45 +4658,81 @@
         <v>10</v>
       </c>
       <c r="J41" s="53" t="s">
+        <v>832</v>
+      </c>
+      <c r="K41" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
+        <v>45671</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="55" t="s">
         <v>833</v>
       </c>
-      <c r="K41" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>WARN</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="54">
+      <c r="E42" s="55">
+        <v>484220</v>
+      </c>
+      <c r="F42" s="55">
+        <v>89</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="54">
+        <v>45688</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>834</v>
+      </c>
+      <c r="K42" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>WARN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="54">
         <v>45660</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B43" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C43" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D42" s="55" t="s">
-        <v>834</v>
-      </c>
-      <c r="E42" s="55">
+      <c r="D43" s="55" t="s">
+        <v>835</v>
+      </c>
+      <c r="E43" s="55">
         <v>492110</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F43" s="55">
         <v>122</v>
       </c>
-      <c r="G42" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="54">
+      <c r="G43" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="54">
         <v>45719</v>
       </c>
-      <c r="I42" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="53" t="s">
-        <v>835</v>
-      </c>
-      <c r="K42" s="57" t="str">
+      <c r="I43" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>836</v>
+      </c>
+      <c r="K43" s="57" t="str">
         <f t="shared" si="0"/>
         <v>WARN</v>
       </c>
@@ -4701,7 +4744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4711,7 +4754,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
@@ -4726,7 +4769,7 @@
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>45649</v>
       </c>
@@ -4797,7 +4840,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>45646</v>
       </c>
@@ -4833,7 +4876,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>45637</v>
       </c>
@@ -4869,7 +4912,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>45614</v>
       </c>
@@ -4905,7 +4948,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>45611</v>
       </c>
@@ -4941,7 +4984,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>45611</v>
       </c>
@@ -4977,7 +5020,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>45607</v>
       </c>
@@ -5013,7 +5056,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>45600</v>
       </c>
@@ -5049,7 +5092,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>45600</v>
       </c>
@@ -5085,7 +5128,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>45590</v>
       </c>
@@ -5121,7 +5164,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>45580</v>
       </c>
@@ -5157,7 +5200,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>45575</v>
       </c>
@@ -5193,7 +5236,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>45566</v>
       </c>
@@ -5229,7 +5272,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>45566</v>
       </c>
@@ -5265,7 +5308,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>45565</v>
       </c>
@@ -5301,7 +5344,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>45558</v>
       </c>
@@ -5337,7 +5380,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>45517</v>
       </c>
@@ -5373,7 +5416,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>45490</v>
       </c>
@@ -5409,7 +5452,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>45483</v>
       </c>
@@ -5445,7 +5488,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>45481</v>
       </c>
@@ -5481,7 +5524,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>45463</v>
       </c>
@@ -5517,7 +5560,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>45448</v>
       </c>
@@ -5553,7 +5596,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>45442</v>
       </c>
@@ -5589,7 +5632,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>45441</v>
       </c>
@@ -5625,7 +5668,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>45441</v>
       </c>
@@ -5661,7 +5704,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>45441</v>
       </c>
@@ -5697,7 +5740,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>45441</v>
       </c>
@@ -5733,7 +5776,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>45441</v>
       </c>
@@ -5769,7 +5812,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>45441</v>
       </c>
@@ -5805,7 +5848,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>45399</v>
       </c>
@@ -5841,7 +5884,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>45391</v>
       </c>
@@ -5877,7 +5920,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>45390</v>
       </c>
@@ -5913,7 +5956,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>45378</v>
       </c>
@@ -5949,7 +5992,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>45363</v>
       </c>
@@ -5985,7 +6028,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>45357</v>
       </c>
@@ -6021,7 +6064,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>45352</v>
       </c>
@@ -6057,7 +6100,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>45348</v>
       </c>
@@ -6093,7 +6136,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>45320</v>
       </c>
@@ -6129,7 +6172,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>45315</v>
       </c>
@@ -6165,7 +6208,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>45302</v>
       </c>
@@ -6201,7 +6244,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>45301</v>
       </c>
@@ -6237,7 +6280,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>45299</v>
       </c>
@@ -6273,7 +6316,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>45299</v>
       </c>
@@ -6309,7 +6352,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>45299</v>
       </c>
@@ -6345,7 +6388,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>45299</v>
       </c>
@@ -6381,7 +6424,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>45295</v>
       </c>
@@ -6417,7 +6460,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>45295</v>
       </c>
@@ -6453,7 +6496,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>45295</v>
       </c>
@@ -6489,7 +6532,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>45295</v>
       </c>
@@ -6525,7 +6568,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>45293</v>
       </c>
@@ -6568,7 +6611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6576,7 +6619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
@@ -6591,7 +6634,7 @@
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>45273</v>
       </c>
@@ -6662,7 +6705,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>45266</v>
       </c>
@@ -6698,7 +6741,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>45261</v>
       </c>
@@ -6734,7 +6777,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>45222</v>
       </c>
@@ -6770,7 +6813,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>45191</v>
       </c>
@@ -6806,7 +6849,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>45167</v>
       </c>
@@ -6842,7 +6885,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>45159</v>
       </c>
@@ -6878,7 +6921,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>45139</v>
       </c>
@@ -6914,7 +6957,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>45137</v>
       </c>
@@ -6950,7 +6993,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>45137</v>
       </c>
@@ -6986,7 +7029,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>45137</v>
       </c>
@@ -7022,7 +7065,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>45127</v>
       </c>
@@ -7058,7 +7101,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>45127</v>
       </c>
@@ -7094,7 +7137,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>45127</v>
       </c>
@@ -7130,7 +7173,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>45127</v>
       </c>
@@ -7166,7 +7209,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>45127</v>
       </c>
@@ -7202,7 +7245,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>45127</v>
       </c>
@@ -7238,7 +7281,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>45127</v>
       </c>
@@ -7274,7 +7317,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>45127</v>
       </c>
@@ -7310,7 +7353,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>45127</v>
       </c>
@@ -7346,7 +7389,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>45117</v>
       </c>
@@ -7382,7 +7425,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>45110</v>
       </c>
@@ -7418,7 +7461,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>45097</v>
       </c>
@@ -7454,7 +7497,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>45090</v>
       </c>
@@ -7490,7 +7533,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>45083</v>
       </c>
@@ -7526,7 +7569,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>45079</v>
       </c>
@@ -7562,7 +7605,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>45078</v>
       </c>
@@ -7598,7 +7641,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>45078</v>
       </c>
@@ -7634,7 +7677,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>45076</v>
       </c>
@@ -7670,7 +7713,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>45062</v>
       </c>
@@ -7706,7 +7749,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>45051</v>
       </c>
@@ -7742,7 +7785,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>45044</v>
       </c>
@@ -7778,7 +7821,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>45042</v>
       </c>
@@ -7814,7 +7857,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>45042</v>
       </c>
@@ -7850,7 +7893,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>45026</v>
       </c>
@@ -7886,7 +7929,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>45019</v>
       </c>
@@ -7922,7 +7965,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>45006</v>
       </c>
@@ -7958,7 +8001,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>44984</v>
       </c>
@@ -7994,7 +8037,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>44956</v>
       </c>
@@ -8030,7 +8073,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>44950</v>
       </c>
@@ -8066,7 +8109,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>44945</v>
       </c>
@@ -8102,7 +8145,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>44943</v>
       </c>
@@ -8138,7 +8181,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>44937</v>
       </c>
@@ -8174,7 +8217,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>44937</v>
       </c>
@@ -8217,7 +8260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8225,7 +8268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
@@ -8240,7 +8283,7 @@
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -8275,7 +8318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>44908</v>
       </c>
@@ -8311,7 +8354,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>44877</v>
       </c>
@@ -8347,7 +8390,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>44866</v>
       </c>
@@ -8383,7 +8426,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>44861</v>
       </c>
@@ -8419,7 +8462,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>44813</v>
       </c>
@@ -8455,7 +8498,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>44785</v>
       </c>
@@ -8491,7 +8534,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>44772</v>
       </c>
@@ -8527,7 +8570,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>44734</v>
       </c>
@@ -8563,7 +8606,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>44687</v>
       </c>
@@ -8599,7 +8642,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>44652</v>
       </c>
@@ -8635,7 +8678,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>44645</v>
       </c>
@@ -8671,7 +8714,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>44641</v>
       </c>
@@ -8707,7 +8750,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>44582</v>
       </c>
@@ -8743,7 +8786,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>44574</v>
       </c>
@@ -8779,7 +8822,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>44571</v>
       </c>
@@ -8822,7 +8865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8830,7 +8873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
@@ -8845,7 +8888,7 @@
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -8880,7 +8923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>44516</v>
       </c>
@@ -8916,7 +8959,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>44504</v>
       </c>
@@ -8952,7 +8995,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>44474</v>
       </c>
@@ -8988,7 +9031,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>44471</v>
       </c>
@@ -9024,7 +9067,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>44468</v>
       </c>
@@ -9060,7 +9103,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>44460</v>
       </c>
@@ -9096,7 +9139,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>44404</v>
       </c>
@@ -9132,7 +9175,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>44355</v>
       </c>
@@ -9168,7 +9211,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>44344</v>
       </c>
@@ -9204,7 +9247,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>44319</v>
       </c>
@@ -9240,7 +9283,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>44316</v>
       </c>
@@ -9276,7 +9319,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>44308</v>
       </c>
@@ -9312,7 +9355,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>44306</v>
       </c>
@@ -9348,7 +9391,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>44274</v>
       </c>
@@ -9384,7 +9427,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>44256</v>
       </c>
@@ -9420,7 +9463,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>44251</v>
       </c>
@@ -9456,7 +9499,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>44250</v>
       </c>
@@ -9492,7 +9535,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>44235</v>
       </c>
@@ -9528,7 +9571,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>44229</v>
       </c>
@@ -9564,7 +9607,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>44218</v>
       </c>
@@ -9600,7 +9643,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>44202</v>
       </c>
@@ -9643,7 +9686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9651,7 +9694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="24" customWidth="1"/>
@@ -9666,7 +9709,7 @@
     <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>44179</v>
       </c>
@@ -9737,7 +9780,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>44172</v>
       </c>
@@ -9773,7 +9816,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>44130</v>
       </c>
@@ -9809,7 +9852,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>44123</v>
       </c>
@@ -9845,7 +9888,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>44099</v>
       </c>
@@ -9881,7 +9924,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>44097</v>
       </c>
@@ -9917,7 +9960,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>44097</v>
       </c>
@@ -9953,7 +9996,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>44096</v>
       </c>
@@ -9989,7 +10032,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>44095</v>
       </c>
@@ -10025,7 +10068,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>44092</v>
       </c>
@@ -10061,7 +10104,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>44092</v>
       </c>
@@ -10097,7 +10140,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>44092</v>
       </c>
@@ -10133,7 +10176,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>44090</v>
       </c>
@@ -10169,7 +10212,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>44088</v>
       </c>
@@ -10205,7 +10248,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>44082</v>
       </c>
@@ -10241,7 +10284,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>44076</v>
       </c>
@@ -10277,7 +10320,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>44050</v>
       </c>
@@ -10313,7 +10356,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>44050</v>
       </c>
@@ -10349,7 +10392,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>44042</v>
       </c>
@@ -10385,7 +10428,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>44039</v>
       </c>
@@ -10421,7 +10464,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>44039</v>
       </c>
@@ -10457,7 +10500,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>44036</v>
       </c>
@@ -10493,7 +10536,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>44035</v>
       </c>
@@ -10529,7 +10572,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>44035</v>
       </c>
@@ -10565,7 +10608,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>44035</v>
       </c>
@@ -10601,7 +10644,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>44033</v>
       </c>
@@ -10637,7 +10680,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>44028</v>
       </c>
@@ -10673,7 +10716,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>44014</v>
       </c>
@@ -10709,7 +10752,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>44014</v>
       </c>
@@ -10745,7 +10788,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>44011</v>
       </c>
@@ -10781,7 +10824,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>44008</v>
       </c>
@@ -10817,7 +10860,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>44008</v>
       </c>
@@ -10853,7 +10896,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>44007</v>
       </c>
@@ -10889,7 +10932,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>43998</v>
       </c>
@@ -10925,7 +10968,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>43997</v>
       </c>
@@ -10961,7 +11004,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>43997</v>
       </c>
@@ -10997,7 +11040,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>43994</v>
       </c>
@@ -11033,7 +11076,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>43991</v>
       </c>
@@ -11069,7 +11112,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>43986</v>
       </c>
@@ -11105,7 +11148,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>43983</v>
       </c>
@@ -11141,7 +11184,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>43974</v>
       </c>
@@ -11177,7 +11220,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>43973</v>
       </c>
@@ -11213,7 +11256,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>43973</v>
       </c>
@@ -11249,7 +11292,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>43971</v>
       </c>
@@ -11285,7 +11328,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>43969</v>
       </c>
@@ -11321,7 +11364,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>43966</v>
       </c>
@@ -11357,7 +11400,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>43965</v>
       </c>
@@ -11393,7 +11436,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>43962</v>
       </c>
@@ -11429,7 +11472,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>43951</v>
       </c>
@@ -11465,7 +11508,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>43949</v>
       </c>
@@ -11501,7 +11544,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>43948</v>
       </c>
@@ -11537,7 +11580,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>43948</v>
       </c>
@@ -11573,7 +11616,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>43948</v>
       </c>
@@ -11609,7 +11652,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>43948</v>
       </c>
@@ -11645,7 +11688,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>43945</v>
       </c>
@@ -11681,7 +11724,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>43945</v>
       </c>
@@ -11717,7 +11760,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>43945</v>
       </c>
@@ -11753,7 +11796,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>43945</v>
       </c>
@@ -11789,7 +11832,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>43944</v>
       </c>
@@ -11825,7 +11868,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>43941</v>
       </c>
@@ -11861,7 +11904,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>43938</v>
       </c>
@@ -11897,7 +11940,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>43938</v>
       </c>
@@ -11933,7 +11976,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>43938</v>
       </c>
@@ -11969,7 +12012,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>43936</v>
       </c>
@@ -12005,7 +12048,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>43936</v>
       </c>
@@ -12041,7 +12084,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>43936</v>
       </c>
@@ -12077,7 +12120,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>43935</v>
       </c>
@@ -12113,7 +12156,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>43935</v>
       </c>
@@ -12149,7 +12192,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>43935</v>
       </c>
@@ -12185,7 +12228,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>43935</v>
       </c>
@@ -12221,7 +12264,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>43934</v>
       </c>
@@ -12257,7 +12300,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>43931</v>
       </c>
@@ -12293,7 +12336,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>43929</v>
       </c>
@@ -12329,7 +12372,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>43929</v>
       </c>
@@ -12365,7 +12408,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>43928</v>
       </c>
@@ -12401,7 +12444,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>43928</v>
       </c>
@@ -12437,7 +12480,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>43927</v>
       </c>
@@ -12473,7 +12516,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>43927</v>
       </c>
@@ -12509,7 +12552,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>43927</v>
       </c>
@@ -12545,7 +12588,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
         <v>43927</v>
       </c>
@@ -12581,7 +12624,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
         <v>43927</v>
       </c>
@@ -12617,7 +12660,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
         <v>43927</v>
       </c>
@@ -12653,7 +12696,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="54">
         <v>43927</v>
       </c>
@@ -12689,7 +12732,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="54">
         <v>43927</v>
       </c>
@@ -12725,7 +12768,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="54">
         <v>43927</v>
       </c>
@@ -12761,7 +12804,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="54">
         <v>43927</v>
       </c>
@@ -12797,7 +12840,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="54">
         <v>43927</v>
       </c>
@@ -12833,7 +12876,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="54">
         <v>43927</v>
       </c>
@@ -12869,7 +12912,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="54">
         <v>43924</v>
       </c>
@@ -12905,7 +12948,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="54">
         <v>43923</v>
       </c>
@@ -12941,7 +12984,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>43923</v>
       </c>
@@ -12977,7 +13020,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>43923</v>
       </c>
@@ -13013,7 +13056,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>43922</v>
       </c>
@@ -13049,7 +13092,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>43922</v>
       </c>
@@ -13085,7 +13128,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="54">
         <v>43922</v>
       </c>
@@ -13121,7 +13164,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="54">
         <v>43922</v>
       </c>
@@ -13157,7 +13200,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="54">
         <v>43922</v>
       </c>
@@ -13193,7 +13236,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="54">
         <v>43922</v>
       </c>
@@ -13229,7 +13272,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="54">
         <v>43922</v>
       </c>
@@ -13265,7 +13308,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="54">
         <v>43922</v>
       </c>
@@ -13301,7 +13344,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="54">
         <v>43922</v>
       </c>
@@ -13337,7 +13380,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="54">
         <v>43922</v>
       </c>
@@ -13373,7 +13416,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="54">
         <v>43921</v>
       </c>
@@ -13409,7 +13452,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="54">
         <v>43921</v>
       </c>
@@ -13445,7 +13488,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="54">
         <v>43921</v>
       </c>
@@ -13481,7 +13524,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="54">
         <v>43921</v>
       </c>
@@ -13517,7 +13560,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="54">
         <v>43920</v>
       </c>
@@ -13553,7 +13596,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="54">
         <v>43920</v>
       </c>
@@ -13589,7 +13632,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="54">
         <v>43914</v>
       </c>
@@ -13625,7 +13668,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="54">
         <v>43913</v>
       </c>
@@ -13661,7 +13704,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="54">
         <v>43910</v>
       </c>
@@ -13697,7 +13740,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="54">
         <v>43909</v>
       </c>
@@ -13733,7 +13776,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="54">
         <v>43900</v>
       </c>
@@ -13769,7 +13812,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="54">
         <v>43886</v>
       </c>
@@ -13805,7 +13848,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="54">
         <v>43882</v>
       </c>
@@ -13841,7 +13884,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="54">
         <v>43875</v>
       </c>
@@ -13877,7 +13920,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="54">
         <v>43866</v>
       </c>
@@ -13913,7 +13956,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="54">
         <v>43861</v>
       </c>
@@ -13949,7 +13992,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="54">
         <v>43858</v>
       </c>
@@ -13985,7 +14028,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="54">
         <v>43853</v>
       </c>
@@ -14021,7 +14064,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="54">
         <v>43846</v>
       </c>
@@ -14057,7 +14100,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="54">
         <v>43845</v>
       </c>
@@ -14093,7 +14136,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="54">
         <v>43845</v>
       </c>
@@ -14129,7 +14172,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="54">
         <v>43843</v>
       </c>
@@ -14172,7 +14215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14180,7 +14223,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="21.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="21.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="47" customWidth="1"/>
@@ -14196,7 +14239,7 @@
     <col min="12" max="16384" width="9.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.2" customHeight="1">
+    <row r="1" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -14231,7 +14274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>43825</v>
       </c>
@@ -14267,7 +14310,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>43818</v>
       </c>
@@ -14303,7 +14346,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>43808</v>
       </c>
@@ -14339,7 +14382,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="5" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>43788</v>
       </c>
@@ -14375,7 +14418,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="6" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>43784</v>
       </c>
@@ -14411,7 +14454,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>43781</v>
       </c>
@@ -14447,7 +14490,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43773</v>
       </c>
@@ -14483,7 +14526,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43773</v>
       </c>
@@ -14519,7 +14562,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43773</v>
       </c>
@@ -14555,7 +14598,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>43773</v>
       </c>
@@ -14591,7 +14634,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>43773</v>
       </c>
@@ -14627,7 +14670,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.2" customHeight="1">
+    <row r="13" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43767</v>
       </c>
@@ -14663,7 +14706,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.2" customHeight="1">
+    <row r="14" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43720</v>
       </c>
@@ -14699,7 +14742,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21.2" customHeight="1">
+    <row r="15" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43713</v>
       </c>
@@ -14735,7 +14778,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21.2" customHeight="1">
+    <row r="16" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43711</v>
       </c>
@@ -14771,7 +14814,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21.2" customHeight="1">
+    <row r="17" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43699</v>
       </c>
@@ -14807,7 +14850,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21.2" customHeight="1">
+    <row r="18" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43678</v>
       </c>
@@ -14843,7 +14886,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21.2" customHeight="1">
+    <row r="19" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43676</v>
       </c>
@@ -14879,7 +14922,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21.2" customHeight="1">
+    <row r="20" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43668</v>
       </c>
@@ -14915,7 +14958,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21.2" customHeight="1">
+    <row r="21" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48">
         <v>43647</v>
       </c>
@@ -14950,7 +14993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21.2" customHeight="1">
+    <row r="22" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48">
         <v>43637</v>
       </c>
@@ -14986,7 +15029,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21.2" customHeight="1">
+    <row r="23" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48">
         <v>43635</v>
       </c>
@@ -15022,7 +15065,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21.2" customHeight="1">
+    <row r="24" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48">
         <v>43615</v>
       </c>
@@ -15058,7 +15101,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21.2" customHeight="1">
+    <row r="25" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48">
         <v>43615</v>
       </c>
@@ -15094,7 +15137,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21.2" customHeight="1">
+    <row r="26" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48">
         <v>43607</v>
       </c>
@@ -15130,7 +15173,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.2" customHeight="1">
+    <row r="27" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48">
         <v>43591</v>
       </c>
@@ -15166,7 +15209,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21.2" customHeight="1">
+    <row r="28" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48">
         <v>43586</v>
       </c>
@@ -15202,7 +15245,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21.2" customHeight="1">
+    <row r="29" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48">
         <v>43578</v>
       </c>
@@ -15238,7 +15281,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21.2" customHeight="1">
+    <row r="30" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48">
         <v>43560</v>
       </c>
@@ -15274,7 +15317,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21.2" customHeight="1">
+    <row r="31" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48">
         <v>43551</v>
       </c>
@@ -15310,7 +15353,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21.2" customHeight="1">
+    <row r="32" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48">
         <v>43546</v>
       </c>
@@ -15346,7 +15389,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21.2" customHeight="1">
+    <row r="33" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48">
         <v>43536</v>
       </c>
@@ -15382,7 +15425,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="21.2" customHeight="1">
+    <row r="34" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48">
         <v>43536</v>
       </c>
@@ -15418,7 +15461,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21.2" customHeight="1">
+    <row r="35" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48">
         <v>43521</v>
       </c>
@@ -15454,7 +15497,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21.2" customHeight="1">
+    <row r="36" spans="1:11" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48">
         <v>43517</v>
       </c>
@@ -15490,7 +15533,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43490</v>
       </c>
@@ -15524,8 +15567,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K21" r:id="rId1"/>
-    <hyperlink ref="J15" r:id="rId2"/>
+    <hyperlink ref="K21" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" r:id="rId3"/>
@@ -15533,7 +15576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15541,7 +15584,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="27" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="20" customWidth="1"/>
@@ -15556,7 +15599,7 @@
     <col min="12" max="16384" width="8.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -15591,7 +15634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43447</v>
       </c>
@@ -15627,7 +15670,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:12" customFormat="1" ht="30">
+    <row r="3" spans="1:12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43446</v>
       </c>
@@ -15663,7 +15706,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" ht="15">
+    <row r="4" spans="1:12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43434</v>
       </c>
@@ -15699,7 +15742,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.35" customHeight="1">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43431</v>
       </c>
@@ -15735,7 +15778,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="15">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43404</v>
       </c>
@@ -15771,7 +15814,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="30">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43403</v>
       </c>
@@ -15807,7 +15850,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="30">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43403</v>
       </c>
@@ -15843,7 +15886,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="30">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43399</v>
       </c>
@@ -15880,7 +15923,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43399</v>
       </c>
@@ -15917,7 +15960,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43389</v>
       </c>
@@ -15954,7 +15997,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
+    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43374</v>
       </c>
@@ -15991,7 +16034,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43370</v>
       </c>
@@ -16028,7 +16071,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43370</v>
       </c>
@@ -16065,7 +16108,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43370</v>
       </c>
@@ -16102,7 +16145,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="25" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:12" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43332</v>
       </c>
@@ -16139,7 +16182,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43307</v>
       </c>
@@ -16176,7 +16219,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43299</v>
       </c>
@@ -16213,7 +16256,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43293</v>
       </c>
@@ -16249,7 +16292,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43293</v>
       </c>
@@ -16285,7 +16328,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43293</v>
       </c>
@@ -16321,7 +16364,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="23.25" customHeight="1">
+    <row r="22" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43293</v>
       </c>
@@ -16357,7 +16400,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43286</v>
       </c>
@@ -16393,7 +16436,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43284</v>
       </c>
@@ -16429,7 +16472,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43283</v>
       </c>
@@ -16465,7 +16508,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43282</v>
       </c>
@@ -16501,7 +16544,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="24" customHeight="1">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43265</v>
       </c>
@@ -16537,7 +16580,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="24" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:12" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43256</v>
       </c>
@@ -16573,7 +16616,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43251</v>
       </c>
@@ -16609,7 +16652,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43241</v>
       </c>
@@ -16645,7 +16688,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43221</v>
       </c>
@@ -16681,7 +16724,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1">
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43160</v>
       </c>
@@ -16717,7 +16760,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
+    <row r="33" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43154</v>
       </c>
@@ -16753,7 +16796,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43143</v>
       </c>
@@ -16789,7 +16832,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43118</v>
       </c>
@@ -16825,7 +16868,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43111</v>
       </c>
@@ -16861,7 +16904,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:11" s="25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43109</v>
       </c>
@@ -16908,12 +16951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="7" customWidth="1"/>
@@ -16929,7 +16972,7 @@
     <col min="12" max="16384" width="8.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16964,7 +17007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43087</v>
       </c>
@@ -17000,7 +17043,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43087</v>
       </c>
@@ -17036,7 +17079,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="38" customFormat="1" ht="30">
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43082</v>
       </c>
@@ -17072,7 +17115,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43046</v>
       </c>
@@ -17108,7 +17151,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43039</v>
       </c>
@@ -17144,7 +17187,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43038</v>
       </c>
@@ -17180,7 +17223,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43019</v>
       </c>
@@ -17216,7 +17259,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="40" customFormat="1" ht="30">
+    <row r="9" spans="1:11" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43019</v>
       </c>
@@ -17252,7 +17295,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="30">
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42964</v>
       </c>
@@ -17288,7 +17331,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>42949</v>
       </c>
@@ -17324,7 +17367,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>42934</v>
       </c>
@@ -17360,7 +17403,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="30">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>42934</v>
       </c>
@@ -17396,7 +17439,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>42926</v>
       </c>
@@ -17432,7 +17475,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="42" customFormat="1">
+    <row r="15" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42914</v>
       </c>
@@ -17468,7 +17511,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" ht="30">
+    <row r="16" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>42879</v>
       </c>
@@ -17504,7 +17547,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="34" customFormat="1">
+    <row r="17" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42860</v>
       </c>
@@ -17540,7 +17583,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="42" customFormat="1" ht="30">
+    <row r="18" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42852</v>
       </c>
@@ -17576,7 +17619,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="42" customFormat="1" ht="30">
+    <row r="19" spans="1:11" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42845</v>
       </c>
@@ -17612,7 +17655,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" ht="30">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42832</v>
       </c>
@@ -17648,7 +17691,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42832</v>
       </c>
@@ -17684,7 +17727,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42829</v>
       </c>
@@ -17720,7 +17763,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42829</v>
       </c>
@@ -17756,7 +17799,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42829</v>
       </c>
@@ -17792,7 +17835,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42828</v>
       </c>
@@ -17828,7 +17871,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42828</v>
       </c>
@@ -17864,7 +17907,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42804</v>
       </c>
@@ -17900,7 +17943,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42779</v>
       </c>
@@ -17936,7 +17979,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42779</v>
       </c>
@@ -17972,7 +18015,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42766</v>
       </c>
@@ -18008,7 +18051,7 @@
         <v>WARN</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42760</v>
       </c>
@@ -18045,21 +18088,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K30"/>
+  <autoFilter ref="A1:K30" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF0C1C9366252B4C838708442C71C5AA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="623745db76138c409ead4834ced54ea8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="62511544-38af-49c2-8996-37c0f6a636fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a1049adbb8cd97fc988c6af4986c32" ns2:_="">
     <xsd:import namespace="62511544-38af-49c2-8996-37c0f6a636fd"/>
@@ -18199,6 +18233,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18206,15 +18249,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4037B1D-B297-42BD-A7C9-15807A294980}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715615AF-A72B-4F14-880D-3272574D4C6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E46588A-AC73-459A-9529-7F858312BEA0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -390,7 +390,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>As of 2025-10-29 13:07:06 Eastern Standard Time/EST • Generated by Brigette Green • Sorted by Date Received (Descending)</t>
+          <t>As of 2025-11-03 09:22:34 Eastern Standard Time/EST • Generated by Erin White</t>
         </is>
       </c>
       <c r="C3" s="4"/>
@@ -624,7 +624,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="12" t="inlineStr">
         <is>
-          <t>Fritz Winter North America LP</t>
+          <t>Federal Express Corporation</t>
         </is>
       </c>
       <c r="C12" s="12"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="E12" s="12" t="inlineStr">
         <is>
-          <t>Notice 2711</t>
+          <t>Notice 2580</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
@@ -645,35 +645,35 @@
       </c>
       <c r="G12" s="12" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Fayette</t>
         </is>
       </c>
       <c r="H12" s="12" t="inlineStr">
         <is>
-          <t>10/24/2025</t>
+          <t>1/3/2025</t>
         </is>
       </c>
       <c r="I12" s="12" t="inlineStr">
         <is>
-          <t>336390</t>
+          <t>492110</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Hy1ST/4bPnNw3hDRNbrK3RFoHfK4eAO1LyxwwWbtqKDLENS0U</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
         </is>
       </c>
       <c r="K12" s="14" t="n">
-        <v>230.0</v>
+        <v>122.0</v>
       </c>
       <c r="L12" s="12" t="inlineStr">
         <is>
-          <t>3/31/2026</t>
+          <t>3/3/2025</t>
         </is>
       </c>
       <c r="M12" s="12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N12" s="12" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="O12" s="12" t="inlineStr">
         <is>
-          <t>South Central</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P12" s="8"/>
@@ -692,7 +692,7 @@
       <c r="A13" s="7"/>
       <c r="B13" s="12" t="inlineStr">
         <is>
-          <t>ARaymond Tinnerman Manufacturing</t>
+          <t>Get Insured</t>
         </is>
       </c>
       <c r="C13" s="12"/>
@@ -703,55 +703,55 @@
       </c>
       <c r="E13" s="12" t="inlineStr">
         <is>
-          <t>Notice 2709</t>
+          <t>Notice 2583</t>
         </is>
       </c>
       <c r="F13" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G13" s="12" t="inlineStr">
         <is>
-          <t>Fleming</t>
+          <t>Out of the State County</t>
         </is>
       </c>
       <c r="H13" s="12" t="inlineStr">
         <is>
-          <t>10/23/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="I13" s="12" t="inlineStr">
         <is>
-          <t>336370</t>
+          <t>524210</t>
         </is>
       </c>
       <c r="J13" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HqZW9/SNz2Jiy_E5.rfTX50xrRTYLWgnRfTiKdRtg2_AE2A1w</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000059qm5/FHy2CM844OQ8YZu0K8dWuwdWnOIG.IMp0ztN0Q5C4tw</t>
         </is>
       </c>
       <c r="K13" s="14" t="n">
-        <v>112.0</v>
+        <v>2.0</v>
       </c>
       <c r="L13" s="12" t="inlineStr">
         <is>
-          <t>12/31/2026</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="M13" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>TBD</t>
         </is>
       </c>
       <c r="N13" s="12" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O13" s="12" t="inlineStr">
         <is>
-          <t>TENCO</t>
+          <t>Out of State</t>
         </is>
       </c>
       <c r="P13" s="8"/>
@@ -760,7 +760,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="12" t="inlineStr">
         <is>
-          <t>CareAtHome Medical Practice (KY) P.S.C.</t>
+          <t>Jack Cooper Transport (Westport Road Facility)</t>
         </is>
       </c>
       <c r="C14" s="12"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>Notice 2708</t>
+          <t>Notice 2584</t>
         </is>
       </c>
       <c r="F14" s="12" t="inlineStr">
@@ -781,30 +781,30 @@
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
-          <t>Fayette</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H14" s="12" t="inlineStr">
         <is>
-          <t>10/22/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="I14" s="12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>484220</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Hq2AP/Y0rpuv3LB3BixJyj16e1XIVvaE7OWP8OTrNM6seyM8Q</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BhjV/cwcc9u.mTONGnExGB5Cj30qSsAkZbaWFqArLmeY5Ib4</t>
         </is>
       </c>
       <c r="K14" s="14" t="n">
-        <v>163.0</v>
+        <v>100.0</v>
       </c>
       <c r="L14" s="12" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>1/31/2025</t>
         </is>
       </c>
       <c r="M14" s="12" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="N14" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="O14" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P14" s="8"/>
@@ -828,7 +828,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="12" t="inlineStr">
         <is>
-          <t>PARSONS CORPORATION</t>
+          <t>Jack Cooper Transport (Grade Lane Facility)</t>
         </is>
       </c>
       <c r="C15" s="12"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="12" t="inlineStr">
         <is>
-          <t>Notice 2702</t>
+          <t>Notice 2585</t>
         </is>
       </c>
       <c r="F15" s="12" t="inlineStr">
@@ -849,30 +849,30 @@
       </c>
       <c r="G15" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H15" s="12" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="I15" s="12" t="inlineStr">
         <is>
-          <t>541330</t>
+          <t>484220</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HhW7h/eXlRINsmaeSqoPbXVaJI2Rxf5Xqv5oVMiFrlFilMseg</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BqZt/S.8z9TEK.LdUSMiyPyU2OmmvfyB72n_GLoo8WfuIvpQ</t>
         </is>
       </c>
       <c r="K15" s="14" t="n">
-        <v>15.0</v>
+        <v>89.0</v>
       </c>
       <c r="L15" s="12" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/31/2025</t>
         </is>
       </c>
       <c r="M15" s="12" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="N15" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="O15" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P15" s="8"/>
@@ -896,7 +896,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="12" t="inlineStr">
         <is>
-          <t>Comprehensive Logistics</t>
+          <t>PARSONS CORPORATION</t>
         </is>
       </c>
       <c r="C16" s="12"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="E16" s="12" t="inlineStr">
         <is>
-          <t>Notice 2703</t>
+          <t>Notice 2587</t>
         </is>
       </c>
       <c r="F16" s="12" t="inlineStr">
@@ -917,35 +917,35 @@
       </c>
       <c r="G16" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H16" s="12" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="I16" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>541330</t>
         </is>
       </c>
       <c r="J16" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Hhhr7/270VLiHSatvCB.99rQQ6yuWO_nnixhy7hk6zWHR_RIY</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002V7wv/jCX3hEn5297gzTmwoFA9qbObWxfTpXe8xCX2aUFtEOc</t>
         </is>
       </c>
       <c r="K16" s="14" t="n">
-        <v>57.0</v>
+        <v>55.0</v>
       </c>
       <c r="L16" s="12" t="inlineStr">
         <is>
-          <t>12/31/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="M16" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="N16" s="12" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="O16" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P16" s="8"/>
@@ -964,7 +964,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>Battelle Memorial Institute E3</t>
+          <t>Brown-Forman Cooperage</t>
         </is>
       </c>
       <c r="C17" s="12"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="E17" s="12" t="inlineStr">
         <is>
-          <t>Notice 2700</t>
+          <t>Notice 2589</t>
         </is>
       </c>
       <c r="F17" s="12" t="inlineStr">
@@ -985,30 +985,30 @@
       </c>
       <c r="G17" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H17" s="12" t="inlineStr">
         <is>
-          <t>10/16/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="I17" s="12" t="inlineStr">
         <is>
-          <t>541715</t>
+          <t>312140</t>
         </is>
       </c>
       <c r="J17" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HYWDQ/LXGMbijUgJpcB0Ijpf3tpwucoL6MpIfcMMRfEOM2bC4</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005UZAL/7Y0xXkhdLdy4xuWLwpdW2ZEVACIGeVUF1dp33hPXmNw</t>
         </is>
       </c>
       <c r="K17" s="14" t="n">
-        <v>1.0</v>
+        <v>210.0</v>
       </c>
       <c r="L17" s="12" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="M17" s="12" t="inlineStr">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="N17" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="O17" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P17" s="8"/>
@@ -1032,7 +1032,7 @@
       <c r="A18" s="7"/>
       <c r="B18" s="12" t="inlineStr">
         <is>
-          <t>Wayfair LLC - Erlanger Warehouse</t>
+          <t>BANDO USA INC</t>
         </is>
       </c>
       <c r="C18" s="12"/>
@@ -1043,40 +1043,40 @@
       </c>
       <c r="E18" s="12" t="inlineStr">
         <is>
-          <t>Notice 2699</t>
+          <t>Notice 2592</t>
         </is>
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G18" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Warren</t>
         </is>
       </c>
       <c r="H18" s="12" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>1/17/2025</t>
         </is>
       </c>
       <c r="I18" s="12" t="inlineStr">
         <is>
-          <t>454390</t>
+          <t>326220</t>
         </is>
       </c>
       <c r="J18" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HYXz3/HKQU9l9I4iDxyz0nhUBJY_.nyBxxJzEaCiXqpHplGB0</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005gof3/H7JnyP3i85WtzR4gL_28.hHTfjh.mR7IATUxIFY8iV8</t>
         </is>
       </c>
       <c r="K18" s="14" t="n">
-        <v>215.0</v>
+        <v>65.0</v>
       </c>
       <c r="L18" s="12" t="inlineStr">
         <is>
-          <t>9/30/2026</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="M18" s="12" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="O18" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="P18" s="8"/>
@@ -1100,7 +1100,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>PARSONS CORPORATION</t>
+          <t>Amentum</t>
         </is>
       </c>
       <c r="C19" s="12"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>Notice 2695</t>
+          <t>Notice 2593</t>
         </is>
       </c>
       <c r="F19" s="12" t="inlineStr">
@@ -1126,30 +1126,30 @@
       </c>
       <c r="H19" s="12" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="I19" s="12" t="inlineStr">
         <is>
-          <t>541330</t>
+          <t>562910</t>
         </is>
       </c>
       <c r="J19" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HPrDp/eamOO8kmQoCeKhQUbQE_8BvdrGadWnlNANN3HUKk8Gk</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005ij8D/gapgoIf5KsAjDZV3wK_1gYFZv36G8D5qEz3uFST_Jvw</t>
         </is>
       </c>
       <c r="K19" s="14" t="n">
-        <v>14.0</v>
+        <v>90.0</v>
       </c>
       <c r="L19" s="12" t="inlineStr">
         <is>
-          <t>12/18/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="M19" s="12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N19" s="12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="12" t="inlineStr">
         <is>
-          <t>Bechtel Parsons Blue Grass</t>
+          <t>IV Media, LLC</t>
         </is>
       </c>
       <c r="C20" s="12"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="E20" s="12" t="inlineStr">
         <is>
-          <t>Notice 2694</t>
+          <t>Notice 2594</t>
         </is>
       </c>
       <c r="F20" s="12" t="inlineStr">
@@ -1189,30 +1189,30 @@
       </c>
       <c r="G20" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Warren</t>
         </is>
       </c>
       <c r="H20" s="12" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="I20" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>51</t>
         </is>
       </c>
       <c r="J20" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HPptZ/GnQ9cBWSHWfNXxHPCAj0lMJG9IEzqrpYRiqF8xjXhj8</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005rKP7/_6OrzQnap.NgHNQvLioKYFhNgXkiL.uWcLQkWaiFDYo</t>
         </is>
       </c>
       <c r="K20" s="14" t="n">
-        <v>14.0</v>
+        <v>107.0</v>
       </c>
       <c r="L20" s="12" t="inlineStr">
         <is>
-          <t>12/18/2025</t>
+          <t>3/31/2025</t>
         </is>
       </c>
       <c r="M20" s="12" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="O20" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="P20" s="8"/>
@@ -1236,7 +1236,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>Akebono Brake Corporation</t>
+          <t>Diageo North America Stitzel-Weller Distillery</t>
         </is>
       </c>
       <c r="C21" s="12"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>Notice 2693</t>
+          <t>Notice 2597</t>
         </is>
       </c>
       <c r="F21" s="12" t="inlineStr">
@@ -1257,30 +1257,30 @@
       </c>
       <c r="G21" s="12" t="inlineStr">
         <is>
-          <t>Hardin</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H21" s="12" t="inlineStr">
         <is>
-          <t>10/3/2025</t>
+          <t>1/31/2025</t>
         </is>
       </c>
       <c r="I21" s="12" t="inlineStr">
         <is>
-          <t>336340</t>
+          <t>312140</t>
         </is>
       </c>
       <c r="J21" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000H4wZt/RH33QKwUV9N453vY30x.ruzli6KCxPRqXPzSCAA_A5I</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005wXYb/MJ0Y.gZyiFzqcJe6oeoFT0Rv7Fep5xuwOmOCG50VGMk</t>
         </is>
       </c>
       <c r="K21" s="14" t="n">
-        <v>450.0</v>
+        <v>57.0</v>
       </c>
       <c r="L21" s="12" t="inlineStr">
         <is>
-          <t>12/31/2026</t>
+          <t>4/30/2025</t>
         </is>
       </c>
       <c r="M21" s="12" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="N21" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="O21" s="12" t="inlineStr">
         <is>
-          <t>Lincoln Trail</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P21" s="8"/>
@@ -1304,7 +1304,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="12" t="inlineStr">
         <is>
-          <t>HJI Supply Chain Solutions</t>
+          <t>Battelle Memorial Institute E3</t>
         </is>
       </c>
       <c r="C22" s="12"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E22" s="12" t="inlineStr">
         <is>
-          <t>Notice 2692</t>
+          <t>Notice 2610</t>
         </is>
       </c>
       <c r="F22" s="12" t="inlineStr">
@@ -1325,35 +1325,35 @@
       </c>
       <c r="G22" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H22" s="12" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="I22" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>541715</t>
         </is>
       </c>
       <c r="J22" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000H1neP/X_IPrubANhpX1DDSBme71wJ.lqfuHwJK.sJyAaPyWkU</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000006tjPG/2I4lYNSkXHeX5zTSEMB1z.CpQcneksKXiOcK4OwU_EI</t>
         </is>
       </c>
       <c r="K22" s="14" t="n">
-        <v>117.0</v>
+        <v>245.0</v>
       </c>
       <c r="L22" s="12" t="inlineStr">
         <is>
-          <t>12/31/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="M22" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="N22" s="12" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="O22" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P22" s="8"/>
@@ -1372,7 +1372,7 @@
       <c r="A23" s="7"/>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>Martinrea Heavy Stamping</t>
+          <t>Battelle Memorial Institute E3</t>
         </is>
       </c>
       <c r="C23" s="12"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>Notice 2691</t>
+          <t>Notice 2611</t>
         </is>
       </c>
       <c r="F23" s="12" t="inlineStr">
@@ -1393,45 +1393,43 @@
       </c>
       <c r="G23" s="12" t="inlineStr">
         <is>
-          <t>Shelby</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H23" s="12" t="inlineStr">
         <is>
-          <t>10/1/2025</t>
+          <t>2/21/2025</t>
         </is>
       </c>
       <c r="I23" s="12" t="inlineStr">
         <is>
-          <t>336390</t>
+          <t>541715</t>
         </is>
       </c>
       <c r="J23" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000H1nUj/3z_P4wD_WhSaCiGGrsjpyYOrrzYAdBZjYb5RQZ7J.EA</t>
-        </is>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v>276.0</v>
-      </c>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000073ueL/MyYKHtOhEr5wch0_5F84slUZadA.oMb89jKQ6YFUTeM</t>
+        </is>
+      </c>
+      <c r="K23" s="15"/>
       <c r="L23" s="12" t="inlineStr">
         <is>
-          <t>12/5/2025</t>
+          <t>4/24/2025</t>
         </is>
       </c>
       <c r="M23" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="N23" s="12" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O23" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P23" s="8"/>
@@ -1440,7 +1438,7 @@
       <c r="A24" s="7"/>
       <c r="B24" s="12" t="inlineStr">
         <is>
-          <t>Leggett &amp; Platt, Inc.</t>
+          <t>PARSONS CORPORATION</t>
         </is>
       </c>
       <c r="C24" s="12"/>
@@ -1451,7 +1449,7 @@
       </c>
       <c r="E24" s="12" t="inlineStr">
         <is>
-          <t>Notice 2687</t>
+          <t>Notice 2614</t>
         </is>
       </c>
       <c r="F24" s="12" t="inlineStr">
@@ -1461,30 +1459,30 @@
       </c>
       <c r="G24" s="12" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H24" s="12" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>3/3/2025</t>
         </is>
       </c>
       <c r="I24" s="12" t="inlineStr">
         <is>
-          <t>337215</t>
+          <t>541330</t>
         </is>
       </c>
       <c r="J24" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000GL1eD/2ODCtUzQn93Szd2x5sMDA4vYra.JHZJKDsfcCGc7r60</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007Eqh3/LRRjzqecT_ev45Q0V3xqOGfKDrT83C7A_Rb_I9huvDQ</t>
         </is>
       </c>
       <c r="K24" s="14" t="n">
-        <v>100.0</v>
+        <v>22.0</v>
       </c>
       <c r="L24" s="12" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>5/15/2025</t>
         </is>
       </c>
       <c r="M24" s="12" t="inlineStr">
@@ -1508,7 +1506,7 @@
       <c r="A25" s="7"/>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>Kentucky Cooperage</t>
+          <t>Yokohama Industries Americas Inc/Div 1</t>
         </is>
       </c>
       <c r="C25" s="12"/>
@@ -1519,7 +1517,7 @@
       </c>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>Notice 2683</t>
+          <t>Notice 2616</t>
         </is>
       </c>
       <c r="F25" s="12" t="inlineStr">
@@ -1529,35 +1527,35 @@
       </c>
       <c r="G25" s="12" t="inlineStr">
         <is>
-          <t>Marion</t>
+          <t>Woodford</t>
         </is>
       </c>
       <c r="H25" s="12" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="I25" s="12" t="inlineStr">
         <is>
-          <t>321920</t>
+          <t>326211</t>
         </is>
       </c>
       <c r="J25" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000FFs13/XZKdKlPnTEgMrjo.02XpzEi1qh9oGcQaEs_Qde2_VQs</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007hkBd/WpGCscLLYhEuUklIAa6oUBlPffAOLjW0asRl4_fKrUA</t>
         </is>
       </c>
       <c r="K25" s="14" t="n">
-        <v>112.0</v>
+        <v>250.0</v>
       </c>
       <c r="L25" s="12" t="inlineStr">
         <is>
-          <t>10/19/2025</t>
+          <t>5/30/2025</t>
         </is>
       </c>
       <c r="M25" s="12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N25" s="12" t="inlineStr">
@@ -1567,7 +1565,7 @@
       </c>
       <c r="O25" s="12" t="inlineStr">
         <is>
-          <t>Lincoln Trail</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P25" s="8"/>
@@ -1576,7 +1574,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="12" t="inlineStr">
         <is>
-          <t>AHF Products Manufacturing</t>
+          <t>Danimer Scientific - Main</t>
         </is>
       </c>
       <c r="C26" s="12"/>
@@ -1587,7 +1585,7 @@
       </c>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>Notice 2680</t>
+          <t>Notice 2618</t>
         </is>
       </c>
       <c r="F26" s="12" t="inlineStr">
@@ -1597,35 +1595,35 @@
       </c>
       <c r="G26" s="12" t="inlineStr">
         <is>
-          <t>Pulaski</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="H26" s="12" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="I26" s="12" t="inlineStr">
         <is>
-          <t>321920</t>
+          <t>541715</t>
         </is>
       </c>
       <c r="J26" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000F8rT7/naKYm5a9T_8DlsI_oosnCgacgmOze7QGz7OtM4JHF7M</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000837mj/BpCdZkLmv8k2DspHaWrPpVmhAmHV36BKizZ0KFG0MJ4</t>
         </is>
       </c>
       <c r="K26" s="14" t="n">
-        <v>134.0</v>
+        <v>70.0</v>
       </c>
       <c r="L26" s="12" t="inlineStr">
         <is>
-          <t>12/12/2025</t>
+          <t>3/21/2025</t>
         </is>
       </c>
       <c r="M26" s="12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N26" s="12" t="inlineStr">
@@ -1635,7 +1633,7 @@
       </c>
       <c r="O26" s="12" t="inlineStr">
         <is>
-          <t>Cumberlands</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P26" s="8"/>
@@ -1644,7 +1642,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>Russellville Engineered Casting</t>
+          <t>Danimer Scientific - Extrusion</t>
         </is>
       </c>
       <c r="C27" s="12"/>
@@ -1655,7 +1653,7 @@
       </c>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>Notice 2676</t>
+          <t>Notice 2619</t>
         </is>
       </c>
       <c r="F27" s="12" t="inlineStr">
@@ -1665,45 +1663,45 @@
       </c>
       <c r="G27" s="12" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="H27" s="12" t="inlineStr">
         <is>
-          <t>8/15/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="I27" s="12" t="inlineStr">
         <is>
-          <t>331523</t>
+          <t>325211</t>
         </is>
       </c>
       <c r="J27" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000FFi9l/61uQ9INOfuIWYlwIZ8JoXsBiJs4Dko6LjCcyAAfQ5GY</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000083a7B/nA7ZESdFZHxMPC1WQvvpAFy44K3Pc1Bfxnu.W5rIx68</t>
         </is>
       </c>
       <c r="K27" s="14" t="n">
-        <v>102.0</v>
+        <v>11.0</v>
       </c>
       <c r="L27" s="12" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>3/21/2025</t>
         </is>
       </c>
       <c r="M27" s="12" t="inlineStr">
         <is>
-          <t/>
+          <t>No</t>
         </is>
       </c>
       <c r="N27" s="12" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O27" s="12" t="inlineStr">
         <is>
-          <t>South Central</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P27" s="8"/>
@@ -1712,7 +1710,7 @@
       <c r="A28" s="7"/>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>CVS MED CARE PHARMACY LLC</t>
+          <t>IV Media, LLC</t>
         </is>
       </c>
       <c r="C28" s="12"/>
@@ -1723,7 +1721,7 @@
       </c>
       <c r="E28" s="12" t="inlineStr">
         <is>
-          <t>Notice 2671</t>
+          <t>Notice 2630</t>
         </is>
       </c>
       <c r="F28" s="12" t="inlineStr">
@@ -1733,30 +1731,30 @@
       </c>
       <c r="G28" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Warren</t>
         </is>
       </c>
       <c r="H28" s="12" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="I28" s="12" t="inlineStr">
         <is>
-          <t>456110</t>
+          <t>51</t>
         </is>
       </c>
       <c r="J28" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000EdSPN/c0fLyqrfAiqjJw_FO8PHbsD5OwaRjNBW30cvv8sR2h4</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Fiht/Qw.xhp7wgDSurey8MJvsLUepYFVphTB42JSxvyrcglw</t>
         </is>
       </c>
       <c r="K28" s="14" t="n">
-        <v>77.0</v>
+        <v>84.0</v>
       </c>
       <c r="L28" s="12" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>5/23/2025</t>
         </is>
       </c>
       <c r="M28" s="12" t="inlineStr">
@@ -1771,7 +1769,7 @@
       </c>
       <c r="O28" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="P28" s="8"/>
@@ -1780,7 +1778,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>Battelle Memorial Institute E3</t>
+          <t>Laurel Grocery Company LLC</t>
         </is>
       </c>
       <c r="C29" s="12"/>
@@ -1791,7 +1789,7 @@
       </c>
       <c r="E29" s="12" t="inlineStr">
         <is>
-          <t>Notice 2670</t>
+          <t>Notice 2631</t>
         </is>
       </c>
       <c r="F29" s="12" t="inlineStr">
@@ -1801,30 +1799,30 @@
       </c>
       <c r="G29" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="H29" s="12" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="I29" s="12" t="inlineStr">
         <is>
-          <t>541715</t>
+          <t>424410</t>
         </is>
       </c>
       <c r="J29" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000ELTF3/igSCL9QBGiYSBBBF0RY5jcajhnZ13NgBcfONVL2_iFQ</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Oi9D/C5YPv5B3bjp6XCeW4ePcejhHRdLTmz1K.uJuIy7TL2w</t>
         </is>
       </c>
       <c r="K29" s="14" t="n">
-        <v>61.0</v>
+        <v>115.0</v>
       </c>
       <c r="L29" s="12" t="inlineStr">
         <is>
-          <t>9/30/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="M29" s="12" t="inlineStr">
@@ -1839,7 +1837,7 @@
       </c>
       <c r="O29" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Cumberlands</t>
         </is>
       </c>
       <c r="P29" s="8"/>
@@ -1848,7 +1846,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>Omniplex World Services, Corp</t>
+          <t>Kentucky BioProcessing Inc</t>
         </is>
       </c>
       <c r="C30" s="12"/>
@@ -1859,45 +1857,45 @@
       </c>
       <c r="E30" s="12" t="inlineStr">
         <is>
-          <t>Notice 2663</t>
+          <t>Notice 2632</t>
         </is>
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G30" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Daviess</t>
         </is>
       </c>
       <c r="H30" s="12" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="I30" s="12" t="inlineStr">
         <is>
-          <t>561612</t>
+          <t>3254</t>
         </is>
       </c>
       <c r="J30" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLs17/N8kNwHD7NrJsysV0zp8g9_ZcVeQc2PIwPTnTs0XZzY0</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009R2a1/dL7fl90HKY2sTSg8o0g_FHXA7C_BNaTq993jEr.sTo0</t>
         </is>
       </c>
       <c r="K30" s="14" t="n">
-        <v>9.0</v>
+        <v>46.0</v>
       </c>
       <c r="L30" s="12" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>7/2/2025</t>
         </is>
       </c>
       <c r="M30" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="N30" s="12" t="inlineStr">
@@ -1907,7 +1905,7 @@
       </c>
       <c r="O30" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>Green River</t>
         </is>
       </c>
       <c r="P30" s="8"/>
@@ -1916,7 +1914,7 @@
       <c r="A31" s="7"/>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>Constellis</t>
+          <t>PARSONS CORPORATION</t>
         </is>
       </c>
       <c r="C31" s="12"/>
@@ -1927,40 +1925,40 @@
       </c>
       <c r="E31" s="12" t="inlineStr">
         <is>
-          <t>Notice 2664</t>
+          <t>Notice 2634</t>
         </is>
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G31" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H31" s="12" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="I31" s="12" t="inlineStr">
         <is>
-          <t>561612</t>
+          <t>541330</t>
         </is>
       </c>
       <c r="J31" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLu7l/EdeBjKSoTfm4L7CqUJvMx5tmMv_rj4_780cA3MxRv8A</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009cdBF/0YxwzpfAtn8zafLnCJxVwcH_xvG6Rzg03EcEAKmL_6A</t>
         </is>
       </c>
       <c r="K31" s="14" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="L31" s="12" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="M31" s="12" t="inlineStr">
@@ -1975,7 +1973,7 @@
       </c>
       <c r="O31" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P31" s="8"/>
@@ -1984,7 +1982,7 @@
       <c r="A32" s="7"/>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>Omniplex World Services, Corp</t>
+          <t>Lockheed Martin, Rotary Mission Systems Business Area</t>
         </is>
       </c>
       <c r="C32" s="12"/>
@@ -1995,40 +1993,40 @@
       </c>
       <c r="E32" s="12" t="inlineStr">
         <is>
-          <t>Notice 2665</t>
+          <t>Notice 2639</t>
         </is>
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G32" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H32" s="12" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>5/2/2025</t>
         </is>
       </c>
       <c r="I32" s="12" t="inlineStr">
         <is>
-          <t>561612</t>
+          <t>336411</t>
         </is>
       </c>
       <c r="J32" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLqIi/KcpQocZHmetBQG6IKEINOFe33Uc3axuDtjFliX4ytiA</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000A9ybt/9PP8pO93Kvh7teU_eKBV5U99EBotSahtxk6bfpAVh5c</t>
         </is>
       </c>
       <c r="K32" s="14" t="n">
-        <v>41.0</v>
+        <v>64.0</v>
       </c>
       <c r="L32" s="12" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="M32" s="12" t="inlineStr">
@@ -2043,7 +2041,7 @@
       </c>
       <c r="O32" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P32" s="8"/>
@@ -2052,7 +2050,7 @@
       <c r="A33" s="7"/>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>Omniplex World Services, Corp</t>
+          <t>Dakkota Integrated Systems LLC - Louisville / Westport</t>
         </is>
       </c>
       <c r="C33" s="12"/>
@@ -2063,7 +2061,7 @@
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>Notice 2666</t>
+          <t>Notice 2640</t>
         </is>
       </c>
       <c r="F33" s="12" t="inlineStr">
@@ -2073,30 +2071,30 @@
       </c>
       <c r="G33" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H33" s="12" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="I33" s="12" t="inlineStr">
         <is>
-          <t>561612</t>
+          <t>49311</t>
         </is>
       </c>
       <c r="J33" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLxTp/LoWzAFYAP4NS.p5h5nLGmAIAal3QaIuQ2xGIvw8dMZ0</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIAUd/C4vor.nsrx3KvG4Khd6L7xpfAotuhH0.rpb1K2ctYZ8</t>
         </is>
       </c>
       <c r="K33" s="14" t="n">
-        <v>22.0</v>
+        <v>75.0</v>
       </c>
       <c r="L33" s="12" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="M33" s="12" t="inlineStr">
@@ -2106,12 +2104,12 @@
       </c>
       <c r="N33" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="O33" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P33" s="8"/>
@@ -2120,7 +2118,7 @@
       <c r="A34" s="7"/>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>Pearl Interactive</t>
+          <t>Dakkota Integrated Systems LLC - Louisville / Westport 2</t>
         </is>
       </c>
       <c r="C34" s="12"/>
@@ -2131,40 +2129,40 @@
       </c>
       <c r="E34" s="12" t="inlineStr">
         <is>
-          <t>Notice 2667</t>
+          <t>Notice 2641</t>
         </is>
       </c>
       <c r="F34" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G34" s="12" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H34" s="12" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="I34" s="12" t="inlineStr">
         <is>
-          <t>561422</t>
+          <t>49311</t>
         </is>
       </c>
       <c r="J34" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLUrf/Me6wkymcct0BWQCfSq4jZWAgHYxOGWp8Qb.GMFZ1cXM</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKP7/iklIZoCNC1ArWs5JuLt060S6izbQuW_ONFM3J7PPIpo</t>
         </is>
       </c>
       <c r="K34" s="14" t="n">
-        <v>342.0</v>
+        <v>1.0</v>
       </c>
       <c r="L34" s="12" t="inlineStr">
         <is>
-          <t>9/10/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="M34" s="12" t="inlineStr">
@@ -2179,7 +2177,7 @@
       </c>
       <c r="O34" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P34" s="8"/>
@@ -2188,7 +2186,7 @@
       <c r="A35" s="7"/>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PARSONS CORPORATION</t>
+          <t>Dakkota Integrated Systems LLC - Louisville / Chamberlain 1</t>
         </is>
       </c>
       <c r="C35" s="12"/>
@@ -2199,42 +2197,42 @@
       </c>
       <c r="E35" s="12" t="inlineStr">
         <is>
-          <t>Notice 2659</t>
+          <t>Notice 2642</t>
         </is>
       </c>
       <c r="F35" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G35" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H35" s="12" t="inlineStr">
         <is>
+          <t>5/5/2025</t>
+        </is>
+      </c>
+      <c r="I35" s="12" t="inlineStr">
+        <is>
+          <t>49311</t>
+        </is>
+      </c>
+      <c r="J35" s="13" t="inlineStr">
+        <is>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKoy/CspA8xGVq85ugP4E0jRUu02uyCbzUFlqcjZdio_PYRg</t>
+        </is>
+      </c>
+      <c r="K35" s="14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L35" s="12" t="inlineStr">
+        <is>
           <t>7/1/2025</t>
         </is>
       </c>
-      <c r="I35" s="12" t="inlineStr">
-        <is>
-          <t>541330</t>
-        </is>
-      </c>
-      <c r="J35" s="13" t="inlineStr">
-        <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000D1Bd3/WjqRbkHxqb9JuYlKhL4YE9cyAZgRsdHscqCZTzVAerY</t>
-        </is>
-      </c>
-      <c r="K35" s="14" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L35" s="12" t="inlineStr">
-        <is>
-          <t>9/4/2025</t>
-        </is>
-      </c>
       <c r="M35" s="12" t="inlineStr">
         <is>
           <t>No</t>
@@ -2242,12 +2240,12 @@
       </c>
       <c r="N35" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="O35" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P35" s="8"/>
@@ -2256,7 +2254,7 @@
       <c r="A36" s="7"/>
       <c r="B36" s="12" t="inlineStr">
         <is>
-          <t>Levi Strauss &amp; Co</t>
+          <t>Dakkota Integrated Systems LLC - Louisville / Chamberlain 2</t>
         </is>
       </c>
       <c r="C36" s="12"/>
@@ -2267,40 +2265,40 @@
       </c>
       <c r="E36" s="12" t="inlineStr">
         <is>
-          <t>Notice 2657</t>
+          <t>Notice 2643</t>
         </is>
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G36" s="12" t="inlineStr">
         <is>
-          <t>Boone</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H36" s="12" t="inlineStr">
         <is>
-          <t>6/16/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="I36" s="12" t="inlineStr">
         <is>
-          <t>33993</t>
+          <t>49311</t>
         </is>
       </c>
       <c r="J36" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000CLJC1/DbyYp68sVwKoN.GQkRf5EyzUntPUC3BOkVG9L_FcJUc</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AILt3/DmkHGc2HH76FUBjw4F90tycbjQcUMliwSD6..1pS95s</t>
         </is>
       </c>
       <c r="K36" s="14" t="n">
-        <v>346.0</v>
+        <v>41.0</v>
       </c>
       <c r="L36" s="12" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/1/2025</t>
         </is>
       </c>
       <c r="M36" s="12" t="inlineStr">
@@ -2315,7 +2313,7 @@
       </c>
       <c r="O36" s="12" t="inlineStr">
         <is>
-          <t>Northern Kentucky</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P36" s="8"/>
@@ -2324,7 +2322,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>Civil LLC - Harlan Truck Shop</t>
+          <t>Yum! Restaurant Support Center</t>
         </is>
       </c>
       <c r="C37" s="12"/>
@@ -2335,7 +2333,7 @@
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>Notice 2652</t>
+          <t>Notice 2648</t>
         </is>
       </c>
       <c r="F37" s="12" t="inlineStr">
@@ -2345,30 +2343,30 @@
       </c>
       <c r="G37" s="12" t="inlineStr">
         <is>
-          <t>Harlan</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H37" s="12" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/23/2025</t>
         </is>
       </c>
       <c r="I37" s="12" t="inlineStr">
         <is>
-          <t>811111</t>
+          <t>551114</t>
         </is>
       </c>
       <c r="J37" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkR3h/aGQ7ke0lV3urHzNBy6rXTKsam169c8Y.qefyLKCDE2A</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BR83B/qHQvrKSn0SqdzwieZgmUz.9VGXCHegUegNu71KQrgIA</t>
         </is>
       </c>
       <c r="K37" s="14" t="n">
-        <v>20.0</v>
+        <v>91.0</v>
       </c>
       <c r="L37" s="12" t="inlineStr">
         <is>
-          <t>8/2/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="M37" s="12" t="inlineStr">
@@ -2383,7 +2381,7 @@
       </c>
       <c r="O37" s="12" t="inlineStr">
         <is>
-          <t>EKCEP</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P37" s="8"/>
@@ -2392,7 +2390,7 @@
       <c r="A38" s="7"/>
       <c r="B38" s="12" t="inlineStr">
         <is>
-          <t>Civil LLC - Pikeville Engineer Office</t>
+          <t>Civil LLC - Harlan Truck Shop</t>
         </is>
       </c>
       <c r="C38" s="12"/>
@@ -2403,7 +2401,7 @@
       </c>
       <c r="E38" s="12" t="inlineStr">
         <is>
-          <t>Notice 2653</t>
+          <t>Notice 2652</t>
         </is>
       </c>
       <c r="F38" s="12" t="inlineStr">
@@ -2413,7 +2411,7 @@
       </c>
       <c r="G38" s="12" t="inlineStr">
         <is>
-          <t>Pike</t>
+          <t>Harlan</t>
         </is>
       </c>
       <c r="H38" s="12" t="inlineStr">
@@ -2423,16 +2421,16 @@
       </c>
       <c r="I38" s="12" t="inlineStr">
         <is>
-          <t>541330</t>
+          <t>811111</t>
         </is>
       </c>
       <c r="J38" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkTK2/7Jlg44VwRxZ7aD.5uuhJ1fkVmBTvdd0OmMK0dyCe4Ck</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkR3h/aGQ7ke0lV3urHzNBy6rXTKsam169c8Y.qefyLKCDE2A</t>
         </is>
       </c>
       <c r="K38" s="14" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="L38" s="12" t="inlineStr">
         <is>
@@ -2460,7 +2458,7 @@
       <c r="A39" s="7"/>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>Civil LLC - Jenkins Mechanic Shop</t>
+          <t>Civil LLC - Pikeville Engineer Office</t>
         </is>
       </c>
       <c r="C39" s="12"/>
@@ -2471,7 +2469,7 @@
       </c>
       <c r="E39" s="12" t="inlineStr">
         <is>
-          <t>Notice 2654</t>
+          <t>Notice 2653</t>
         </is>
       </c>
       <c r="F39" s="12" t="inlineStr">
@@ -2481,7 +2479,7 @@
       </c>
       <c r="G39" s="12" t="inlineStr">
         <is>
-          <t>Letcher</t>
+          <t>Pike</t>
         </is>
       </c>
       <c r="H39" s="12" t="inlineStr">
@@ -2491,16 +2489,16 @@
       </c>
       <c r="I39" s="12" t="inlineStr">
         <is>
-          <t>811111</t>
+          <t>541330</t>
         </is>
       </c>
       <c r="J39" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkVTu/DNQ6odCqLsJFMdzrhVs1eZWTrFrGrH2OZbql13YFLa0</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkTK2/7Jlg44VwRxZ7aD.5uuhJ1fkVmBTvdd0OmMK0dyCe4Ck</t>
         </is>
       </c>
       <c r="K39" s="14" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L39" s="12" t="inlineStr">
         <is>
@@ -2528,7 +2526,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>Yum! Restaurant Support Center</t>
+          <t>Civil LLC - Jenkins Mechanic Shop</t>
         </is>
       </c>
       <c r="C40" s="12"/>
@@ -2539,7 +2537,7 @@
       </c>
       <c r="E40" s="12" t="inlineStr">
         <is>
-          <t>Notice 2648</t>
+          <t>Notice 2654</t>
         </is>
       </c>
       <c r="F40" s="12" t="inlineStr">
@@ -2549,30 +2547,30 @@
       </c>
       <c r="G40" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Letcher</t>
         </is>
       </c>
       <c r="H40" s="12" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="I40" s="12" t="inlineStr">
         <is>
-          <t>551114</t>
+          <t>811111</t>
         </is>
       </c>
       <c r="J40" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BR83B/qHQvrKSn0SqdzwieZgmUz.9VGXCHegUegNu71KQrgIA</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000BkVTu/DNQ6odCqLsJFMdzrhVs1eZWTrFrGrH2OZbql13YFLa0</t>
         </is>
       </c>
       <c r="K40" s="14" t="n">
-        <v>91.0</v>
+        <v>8.0</v>
       </c>
       <c r="L40" s="12" t="inlineStr">
         <is>
-          <t>9/30/2025</t>
+          <t>8/2/2025</t>
         </is>
       </c>
       <c r="M40" s="12" t="inlineStr">
@@ -2587,7 +2585,7 @@
       </c>
       <c r="O40" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>EKCEP</t>
         </is>
       </c>
       <c r="P40" s="8"/>
@@ -2596,7 +2594,7 @@
       <c r="A41" s="7"/>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>Dakkota Integrated Systems LLC - Louisville / Westport</t>
+          <t>Levi Strauss &amp; Co</t>
         </is>
       </c>
       <c r="C41" s="12"/>
@@ -2607,40 +2605,40 @@
       </c>
       <c r="E41" s="12" t="inlineStr">
         <is>
-          <t>Notice 2640</t>
+          <t>Notice 2657</t>
         </is>
       </c>
       <c r="F41" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G41" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H41" s="12" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>6/16/2025</t>
         </is>
       </c>
       <c r="I41" s="12" t="inlineStr">
         <is>
-          <t>49311</t>
+          <t>33993</t>
         </is>
       </c>
       <c r="J41" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIAUd/C4vor.nsrx3KvG4Khd6L7xpfAotuhH0.rpb1K2ctYZ8</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000CLJC1/DbyYp68sVwKoN.GQkRf5EyzUntPUC3BOkVG9L_FcJUc</t>
         </is>
       </c>
       <c r="K41" s="14" t="n">
-        <v>75.0</v>
+        <v>346.0</v>
       </c>
       <c r="L41" s="12" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="M41" s="12" t="inlineStr">
@@ -2655,7 +2653,7 @@
       </c>
       <c r="O41" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P41" s="8"/>
@@ -2664,7 +2662,7 @@
       <c r="A42" s="7"/>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>Dakkota Integrated Systems LLC - Louisville / Westport 2</t>
+          <t>PARSONS CORPORATION</t>
         </is>
       </c>
       <c r="C42" s="12"/>
@@ -2675,40 +2673,40 @@
       </c>
       <c r="E42" s="12" t="inlineStr">
         <is>
-          <t>Notice 2641</t>
+          <t>Notice 2659</t>
         </is>
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G42" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H42" s="12" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="I42" s="12" t="inlineStr">
         <is>
-          <t>49311</t>
+          <t>541330</t>
         </is>
       </c>
       <c r="J42" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKP7/iklIZoCNC1ArWs5JuLt060S6izbQuW_ONFM3J7PPIpo</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000D1Bd3/WjqRbkHxqb9JuYlKhL4YE9cyAZgRsdHscqCZTzVAerY</t>
         </is>
       </c>
       <c r="K42" s="14" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="L42" s="12" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>9/4/2025</t>
         </is>
       </c>
       <c r="M42" s="12" t="inlineStr">
@@ -2723,7 +2721,7 @@
       </c>
       <c r="O42" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P42" s="8"/>
@@ -2732,7 +2730,7 @@
       <c r="A43" s="7"/>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>Dakkota Integrated Systems LLC - Louisville / Chamberlain 1</t>
+          <t>Omniplex World Services, Corp</t>
         </is>
       </c>
       <c r="C43" s="12"/>
@@ -2743,7 +2741,7 @@
       </c>
       <c r="E43" s="12" t="inlineStr">
         <is>
-          <t>Notice 2642</t>
+          <t>Notice 2663</t>
         </is>
       </c>
       <c r="F43" s="12" t="inlineStr">
@@ -2753,30 +2751,30 @@
       </c>
       <c r="G43" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H43" s="12" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="I43" s="12" t="inlineStr">
         <is>
-          <t>49311</t>
+          <t>561612</t>
         </is>
       </c>
       <c r="J43" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AIKoy/CspA8xGVq85ugP4E0jRUu02uyCbzUFlqcjZdio_PYRg</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLs17/N8kNwHD7NrJsysV0zp8g9_ZcVeQc2PIwPTnTs0XZzY0</t>
         </is>
       </c>
       <c r="K43" s="14" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="L43" s="12" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="M43" s="12" t="inlineStr">
@@ -2786,12 +2784,12 @@
       </c>
       <c r="N43" s="12" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O43" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P43" s="8"/>
@@ -2800,7 +2798,7 @@
       <c r="A44" s="7"/>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>Dakkota Integrated Systems LLC - Louisville / Chamberlain 2</t>
+          <t>Constellis</t>
         </is>
       </c>
       <c r="C44" s="12"/>
@@ -2811,7 +2809,7 @@
       </c>
       <c r="E44" s="12" t="inlineStr">
         <is>
-          <t>Notice 2643</t>
+          <t>Notice 2664</t>
         </is>
       </c>
       <c r="F44" s="12" t="inlineStr">
@@ -2821,30 +2819,30 @@
       </c>
       <c r="G44" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H44" s="12" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="I44" s="12" t="inlineStr">
         <is>
-          <t>49311</t>
+          <t>561612</t>
         </is>
       </c>
       <c r="J44" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000AILt3/DmkHGc2HH76FUBjw4F90tycbjQcUMliwSD6..1pS95s</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLu7l/EdeBjKSoTfm4L7CqUJvMx5tmMv_rj4_780cA3MxRv8A</t>
         </is>
       </c>
       <c r="K44" s="14" t="n">
-        <v>41.0</v>
+        <v>1.0</v>
       </c>
       <c r="L44" s="12" t="inlineStr">
         <is>
-          <t>8/1/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="M44" s="12" t="inlineStr">
@@ -2854,12 +2852,12 @@
       </c>
       <c r="N44" s="12" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O44" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P44" s="8"/>
@@ -2868,7 +2866,7 @@
       <c r="A45" s="7"/>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>Lockheed Martin, Rotary Mission Systems Business Area</t>
+          <t>Omniplex World Services, Corp</t>
         </is>
       </c>
       <c r="C45" s="12"/>
@@ -2879,40 +2877,40 @@
       </c>
       <c r="E45" s="12" t="inlineStr">
         <is>
-          <t>Notice 2639</t>
+          <t>Notice 2665</t>
         </is>
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G45" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H45" s="12" t="inlineStr">
         <is>
-          <t>5/2/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="I45" s="12" t="inlineStr">
         <is>
-          <t>336411</t>
+          <t>561612</t>
         </is>
       </c>
       <c r="J45" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000A9ybt/9PP8pO93Kvh7teU_eKBV5U99EBotSahtxk6bfpAVh5c</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLqIi/KcpQocZHmetBQG6IKEINOFe33Uc3axuDtjFliX4ytiA</t>
         </is>
       </c>
       <c r="K45" s="14" t="n">
-        <v>64.0</v>
+        <v>41.0</v>
       </c>
       <c r="L45" s="12" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="M45" s="12" t="inlineStr">
@@ -2927,7 +2925,7 @@
       </c>
       <c r="O45" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P45" s="8"/>
@@ -2936,7 +2934,7 @@
       <c r="A46" s="7"/>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>PARSONS CORPORATION</t>
+          <t>Omniplex World Services, Corp</t>
         </is>
       </c>
       <c r="C46" s="12"/>
@@ -2947,40 +2945,40 @@
       </c>
       <c r="E46" s="12" t="inlineStr">
         <is>
-          <t>Notice 2634</t>
+          <t>Notice 2666</t>
         </is>
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G46" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H46" s="12" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="I46" s="12" t="inlineStr">
         <is>
-          <t>541330</t>
+          <t>561612</t>
         </is>
       </c>
       <c r="J46" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009cdBF/0YxwzpfAtn8zafLnCJxVwcH_xvG6Rzg03EcEAKmL_6A</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLxTp/LoWzAFYAP4NS.p5h5nLGmAIAal3QaIuQ2xGIvw8dMZ0</t>
         </is>
       </c>
       <c r="K46" s="14" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="L46" s="12" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="M46" s="12" t="inlineStr">
@@ -2995,7 +2993,7 @@
       </c>
       <c r="O46" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P46" s="8"/>
@@ -3004,7 +3002,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>Laurel Grocery Company LLC</t>
+          <t>Pearl Interactive</t>
         </is>
       </c>
       <c r="C47" s="12"/>
@@ -3015,7 +3013,7 @@
       </c>
       <c r="E47" s="12" t="inlineStr">
         <is>
-          <t>Notice 2631</t>
+          <t>Notice 2667</t>
         </is>
       </c>
       <c r="F47" s="12" t="inlineStr">
@@ -3025,30 +3023,30 @@
       </c>
       <c r="G47" s="12" t="inlineStr">
         <is>
-          <t>Laurel</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="H47" s="12" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="I47" s="12" t="inlineStr">
         <is>
-          <t>424410</t>
+          <t>561422</t>
         </is>
       </c>
       <c r="J47" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Oi9D/C5YPv5B3bjp6XCeW4ePcejhHRdLTmz1K.uJuIy7TL2w</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000DLUrf/Me6wkymcct0BWQCfSq4jZWAgHYxOGWp8Qb.GMFZ1cXM</t>
         </is>
       </c>
       <c r="K47" s="14" t="n">
-        <v>115.0</v>
+        <v>342.0</v>
       </c>
       <c r="L47" s="12" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>9/10/2025</t>
         </is>
       </c>
       <c r="M47" s="12" t="inlineStr">
@@ -3063,7 +3061,7 @@
       </c>
       <c r="O47" s="12" t="inlineStr">
         <is>
-          <t>Cumberlands</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P47" s="8"/>
@@ -3072,7 +3070,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>Kentucky BioProcessing Inc</t>
+          <t>Battelle Memorial Institute E3</t>
         </is>
       </c>
       <c r="C48" s="12"/>
@@ -3083,7 +3081,7 @@
       </c>
       <c r="E48" s="12" t="inlineStr">
         <is>
-          <t>Notice 2632</t>
+          <t>Notice 2670</t>
         </is>
       </c>
       <c r="F48" s="12" t="inlineStr">
@@ -3093,35 +3091,35 @@
       </c>
       <c r="G48" s="12" t="inlineStr">
         <is>
-          <t>Daviess</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H48" s="12" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="I48" s="12" t="inlineStr">
         <is>
-          <t>3254</t>
+          <t>541715</t>
         </is>
       </c>
       <c r="J48" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009R2a1/dL7fl90HKY2sTSg8o0g_FHXA7C_BNaTq993jEr.sTo0</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000ELTF3/igSCL9QBGiYSBBBF0RY5jcajhnZ13NgBcfONVL2_iFQ</t>
         </is>
       </c>
       <c r="K48" s="14" t="n">
-        <v>46.0</v>
+        <v>61.0</v>
       </c>
       <c r="L48" s="12" t="inlineStr">
         <is>
-          <t>7/2/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="M48" s="12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N48" s="12" t="inlineStr">
@@ -3131,7 +3129,7 @@
       </c>
       <c r="O48" s="12" t="inlineStr">
         <is>
-          <t>Green River</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P48" s="8"/>
@@ -3140,7 +3138,7 @@
       <c r="A49" s="7"/>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>IV Media, LLC</t>
+          <t>CVS MED CARE PHARMACY LLC</t>
         </is>
       </c>
       <c r="C49" s="12"/>
@@ -3151,7 +3149,7 @@
       </c>
       <c r="E49" s="12" t="inlineStr">
         <is>
-          <t>Notice 2630</t>
+          <t>Notice 2671</t>
         </is>
       </c>
       <c r="F49" s="12" t="inlineStr">
@@ -3161,30 +3159,30 @@
       </c>
       <c r="G49" s="12" t="inlineStr">
         <is>
-          <t>Warren</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H49" s="12" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="I49" s="12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>456110</t>
         </is>
       </c>
       <c r="J49" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000009Fiht/Qw.xhp7wgDSurey8MJvsLUepYFVphTB42JSxvyrcglw</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000EdSPN/c0fLyqrfAiqjJw_FO8PHbsD5OwaRjNBW30cvv8sR2h4</t>
         </is>
       </c>
       <c r="K49" s="14" t="n">
-        <v>84.0</v>
+        <v>77.0</v>
       </c>
       <c r="L49" s="12" t="inlineStr">
         <is>
-          <t>5/23/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="M49" s="12" t="inlineStr">
@@ -3199,7 +3197,7 @@
       </c>
       <c r="O49" s="12" t="inlineStr">
         <is>
-          <t>South Central</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P49" s="8"/>
@@ -3208,7 +3206,7 @@
       <c r="A50" s="7"/>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>Danimer Scientific - Main</t>
+          <t>Russellville Engineered Casting</t>
         </is>
       </c>
       <c r="C50" s="12"/>
@@ -3219,7 +3217,7 @@
       </c>
       <c r="E50" s="12" t="inlineStr">
         <is>
-          <t>Notice 2618</t>
+          <t>Notice 2676</t>
         </is>
       </c>
       <c r="F50" s="12" t="inlineStr">
@@ -3229,45 +3227,45 @@
       </c>
       <c r="G50" s="12" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="H50" s="12" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>8/15/2025</t>
         </is>
       </c>
       <c r="I50" s="12" t="inlineStr">
         <is>
-          <t>541715</t>
+          <t>331523</t>
         </is>
       </c>
       <c r="J50" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000837mj/BpCdZkLmv8k2DspHaWrPpVmhAmHV36BKizZ0KFG0MJ4</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000FFi9l/61uQ9INOfuIWYlwIZ8JoXsBiJs4Dko6LjCcyAAfQ5GY</t>
         </is>
       </c>
       <c r="K50" s="14" t="n">
-        <v>70.0</v>
+        <v>102.0</v>
       </c>
       <c r="L50" s="12" t="inlineStr">
         <is>
-          <t>3/21/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="M50" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t/>
         </is>
       </c>
       <c r="N50" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Union</t>
         </is>
       </c>
       <c r="O50" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="P50" s="8"/>
@@ -3276,7 +3274,7 @@
       <c r="A51" s="7"/>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>Danimer Scientific - Extrusion</t>
+          <t>AHF Products Manufacturing</t>
         </is>
       </c>
       <c r="C51" s="12"/>
@@ -3287,7 +3285,7 @@
       </c>
       <c r="E51" s="12" t="inlineStr">
         <is>
-          <t>Notice 2619</t>
+          <t>Notice 2680</t>
         </is>
       </c>
       <c r="F51" s="12" t="inlineStr">
@@ -3297,35 +3295,35 @@
       </c>
       <c r="G51" s="12" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Pulaski</t>
         </is>
       </c>
       <c r="H51" s="12" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="I51" s="12" t="inlineStr">
         <is>
-          <t>325211</t>
+          <t>321920</t>
         </is>
       </c>
       <c r="J51" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000083a7B/nA7ZESdFZHxMPC1WQvvpAFy44K3Pc1Bfxnu.W5rIx68</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000F8rT7/naKYm5a9T_8DlsI_oosnCgacgmOze7QGz7OtM4JHF7M</t>
         </is>
       </c>
       <c r="K51" s="14" t="n">
-        <v>11.0</v>
+        <v>134.0</v>
       </c>
       <c r="L51" s="12" t="inlineStr">
         <is>
-          <t>3/21/2025</t>
+          <t>12/12/2025</t>
         </is>
       </c>
       <c r="M51" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="N51" s="12" t="inlineStr">
@@ -3335,7 +3333,7 @@
       </c>
       <c r="O51" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Cumberlands</t>
         </is>
       </c>
       <c r="P51" s="8"/>
@@ -3344,7 +3342,7 @@
       <c r="A52" s="7"/>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>PARSONS CORPORATION</t>
+          <t>Kentucky Cooperage</t>
         </is>
       </c>
       <c r="C52" s="12"/>
@@ -3355,7 +3353,7 @@
       </c>
       <c r="E52" s="12" t="inlineStr">
         <is>
-          <t>Notice 2614</t>
+          <t>Notice 2683</t>
         </is>
       </c>
       <c r="F52" s="12" t="inlineStr">
@@ -3365,35 +3363,35 @@
       </c>
       <c r="G52" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Marion</t>
         </is>
       </c>
       <c r="H52" s="12" t="inlineStr">
         <is>
-          <t>3/3/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="I52" s="12" t="inlineStr">
         <is>
-          <t>541330</t>
+          <t>321920</t>
         </is>
       </c>
       <c r="J52" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007Eqh3/LRRjzqecT_ev45Q0V3xqOGfKDrT83C7A_Rb_I9huvDQ</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000FFs13/XZKdKlPnTEgMrjo.02XpzEi1qh9oGcQaEs_Qde2_VQs</t>
         </is>
       </c>
       <c r="K52" s="14" t="n">
-        <v>22.0</v>
+        <v>112.0</v>
       </c>
       <c r="L52" s="12" t="inlineStr">
         <is>
-          <t>5/15/2025</t>
+          <t>10/19/2025</t>
         </is>
       </c>
       <c r="M52" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="N52" s="12" t="inlineStr">
@@ -3403,7 +3401,7 @@
       </c>
       <c r="O52" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Lincoln Trail</t>
         </is>
       </c>
       <c r="P52" s="8"/>
@@ -3412,7 +3410,7 @@
       <c r="A53" s="7"/>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>Battelle Memorial Institute E3</t>
+          <t>Leggett &amp; Platt, Inc.</t>
         </is>
       </c>
       <c r="C53" s="12"/>
@@ -3423,7 +3421,7 @@
       </c>
       <c r="E53" s="12" t="inlineStr">
         <is>
-          <t>Notice 2610</t>
+          <t>Notice 2687</t>
         </is>
       </c>
       <c r="F53" s="12" t="inlineStr">
@@ -3433,30 +3431,30 @@
       </c>
       <c r="G53" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="H53" s="12" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="I53" s="12" t="inlineStr">
         <is>
-          <t>541715</t>
+          <t>337215</t>
         </is>
       </c>
       <c r="J53" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000006tjPG/2I4lYNSkXHeX5zTSEMB1z.CpQcneksKXiOcK4OwU_EI</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000GL1eD/2ODCtUzQn93Szd2x5sMDA4vYra.JHZJKDsfcCGc7r60</t>
         </is>
       </c>
       <c r="K53" s="14" t="n">
-        <v>245.0</v>
+        <v>100.0</v>
       </c>
       <c r="L53" s="12" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="M53" s="12" t="inlineStr">
@@ -3480,7 +3478,7 @@
       <c r="A54" s="7"/>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>Battelle Memorial Institute E3</t>
+          <t>Martinrea Heavy Stamping</t>
         </is>
       </c>
       <c r="C54" s="12"/>
@@ -3491,53 +3489,55 @@
       </c>
       <c r="E54" s="12" t="inlineStr">
         <is>
-          <t>Notice 2611</t>
+          <t>Notice 2691</t>
         </is>
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>Closure</t>
+          <t>Layoff</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Shelby</t>
         </is>
       </c>
       <c r="H54" s="12" t="inlineStr">
         <is>
-          <t>2/21/2025</t>
+          <t>10/1/2025</t>
         </is>
       </c>
       <c r="I54" s="12" t="inlineStr">
         <is>
-          <t>541715</t>
+          <t>336390</t>
         </is>
       </c>
       <c r="J54" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000073ueL/MyYKHtOhEr5wch0_5F84slUZadA.oMb89jKQ6YFUTeM</t>
-        </is>
-      </c>
-      <c r="K54" s="15"/>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000IGL4a/S8SjBZbNJWWHiiVnmQmrpL.J3DvxEiyBvDg2tWrGjhY</t>
+        </is>
+      </c>
+      <c r="K54" s="14" t="n">
+        <v>276.0</v>
+      </c>
       <c r="L54" s="12" t="inlineStr">
         <is>
-          <t>4/24/2025</t>
+          <t>12/5/2025</t>
         </is>
       </c>
       <c r="M54" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t/>
         </is>
       </c>
       <c r="N54" s="12" t="inlineStr">
         <is>
-          <t>Non-Union</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="O54" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P54" s="8"/>
@@ -3546,7 +3546,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>Yokohama Industries Americas Inc/Div 1</t>
+          <t>HJI Supply Chain Solutions</t>
         </is>
       </c>
       <c r="C55" s="12"/>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="E55" s="12" t="inlineStr">
         <is>
-          <t>Notice 2616</t>
+          <t>Notice 2692</t>
         </is>
       </c>
       <c r="F55" s="12" t="inlineStr">
@@ -3567,35 +3567,35 @@
       </c>
       <c r="G55" s="12" t="inlineStr">
         <is>
-          <t>Woodford</t>
+          <t>Jefferson County - Louisville</t>
         </is>
       </c>
       <c r="H55" s="12" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="I55" s="12" t="inlineStr">
         <is>
-          <t>326211</t>
+          <t/>
         </is>
       </c>
       <c r="J55" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000007hkBd/WpGCscLLYhEuUklIAa6oUBlPffAOLjW0asRl4_fKrUA</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000H1neP/X_IPrubANhpX1DDSBme71wJ.lqfuHwJK.sJyAaPyWkU</t>
         </is>
       </c>
       <c r="K55" s="14" t="n">
-        <v>250.0</v>
+        <v>117.0</v>
       </c>
       <c r="L55" s="12" t="inlineStr">
         <is>
-          <t>5/30/2025</t>
+          <t>12/31/2025</t>
         </is>
       </c>
       <c r="M55" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t/>
         </is>
       </c>
       <c r="N55" s="12" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="O55" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Kentuckiana Works</t>
         </is>
       </c>
       <c r="P55" s="8"/>
@@ -3614,7 +3614,7 @@
       <c r="A56" s="7"/>
       <c r="B56" s="12" t="inlineStr">
         <is>
-          <t>Diageo North America Stitzel-Weller Distillery</t>
+          <t>Akebono Brake Corporation</t>
         </is>
       </c>
       <c r="C56" s="12"/>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="E56" s="12" t="inlineStr">
         <is>
-          <t>Notice 2597</t>
+          <t>Notice 2693</t>
         </is>
       </c>
       <c r="F56" s="12" t="inlineStr">
@@ -3635,30 +3635,30 @@
       </c>
       <c r="G56" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Hardin</t>
         </is>
       </c>
       <c r="H56" s="12" t="inlineStr">
         <is>
-          <t>1/31/2025</t>
+          <t>10/3/2025</t>
         </is>
       </c>
       <c r="I56" s="12" t="inlineStr">
         <is>
-          <t>312140</t>
+          <t>336340</t>
         </is>
       </c>
       <c r="J56" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005wXYb/MJ0Y.gZyiFzqcJe6oeoFT0Rv7Fep5xuwOmOCG50VGMk</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000H4wZt/RH33QKwUV9N453vY30x.ruzli6KCxPRqXPzSCAA_A5I</t>
         </is>
       </c>
       <c r="K56" s="14" t="n">
-        <v>57.0</v>
+        <v>450.0</v>
       </c>
       <c r="L56" s="12" t="inlineStr">
         <is>
-          <t>4/30/2025</t>
+          <t>12/31/2026</t>
         </is>
       </c>
       <c r="M56" s="12" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="N56" s="12" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O56" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Lincoln Trail</t>
         </is>
       </c>
       <c r="P56" s="8"/>
@@ -3682,7 +3682,7 @@
       <c r="A57" s="7"/>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>IV Media, LLC</t>
+          <t>PARSONS CORPORATION</t>
         </is>
       </c>
       <c r="C57" s="12"/>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="E57" s="12" t="inlineStr">
         <is>
-          <t>Notice 2594</t>
+          <t>Notice 2695</t>
         </is>
       </c>
       <c r="F57" s="12" t="inlineStr">
@@ -3703,30 +3703,30 @@
       </c>
       <c r="G57" s="12" t="inlineStr">
         <is>
-          <t>Warren</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H57" s="12" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="I57" s="12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>541330</t>
         </is>
       </c>
       <c r="J57" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005rKP7/_6OrzQnap.NgHNQvLioKYFhNgXkiL.uWcLQkWaiFDYo</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HPrDp/eamOO8kmQoCeKhQUbQE_8BvdrGadWnlNANN3HUKk8Gk</t>
         </is>
       </c>
       <c r="K57" s="14" t="n">
-        <v>107.0</v>
+        <v>14.0</v>
       </c>
       <c r="L57" s="12" t="inlineStr">
         <is>
-          <t>3/31/2025</t>
+          <t>12/18/2025</t>
         </is>
       </c>
       <c r="M57" s="12" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O57" s="12" t="inlineStr">
         <is>
-          <t>South Central</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P57" s="8"/>
@@ -3750,7 +3750,7 @@
       <c r="A58" s="7"/>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>Amentum</t>
+          <t>Bechtel Parsons Blue Grass</t>
         </is>
       </c>
       <c r="C58" s="12"/>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E58" s="12" t="inlineStr">
         <is>
-          <t>Notice 2593</t>
+          <t>Notice 2694</t>
         </is>
       </c>
       <c r="F58" s="12" t="inlineStr">
@@ -3776,30 +3776,30 @@
       </c>
       <c r="H58" s="12" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="I58" s="12" t="inlineStr">
         <is>
-          <t>562910</t>
+          <t/>
         </is>
       </c>
       <c r="J58" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005ij8D/gapgoIf5KsAjDZV3wK_1gYFZv36G8D5qEz3uFST_Jvw</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HPptZ/GnQ9cBWSHWfNXxHPCAj0lMJG9IEzqrpYRiqF8xjXhj8</t>
         </is>
       </c>
       <c r="K58" s="14" t="n">
-        <v>90.0</v>
+        <v>14.0</v>
       </c>
       <c r="L58" s="12" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>12/18/2025</t>
         </is>
       </c>
       <c r="M58" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="N58" s="12" t="inlineStr">
@@ -3818,7 +3818,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>PARSONS CORPORATION</t>
+          <t>Wayfair LLC - Erlanger Warehouse</t>
         </is>
       </c>
       <c r="C59" s="12"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="E59" s="12" t="inlineStr">
         <is>
-          <t>Notice 2587</t>
+          <t>Notice 2699</t>
         </is>
       </c>
       <c r="F59" s="12" t="inlineStr">
@@ -3839,35 +3839,35 @@
       </c>
       <c r="G59" s="12" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H59" s="12" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="I59" s="12" t="inlineStr">
         <is>
-          <t>541330</t>
+          <t>454390</t>
         </is>
       </c>
       <c r="J59" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000002V7wv/jCX3hEn5297gzTmwoFA9qbObWxfTpXe8xCX2aUFtEOc</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HYXz3/HKQU9l9I4iDxyz0nhUBJY_.nyBxxJzEaCiXqpHplGB0</t>
         </is>
       </c>
       <c r="K59" s="14" t="n">
-        <v>55.0</v>
+        <v>215.0</v>
       </c>
       <c r="L59" s="12" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>9/30/2026</t>
         </is>
       </c>
       <c r="M59" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t/>
         </is>
       </c>
       <c r="N59" s="12" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="O59" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P59" s="8"/>
@@ -3886,7 +3886,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>Brown-Forman Cooperage</t>
+          <t>Battelle Memorial Institute E3</t>
         </is>
       </c>
       <c r="C60" s="12"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E60" s="12" t="inlineStr">
         <is>
-          <t>Notice 2589</t>
+          <t>Notice 2700</t>
         </is>
       </c>
       <c r="F60" s="12" t="inlineStr">
@@ -3907,30 +3907,30 @@
       </c>
       <c r="G60" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H60" s="12" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="I60" s="12" t="inlineStr">
         <is>
-          <t>312140</t>
+          <t>541715</t>
         </is>
       </c>
       <c r="J60" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005UZAL/7Y0xXkhdLdy4xuWLwpdW2ZEVACIGeVUF1dp33hPXmNw</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HYWDQ/LXGMbijUgJpcB0Ijpf3tpwucoL6MpIfcMMRfEOM2bC4</t>
         </is>
       </c>
       <c r="K60" s="14" t="n">
-        <v>210.0</v>
+        <v>1.0</v>
       </c>
       <c r="L60" s="12" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="M60" s="12" t="inlineStr">
@@ -3940,12 +3940,12 @@
       </c>
       <c r="N60" s="12" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O60" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P60" s="8"/>
@@ -3954,7 +3954,7 @@
       <c r="A61" s="7"/>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>BANDO USA INC</t>
+          <t>PARSONS CORPORATION</t>
         </is>
       </c>
       <c r="C61" s="12"/>
@@ -3965,40 +3965,40 @@
       </c>
       <c r="E61" s="12" t="inlineStr">
         <is>
-          <t>Notice 2592</t>
+          <t>Notice 2702</t>
         </is>
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G61" s="12" t="inlineStr">
         <is>
-          <t>Warren</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="H61" s="12" t="inlineStr">
         <is>
-          <t>1/17/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="I61" s="12" t="inlineStr">
         <is>
-          <t>326220</t>
+          <t>541330</t>
         </is>
       </c>
       <c r="J61" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005gof3/H7JnyP3i85WtzR4gL_28.hHTfjh.mR7IATUxIFY8iV8</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HhW7h/eXlRINsmaeSqoPbXVaJI2Rxf5Xqv5oVMiFrlFilMseg</t>
         </is>
       </c>
       <c r="K61" s="14" t="n">
-        <v>65.0</v>
+        <v>15.0</v>
       </c>
       <c r="L61" s="12" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="M61" s="12" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="O61" s="12" t="inlineStr">
         <is>
-          <t>South Central</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P61" s="8"/>
@@ -4022,7 +4022,7 @@
       <c r="A62" s="7"/>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>Get Insured</t>
+          <t>Comprehensive Logistics</t>
         </is>
       </c>
       <c r="C62" s="12"/>
@@ -4033,45 +4033,45 @@
       </c>
       <c r="E62" s="12" t="inlineStr">
         <is>
-          <t>Notice 2583</t>
+          <t>Notice 2703</t>
         </is>
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>Layoff</t>
+          <t>Closure</t>
         </is>
       </c>
       <c r="G62" s="12" t="inlineStr">
         <is>
-          <t>Out of the State County</t>
+          <t>Boone</t>
         </is>
       </c>
       <c r="H62" s="12" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="I62" s="12" t="inlineStr">
         <is>
-          <t>524210</t>
+          <t/>
         </is>
       </c>
       <c r="J62" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq0000059qm5/FHy2CM844OQ8YZu0K8dWuwdWnOIG.IMp0ztN0Q5C4tw</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Hhhr7/270VLiHSatvCB.99rQQ6yuWO_nnixhy7hk6zWHR_RIY</t>
         </is>
       </c>
       <c r="K62" s="14" t="n">
-        <v>2.0</v>
+        <v>57.0</v>
       </c>
       <c r="L62" s="12" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>12/31/2025</t>
         </is>
       </c>
       <c r="M62" s="12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t/>
         </is>
       </c>
       <c r="N62" s="12" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="O62" s="12" t="inlineStr">
         <is>
-          <t>Out of State</t>
+          <t>Northern Kentucky</t>
         </is>
       </c>
       <c r="P62" s="8"/>
@@ -4090,7 +4090,7 @@
       <c r="A63" s="7"/>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>Jack Cooper Transport (Westport Road Facility)</t>
+          <t>CareAtHome Medical Practice (KY) P.S.C.</t>
         </is>
       </c>
       <c r="C63" s="12"/>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E63" s="12" t="inlineStr">
         <is>
-          <t>Notice 2584</t>
+          <t>Notice 2708</t>
         </is>
       </c>
       <c r="F63" s="12" t="inlineStr">
@@ -4111,30 +4111,30 @@
       </c>
       <c r="G63" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Fayette</t>
         </is>
       </c>
       <c r="H63" s="12" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>10/22/2025</t>
         </is>
       </c>
       <c r="I63" s="12" t="inlineStr">
         <is>
-          <t>484220</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J63" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BhjV/cwcc9u.mTONGnExGB5Cj30qSsAkZbaWFqArLmeY5Ib4</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Hq2AP/Y0rpuv3LB3BixJyj16e1XIVvaE7OWP8OTrNM6seyM8Q</t>
         </is>
       </c>
       <c r="K63" s="14" t="n">
-        <v>100.0</v>
+        <v>163.0</v>
       </c>
       <c r="L63" s="12" t="inlineStr">
         <is>
-          <t>1/31/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="M63" s="12" t="inlineStr">
@@ -4144,12 +4144,12 @@
       </c>
       <c r="N63" s="12" t="inlineStr">
         <is>
-          <t>Union</t>
+          <t>Non-Union</t>
         </is>
       </c>
       <c r="O63" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>Bluegrass</t>
         </is>
       </c>
       <c r="P63" s="8"/>
@@ -4158,7 +4158,7 @@
       <c r="A64" s="7"/>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>Jack Cooper Transport (Grade Lane Facility)</t>
+          <t>ARaymond Tinnerman Manufacturing</t>
         </is>
       </c>
       <c r="C64" s="12"/>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E64" s="12" t="inlineStr">
         <is>
-          <t>Notice 2585</t>
+          <t>Notice 2709</t>
         </is>
       </c>
       <c r="F64" s="12" t="inlineStr">
@@ -4179,30 +4179,30 @@
       </c>
       <c r="G64" s="12" t="inlineStr">
         <is>
-          <t>Jefferson County - Louisville</t>
+          <t>Fleming</t>
         </is>
       </c>
       <c r="H64" s="12" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>10/23/2025</t>
         </is>
       </c>
       <c r="I64" s="12" t="inlineStr">
         <is>
-          <t>484220</t>
+          <t>336370</t>
         </is>
       </c>
       <c r="J64" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000005BqZt/S.8z9TEK.LdUSMiyPyU2OmmvfyB72n_GLoo8WfuIvpQ</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000HqZW9/SNz2Jiy_E5.rfTX50xrRTYLWgnRfTiKdRtg2_AE2A1w</t>
         </is>
       </c>
       <c r="K64" s="14" t="n">
-        <v>89.0</v>
+        <v>112.0</v>
       </c>
       <c r="L64" s="12" t="inlineStr">
         <is>
-          <t>1/31/2025</t>
+          <t>12/31/2026</t>
         </is>
       </c>
       <c r="M64" s="12" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="O64" s="12" t="inlineStr">
         <is>
-          <t>Kentuckiana Works</t>
+          <t>TENCO</t>
         </is>
       </c>
       <c r="P64" s="8"/>
@@ -4226,7 +4226,7 @@
       <c r="A65" s="7"/>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>Federal Express Corporation</t>
+          <t>Fritz Winter North America LP</t>
         </is>
       </c>
       <c r="C65" s="12"/>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E65" s="12" t="inlineStr">
         <is>
-          <t>Notice 2580</t>
+          <t>Notice 2711</t>
         </is>
       </c>
       <c r="F65" s="12" t="inlineStr">
@@ -4247,35 +4247,35 @@
       </c>
       <c r="G65" s="12" t="inlineStr">
         <is>
-          <t>Fayette</t>
+          <t>Simpson</t>
         </is>
       </c>
       <c r="H65" s="12" t="inlineStr">
         <is>
-          <t>1/3/2025</t>
+          <t>10/24/2025</t>
         </is>
       </c>
       <c r="I65" s="12" t="inlineStr">
         <is>
-          <t>492110</t>
+          <t>336390</t>
         </is>
       </c>
       <c r="J65" s="13" t="inlineStr">
         <is>
-          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq000004qYkt/AvUllHe8K0OYPosWtb_.RUCAOOQTvaiOR.Ue72MY04U</t>
+          <t>https://kydev.my.salesforce.com/sfc/p/t00000004X3h/a/eq00000Hy1ST/4bPnNw3hDRNbrK3RFoHfK4eAO1LyxwwWbtqKDLENS0U</t>
         </is>
       </c>
       <c r="K65" s="14" t="n">
-        <v>122.0</v>
+        <v>230.0</v>
       </c>
       <c r="L65" s="12" t="inlineStr">
         <is>
-          <t>3/3/2025</t>
+          <t>3/31/2026</t>
         </is>
       </c>
       <c r="M65" s="12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N65" s="12" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="O65" s="12" t="inlineStr">
         <is>
-          <t>Bluegrass</t>
+          <t>South Central</t>
         </is>
       </c>
       <c r="P65" s="8"/>
@@ -4628,13 +4628,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2332AE-9C5E-4970-89A0-DD9F93F3D189}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093F8560-AB0B-4B41-BECB-EAE628074179}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0039F80-C2B0-4845-86FE-BA9746B5355A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3FDE62-79A2-4492-9C27-DF625E47B44C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B194F80B-67BA-41B2-9934-C686FB425D38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC9DAAD-0338-47DD-BF52-CA82B51B021F}"/>
 </file>
--- a/data/warn-scraper/cache/ky/latest.xlsx
+++ b/data/warn-scraper/cache/ky/latest.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D525B7C6-7416-402B-A49F-A193ECD44273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62755BCA-5F42-4549-AE04-0828F6A4B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AD282845-3ED2-4DEB-AAAA-9FE46DA698B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D229236A-E0F2-4462-B77C-313D664750BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="WARN - Notice Report-2025-12-24" sheetId="1" r:id="rId1"/>
+    <sheet name="Webiste-WARN Notice Rpt 1231202" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0909CBEE-8D99-4475-97C1-1CF715F3148B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BFE1F9-61C9-42CE-B13C-CD8A2BE416C5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4163,13 +4163,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09A939B-2757-4B2A-845F-A58E7FD30BCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C0355E8-D633-4715-A503-0AE0BC2F5796}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D273C120-C65A-49FD-B91A-4DA3C0EF9974}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD055ED-173B-4FFE-A89F-9E12AA745195}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE868741-7EED-4FAC-906E-A316A9D8086E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B56B07-C069-4091-95D9-7FA384329C55}"/>
 </file>